--- a/src/APSSystem.Presentation.WPF/Data/Antecipacao/OrdensDeCliente.xlsx
+++ b/src/APSSystem.Presentation.WPF/Data/Antecipacao/OrdensDeCliente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55159\source\repos\APSSystem_NOVO\src\APSSystem.Presentation.WPF\Data\Antecipacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB905B2-5AFD-438F-816E-3081177C9B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5508730-CC13-46AF-8AF3-F0CBB124480A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31590" yWindow="10200" windowWidth="18180" windowHeight="9885" xr2:uid="{702DC5E7-951B-4331-8240-E292C0DE46CB}"/>
+    <workbookView xWindow="39060" yWindow="10395" windowWidth="18180" windowHeight="9885" xr2:uid="{702DC5E7-951B-4331-8240-E292C0DE46CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,11 @@
     <sheet name="Planilha1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$597</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$596</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="656">
   <si>
     <t>ship_site</t>
   </si>
@@ -1518,9 +1518,6 @@
   </si>
   <si>
     <t>SM51445754</t>
-  </si>
-  <si>
-    <t>SM51445756</t>
   </si>
   <si>
     <t>SM51445757</t>
@@ -2069,7 +2066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2085,7 +2082,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2110,7 +2106,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="5515998066060" refreshedDate="45874.770827777778" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="596" xr:uid="{FBB48B95-F788-4F08-95E5-E74CBAB44080}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:L597" sheet="Sheet1"/>
+    <worksheetSource ref="A1:L596" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="NumeroOrdem" numFmtId="0">
@@ -10983,7 +10979,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C0232FED-1F89-4039-B023-BEA414F4C290}" name="Tabela dinâmica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C0232FED-1F89-4039-B023-BEA414F4C290}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:D41" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -11934,11 +11930,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7608DFC0-548D-4A1C-85C0-9BAB3C631902}">
-  <dimension ref="A1:N597"/>
+  <dimension ref="A1:N596"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11990,11 +11986,11 @@
       <c r="K1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="M1" s="10" t="s">
-        <v>656</v>
+      <c r="M1" s="9" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -28578,7 +28574,7 @@
         <v>5</v>
       </c>
       <c r="H387" s="1">
-        <f t="shared" ref="H387:H450" ca="1" si="12">TODAY()+M387</f>
+        <f t="shared" ref="H387:H449" ca="1" si="12">TODAY()+M387</f>
         <v>45893</v>
       </c>
       <c r="I387">
@@ -28591,7 +28587,7 @@
         <v>6</v>
       </c>
       <c r="L387" s="2">
-        <f t="shared" ref="L387:L450" si="13">J387*I387</f>
+        <f t="shared" ref="L387:L449" si="13">J387*I387</f>
         <v>80</v>
       </c>
       <c r="M387" s="7">
@@ -29463,13 +29459,13 @@
         <v>495</v>
       </c>
       <c r="B408">
-        <v>88986</v>
+        <v>78139</v>
       </c>
       <c r="C408">
         <v>10000</v>
       </c>
       <c r="D408" s="2">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E408" t="s">
         <v>8</v>
@@ -29488,14 +29484,14 @@
         <v>2</v>
       </c>
       <c r="J408" s="2">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="K408" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L408" s="2">
         <f t="shared" si="13"/>
-        <v>158</v>
+        <v>26</v>
       </c>
       <c r="M408" s="7">
         <v>20</v>
@@ -29506,13 +29502,13 @@
         <v>496</v>
       </c>
       <c r="B409">
-        <v>78139</v>
+        <v>851952</v>
       </c>
       <c r="C409">
         <v>10000</v>
       </c>
       <c r="D409" s="2">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E409" t="s">
         <v>8</v>
@@ -29528,7 +29524,7 @@
         <v>45894</v>
       </c>
       <c r="I409">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J409" s="2">
         <v>13</v>
@@ -29538,7 +29534,7 @@
       </c>
       <c r="L409" s="2">
         <f t="shared" si="13"/>
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="M409" s="7">
         <v>20</v>
@@ -29555,7 +29551,7 @@
         <v>10000</v>
       </c>
       <c r="D410" s="2">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E410" t="s">
         <v>8</v>
@@ -29571,7 +29567,7 @@
         <v>45894</v>
       </c>
       <c r="I410">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J410" s="2">
         <v>13</v>
@@ -29581,7 +29577,7 @@
       </c>
       <c r="L410" s="2">
         <f t="shared" si="13"/>
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="M410" s="7">
         <v>20</v>
@@ -29592,13 +29588,13 @@
         <v>498</v>
       </c>
       <c r="B411">
-        <v>851952</v>
+        <v>88020</v>
       </c>
       <c r="C411">
         <v>10000</v>
       </c>
       <c r="D411" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E411" t="s">
         <v>8</v>
@@ -29614,17 +29610,17 @@
         <v>45894</v>
       </c>
       <c r="I411">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J411" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K411" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L411" s="2">
         <f t="shared" si="13"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M411" s="7">
         <v>20</v>
@@ -29635,13 +29631,13 @@
         <v>499</v>
       </c>
       <c r="B412">
-        <v>88020</v>
+        <v>62018</v>
       </c>
       <c r="C412">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="D412" s="2">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E412" t="s">
         <v>8</v>
@@ -29660,14 +29656,14 @@
         <v>4</v>
       </c>
       <c r="J412" s="2">
-        <v>5</v>
+        <v>8.75</v>
       </c>
       <c r="K412" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L412" s="2">
         <f t="shared" si="13"/>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="M412" s="7">
         <v>20</v>
@@ -29700,17 +29696,17 @@
         <v>45894</v>
       </c>
       <c r="I413">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J413" s="2">
-        <v>8.75</v>
+        <v>35.5</v>
       </c>
       <c r="K413" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L413" s="2">
         <f t="shared" si="13"/>
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="M413" s="7">
         <v>20</v>
@@ -29743,17 +29739,17 @@
         <v>45894</v>
       </c>
       <c r="I414">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J414" s="2">
-        <v>35.5</v>
+        <v>12.75</v>
       </c>
       <c r="K414" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L414" s="2">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="M414" s="7">
         <v>20</v>
@@ -29786,7 +29782,7 @@
         <v>45894</v>
       </c>
       <c r="I415">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J415" s="2">
         <v>12.75</v>
@@ -29796,7 +29792,7 @@
       </c>
       <c r="L415" s="2">
         <f t="shared" si="13"/>
-        <v>51</v>
+        <v>153</v>
       </c>
       <c r="M415" s="7">
         <v>20</v>
@@ -29804,13 +29800,13 @@
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>503</v>
+        <v>44</v>
       </c>
       <c r="B416">
-        <v>62018</v>
+        <v>88959</v>
       </c>
       <c r="C416">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="D416" s="2">
         <v>79</v>
@@ -29832,14 +29828,14 @@
         <v>12</v>
       </c>
       <c r="J416" s="2">
-        <v>12.75</v>
+        <v>8.625</v>
       </c>
       <c r="K416" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L416" s="2">
         <f t="shared" si="13"/>
-        <v>153</v>
+        <v>103.5</v>
       </c>
       <c r="M416" s="7">
         <v>20</v>
@@ -29847,7 +29843,7 @@
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>44</v>
+        <v>503</v>
       </c>
       <c r="B417">
         <v>88959</v>
@@ -29872,17 +29868,17 @@
         <v>45894</v>
       </c>
       <c r="I417">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J417" s="2">
-        <v>8.625</v>
+        <v>13</v>
       </c>
       <c r="K417" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L417" s="2">
         <f t="shared" si="13"/>
-        <v>103.5</v>
+        <v>52</v>
       </c>
       <c r="M417" s="7">
         <v>20</v>
@@ -29893,7 +29889,7 @@
         <v>504</v>
       </c>
       <c r="B418">
-        <v>88959</v>
+        <v>88020</v>
       </c>
       <c r="C418">
         <v>10000</v>
@@ -29915,17 +29911,17 @@
         <v>45894</v>
       </c>
       <c r="I418">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J418" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K418" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L418" s="2">
         <f t="shared" si="13"/>
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="M418" s="7">
         <v>20</v>
@@ -29958,17 +29954,17 @@
         <v>45894</v>
       </c>
       <c r="I419">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J419" s="2">
-        <v>9</v>
+        <v>13.25</v>
       </c>
       <c r="K419" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L419" s="2">
         <f t="shared" si="13"/>
-        <v>126</v>
+        <v>26.5</v>
       </c>
       <c r="M419" s="7">
         <v>20</v>
@@ -30001,17 +29997,17 @@
         <v>45894</v>
       </c>
       <c r="I420">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J420" s="2">
-        <v>13.25</v>
+        <v>6</v>
       </c>
       <c r="K420" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L420" s="2">
         <f t="shared" si="13"/>
-        <v>26.5</v>
+        <v>60</v>
       </c>
       <c r="M420" s="7">
         <v>20</v>
@@ -30041,23 +30037,23 @@
       </c>
       <c r="H421" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I421">
         <v>10</v>
       </c>
       <c r="J421" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K421" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L421" s="2">
         <f t="shared" si="13"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M421" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.25">
@@ -30087,17 +30083,17 @@
         <v>45895</v>
       </c>
       <c r="I422">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J422" s="2">
-        <v>7</v>
+        <v>13.25</v>
       </c>
       <c r="K422" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L422" s="2">
         <f t="shared" si="13"/>
-        <v>70</v>
+        <v>26.5</v>
       </c>
       <c r="M422" s="7">
         <v>21</v>
@@ -30130,17 +30126,17 @@
         <v>45895</v>
       </c>
       <c r="I423">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J423" s="2">
-        <v>13.25</v>
+        <v>10</v>
       </c>
       <c r="K423" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L423" s="2">
         <f t="shared" si="13"/>
-        <v>26.5</v>
+        <v>100</v>
       </c>
       <c r="M423" s="7">
         <v>21</v>
@@ -30173,17 +30169,17 @@
         <v>45895</v>
       </c>
       <c r="I424">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J424" s="2">
-        <v>10</v>
+        <v>13.25</v>
       </c>
       <c r="K424" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L424" s="2">
         <f t="shared" si="13"/>
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="M424" s="7">
         <v>21</v>
@@ -30216,7 +30212,7 @@
         <v>45895</v>
       </c>
       <c r="I425">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J425" s="2">
         <v>13.25</v>
@@ -30226,7 +30222,7 @@
       </c>
       <c r="L425" s="2">
         <f t="shared" si="13"/>
-        <v>53</v>
+        <v>26.5</v>
       </c>
       <c r="M425" s="7">
         <v>21</v>
@@ -30259,17 +30255,17 @@
         <v>45895</v>
       </c>
       <c r="I426">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J426" s="2">
-        <v>13.25</v>
+        <v>9</v>
       </c>
       <c r="K426" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L426" s="2">
         <f t="shared" si="13"/>
-        <v>26.5</v>
+        <v>108</v>
       </c>
       <c r="M426" s="7">
         <v>21</v>
@@ -30302,17 +30298,17 @@
         <v>45895</v>
       </c>
       <c r="I427">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J427" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K427" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L427" s="2">
         <f t="shared" si="13"/>
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="M427" s="7">
         <v>21</v>
@@ -30329,7 +30325,7 @@
         <v>10000</v>
       </c>
       <c r="D428" s="2">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="E428" t="s">
         <v>8</v>
@@ -30345,17 +30341,17 @@
         <v>45895</v>
       </c>
       <c r="I428">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J428" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K428" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L428" s="2">
         <f t="shared" si="13"/>
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M428" s="7">
         <v>21</v>
@@ -30372,7 +30368,7 @@
         <v>10000</v>
       </c>
       <c r="D429" s="2">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="E429" t="s">
         <v>8</v>
@@ -30388,17 +30384,17 @@
         <v>45895</v>
       </c>
       <c r="I429">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J429" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K429" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L429" s="2">
         <f t="shared" si="13"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M429" s="7">
         <v>21</v>
@@ -30406,7 +30402,7 @@
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>516</v>
+        <v>74</v>
       </c>
       <c r="B430">
         <v>88020</v>
@@ -30431,17 +30427,17 @@
         <v>45895</v>
       </c>
       <c r="I430">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J430" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K430" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L430" s="2">
         <f t="shared" si="13"/>
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M430" s="7">
         <v>21</v>
@@ -30449,7 +30445,7 @@
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>74</v>
+        <v>516</v>
       </c>
       <c r="B431">
         <v>88020</v>
@@ -30474,17 +30470,17 @@
         <v>45895</v>
       </c>
       <c r="I431">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J431" s="2">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="K431" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L431" s="2">
         <f t="shared" si="13"/>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="M431" s="7">
         <v>21</v>
@@ -30517,17 +30513,17 @@
         <v>45895</v>
       </c>
       <c r="I432">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J432" s="2">
-        <v>21</v>
+        <v>4.5</v>
       </c>
       <c r="K432" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L432" s="2">
         <f t="shared" si="13"/>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M432" s="7">
         <v>21</v>
@@ -30538,13 +30534,13 @@
         <v>518</v>
       </c>
       <c r="B433">
-        <v>88020</v>
+        <v>62018</v>
       </c>
       <c r="C433">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="D433" s="2">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E433" t="s">
         <v>8</v>
@@ -30560,17 +30556,17 @@
         <v>45895</v>
       </c>
       <c r="I433">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J433" s="2">
-        <v>4.5</v>
+        <v>8.25</v>
       </c>
       <c r="K433" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L433" s="2">
         <f t="shared" si="13"/>
-        <v>27</v>
+        <v>16.5</v>
       </c>
       <c r="M433" s="7">
         <v>21</v>
@@ -30578,16 +30574,16 @@
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>519</v>
+        <v>45</v>
       </c>
       <c r="B434">
-        <v>62018</v>
+        <v>551952</v>
       </c>
       <c r="C434">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="D434" s="2">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E434" t="s">
         <v>8</v>
@@ -30606,14 +30602,14 @@
         <v>2</v>
       </c>
       <c r="J434" s="2">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="K434" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L434" s="2">
         <f t="shared" si="13"/>
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="M434" s="7">
         <v>21</v>
@@ -30621,7 +30617,7 @@
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>45</v>
+        <v>519</v>
       </c>
       <c r="B435">
         <v>551952</v>
@@ -30646,17 +30642,17 @@
         <v>45895</v>
       </c>
       <c r="I435">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J435" s="2">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="K435" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L435" s="2">
         <f t="shared" si="13"/>
-        <v>17.5</v>
+        <v>34</v>
       </c>
       <c r="M435" s="7">
         <v>21</v>
@@ -30689,17 +30685,17 @@
         <v>45895</v>
       </c>
       <c r="I436">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J436" s="2">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="K436" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L436" s="2">
         <f t="shared" si="13"/>
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M436" s="7">
         <v>21</v>
@@ -30732,17 +30728,17 @@
         <v>45895</v>
       </c>
       <c r="I437">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J437" s="2">
-        <v>10</v>
+        <v>10.125</v>
       </c>
       <c r="K437" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L437" s="2">
         <f t="shared" si="13"/>
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="M437" s="7">
         <v>21</v>
@@ -30753,13 +30749,13 @@
         <v>522</v>
       </c>
       <c r="B438">
-        <v>551952</v>
+        <v>88020</v>
       </c>
       <c r="C438">
         <v>10000</v>
       </c>
       <c r="D438" s="2">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="E438" t="s">
         <v>8</v>
@@ -30778,14 +30774,14 @@
         <v>8</v>
       </c>
       <c r="J438" s="2">
-        <v>10.125</v>
+        <v>5</v>
       </c>
       <c r="K438" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L438" s="2">
         <f t="shared" si="13"/>
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="M438" s="7">
         <v>21</v>
@@ -30802,7 +30798,7 @@
         <v>10000</v>
       </c>
       <c r="D439" s="2">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="E439" t="s">
         <v>8</v>
@@ -30818,17 +30814,17 @@
         <v>45895</v>
       </c>
       <c r="I439">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J439" s="2">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="K439" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L439" s="2">
         <f t="shared" si="13"/>
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="M439" s="7">
         <v>21</v>
@@ -30864,14 +30860,14 @@
         <v>6</v>
       </c>
       <c r="J440" s="2">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="K440" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L440" s="2">
         <f t="shared" si="13"/>
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="M440" s="7">
         <v>21</v>
@@ -30901,23 +30897,23 @@
       </c>
       <c r="H441" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I441">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J441" s="2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K441" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L441" s="2">
         <f t="shared" si="13"/>
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="M441" s="7">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.25">
@@ -30950,14 +30946,14 @@
         <v>2</v>
       </c>
       <c r="J442" s="2">
-        <v>13</v>
+        <v>26.5</v>
       </c>
       <c r="K442" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L442" s="2">
         <f t="shared" si="13"/>
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="M442" s="7">
         <v>22</v>
@@ -30990,17 +30986,17 @@
         <v>45896</v>
       </c>
       <c r="I443">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J443" s="2">
-        <v>26.5</v>
+        <v>21</v>
       </c>
       <c r="K443" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L443" s="2">
         <f t="shared" si="13"/>
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="M443" s="7">
         <v>22</v>
@@ -31033,17 +31029,17 @@
         <v>45896</v>
       </c>
       <c r="I444">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J444" s="2">
-        <v>21</v>
+        <v>7.25</v>
       </c>
       <c r="K444" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L444" s="2">
         <f t="shared" si="13"/>
-        <v>84</v>
+        <v>72.5</v>
       </c>
       <c r="M444" s="7">
         <v>22</v>
@@ -31060,7 +31056,7 @@
         <v>10000</v>
       </c>
       <c r="D445" s="2">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E445" t="s">
         <v>8</v>
@@ -31076,17 +31072,17 @@
         <v>45896</v>
       </c>
       <c r="I445">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J445" s="2">
-        <v>7.25</v>
+        <v>6</v>
       </c>
       <c r="K445" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L445" s="2">
         <f t="shared" si="13"/>
-        <v>72.5</v>
+        <v>12</v>
       </c>
       <c r="M445" s="7">
         <v>22</v>
@@ -31122,14 +31118,14 @@
         <v>2</v>
       </c>
       <c r="J446" s="2">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K446" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L446" s="2">
         <f t="shared" si="13"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M446" s="7">
         <v>22</v>
@@ -31140,13 +31136,13 @@
         <v>531</v>
       </c>
       <c r="B447">
-        <v>88020</v>
+        <v>88959</v>
       </c>
       <c r="C447">
         <v>10000</v>
       </c>
       <c r="D447" s="2">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E447" t="s">
         <v>8</v>
@@ -31162,17 +31158,17 @@
         <v>45896</v>
       </c>
       <c r="I447">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J447" s="2">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="K447" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L447" s="2">
         <f t="shared" si="13"/>
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="M447" s="7">
         <v>22</v>
@@ -31205,17 +31201,17 @@
         <v>45896</v>
       </c>
       <c r="I448">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J448" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K448" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L448" s="2">
         <f t="shared" si="13"/>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M448" s="7">
         <v>22</v>
@@ -31226,10 +31222,10 @@
         <v>533</v>
       </c>
       <c r="B449">
-        <v>88959</v>
+        <v>62018</v>
       </c>
       <c r="C449">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="D449" s="2">
         <v>79</v>
@@ -31251,14 +31247,14 @@
         <v>8</v>
       </c>
       <c r="J449" s="2">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K449" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L449" s="2">
         <f t="shared" si="13"/>
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="M449" s="7">
         <v>22</v>
@@ -31287,7 +31283,7 @@
         <v>5</v>
       </c>
       <c r="H450" s="1">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ref="H450:H513" ca="1" si="14">TODAY()+M450</f>
         <v>45896</v>
       </c>
       <c r="I450">
@@ -31300,7 +31296,7 @@
         <v>6</v>
       </c>
       <c r="L450" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="L450:L513" si="15">J450*I450</f>
         <v>152</v>
       </c>
       <c r="M450" s="7">
@@ -31330,11 +31326,11 @@
         <v>5</v>
       </c>
       <c r="H451" s="1">
-        <f t="shared" ref="H451:H514" ca="1" si="14">TODAY()+M451</f>
+        <f t="shared" ca="1" si="14"/>
         <v>45896</v>
       </c>
       <c r="I451">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J451" s="2">
         <v>19</v>
@@ -31343,8 +31339,8 @@
         <v>6</v>
       </c>
       <c r="L451" s="2">
-        <f t="shared" ref="L451:L514" si="15">J451*I451</f>
-        <v>152</v>
+        <f t="shared" si="15"/>
+        <v>76</v>
       </c>
       <c r="M451" s="7">
         <v>22</v>
@@ -31377,17 +31373,17 @@
         <v>45896</v>
       </c>
       <c r="I452">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J452" s="2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K452" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L452" s="2">
         <f t="shared" si="15"/>
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="M452" s="7">
         <v>22</v>
@@ -31423,14 +31419,14 @@
         <v>2</v>
       </c>
       <c r="J453" s="2">
-        <v>13</v>
+        <v>26.5</v>
       </c>
       <c r="K453" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L453" s="2">
         <f t="shared" si="15"/>
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="M453" s="7">
         <v>22</v>
@@ -31441,10 +31437,10 @@
         <v>538</v>
       </c>
       <c r="B454">
-        <v>62018</v>
+        <v>88959</v>
       </c>
       <c r="C454">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="D454" s="2">
         <v>79</v>
@@ -31463,17 +31459,17 @@
         <v>45896</v>
       </c>
       <c r="I454">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J454" s="2">
-        <v>26.5</v>
+        <v>8.75</v>
       </c>
       <c r="K454" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L454" s="2">
         <f t="shared" si="15"/>
-        <v>53</v>
+        <v>157.5</v>
       </c>
       <c r="M454" s="7">
         <v>22</v>
@@ -31490,7 +31486,7 @@
         <v>10000</v>
       </c>
       <c r="D455" s="2">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="E455" t="s">
         <v>8</v>
@@ -31506,7 +31502,7 @@
         <v>45896</v>
       </c>
       <c r="I455">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J455" s="2">
         <v>8.75</v>
@@ -31516,7 +31512,7 @@
       </c>
       <c r="L455" s="2">
         <f t="shared" si="15"/>
-        <v>157.5</v>
+        <v>35</v>
       </c>
       <c r="M455" s="7">
         <v>22</v>
@@ -31527,13 +31523,13 @@
         <v>540</v>
       </c>
       <c r="B456">
-        <v>88959</v>
+        <v>88020</v>
       </c>
       <c r="C456">
         <v>10000</v>
       </c>
       <c r="D456" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E456" t="s">
         <v>8</v>
@@ -31549,17 +31545,17 @@
         <v>45896</v>
       </c>
       <c r="I456">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J456" s="2">
-        <v>8.75</v>
+        <v>8.875</v>
       </c>
       <c r="K456" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L456" s="2">
         <f t="shared" si="15"/>
-        <v>35</v>
+        <v>17.75</v>
       </c>
       <c r="M456" s="7">
         <v>22</v>
@@ -31567,7 +31563,7 @@
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>541</v>
+        <v>72</v>
       </c>
       <c r="B457">
         <v>88020</v>
@@ -31595,14 +31591,14 @@
         <v>2</v>
       </c>
       <c r="J457" s="2">
-        <v>8.875</v>
+        <v>11.25</v>
       </c>
       <c r="K457" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L457" s="2">
         <f t="shared" si="15"/>
-        <v>17.75</v>
+        <v>22.5</v>
       </c>
       <c r="M457" s="7">
         <v>22</v>
@@ -31610,7 +31606,7 @@
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B458">
         <v>88020</v>
@@ -31619,7 +31615,7 @@
         <v>10000</v>
       </c>
       <c r="D458" s="2">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="E458" t="s">
         <v>8</v>
@@ -31635,17 +31631,17 @@
         <v>45896</v>
       </c>
       <c r="I458">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J458" s="2">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="K458" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L458" s="2">
         <f t="shared" si="15"/>
-        <v>22.5</v>
+        <v>104</v>
       </c>
       <c r="M458" s="7">
         <v>22</v>
@@ -31653,7 +31649,7 @@
     </row>
     <row r="459" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>77</v>
+        <v>541</v>
       </c>
       <c r="B459">
         <v>88020</v>
@@ -31678,17 +31674,17 @@
         <v>45896</v>
       </c>
       <c r="I459">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J459" s="2">
-        <v>13</v>
+        <v>26.5</v>
       </c>
       <c r="K459" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L459" s="2">
         <f t="shared" si="15"/>
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="M459" s="7">
         <v>22</v>
@@ -31699,7 +31695,7 @@
         <v>542</v>
       </c>
       <c r="B460">
-        <v>88020</v>
+        <v>62018</v>
       </c>
       <c r="C460">
         <v>10000</v>
@@ -31724,14 +31720,14 @@
         <v>2</v>
       </c>
       <c r="J460" s="2">
-        <v>26.5</v>
+        <v>13</v>
       </c>
       <c r="K460" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L460" s="2">
         <f t="shared" si="15"/>
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="M460" s="7">
         <v>22</v>
@@ -31761,23 +31757,23 @@
       </c>
       <c r="H461" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I461">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J461" s="2">
         <v>13</v>
       </c>
       <c r="K461" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L461" s="2">
         <f t="shared" si="15"/>
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="M461" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.25">
@@ -31785,7 +31781,7 @@
         <v>544</v>
       </c>
       <c r="B462">
-        <v>62018</v>
+        <v>88020</v>
       </c>
       <c r="C462">
         <v>10000</v>
@@ -31807,7 +31803,7 @@
         <v>45897</v>
       </c>
       <c r="I462">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J462" s="2">
         <v>13</v>
@@ -31817,7 +31813,7 @@
       </c>
       <c r="L462" s="2">
         <f t="shared" si="15"/>
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="M462" s="7">
         <v>23</v>
@@ -31850,17 +31846,17 @@
         <v>45897</v>
       </c>
       <c r="I463">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J463" s="2">
         <v>13</v>
       </c>
       <c r="K463" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L463" s="2">
         <f t="shared" si="15"/>
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="M463" s="7">
         <v>23</v>
@@ -31893,17 +31889,17 @@
         <v>45897</v>
       </c>
       <c r="I464">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J464" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K464" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L464" s="2">
         <f t="shared" si="15"/>
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M464" s="7">
         <v>23</v>
@@ -31911,7 +31907,7 @@
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>547</v>
+        <v>39</v>
       </c>
       <c r="B465">
         <v>88020</v>
@@ -31936,17 +31932,17 @@
         <v>45897</v>
       </c>
       <c r="I465">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J465" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K465" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L465" s="2">
         <f t="shared" si="15"/>
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M465" s="7">
         <v>23</v>
@@ -31954,7 +31950,7 @@
     </row>
     <row r="466" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>39</v>
+        <v>547</v>
       </c>
       <c r="B466">
         <v>88020</v>
@@ -31979,17 +31975,17 @@
         <v>45897</v>
       </c>
       <c r="I466">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J466" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K466" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L466" s="2">
         <f t="shared" si="15"/>
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="M466" s="7">
         <v>23</v>
@@ -32000,7 +31996,7 @@
         <v>548</v>
       </c>
       <c r="B467">
-        <v>88020</v>
+        <v>851952</v>
       </c>
       <c r="C467">
         <v>10000</v>
@@ -32022,7 +32018,7 @@
         <v>45897</v>
       </c>
       <c r="I467">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J467" s="2">
         <v>13</v>
@@ -32032,7 +32028,7 @@
       </c>
       <c r="L467" s="2">
         <f t="shared" si="15"/>
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="M467" s="7">
         <v>23</v>
@@ -32049,7 +32045,7 @@
         <v>10000</v>
       </c>
       <c r="D468" s="2">
-        <v>79</v>
+        <v>26.5</v>
       </c>
       <c r="E468" t="s">
         <v>8</v>
@@ -32065,7 +32061,7 @@
         <v>45897</v>
       </c>
       <c r="I468">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J468" s="2">
         <v>13</v>
@@ -32075,7 +32071,7 @@
       </c>
       <c r="L468" s="2">
         <f t="shared" si="15"/>
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="M468" s="7">
         <v>23</v>
@@ -32092,7 +32088,7 @@
         <v>10000</v>
       </c>
       <c r="D469" s="2">
-        <v>26.5</v>
+        <v>79</v>
       </c>
       <c r="E469" t="s">
         <v>8</v>
@@ -32108,17 +32104,17 @@
         <v>45897</v>
       </c>
       <c r="I469">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J469" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K469" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L469" s="2">
         <f t="shared" si="15"/>
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="M469" s="7">
         <v>23</v>
@@ -32151,17 +32147,17 @@
         <v>45897</v>
       </c>
       <c r="I470">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J470" s="2">
-        <v>10</v>
+        <v>17.5</v>
       </c>
       <c r="K470" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L470" s="2">
         <f t="shared" si="15"/>
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="M470" s="7">
         <v>23</v>
@@ -32172,7 +32168,7 @@
         <v>552</v>
       </c>
       <c r="B471">
-        <v>851952</v>
+        <v>88020</v>
       </c>
       <c r="C471">
         <v>10000</v>
@@ -32194,17 +32190,17 @@
         <v>45897</v>
       </c>
       <c r="I471">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J471" s="2">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
       <c r="K471" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L471" s="2">
         <f t="shared" si="15"/>
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="M471" s="7">
         <v>23</v>
@@ -32237,17 +32233,17 @@
         <v>45897</v>
       </c>
       <c r="I472">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J472" s="2">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="K472" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L472" s="2">
         <f t="shared" si="15"/>
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="M472" s="7">
         <v>23</v>
@@ -32264,7 +32260,7 @@
         <v>10000</v>
       </c>
       <c r="D473" s="2">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E473" t="s">
         <v>8</v>
@@ -32283,14 +32279,14 @@
         <v>2</v>
       </c>
       <c r="J473" s="2">
-        <v>21</v>
+        <v>11.25</v>
       </c>
       <c r="K473" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L473" s="2">
         <f t="shared" si="15"/>
-        <v>42</v>
+        <v>22.5</v>
       </c>
       <c r="M473" s="7">
         <v>23</v>
@@ -32307,7 +32303,7 @@
         <v>10000</v>
       </c>
       <c r="D474" s="2">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E474" t="s">
         <v>8</v>
@@ -32323,17 +32319,17 @@
         <v>45897</v>
       </c>
       <c r="I474">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J474" s="2">
-        <v>11.25</v>
+        <v>9</v>
       </c>
       <c r="K474" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L474" s="2">
         <f t="shared" si="15"/>
-        <v>22.5</v>
+        <v>126</v>
       </c>
       <c r="M474" s="7">
         <v>23</v>
@@ -32341,7 +32337,7 @@
     </row>
     <row r="475" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>556</v>
+        <v>73</v>
       </c>
       <c r="B475">
         <v>88020</v>
@@ -32366,17 +32362,17 @@
         <v>45897</v>
       </c>
       <c r="I475">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J475" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K475" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L475" s="2">
         <f t="shared" si="15"/>
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="M475" s="7">
         <v>23</v>
@@ -32384,7 +32380,7 @@
     </row>
     <row r="476" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>73</v>
+        <v>556</v>
       </c>
       <c r="B476">
         <v>88020</v>
@@ -32393,7 +32389,7 @@
         <v>10000</v>
       </c>
       <c r="D476" s="2">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E476" t="s">
         <v>8</v>
@@ -32412,14 +32408,14 @@
         <v>2</v>
       </c>
       <c r="J476" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K476" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L476" s="2">
         <f t="shared" si="15"/>
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="M476" s="7">
         <v>23</v>
@@ -32436,7 +32432,7 @@
         <v>10000</v>
       </c>
       <c r="D477" s="2">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E477" t="s">
         <v>8</v>
@@ -32452,17 +32448,17 @@
         <v>45897</v>
       </c>
       <c r="I477">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J477" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K477" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L477" s="2">
         <f t="shared" si="15"/>
-        <v>18</v>
+        <v>132</v>
       </c>
       <c r="M477" s="7">
         <v>23</v>
@@ -32470,7 +32466,7 @@
     </row>
     <row r="478" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>558</v>
+        <v>85</v>
       </c>
       <c r="B478">
         <v>88020</v>
@@ -32495,17 +32491,17 @@
         <v>45897</v>
       </c>
       <c r="I478">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J478" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K478" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L478" s="2">
         <f t="shared" si="15"/>
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="M478" s="7">
         <v>23</v>
@@ -32513,7 +32509,7 @@
     </row>
     <row r="479" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>85</v>
+        <v>558</v>
       </c>
       <c r="B479">
         <v>88020</v>
@@ -32538,17 +32534,17 @@
         <v>45897</v>
       </c>
       <c r="I479">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J479" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K479" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L479" s="2">
         <f t="shared" si="15"/>
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="M479" s="7">
         <v>23</v>
@@ -32581,17 +32577,17 @@
         <v>45897</v>
       </c>
       <c r="I480">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J480" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K480" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L480" s="2">
         <f t="shared" si="15"/>
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="M480" s="7">
         <v>23</v>
@@ -32608,7 +32604,7 @@
         <v>10000</v>
       </c>
       <c r="D481" s="2">
-        <v>79</v>
+        <v>13.5</v>
       </c>
       <c r="E481" t="s">
         <v>8</v>
@@ -32621,23 +32617,23 @@
       </c>
       <c r="H481" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I481">
         <v>2</v>
       </c>
       <c r="J481" s="2">
-        <v>17</v>
+        <v>13.25</v>
       </c>
       <c r="K481" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L481" s="2">
         <f t="shared" si="15"/>
-        <v>34</v>
+        <v>26.5</v>
       </c>
       <c r="M481" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="482" spans="1:13" x14ac:dyDescent="0.25">
@@ -32645,13 +32641,13 @@
         <v>561</v>
       </c>
       <c r="B482">
-        <v>88020</v>
+        <v>851952</v>
       </c>
       <c r="C482">
         <v>10000</v>
       </c>
       <c r="D482" s="2">
-        <v>13.5</v>
+        <v>26.5</v>
       </c>
       <c r="E482" t="s">
         <v>8</v>
@@ -32667,17 +32663,17 @@
         <v>45898</v>
       </c>
       <c r="I482">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J482" s="2">
-        <v>13.25</v>
+        <v>13</v>
       </c>
       <c r="K482" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L482" s="2">
         <f t="shared" si="15"/>
-        <v>26.5</v>
+        <v>52</v>
       </c>
       <c r="M482" s="7">
         <v>24</v>
@@ -32694,7 +32690,7 @@
         <v>10000</v>
       </c>
       <c r="D483" s="2">
-        <v>26.5</v>
+        <v>79</v>
       </c>
       <c r="E483" t="s">
         <v>8</v>
@@ -32710,7 +32706,7 @@
         <v>45898</v>
       </c>
       <c r="I483">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J483" s="2">
         <v>13</v>
@@ -32720,7 +32716,7 @@
       </c>
       <c r="L483" s="2">
         <f t="shared" si="15"/>
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="M483" s="7">
         <v>24</v>
@@ -32731,7 +32727,7 @@
         <v>563</v>
       </c>
       <c r="B484">
-        <v>851952</v>
+        <v>88020</v>
       </c>
       <c r="C484">
         <v>10000</v>
@@ -32753,17 +32749,17 @@
         <v>45898</v>
       </c>
       <c r="I484">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J484" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K484" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L484" s="2">
         <f t="shared" si="15"/>
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="M484" s="7">
         <v>24</v>
@@ -32771,7 +32767,7 @@
     </row>
     <row r="485" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>564</v>
+        <v>54</v>
       </c>
       <c r="B485">
         <v>88020</v>
@@ -32796,17 +32792,17 @@
         <v>45898</v>
       </c>
       <c r="I485">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J485" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K485" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L485" s="2">
         <f t="shared" si="15"/>
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="M485" s="7">
         <v>24</v>
@@ -32814,7 +32810,7 @@
     </row>
     <row r="486" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>54</v>
+        <v>564</v>
       </c>
       <c r="B486">
         <v>88020</v>
@@ -32839,17 +32835,17 @@
         <v>45898</v>
       </c>
       <c r="I486">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J486" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K486" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L486" s="2">
         <f t="shared" si="15"/>
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="M486" s="7">
         <v>24</v>
@@ -32882,17 +32878,17 @@
         <v>45898</v>
       </c>
       <c r="I487">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J487" s="2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K487" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L487" s="2">
         <f t="shared" si="15"/>
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="M487" s="7">
         <v>24</v>
@@ -32903,13 +32899,13 @@
         <v>566</v>
       </c>
       <c r="B488">
-        <v>88020</v>
+        <v>991843</v>
       </c>
       <c r="C488">
         <v>10000</v>
       </c>
       <c r="D488" s="2">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E488" t="s">
         <v>8</v>
@@ -32925,17 +32921,17 @@
         <v>45898</v>
       </c>
       <c r="I488">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J488" s="2">
-        <v>9</v>
+        <v>7.75</v>
       </c>
       <c r="K488" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L488" s="2">
         <f t="shared" si="15"/>
-        <v>18</v>
+        <v>108.5</v>
       </c>
       <c r="M488" s="7">
         <v>24</v>
@@ -32946,13 +32942,13 @@
         <v>567</v>
       </c>
       <c r="B489">
-        <v>991843</v>
+        <v>851952</v>
       </c>
       <c r="C489">
         <v>10000</v>
       </c>
       <c r="D489" s="2">
-        <v>60</v>
+        <v>13.5</v>
       </c>
       <c r="E489" t="s">
         <v>8</v>
@@ -32968,17 +32964,17 @@
         <v>45898</v>
       </c>
       <c r="I489">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J489" s="2">
-        <v>7.75</v>
+        <v>6.5</v>
       </c>
       <c r="K489" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L489" s="2">
         <f t="shared" si="15"/>
-        <v>108.5</v>
+        <v>13</v>
       </c>
       <c r="M489" s="7">
         <v>24</v>
@@ -32986,7 +32982,7 @@
     </row>
     <row r="490" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>568</v>
+        <v>76</v>
       </c>
       <c r="B490">
         <v>851952</v>
@@ -32995,7 +32991,7 @@
         <v>10000</v>
       </c>
       <c r="D490" s="2">
-        <v>13.5</v>
+        <v>79</v>
       </c>
       <c r="E490" t="s">
         <v>8</v>
@@ -33014,14 +33010,14 @@
         <v>2</v>
       </c>
       <c r="J490" s="2">
-        <v>6.5</v>
+        <v>16</v>
       </c>
       <c r="K490" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L490" s="2">
         <f t="shared" si="15"/>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M490" s="7">
         <v>24</v>
@@ -33029,7 +33025,7 @@
     </row>
     <row r="491" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>76</v>
+        <v>568</v>
       </c>
       <c r="B491">
         <v>851952</v>
@@ -33054,17 +33050,17 @@
         <v>45898</v>
       </c>
       <c r="I491">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J491" s="2">
-        <v>16</v>
+        <v>6.75</v>
       </c>
       <c r="K491" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L491" s="2">
         <f t="shared" si="15"/>
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="M491" s="7">
         <v>24</v>
@@ -33097,17 +33093,17 @@
         <v>45898</v>
       </c>
       <c r="I492">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J492" s="2">
-        <v>6.75</v>
+        <v>21</v>
       </c>
       <c r="K492" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L492" s="2">
         <f t="shared" si="15"/>
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="M492" s="7">
         <v>24</v>
@@ -33115,7 +33111,7 @@
     </row>
     <row r="493" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>570</v>
+        <v>46</v>
       </c>
       <c r="B493">
         <v>851952</v>
@@ -33124,7 +33120,7 @@
         <v>10000</v>
       </c>
       <c r="D493" s="2">
-        <v>79</v>
+        <v>13.5</v>
       </c>
       <c r="E493" t="s">
         <v>8</v>
@@ -33140,17 +33136,17 @@
         <v>45898</v>
       </c>
       <c r="I493">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J493" s="2">
-        <v>21</v>
+        <v>6.75</v>
       </c>
       <c r="K493" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L493" s="2">
         <f t="shared" si="15"/>
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M493" s="7">
         <v>24</v>
@@ -33158,7 +33154,7 @@
     </row>
     <row r="494" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>46</v>
+        <v>570</v>
       </c>
       <c r="B494">
         <v>851952</v>
@@ -33183,7 +33179,7 @@
         <v>45898</v>
       </c>
       <c r="I494">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J494" s="2">
         <v>6.75</v>
@@ -33193,7 +33189,7 @@
       </c>
       <c r="L494" s="2">
         <f t="shared" si="15"/>
-        <v>27</v>
+        <v>13.5</v>
       </c>
       <c r="M494" s="7">
         <v>24</v>
@@ -33204,13 +33200,13 @@
         <v>571</v>
       </c>
       <c r="B495">
-        <v>851952</v>
+        <v>88020</v>
       </c>
       <c r="C495">
         <v>10000</v>
       </c>
       <c r="D495" s="2">
-        <v>13.5</v>
+        <v>79</v>
       </c>
       <c r="E495" t="s">
         <v>8</v>
@@ -33226,17 +33222,17 @@
         <v>45898</v>
       </c>
       <c r="I495">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J495" s="2">
-        <v>6.75</v>
+        <v>13</v>
       </c>
       <c r="K495" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L495" s="2">
         <f t="shared" si="15"/>
-        <v>13.5</v>
+        <v>130</v>
       </c>
       <c r="M495" s="7">
         <v>24</v>
@@ -33269,17 +33265,17 @@
         <v>45898</v>
       </c>
       <c r="I496">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J496" s="2">
         <v>13</v>
       </c>
       <c r="K496" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L496" s="2">
         <f t="shared" si="15"/>
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="M496" s="7">
         <v>24</v>
@@ -33315,14 +33311,14 @@
         <v>2</v>
       </c>
       <c r="J497" s="2">
-        <v>13</v>
+        <v>26.5</v>
       </c>
       <c r="K497" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L497" s="2">
         <f t="shared" si="15"/>
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="M497" s="7">
         <v>24</v>
@@ -33355,17 +33351,17 @@
         <v>45898</v>
       </c>
       <c r="I498">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J498" s="2">
-        <v>26.5</v>
+        <v>10</v>
       </c>
       <c r="K498" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L498" s="2">
         <f t="shared" si="15"/>
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="M498" s="7">
         <v>24</v>
@@ -33398,7 +33394,7 @@
         <v>45898</v>
       </c>
       <c r="I499">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J499" s="2">
         <v>10</v>
@@ -33408,7 +33404,7 @@
       </c>
       <c r="L499" s="2">
         <f t="shared" si="15"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="M499" s="7">
         <v>24</v>
@@ -33441,17 +33437,17 @@
         <v>45898</v>
       </c>
       <c r="I500">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J500" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K500" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L500" s="2">
         <f t="shared" si="15"/>
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="M500" s="7">
         <v>24</v>
@@ -33481,28 +33477,28 @@
       </c>
       <c r="H501" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I501">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J501" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K501" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L501" s="2">
         <f t="shared" si="15"/>
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="M501" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="502" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>578</v>
+        <v>71</v>
       </c>
       <c r="B502">
         <v>88020</v>
@@ -33527,17 +33523,17 @@
         <v>45899</v>
       </c>
       <c r="I502">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J502" s="2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K502" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L502" s="2">
         <f t="shared" si="15"/>
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="M502" s="7">
         <v>25</v>
@@ -33545,7 +33541,7 @@
     </row>
     <row r="503" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>71</v>
+        <v>578</v>
       </c>
       <c r="B503">
         <v>88020</v>
@@ -33554,7 +33550,7 @@
         <v>10000</v>
       </c>
       <c r="D503" s="2">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E503" t="s">
         <v>8</v>
@@ -33573,14 +33569,14 @@
         <v>2</v>
       </c>
       <c r="J503" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K503" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L503" s="2">
         <f t="shared" si="15"/>
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="M503" s="7">
         <v>25</v>
@@ -33591,13 +33587,13 @@
         <v>579</v>
       </c>
       <c r="B504">
-        <v>88020</v>
+        <v>551952</v>
       </c>
       <c r="C504">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="D504" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E504" t="s">
         <v>8</v>
@@ -33616,14 +33612,14 @@
         <v>2</v>
       </c>
       <c r="J504" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K504" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L504" s="2">
         <f t="shared" si="15"/>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M504" s="7">
         <v>25</v>
@@ -33637,10 +33633,10 @@
         <v>551952</v>
       </c>
       <c r="C505">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="D505" s="2">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E505" t="s">
         <v>8</v>
@@ -33656,17 +33652,17 @@
         <v>45899</v>
       </c>
       <c r="I505">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J505" s="2">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K505" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L505" s="2">
         <f t="shared" si="15"/>
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M505" s="7">
         <v>25</v>
@@ -33699,17 +33695,17 @@
         <v>45899</v>
       </c>
       <c r="I506">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J506" s="2">
+        <v>17</v>
+      </c>
+      <c r="K506" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="K506" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="L506" s="2">
         <f t="shared" si="15"/>
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="M506" s="7">
         <v>25</v>
@@ -33717,7 +33713,7 @@
     </row>
     <row r="507" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>582</v>
+        <v>61</v>
       </c>
       <c r="B507">
         <v>551952</v>
@@ -33742,17 +33738,17 @@
         <v>45899</v>
       </c>
       <c r="I507">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J507" s="2">
-        <v>17</v>
+        <v>4.5</v>
       </c>
       <c r="K507" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L507" s="2">
         <f t="shared" si="15"/>
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="M507" s="7">
         <v>25</v>
@@ -33760,7 +33756,7 @@
     </row>
     <row r="508" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>61</v>
+        <v>582</v>
       </c>
       <c r="B508">
         <v>551952</v>
@@ -33785,17 +33781,17 @@
         <v>45899</v>
       </c>
       <c r="I508">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J508" s="2">
-        <v>4.5</v>
+        <v>8.75</v>
       </c>
       <c r="K508" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L508" s="2">
         <f t="shared" si="15"/>
-        <v>36</v>
+        <v>52.5</v>
       </c>
       <c r="M508" s="7">
         <v>25</v>
@@ -33828,7 +33824,7 @@
         <v>45899</v>
       </c>
       <c r="I509">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J509" s="2">
         <v>8.75</v>
@@ -33838,7 +33834,7 @@
       </c>
       <c r="L509" s="2">
         <f t="shared" si="15"/>
-        <v>52.5</v>
+        <v>35</v>
       </c>
       <c r="M509" s="7">
         <v>25</v>
@@ -33871,17 +33867,17 @@
         <v>45899</v>
       </c>
       <c r="I510">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J510" s="2">
-        <v>8.75</v>
+        <v>13</v>
       </c>
       <c r="K510" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L510" s="2">
         <f t="shared" si="15"/>
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="M510" s="7">
         <v>25</v>
@@ -33914,17 +33910,17 @@
         <v>45899</v>
       </c>
       <c r="I511">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J511" s="2">
-        <v>13</v>
+        <v>12.75</v>
       </c>
       <c r="K511" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L511" s="2">
         <f t="shared" si="15"/>
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="M511" s="7">
         <v>25</v>
@@ -33935,7 +33931,7 @@
         <v>586</v>
       </c>
       <c r="B512">
-        <v>551952</v>
+        <v>62018</v>
       </c>
       <c r="C512">
         <v>10000</v>
@@ -33957,17 +33953,17 @@
         <v>45899</v>
       </c>
       <c r="I512">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J512" s="2">
-        <v>12.75</v>
+        <v>13</v>
       </c>
       <c r="K512" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L512" s="2">
         <f t="shared" si="15"/>
-        <v>153</v>
+        <v>26</v>
       </c>
       <c r="M512" s="7">
         <v>25</v>
@@ -34000,17 +33996,17 @@
         <v>45899</v>
       </c>
       <c r="I513">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J513" s="2">
-        <v>13</v>
+        <v>9.25</v>
       </c>
       <c r="K513" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L513" s="2">
         <f t="shared" si="15"/>
-        <v>26</v>
+        <v>129.5</v>
       </c>
       <c r="M513" s="7">
         <v>25</v>
@@ -34018,16 +34014,16 @@
     </row>
     <row r="514" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>588</v>
+        <v>47</v>
       </c>
       <c r="B514">
-        <v>62018</v>
+        <v>851952</v>
       </c>
       <c r="C514">
         <v>10000</v>
       </c>
       <c r="D514" s="2">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E514" t="s">
         <v>8</v>
@@ -34039,21 +34035,21 @@
         <v>5</v>
       </c>
       <c r="H514" s="1">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ref="H514:H577" ca="1" si="16">TODAY()+M514</f>
         <v>45899</v>
       </c>
       <c r="I514">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J514" s="2">
-        <v>9.25</v>
+        <v>13</v>
       </c>
       <c r="K514" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L514" s="2">
-        <f t="shared" si="15"/>
-        <v>129.5</v>
+        <f t="shared" ref="L514:L577" si="17">J514*I514</f>
+        <v>26</v>
       </c>
       <c r="M514" s="7">
         <v>25</v>
@@ -34061,16 +34057,16 @@
     </row>
     <row r="515" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>47</v>
+        <v>588</v>
       </c>
       <c r="B515">
-        <v>851952</v>
+        <v>88020</v>
       </c>
       <c r="C515">
         <v>10000</v>
       </c>
       <c r="D515" s="2">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E515" t="s">
         <v>8</v>
@@ -34082,21 +34078,21 @@
         <v>5</v>
       </c>
       <c r="H515" s="1">
-        <f t="shared" ref="H515:H578" ca="1" si="16">TODAY()+M515</f>
+        <f t="shared" ca="1" si="16"/>
         <v>45899</v>
       </c>
       <c r="I515">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J515" s="2">
-        <v>13</v>
+        <v>12.75</v>
       </c>
       <c r="K515" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L515" s="2">
-        <f t="shared" ref="L515:L578" si="17">J515*I515</f>
-        <v>26</v>
+        <f t="shared" si="17"/>
+        <v>153</v>
       </c>
       <c r="M515" s="7">
         <v>25</v>
@@ -34113,7 +34109,7 @@
         <v>10000</v>
       </c>
       <c r="D516" s="2">
-        <v>79</v>
+        <v>26.5</v>
       </c>
       <c r="E516" t="s">
         <v>8</v>
@@ -34129,7 +34125,7 @@
         <v>45899</v>
       </c>
       <c r="I516">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J516" s="2">
         <v>12.75</v>
@@ -34139,7 +34135,7 @@
       </c>
       <c r="L516" s="2">
         <f t="shared" si="17"/>
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="M516" s="7">
         <v>25</v>
@@ -34156,7 +34152,7 @@
         <v>10000</v>
       </c>
       <c r="D517" s="2">
-        <v>26.5</v>
+        <v>10</v>
       </c>
       <c r="E517" t="s">
         <v>8</v>
@@ -34172,17 +34168,17 @@
         <v>45899</v>
       </c>
       <c r="I517">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J517" s="2">
-        <v>12.75</v>
+        <v>10</v>
       </c>
       <c r="K517" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L517" s="2">
         <f t="shared" si="17"/>
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="M517" s="7">
         <v>25</v>
@@ -34199,7 +34195,7 @@
         <v>10000</v>
       </c>
       <c r="D518" s="2">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="E518" t="s">
         <v>8</v>
@@ -34215,17 +34211,17 @@
         <v>45899</v>
       </c>
       <c r="I518">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J518" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K518" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L518" s="2">
         <f t="shared" si="17"/>
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="M518" s="7">
         <v>25</v>
@@ -34258,17 +34254,17 @@
         <v>45899</v>
       </c>
       <c r="I519">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J519" s="2">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="K519" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L519" s="2">
         <f t="shared" si="17"/>
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="M519" s="7">
         <v>25</v>
@@ -34276,7 +34272,7 @@
     </row>
     <row r="520" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>593</v>
+        <v>40</v>
       </c>
       <c r="B520">
         <v>88020</v>
@@ -34304,14 +34300,14 @@
         <v>2</v>
       </c>
       <c r="J520" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K520" s="2" t="s">
         <v>7</v>
       </c>
       <c r="L520" s="2">
         <f t="shared" si="17"/>
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M520" s="7">
         <v>25</v>
@@ -34319,16 +34315,16 @@
     </row>
     <row r="521" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>40</v>
+        <v>593</v>
       </c>
       <c r="B521">
-        <v>88020</v>
+        <v>88512</v>
       </c>
       <c r="C521">
         <v>10000</v>
       </c>
       <c r="D521" s="2">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="E521" t="s">
         <v>8</v>
@@ -34341,37 +34337,37 @@
       </c>
       <c r="H521" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I521">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J521" s="2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K521" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L521" s="2">
         <f t="shared" si="17"/>
+        <v>48</v>
+      </c>
+      <c r="M521" s="7">
         <v>26</v>
-      </c>
-      <c r="M521" s="7">
-        <v>25</v>
       </c>
     </row>
     <row r="522" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>594</v>
+        <v>63</v>
       </c>
       <c r="B522">
-        <v>88512</v>
+        <v>88020</v>
       </c>
       <c r="C522">
         <v>10000</v>
       </c>
       <c r="D522" s="2">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E522" t="s">
         <v>8</v>
@@ -34387,17 +34383,17 @@
         <v>45900</v>
       </c>
       <c r="I522">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J522" s="2">
-        <v>6</v>
+        <v>8.875</v>
       </c>
       <c r="K522" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L522" s="2">
         <f t="shared" si="17"/>
-        <v>48</v>
+        <v>35.5</v>
       </c>
       <c r="M522" s="7">
         <v>26</v>
@@ -34405,7 +34401,7 @@
     </row>
     <row r="523" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>63</v>
+        <v>594</v>
       </c>
       <c r="B523">
         <v>88020</v>
@@ -34414,7 +34410,7 @@
         <v>10000</v>
       </c>
       <c r="D523" s="2">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E523" t="s">
         <v>8</v>
@@ -34430,7 +34426,7 @@
         <v>45900</v>
       </c>
       <c r="I523">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J523" s="2">
         <v>8.875</v>
@@ -34440,7 +34436,7 @@
       </c>
       <c r="L523" s="2">
         <f t="shared" si="17"/>
-        <v>35.5</v>
+        <v>17.75</v>
       </c>
       <c r="M523" s="7">
         <v>26</v>
@@ -34457,7 +34453,7 @@
         <v>10000</v>
       </c>
       <c r="D524" s="2">
-        <v>10</v>
+        <v>7.25</v>
       </c>
       <c r="E524" t="s">
         <v>8</v>
@@ -34476,14 +34472,14 @@
         <v>2</v>
       </c>
       <c r="J524" s="2">
-        <v>8.875</v>
+        <v>5.625</v>
       </c>
       <c r="K524" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L524" s="2">
         <f t="shared" si="17"/>
-        <v>17.75</v>
+        <v>11.25</v>
       </c>
       <c r="M524" s="7">
         <v>26</v>
@@ -34491,7 +34487,7 @@
     </row>
     <row r="525" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>596</v>
+        <v>50</v>
       </c>
       <c r="B525">
         <v>88020</v>
@@ -34500,7 +34496,7 @@
         <v>10000</v>
       </c>
       <c r="D525" s="2">
-        <v>7.25</v>
+        <v>79</v>
       </c>
       <c r="E525" t="s">
         <v>8</v>
@@ -34516,17 +34512,17 @@
         <v>45900</v>
       </c>
       <c r="I525">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J525" s="2">
-        <v>5.625</v>
+        <v>6.875</v>
       </c>
       <c r="K525" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L525" s="2">
         <f t="shared" si="17"/>
-        <v>11.25</v>
+        <v>82.5</v>
       </c>
       <c r="M525" s="7">
         <v>26</v>
@@ -34534,7 +34530,7 @@
     </row>
     <row r="526" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>50</v>
+        <v>596</v>
       </c>
       <c r="B526">
         <v>88020</v>
@@ -34559,17 +34555,17 @@
         <v>45900</v>
       </c>
       <c r="I526">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J526" s="2">
-        <v>6.875</v>
+        <v>5.625</v>
       </c>
       <c r="K526" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L526" s="2">
         <f t="shared" si="17"/>
-        <v>82.5</v>
+        <v>33.75</v>
       </c>
       <c r="M526" s="7">
         <v>26</v>
@@ -34577,7 +34573,7 @@
     </row>
     <row r="527" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>597</v>
+        <v>78</v>
       </c>
       <c r="B527">
         <v>88020</v>
@@ -34602,17 +34598,17 @@
         <v>45900</v>
       </c>
       <c r="I527">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J527" s="2">
-        <v>5.625</v>
+        <v>17</v>
       </c>
       <c r="K527" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L527" s="2">
         <f t="shared" si="17"/>
-        <v>33.75</v>
+        <v>34</v>
       </c>
       <c r="M527" s="7">
         <v>26</v>
@@ -34620,13 +34616,13 @@
     </row>
     <row r="528" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>78</v>
+        <v>597</v>
       </c>
       <c r="B528">
-        <v>88020</v>
+        <v>851952</v>
       </c>
       <c r="C528">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="D528" s="2">
         <v>79</v>
@@ -34645,17 +34641,17 @@
         <v>45900</v>
       </c>
       <c r="I528">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J528" s="2">
         <v>17</v>
       </c>
       <c r="K528" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L528" s="2">
         <f t="shared" si="17"/>
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="M528" s="7">
         <v>26</v>
@@ -34688,17 +34684,17 @@
         <v>45900</v>
       </c>
       <c r="I529">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J529" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K529" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L529" s="2">
         <f t="shared" si="17"/>
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="M529" s="7">
         <v>26</v>
@@ -34706,16 +34702,16 @@
     </row>
     <row r="530" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>599</v>
+        <v>59</v>
       </c>
       <c r="B530">
-        <v>851952</v>
+        <v>88020</v>
       </c>
       <c r="C530">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="D530" s="2">
-        <v>79</v>
+        <v>26.5</v>
       </c>
       <c r="E530" t="s">
         <v>8</v>
@@ -34731,17 +34727,17 @@
         <v>45900</v>
       </c>
       <c r="I530">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J530" s="2">
-        <v>10</v>
+        <v>12.75</v>
       </c>
       <c r="K530" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L530" s="2">
         <f t="shared" si="17"/>
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="M530" s="7">
         <v>26</v>
@@ -34749,16 +34745,16 @@
     </row>
     <row r="531" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>59</v>
+        <v>599</v>
       </c>
       <c r="B531">
-        <v>88020</v>
+        <v>62018</v>
       </c>
       <c r="C531">
         <v>10000</v>
       </c>
       <c r="D531" s="2">
-        <v>26.5</v>
+        <v>15.75</v>
       </c>
       <c r="E531" t="s">
         <v>8</v>
@@ -34774,17 +34770,17 @@
         <v>45900</v>
       </c>
       <c r="I531">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J531" s="2">
-        <v>12.75</v>
+        <v>13</v>
       </c>
       <c r="K531" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L531" s="2">
         <f t="shared" si="17"/>
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="M531" s="7">
         <v>26</v>
@@ -34801,7 +34797,7 @@
         <v>10000</v>
       </c>
       <c r="D532" s="2">
-        <v>15.75</v>
+        <v>79</v>
       </c>
       <c r="E532" t="s">
         <v>8</v>
@@ -34817,7 +34813,7 @@
         <v>45900</v>
       </c>
       <c r="I532">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J532" s="2">
         <v>13</v>
@@ -34827,7 +34823,7 @@
       </c>
       <c r="L532" s="2">
         <f t="shared" si="17"/>
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="M532" s="7">
         <v>26</v>
@@ -34835,7 +34831,7 @@
     </row>
     <row r="533" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>601</v>
+        <v>66</v>
       </c>
       <c r="B533">
         <v>62018</v>
@@ -34844,7 +34840,7 @@
         <v>10000</v>
       </c>
       <c r="D533" s="2">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="E533" t="s">
         <v>8</v>
@@ -34860,7 +34856,7 @@
         <v>45900</v>
       </c>
       <c r="I533">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J533" s="2">
         <v>13</v>
@@ -34870,7 +34866,7 @@
       </c>
       <c r="L533" s="2">
         <f t="shared" si="17"/>
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="M533" s="7">
         <v>26</v>
@@ -34878,16 +34874,16 @@
     </row>
     <row r="534" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B534">
-        <v>62018</v>
+        <v>88020</v>
       </c>
       <c r="C534">
         <v>10000</v>
       </c>
       <c r="D534" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E534" t="s">
         <v>8</v>
@@ -34903,17 +34899,17 @@
         <v>45900</v>
       </c>
       <c r="I534">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J534" s="2">
-        <v>13</v>
+        <v>4.75</v>
       </c>
       <c r="K534" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L534" s="2">
         <f t="shared" si="17"/>
-        <v>26</v>
+        <v>28.5</v>
       </c>
       <c r="M534" s="7">
         <v>26</v>
@@ -34921,7 +34917,7 @@
     </row>
     <row r="535" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>62</v>
+        <v>601</v>
       </c>
       <c r="B535">
         <v>88020</v>
@@ -34930,7 +34926,7 @@
         <v>10000</v>
       </c>
       <c r="D535" s="2">
-        <v>17</v>
+        <v>11.25</v>
       </c>
       <c r="E535" t="s">
         <v>8</v>
@@ -34946,17 +34942,17 @@
         <v>45900</v>
       </c>
       <c r="I535">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J535" s="2">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K535" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L535" s="2">
         <f t="shared" si="17"/>
-        <v>28.5</v>
+        <v>18</v>
       </c>
       <c r="M535" s="7">
         <v>26</v>
@@ -34973,7 +34969,7 @@
         <v>10000</v>
       </c>
       <c r="D536" s="2">
-        <v>11.25</v>
+        <v>6</v>
       </c>
       <c r="E536" t="s">
         <v>8</v>
@@ -34989,7 +34985,7 @@
         <v>45900</v>
       </c>
       <c r="I536">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J536" s="2">
         <v>4.5</v>
@@ -34999,7 +34995,7 @@
       </c>
       <c r="L536" s="2">
         <f t="shared" si="17"/>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="M536" s="7">
         <v>26</v>
@@ -35016,7 +35012,7 @@
         <v>10000</v>
       </c>
       <c r="D537" s="2">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E537" t="s">
         <v>8</v>
@@ -35032,17 +35028,17 @@
         <v>45900</v>
       </c>
       <c r="I537">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J537" s="2">
-        <v>4.5</v>
+        <v>6.75</v>
       </c>
       <c r="K537" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L537" s="2">
         <f t="shared" si="17"/>
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="M537" s="7">
         <v>26</v>
@@ -35059,7 +35055,7 @@
         <v>10000</v>
       </c>
       <c r="D538" s="2">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="E538" t="s">
         <v>8</v>
@@ -35075,7 +35071,7 @@
         <v>45900</v>
       </c>
       <c r="I538">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J538" s="2">
         <v>6.75</v>
@@ -35085,7 +35081,7 @@
       </c>
       <c r="L538" s="2">
         <f t="shared" si="17"/>
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="M538" s="7">
         <v>26</v>
@@ -35118,17 +35114,17 @@
         <v>45900</v>
       </c>
       <c r="I539">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J539" s="2">
-        <v>6.75</v>
+        <v>10</v>
       </c>
       <c r="K539" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L539" s="2">
         <f t="shared" si="17"/>
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="M539" s="7">
         <v>26</v>
@@ -35145,7 +35141,7 @@
         <v>10000</v>
       </c>
       <c r="D540" s="2">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="E540" t="s">
         <v>8</v>
@@ -35161,17 +35157,17 @@
         <v>45900</v>
       </c>
       <c r="I540">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J540" s="2">
-        <v>10</v>
+        <v>6.75</v>
       </c>
       <c r="K540" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L540" s="2">
         <f t="shared" si="17"/>
-        <v>20</v>
+        <v>40.5</v>
       </c>
       <c r="M540" s="7">
         <v>26</v>
@@ -35188,7 +35184,7 @@
         <v>10000</v>
       </c>
       <c r="D541" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E541" t="s">
         <v>8</v>
@@ -35201,23 +35197,23 @@
       </c>
       <c r="H541" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I541">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J541" s="2">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="K541" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L541" s="2">
         <f t="shared" si="17"/>
-        <v>40.5</v>
+        <v>28</v>
       </c>
       <c r="M541" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="542" spans="1:13" x14ac:dyDescent="0.25">
@@ -35250,14 +35246,14 @@
         <v>4</v>
       </c>
       <c r="J542" s="2">
-        <v>7</v>
+        <v>7.25</v>
       </c>
       <c r="K542" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L542" s="2">
         <f t="shared" si="17"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M542" s="7">
         <v>27</v>
@@ -35268,13 +35264,13 @@
         <v>609</v>
       </c>
       <c r="B543">
-        <v>88020</v>
+        <v>62018</v>
       </c>
       <c r="C543">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="D543" s="2">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E543" t="s">
         <v>8</v>
@@ -35290,17 +35286,17 @@
         <v>45901</v>
       </c>
       <c r="I543">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J543" s="2">
-        <v>7.25</v>
+        <v>8.5</v>
       </c>
       <c r="K543" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L543" s="2">
         <f t="shared" si="17"/>
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M543" s="7">
         <v>27</v>
@@ -35311,13 +35307,13 @@
         <v>610</v>
       </c>
       <c r="B544">
-        <v>62018</v>
+        <v>88020</v>
       </c>
       <c r="C544">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="D544" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E544" t="s">
         <v>8</v>
@@ -35336,14 +35332,14 @@
         <v>2</v>
       </c>
       <c r="J544" s="2">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="K544" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L544" s="2">
         <f t="shared" si="17"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M544" s="7">
         <v>27</v>
@@ -35354,13 +35350,13 @@
         <v>611</v>
       </c>
       <c r="B545">
-        <v>88020</v>
+        <v>851952</v>
       </c>
       <c r="C545">
         <v>10000</v>
       </c>
       <c r="D545" s="2">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E545" t="s">
         <v>8</v>
@@ -35379,14 +35375,14 @@
         <v>2</v>
       </c>
       <c r="J545" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K545" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L545" s="2">
         <f t="shared" si="17"/>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M545" s="7">
         <v>27</v>
@@ -35419,17 +35415,17 @@
         <v>45901</v>
       </c>
       <c r="I546">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J546" s="2">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="K546" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L546" s="2">
         <f t="shared" si="17"/>
-        <v>26</v>
+        <v>132</v>
       </c>
       <c r="M546" s="7">
         <v>27</v>
@@ -35440,13 +35436,13 @@
         <v>613</v>
       </c>
       <c r="B547">
-        <v>851952</v>
+        <v>88020</v>
       </c>
       <c r="C547">
         <v>10000</v>
       </c>
       <c r="D547" s="2">
-        <v>79</v>
+        <v>26.5</v>
       </c>
       <c r="E547" t="s">
         <v>8</v>
@@ -35465,14 +35461,14 @@
         <v>8</v>
       </c>
       <c r="J547" s="2">
-        <v>16.5</v>
+        <v>6</v>
       </c>
       <c r="K547" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L547" s="2">
         <f t="shared" si="17"/>
-        <v>132</v>
+        <v>48</v>
       </c>
       <c r="M547" s="7">
         <v>27</v>
@@ -35489,7 +35485,7 @@
         <v>10000</v>
       </c>
       <c r="D548" s="2">
-        <v>26.5</v>
+        <v>79</v>
       </c>
       <c r="E548" t="s">
         <v>8</v>
@@ -35505,17 +35501,17 @@
         <v>45901</v>
       </c>
       <c r="I548">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J548" s="2">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="K548" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L548" s="2">
         <f t="shared" si="17"/>
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="M548" s="7">
         <v>27</v>
@@ -35551,14 +35547,14 @@
         <v>2</v>
       </c>
       <c r="J549" s="2">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="K549" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L549" s="2">
         <f t="shared" si="17"/>
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="M549" s="7">
         <v>27</v>
@@ -35569,10 +35565,10 @@
         <v>616</v>
       </c>
       <c r="B550">
-        <v>88020</v>
+        <v>62018</v>
       </c>
       <c r="C550">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="D550" s="2">
         <v>79</v>
@@ -35591,17 +35587,17 @@
         <v>45901</v>
       </c>
       <c r="I550">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J550" s="2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K550" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L550" s="2">
         <f t="shared" si="17"/>
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="M550" s="7">
         <v>27</v>
@@ -35618,7 +35614,7 @@
         <v>15000</v>
       </c>
       <c r="D551" s="2">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="E551" t="s">
         <v>8</v>
@@ -35634,7 +35630,7 @@
         <v>45901</v>
       </c>
       <c r="I551">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J551" s="2">
         <v>19</v>
@@ -35644,7 +35640,7 @@
       </c>
       <c r="L551" s="2">
         <f t="shared" si="17"/>
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="M551" s="7">
         <v>27</v>
@@ -35661,7 +35657,7 @@
         <v>15000</v>
       </c>
       <c r="D552" s="2">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="E552" t="s">
         <v>8</v>
@@ -35677,17 +35673,17 @@
         <v>45901</v>
       </c>
       <c r="I552">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J552" s="2">
-        <v>19</v>
+        <v>12.75</v>
       </c>
       <c r="K552" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L552" s="2">
         <f t="shared" si="17"/>
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="M552" s="7">
         <v>27</v>
@@ -35698,13 +35694,13 @@
         <v>619</v>
       </c>
       <c r="B553">
-        <v>62018</v>
+        <v>88512</v>
       </c>
       <c r="C553">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="D553" s="2">
-        <v>79</v>
+        <v>11.25</v>
       </c>
       <c r="E553" t="s">
         <v>8</v>
@@ -35720,17 +35716,17 @@
         <v>45901</v>
       </c>
       <c r="I553">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J553" s="2">
-        <v>12.75</v>
+        <v>5</v>
       </c>
       <c r="K553" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L553" s="2">
         <f t="shared" si="17"/>
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="M553" s="7">
         <v>27</v>
@@ -35738,7 +35734,7 @@
     </row>
     <row r="554" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>620</v>
+        <v>69</v>
       </c>
       <c r="B554">
         <v>88512</v>
@@ -35747,7 +35743,7 @@
         <v>10000</v>
       </c>
       <c r="D554" s="2">
-        <v>11.25</v>
+        <v>17</v>
       </c>
       <c r="E554" t="s">
         <v>8</v>
@@ -35763,7 +35759,7 @@
         <v>45901</v>
       </c>
       <c r="I554">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J554" s="2">
         <v>5</v>
@@ -35773,7 +35769,7 @@
       </c>
       <c r="L554" s="2">
         <f t="shared" si="17"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M554" s="7">
         <v>27</v>
@@ -35781,7 +35777,7 @@
     </row>
     <row r="555" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>69</v>
+        <v>620</v>
       </c>
       <c r="B555">
         <v>88512</v>
@@ -35790,7 +35786,7 @@
         <v>10000</v>
       </c>
       <c r="D555" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E555" t="s">
         <v>8</v>
@@ -35806,17 +35802,17 @@
         <v>45901</v>
       </c>
       <c r="I555">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J555" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K555" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L555" s="2">
         <f t="shared" si="17"/>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M555" s="7">
         <v>27</v>
@@ -35827,13 +35823,13 @@
         <v>621</v>
       </c>
       <c r="B556">
-        <v>88512</v>
+        <v>88020</v>
       </c>
       <c r="C556">
         <v>10000</v>
       </c>
       <c r="D556" s="2">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="E556" t="s">
         <v>8</v>
@@ -35849,17 +35845,17 @@
         <v>45901</v>
       </c>
       <c r="I556">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J556" s="2">
-        <v>6</v>
+        <v>11.875</v>
       </c>
       <c r="K556" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L556" s="2">
         <f t="shared" si="17"/>
-        <v>48</v>
+        <v>23.75</v>
       </c>
       <c r="M556" s="7">
         <v>27</v>
@@ -35895,14 +35891,14 @@
         <v>2</v>
       </c>
       <c r="J557" s="2">
-        <v>11.875</v>
+        <v>12.375</v>
       </c>
       <c r="K557" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L557" s="2">
         <f t="shared" si="17"/>
-        <v>23.75</v>
+        <v>24.75</v>
       </c>
       <c r="M557" s="7">
         <v>27</v>
@@ -35935,17 +35931,17 @@
         <v>45901</v>
       </c>
       <c r="I558">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J558" s="2">
-        <v>12.375</v>
+        <v>11.25</v>
       </c>
       <c r="K558" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L558" s="2">
         <f t="shared" si="17"/>
-        <v>24.75</v>
+        <v>45</v>
       </c>
       <c r="M558" s="7">
         <v>27</v>
@@ -35953,7 +35949,7 @@
     </row>
     <row r="559" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>624</v>
+        <v>49</v>
       </c>
       <c r="B559">
         <v>88020</v>
@@ -35978,17 +35974,17 @@
         <v>45901</v>
       </c>
       <c r="I559">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J559" s="2">
-        <v>11.25</v>
+        <v>30</v>
       </c>
       <c r="K559" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L559" s="2">
         <f t="shared" si="17"/>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="M559" s="7">
         <v>27</v>
@@ -35996,7 +35992,7 @@
     </row>
     <row r="560" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>49</v>
+        <v>624</v>
       </c>
       <c r="B560">
         <v>88020</v>
@@ -36021,17 +36017,17 @@
         <v>45901</v>
       </c>
       <c r="I560">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J560" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="K560" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L560" s="2">
         <f t="shared" si="17"/>
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="M560" s="7">
         <v>27</v>
@@ -36061,23 +36057,23 @@
       </c>
       <c r="H561" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I561">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J561" s="2">
-        <v>13</v>
+        <v>7.875</v>
       </c>
       <c r="K561" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L561" s="2">
         <f t="shared" si="17"/>
-        <v>104</v>
+        <v>31.5</v>
       </c>
       <c r="M561" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="562" spans="1:13" x14ac:dyDescent="0.25">
@@ -36107,17 +36103,17 @@
         <v>45902</v>
       </c>
       <c r="I562">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J562" s="2">
-        <v>7.875</v>
+        <v>11.25</v>
       </c>
       <c r="K562" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L562" s="2">
         <f t="shared" si="17"/>
-        <v>31.5</v>
+        <v>22.5</v>
       </c>
       <c r="M562" s="7">
         <v>28</v>
@@ -36128,7 +36124,7 @@
         <v>627</v>
       </c>
       <c r="B563">
-        <v>88020</v>
+        <v>62018</v>
       </c>
       <c r="C563">
         <v>10000</v>
@@ -36153,14 +36149,14 @@
         <v>2</v>
       </c>
       <c r="J563" s="2">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="K563" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L563" s="2">
         <f t="shared" si="17"/>
-        <v>22.5</v>
+        <v>26</v>
       </c>
       <c r="M563" s="7">
         <v>28</v>
@@ -36171,13 +36167,13 @@
         <v>628</v>
       </c>
       <c r="B564">
-        <v>62018</v>
+        <v>551952</v>
       </c>
       <c r="C564">
         <v>10000</v>
       </c>
       <c r="D564" s="2">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="E564" t="s">
         <v>8</v>
@@ -36196,14 +36192,14 @@
         <v>2</v>
       </c>
       <c r="J564" s="2">
-        <v>13</v>
+        <v>6.75</v>
       </c>
       <c r="K564" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L564" s="2">
         <f t="shared" si="17"/>
-        <v>26</v>
+        <v>13.5</v>
       </c>
       <c r="M564" s="7">
         <v>28</v>
@@ -36239,14 +36235,14 @@
         <v>2</v>
       </c>
       <c r="J565" s="2">
-        <v>6.75</v>
+        <v>8.5</v>
       </c>
       <c r="K565" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L565" s="2">
         <f t="shared" si="17"/>
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="M565" s="7">
         <v>28</v>
@@ -36257,13 +36253,13 @@
         <v>630</v>
       </c>
       <c r="B566">
-        <v>551952</v>
+        <v>62018</v>
       </c>
       <c r="C566">
         <v>10000</v>
       </c>
       <c r="D566" s="2">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="E566" t="s">
         <v>8</v>
@@ -36279,17 +36275,17 @@
         <v>45902</v>
       </c>
       <c r="I566">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J566" s="2">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="K566" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L566" s="2">
         <f t="shared" si="17"/>
-        <v>17</v>
+        <v>87.5</v>
       </c>
       <c r="M566" s="7">
         <v>28</v>
@@ -36322,17 +36318,17 @@
         <v>45902</v>
       </c>
       <c r="I567">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J567" s="2">
-        <v>8.75</v>
+        <v>21</v>
       </c>
       <c r="K567" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L567" s="2">
         <f t="shared" si="17"/>
-        <v>87.5</v>
+        <v>42</v>
       </c>
       <c r="M567" s="7">
         <v>28</v>
@@ -36343,13 +36339,13 @@
         <v>632</v>
       </c>
       <c r="B568">
-        <v>62018</v>
+        <v>78139</v>
       </c>
       <c r="C568">
         <v>10000</v>
       </c>
       <c r="D568" s="2">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="E568" t="s">
         <v>8</v>
@@ -36365,17 +36361,17 @@
         <v>45902</v>
       </c>
       <c r="I568">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J568" s="2">
-        <v>21</v>
+        <v>6.5</v>
       </c>
       <c r="K568" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L568" s="2">
         <f t="shared" si="17"/>
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="M568" s="7">
         <v>28</v>
@@ -36408,17 +36404,17 @@
         <v>45902</v>
       </c>
       <c r="I569">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J569" s="2">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="K569" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L569" s="2">
         <f t="shared" si="17"/>
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="M569" s="7">
         <v>28</v>
@@ -36494,17 +36490,17 @@
         <v>45902</v>
       </c>
       <c r="I571">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J571" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K571" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L571" s="2">
         <f t="shared" si="17"/>
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="M571" s="7">
         <v>28</v>
@@ -36537,17 +36533,17 @@
         <v>45902</v>
       </c>
       <c r="I572">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J572" s="2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K572" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L572" s="2">
         <f t="shared" si="17"/>
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="M572" s="7">
         <v>28</v>
@@ -36558,13 +36554,13 @@
         <v>637</v>
       </c>
       <c r="B573">
-        <v>78139</v>
+        <v>62018</v>
       </c>
       <c r="C573">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="D573" s="2">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E573" t="s">
         <v>8</v>
@@ -36580,17 +36576,17 @@
         <v>45902</v>
       </c>
       <c r="I573">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J573" s="2">
         <v>13</v>
       </c>
       <c r="K573" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L573" s="2">
         <f t="shared" si="17"/>
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="M573" s="7">
         <v>28</v>
@@ -36598,7 +36594,7 @@
     </row>
     <row r="574" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>638</v>
+        <v>24</v>
       </c>
       <c r="B574">
         <v>62018</v>
@@ -36607,7 +36603,7 @@
         <v>15000</v>
       </c>
       <c r="D574" s="2">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E574" t="s">
         <v>8</v>
@@ -36623,7 +36619,7 @@
         <v>45902</v>
       </c>
       <c r="I574">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J574" s="2">
         <v>13</v>
@@ -36633,7 +36629,7 @@
       </c>
       <c r="L574" s="2">
         <f t="shared" si="17"/>
-        <v>156</v>
+        <v>26</v>
       </c>
       <c r="M574" s="7">
         <v>28</v>
@@ -36641,16 +36637,16 @@
     </row>
     <row r="575" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>24</v>
+        <v>638</v>
       </c>
       <c r="B575">
-        <v>62018</v>
+        <v>851952</v>
       </c>
       <c r="C575">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="D575" s="2">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E575" t="s">
         <v>8</v>
@@ -36666,7 +36662,7 @@
         <v>45902</v>
       </c>
       <c r="I575">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J575" s="2">
         <v>13</v>
@@ -36676,7 +36672,7 @@
       </c>
       <c r="L575" s="2">
         <f t="shared" si="17"/>
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="M575" s="7">
         <v>28</v>
@@ -36684,10 +36680,10 @@
     </row>
     <row r="576" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>639</v>
+        <v>64</v>
       </c>
       <c r="B576">
-        <v>851952</v>
+        <v>62018</v>
       </c>
       <c r="C576">
         <v>10000</v>
@@ -36709,10 +36705,10 @@
         <v>45902</v>
       </c>
       <c r="I576">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J576" s="2">
-        <v>13</v>
+        <v>9.75</v>
       </c>
       <c r="K576" s="2" t="s">
         <v>6</v>
@@ -36727,7 +36723,7 @@
     </row>
     <row r="577" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>64</v>
+        <v>639</v>
       </c>
       <c r="B577">
         <v>62018</v>
@@ -36736,7 +36732,7 @@
         <v>10000</v>
       </c>
       <c r="D577" s="2">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="E577" t="s">
         <v>8</v>
@@ -36752,17 +36748,17 @@
         <v>45902</v>
       </c>
       <c r="I577">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J577" s="2">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="K577" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L577" s="2">
         <f t="shared" si="17"/>
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="M577" s="7">
         <v>28</v>
@@ -36779,7 +36775,7 @@
         <v>10000</v>
       </c>
       <c r="D578" s="2">
-        <v>10</v>
+        <v>6.75</v>
       </c>
       <c r="E578" t="s">
         <v>8</v>
@@ -36791,21 +36787,21 @@
         <v>5</v>
       </c>
       <c r="H578" s="1">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ref="H578:H596" ca="1" si="18">TODAY()+M578</f>
         <v>45902</v>
       </c>
       <c r="I578">
         <v>2</v>
       </c>
       <c r="J578" s="2">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="K578" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L578" s="2">
-        <f t="shared" si="17"/>
-        <v>20</v>
+        <f t="shared" ref="L578:L585" si="19">J578*I578</f>
+        <v>13</v>
       </c>
       <c r="M578" s="7">
         <v>28</v>
@@ -36813,7 +36809,7 @@
     </row>
     <row r="579" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>641</v>
+        <v>11</v>
       </c>
       <c r="B579">
         <v>62018</v>
@@ -36822,7 +36818,7 @@
         <v>10000</v>
       </c>
       <c r="D579" s="2">
-        <v>6.75</v>
+        <v>13</v>
       </c>
       <c r="E579" t="s">
         <v>8</v>
@@ -36834,21 +36830,21 @@
         <v>5</v>
       </c>
       <c r="H579" s="1">
-        <f t="shared" ref="H579:H597" ca="1" si="18">TODAY()+M579</f>
+        <f t="shared" ca="1" si="18"/>
         <v>45902</v>
       </c>
       <c r="I579">
         <v>2</v>
       </c>
       <c r="J579" s="2">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="K579" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L579" s="2">
-        <f t="shared" ref="L579:L586" si="19">J579*I579</f>
-        <v>13</v>
+        <f t="shared" si="19"/>
+        <v>26</v>
       </c>
       <c r="M579" s="7">
         <v>28</v>
@@ -36856,7 +36852,7 @@
     </row>
     <row r="580" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B580">
         <v>62018</v>
@@ -36865,7 +36861,7 @@
         <v>10000</v>
       </c>
       <c r="D580" s="2">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E580" t="s">
         <v>8</v>
@@ -36881,7 +36877,7 @@
         <v>45902</v>
       </c>
       <c r="I580">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J580" s="2">
         <v>13</v>
@@ -36891,7 +36887,7 @@
       </c>
       <c r="L580" s="2">
         <f t="shared" si="19"/>
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="M580" s="7">
         <v>28</v>
@@ -36899,10 +36895,10 @@
     </row>
     <row r="581" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>70</v>
+        <v>641</v>
       </c>
       <c r="B581">
-        <v>62018</v>
+        <v>88020</v>
       </c>
       <c r="C581">
         <v>10000</v>
@@ -36921,7 +36917,7 @@
       </c>
       <c r="H581" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I581">
         <v>12</v>
@@ -36937,7 +36933,7 @@
         <v>156</v>
       </c>
       <c r="M581" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="582" spans="1:13" x14ac:dyDescent="0.25">
@@ -36967,17 +36963,17 @@
         <v>45903</v>
       </c>
       <c r="I582">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J582" s="2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K582" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L582" s="2">
         <f t="shared" si="19"/>
-        <v>156</v>
+        <v>16</v>
       </c>
       <c r="M582" s="7">
         <v>29</v>
@@ -37010,17 +37006,17 @@
         <v>45903</v>
       </c>
       <c r="I583">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J583" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K583" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L583" s="2">
         <f t="shared" si="19"/>
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M583" s="7">
         <v>29</v>
@@ -37053,17 +37049,17 @@
         <v>45903</v>
       </c>
       <c r="I584">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J584" s="2">
-        <v>9</v>
+        <v>6.75</v>
       </c>
       <c r="K584" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L584" s="2">
         <f t="shared" si="19"/>
-        <v>36</v>
+        <v>40.5</v>
       </c>
       <c r="M584" s="7">
         <v>29</v>
@@ -37071,7 +37067,7 @@
     </row>
     <row r="585" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>645</v>
+        <v>23</v>
       </c>
       <c r="B585">
         <v>88020</v>
@@ -37096,17 +37092,17 @@
         <v>45903</v>
       </c>
       <c r="I585">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J585" s="2">
-        <v>6.75</v>
+        <v>8.5</v>
       </c>
       <c r="K585" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L585" s="2">
         <f t="shared" si="19"/>
-        <v>40.5</v>
+        <v>34</v>
       </c>
       <c r="M585" s="7">
         <v>29</v>
@@ -37114,7 +37110,7 @@
     </row>
     <row r="586" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>23</v>
+        <v>645</v>
       </c>
       <c r="B586">
         <v>88020</v>
@@ -37139,17 +37135,17 @@
         <v>45903</v>
       </c>
       <c r="I586">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J586" s="2">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="K586" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L586" s="2">
-        <f t="shared" si="19"/>
-        <v>34</v>
+        <f>J586*I586</f>
+        <v>26</v>
       </c>
       <c r="M586" s="7">
         <v>29</v>
@@ -37166,7 +37162,7 @@
         <v>10000</v>
       </c>
       <c r="D587" s="2">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E587" t="s">
         <v>8</v>
@@ -37191,7 +37187,7 @@
         <v>6</v>
       </c>
       <c r="L587" s="2">
-        <f>J587*I587</f>
+        <f t="shared" ref="L587:L596" si="20">J587*I587</f>
         <v>26</v>
       </c>
       <c r="M587" s="7">
@@ -37203,13 +37199,13 @@
         <v>647</v>
       </c>
       <c r="B588">
-        <v>88020</v>
+        <v>62018</v>
       </c>
       <c r="C588">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="D588" s="2">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E588" t="s">
         <v>8</v>
@@ -37225,7 +37221,7 @@
         <v>45903</v>
       </c>
       <c r="I588">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J588" s="2">
         <v>13</v>
@@ -37234,8 +37230,8 @@
         <v>6</v>
       </c>
       <c r="L588" s="2">
-        <f t="shared" ref="L588:L597" si="20">J588*I588</f>
-        <v>26</v>
+        <f t="shared" si="20"/>
+        <v>156</v>
       </c>
       <c r="M588" s="7">
         <v>29</v>
@@ -37268,7 +37264,7 @@
         <v>45903</v>
       </c>
       <c r="I589">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J589" s="2">
         <v>13</v>
@@ -37278,7 +37274,7 @@
       </c>
       <c r="L589" s="2">
         <f t="shared" si="20"/>
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="M589" s="7">
         <v>29</v>
@@ -37311,17 +37307,17 @@
         <v>45903</v>
       </c>
       <c r="I590">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J590" s="2">
-        <v>13</v>
+        <v>26.5</v>
       </c>
       <c r="K590" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L590" s="2">
         <f t="shared" si="20"/>
-        <v>104</v>
+        <v>53</v>
       </c>
       <c r="M590" s="7">
         <v>29</v>
@@ -37332,13 +37328,13 @@
         <v>650</v>
       </c>
       <c r="B591">
-        <v>62018</v>
+        <v>88020</v>
       </c>
       <c r="C591">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="D591" s="2">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="E591" t="s">
         <v>8</v>
@@ -37357,14 +37353,14 @@
         <v>2</v>
       </c>
       <c r="J591" s="2">
-        <v>26.5</v>
+        <v>8.25</v>
       </c>
       <c r="K591" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L591" s="2">
         <f t="shared" si="20"/>
-        <v>53</v>
+        <v>16.5</v>
       </c>
       <c r="M591" s="7">
         <v>29</v>
@@ -37400,14 +37396,14 @@
         <v>2</v>
       </c>
       <c r="J592" s="2">
-        <v>8.25</v>
+        <v>7.25</v>
       </c>
       <c r="K592" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L592" s="2">
         <f t="shared" si="20"/>
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="M592" s="7">
         <v>29</v>
@@ -37424,7 +37420,7 @@
         <v>10000</v>
       </c>
       <c r="D593" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E593" t="s">
         <v>8</v>
@@ -37443,14 +37439,14 @@
         <v>2</v>
       </c>
       <c r="J593" s="2">
-        <v>7.25</v>
+        <v>13</v>
       </c>
       <c r="K593" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L593" s="2">
         <f t="shared" si="20"/>
-        <v>14.5</v>
+        <v>26</v>
       </c>
       <c r="M593" s="7">
         <v>29</v>
@@ -37458,7 +37454,7 @@
     </row>
     <row r="594" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>653</v>
+        <v>13</v>
       </c>
       <c r="B594">
         <v>88020</v>
@@ -37467,7 +37463,7 @@
         <v>10000</v>
       </c>
       <c r="D594" s="2">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E594" t="s">
         <v>8</v>
@@ -37483,7 +37479,7 @@
         <v>45903</v>
       </c>
       <c r="I594">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J594" s="2">
         <v>13</v>
@@ -37493,7 +37489,7 @@
       </c>
       <c r="L594" s="2">
         <f t="shared" si="20"/>
-        <v>26</v>
+        <v>156</v>
       </c>
       <c r="M594" s="7">
         <v>29</v>
@@ -37501,10 +37497,10 @@
     </row>
     <row r="595" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>13</v>
+        <v>653</v>
       </c>
       <c r="B595">
-        <v>88020</v>
+        <v>88959</v>
       </c>
       <c r="C595">
         <v>10000</v>
@@ -37526,17 +37522,17 @@
         <v>45903</v>
       </c>
       <c r="I595">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J595" s="2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K595" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L595" s="2">
         <f t="shared" si="20"/>
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="M595" s="7">
         <v>29</v>
@@ -37569,69 +37565,26 @@
         <v>45903</v>
       </c>
       <c r="I596">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J596" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K596" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L596" s="2">
         <f t="shared" si="20"/>
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="M596" s="7">
         <v>29</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A597" t="s">
-        <v>655</v>
-      </c>
-      <c r="B597">
-        <v>88959</v>
-      </c>
-      <c r="C597">
-        <v>10000</v>
-      </c>
-      <c r="D597" s="2">
-        <v>79</v>
-      </c>
-      <c r="E597" t="s">
-        <v>8</v>
-      </c>
-      <c r="F597" t="s">
-        <v>4</v>
-      </c>
-      <c r="G597" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H597" s="1">
-        <f t="shared" ca="1" si="18"/>
-        <v>45903</v>
-      </c>
-      <c r="I597">
-        <v>4</v>
-      </c>
-      <c r="J597" s="2">
-        <v>13</v>
-      </c>
-      <c r="K597" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L597" s="2">
-        <f t="shared" si="20"/>
-        <v>52</v>
-      </c>
-      <c r="M597" s="7">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K597" xr:uid="{7608DFC0-548D-4A1C-85C0-9BAB3C631902}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K597">
-      <sortCondition ref="H1:H597"/>
+  <autoFilter ref="A1:K596" xr:uid="{7608DFC0-548D-4A1C-85C0-9BAB3C631902}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K596">
+      <sortCondition ref="H1:H596"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -37757,13 +37710,13 @@
       <c r="A6" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6">
         <v>494.5</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6">
         <v>127.5</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6">
         <v>622</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -37795,13 +37748,13 @@
       <c r="A7" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7">
         <v>261.21000000000004</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7">
         <v>375.5</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7">
         <v>636.71</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -37833,13 +37786,13 @@
       <c r="A8" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8">
         <v>474</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8">
         <v>76.5</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8">
         <v>550.5</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -37871,11 +37824,10 @@
       <c r="A9" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9">
         <v>484.125</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9">
+      <c r="D9">
         <v>484.125</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -37904,13 +37856,13 @@
       <c r="A10" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10">
         <v>303</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10">
         <v>94.25</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10">
         <v>397.25</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -37942,13 +37894,13 @@
       <c r="A11" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11">
         <v>823.125</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11">
         <v>230.5</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11">
         <v>1053.625</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -37980,13 +37932,13 @@
       <c r="A12" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12">
         <v>614.625</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12">
         <v>262.25</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12">
         <v>876.875</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -38018,13 +37970,13 @@
       <c r="A13" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13">
         <v>295.25</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13">
         <v>199.75</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13">
         <v>495</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -38056,13 +38008,13 @@
       <c r="A14" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14">
         <v>378.6875</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14">
         <v>339.875</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14">
         <v>718.5625</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -38094,13 +38046,13 @@
       <c r="A15" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15">
         <v>261.75</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15">
         <v>304</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15">
         <v>565.75</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -38132,11 +38084,10 @@
       <c r="A16" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16">
         <v>227.75</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9">
+      <c r="D16">
         <v>227.75</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -38165,11 +38116,10 @@
       <c r="A17" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17">
         <v>499.25</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9">
+      <c r="D17">
         <v>499.25</v>
       </c>
       <c r="G17" s="6" t="s">
@@ -38198,13 +38148,13 @@
       <c r="A18" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18">
         <v>493.875</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18">
         <v>541.625</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18">
         <v>1035.5</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -38236,11 +38186,10 @@
       <c r="A19" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19">
         <v>221.25</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9">
+      <c r="D19">
         <v>221.25</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -38269,13 +38218,13 @@
       <c r="A20" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20">
         <v>228.875</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20">
         <v>89</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20">
         <v>317.875</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -38307,11 +38256,10 @@
       <c r="A21" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21">
         <v>100</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9">
+      <c r="D21">
         <v>100</v>
       </c>
       <c r="G21" s="6" t="s">
@@ -38340,11 +38288,10 @@
       <c r="A22" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22">
         <v>467.75</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9">
+      <c r="D22">
         <v>467.75</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -38373,11 +38320,10 @@
       <c r="A23" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23">
         <v>277.25</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9">
+      <c r="D23">
         <v>277.25</v>
       </c>
       <c r="G23" s="6" t="s">
@@ -38406,13 +38352,13 @@
       <c r="A24" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24">
         <v>731.875</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24">
         <v>85</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24">
         <v>816.875</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -38444,13 +38390,13 @@
       <c r="A25" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25">
         <v>507.5</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25">
         <v>153.5</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25">
         <v>661</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -38482,11 +38428,10 @@
       <c r="A26" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26">
         <v>805.625</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9">
+      <c r="D26">
         <v>805.625</v>
       </c>
       <c r="G26" s="6" t="s">
@@ -38515,11 +38460,10 @@
       <c r="A27" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27">
         <v>385</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9">
+      <c r="D27">
         <v>385</v>
       </c>
       <c r="G27" s="6" t="s">
@@ -38548,13 +38492,13 @@
       <c r="A28" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28">
         <v>823.5</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28">
         <v>163.25</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28">
         <v>986.75</v>
       </c>
       <c r="G28" s="6" t="s">
@@ -38586,13 +38530,13 @@
       <c r="A29" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29">
         <v>426.875</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29">
         <v>229.5</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29">
         <v>656.375</v>
       </c>
       <c r="G29" s="6" t="s">
@@ -38624,11 +38568,10 @@
       <c r="A30" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30">
         <v>525.5</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9">
+      <c r="D30">
         <v>525.5</v>
       </c>
       <c r="G30" s="6" t="s">
@@ -38657,11 +38600,10 @@
       <c r="A31" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31">
         <v>496.5</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9">
+      <c r="D31">
         <v>496.5</v>
       </c>
       <c r="G31" s="6" t="s">
@@ -38690,13 +38632,13 @@
       <c r="A32" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32">
         <v>396.25</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32">
         <v>13</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32">
         <v>409.25</v>
       </c>
       <c r="G32" s="6" t="s">
@@ -38728,11 +38670,10 @@
       <c r="A33" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33">
         <v>167.25</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9">
+      <c r="D33">
         <v>167.25</v>
       </c>
       <c r="G33" s="6" t="s">
@@ -38761,11 +38702,10 @@
       <c r="A34" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34">
         <v>321.375</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9">
+      <c r="D34">
         <v>321.375</v>
       </c>
       <c r="G34" s="6" t="s">
@@ -38794,13 +38734,13 @@
       <c r="A35" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="9">
+      <c r="B35">
         <v>411</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35">
         <v>86.5</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35">
         <v>497.5</v>
       </c>
       <c r="G35" s="6" t="s">
@@ -38832,13 +38772,13 @@
       <c r="A36" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36">
         <v>126</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36">
         <v>171.5</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36">
         <v>297.5</v>
       </c>
       <c r="G36" s="6" t="s">
@@ -38870,13 +38810,13 @@
       <c r="A37" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B37">
         <v>538.25</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37">
         <v>91</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37">
         <v>629.25</v>
       </c>
       <c r="G37" s="6" t="s">
@@ -38908,13 +38848,13 @@
       <c r="A38" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38">
         <v>273.75</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38">
         <v>156.5</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38">
         <v>430.25</v>
       </c>
       <c r="G38" s="6" t="s">
@@ -38946,11 +38886,10 @@
       <c r="A39" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B39">
         <v>91</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9">
+      <c r="D39">
         <v>91</v>
       </c>
       <c r="G39" s="6" t="s">
@@ -38979,11 +38918,10 @@
       <c r="A40" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40">
         <v>77</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9">
+      <c r="D40">
         <v>77</v>
       </c>
       <c r="G40" s="6" t="s">
@@ -39012,13 +38950,13 @@
       <c r="A41" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41">
         <v>14010.522499999999</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41">
         <v>3790.5</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41">
         <v>17801.022499999999</v>
       </c>
       <c r="G41" s="6" t="s">

--- a/src/APSSystem.Presentation.WPF/Data/Antecipacao/OrdensDeCliente.xlsx
+++ b/src/APSSystem.Presentation.WPF/Data/Antecipacao/OrdensDeCliente.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
-  <workbookPr/>
+  <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55159\source\repos\APSSystem_NOVO\src\APSSystem.Presentation.WPF\Data\Antecipacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5508730-CC13-46AF-8AF3-F0CBB124480A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BA09F5-0A53-4BF4-B682-BD6CF162D8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39060" yWindow="10395" windowWidth="18180" windowHeight="9885" xr2:uid="{702DC5E7-951B-4331-8240-E292C0DE46CB}"/>
+    <workbookView xWindow="39405" yWindow="10740" windowWidth="18180" windowHeight="9885" xr2:uid="{702DC5E7-951B-4331-8240-E292C0DE46CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -11930,6 +11930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7608DFC0-548D-4A1C-85C0-9BAB3C631902}">
+  <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:N596"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
@@ -12017,7 +12018,7 @@
       </c>
       <c r="H2" s="1">
         <f ca="1">TODAY()+M2</f>
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="I2">
         <v>12</v>
@@ -12060,7 +12061,7 @@
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H66" ca="1" si="0">TODAY()+M3</f>
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -12103,7 +12104,7 @@
       </c>
       <c r="H4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="I4">
         <v>6</v>
@@ -12146,7 +12147,7 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -12192,7 +12193,7 @@
       </c>
       <c r="H6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="I6">
         <v>12</v>
@@ -12235,7 +12236,7 @@
       </c>
       <c r="H7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -12278,7 +12279,7 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="I8">
         <v>4</v>
@@ -12321,7 +12322,7 @@
       </c>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -12364,7 +12365,7 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -12407,7 +12408,7 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="I11">
         <v>12</v>
@@ -12450,7 +12451,7 @@
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="I12">
         <v>12</v>
@@ -12493,7 +12494,7 @@
       </c>
       <c r="H13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -12536,7 +12537,7 @@
       </c>
       <c r="H14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -12579,7 +12580,7 @@
       </c>
       <c r="H15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -12622,7 +12623,7 @@
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="I16">
         <v>6</v>
@@ -12665,7 +12666,7 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -12708,7 +12709,7 @@
       </c>
       <c r="H18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -12751,7 +12752,7 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -12794,7 +12795,7 @@
       </c>
       <c r="H20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="I20">
         <v>4</v>
@@ -12837,7 +12838,7 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -12880,7 +12881,7 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -12923,7 +12924,7 @@
       </c>
       <c r="H23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -12966,7 +12967,7 @@
       </c>
       <c r="H24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="I24">
         <v>12</v>
@@ -13009,7 +13010,7 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="I25">
         <v>12</v>
@@ -13052,7 +13053,7 @@
       </c>
       <c r="H26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="I26">
         <v>12</v>
@@ -13095,7 +13096,7 @@
       </c>
       <c r="H27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="I27">
         <v>6</v>
@@ -13138,7 +13139,7 @@
       </c>
       <c r="H28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="I28">
         <v>8</v>
@@ -13181,7 +13182,7 @@
       </c>
       <c r="H29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -13224,7 +13225,7 @@
       </c>
       <c r="H30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -13267,7 +13268,7 @@
       </c>
       <c r="H31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="I31">
         <v>4</v>
@@ -13310,7 +13311,7 @@
       </c>
       <c r="H32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -13353,7 +13354,7 @@
       </c>
       <c r="H33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -13396,7 +13397,7 @@
       </c>
       <c r="H34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="I34">
         <v>8</v>
@@ -13439,7 +13440,7 @@
       </c>
       <c r="H35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -13482,7 +13483,7 @@
       </c>
       <c r="H36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -13525,7 +13526,7 @@
       </c>
       <c r="H37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -13568,7 +13569,7 @@
       </c>
       <c r="H38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="I38">
         <v>6</v>
@@ -13611,7 +13612,7 @@
       </c>
       <c r="H39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="I39">
         <v>6</v>
@@ -13654,7 +13655,7 @@
       </c>
       <c r="H40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="I40">
         <v>4</v>
@@ -13697,7 +13698,7 @@
       </c>
       <c r="H41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="I41">
         <v>2</v>
@@ -13740,7 +13741,7 @@
       </c>
       <c r="H42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="I42">
         <v>14</v>
@@ -13783,7 +13784,7 @@
       </c>
       <c r="H43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="I43">
         <v>2</v>
@@ -13826,7 +13827,7 @@
       </c>
       <c r="H44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="I44">
         <v>2</v>
@@ -13869,7 +13870,7 @@
       </c>
       <c r="H45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="I45">
         <v>2</v>
@@ -13912,7 +13913,7 @@
       </c>
       <c r="H46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="I46">
         <v>10</v>
@@ -13955,7 +13956,7 @@
       </c>
       <c r="H47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="I47">
         <v>4</v>
@@ -13998,7 +13999,7 @@
       </c>
       <c r="H48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -14041,7 +14042,7 @@
       </c>
       <c r="H49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="I49">
         <v>4</v>
@@ -14084,7 +14085,7 @@
       </c>
       <c r="H50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -14127,7 +14128,7 @@
       </c>
       <c r="H51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="I51">
         <v>2</v>
@@ -14170,7 +14171,7 @@
       </c>
       <c r="H52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="I52">
         <v>4</v>
@@ -14213,7 +14214,7 @@
       </c>
       <c r="H53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="I53">
         <v>18</v>
@@ -14256,7 +14257,7 @@
       </c>
       <c r="H54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="I54">
         <v>2</v>
@@ -14299,7 +14300,7 @@
       </c>
       <c r="H55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="I55">
         <v>12</v>
@@ -14342,7 +14343,7 @@
       </c>
       <c r="H56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="I56">
         <v>2</v>
@@ -14385,7 +14386,7 @@
       </c>
       <c r="H57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="I57">
         <v>2</v>
@@ -14428,7 +14429,7 @@
       </c>
       <c r="H58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="I58">
         <v>14</v>
@@ -14471,7 +14472,7 @@
       </c>
       <c r="H59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="I59">
         <v>2</v>
@@ -14514,7 +14515,7 @@
       </c>
       <c r="H60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="I60">
         <v>12</v>
@@ -14557,7 +14558,7 @@
       </c>
       <c r="H61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45878</v>
       </c>
       <c r="I61">
         <v>6</v>
@@ -14600,7 +14601,7 @@
       </c>
       <c r="H62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45879</v>
       </c>
       <c r="I62">
         <v>2</v>
@@ -14643,7 +14644,7 @@
       </c>
       <c r="H63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45879</v>
       </c>
       <c r="I63">
         <v>2</v>
@@ -14686,7 +14687,7 @@
       </c>
       <c r="H64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45879</v>
       </c>
       <c r="I64">
         <v>2</v>
@@ -14729,7 +14730,7 @@
       </c>
       <c r="H65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45879</v>
       </c>
       <c r="I65">
         <v>10</v>
@@ -14772,7 +14773,7 @@
       </c>
       <c r="H66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45879</v>
       </c>
       <c r="I66">
         <v>2</v>
@@ -14815,7 +14816,7 @@
       </c>
       <c r="H67" s="1">
         <f t="shared" ref="H67:H130" ca="1" si="2">TODAY()+M67</f>
-        <v>45877</v>
+        <v>45879</v>
       </c>
       <c r="I67">
         <v>10</v>
@@ -14858,7 +14859,7 @@
       </c>
       <c r="H68" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45877</v>
+        <v>45879</v>
       </c>
       <c r="I68">
         <v>16</v>
@@ -14901,7 +14902,7 @@
       </c>
       <c r="H69" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45877</v>
+        <v>45879</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -14944,7 +14945,7 @@
       </c>
       <c r="H70" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45877</v>
+        <v>45879</v>
       </c>
       <c r="I70">
         <v>4</v>
@@ -14987,7 +14988,7 @@
       </c>
       <c r="H71" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45877</v>
+        <v>45879</v>
       </c>
       <c r="I71">
         <v>2</v>
@@ -15030,7 +15031,7 @@
       </c>
       <c r="H72" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45877</v>
+        <v>45879</v>
       </c>
       <c r="I72">
         <v>2</v>
@@ -15073,7 +15074,7 @@
       </c>
       <c r="H73" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45877</v>
+        <v>45879</v>
       </c>
       <c r="I73">
         <v>2</v>
@@ -15116,7 +15117,7 @@
       </c>
       <c r="H74" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45877</v>
+        <v>45879</v>
       </c>
       <c r="I74">
         <v>2</v>
@@ -15159,7 +15160,7 @@
       </c>
       <c r="H75" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45877</v>
+        <v>45879</v>
       </c>
       <c r="I75">
         <v>2</v>
@@ -15202,7 +15203,7 @@
       </c>
       <c r="H76" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45877</v>
+        <v>45879</v>
       </c>
       <c r="I76">
         <v>16</v>
@@ -15245,7 +15246,7 @@
       </c>
       <c r="H77" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45877</v>
+        <v>45879</v>
       </c>
       <c r="I77">
         <v>2</v>
@@ -15288,7 +15289,7 @@
       </c>
       <c r="H78" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45877</v>
+        <v>45879</v>
       </c>
       <c r="I78">
         <v>2</v>
@@ -15331,7 +15332,7 @@
       </c>
       <c r="H79" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45877</v>
+        <v>45879</v>
       </c>
       <c r="I79">
         <v>2</v>
@@ -15374,7 +15375,7 @@
       </c>
       <c r="H80" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45877</v>
+        <v>45879</v>
       </c>
       <c r="I80">
         <v>2</v>
@@ -15417,7 +15418,7 @@
       </c>
       <c r="H81" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45877</v>
+        <v>45879</v>
       </c>
       <c r="I81">
         <v>14</v>
@@ -15460,7 +15461,7 @@
       </c>
       <c r="H82" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="I82">
         <v>2</v>
@@ -15503,7 +15504,7 @@
       </c>
       <c r="H83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="I83">
         <v>2</v>
@@ -15546,7 +15547,7 @@
       </c>
       <c r="H84" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="I84">
         <v>16</v>
@@ -15589,7 +15590,7 @@
       </c>
       <c r="H85" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="I85">
         <v>2</v>
@@ -15632,7 +15633,7 @@
       </c>
       <c r="H86" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="I86">
         <v>16</v>
@@ -15675,7 +15676,7 @@
       </c>
       <c r="H87" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="I87">
         <v>2</v>
@@ -15718,7 +15719,7 @@
       </c>
       <c r="H88" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="I88">
         <v>8</v>
@@ -15761,7 +15762,7 @@
       </c>
       <c r="H89" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="I89">
         <v>2</v>
@@ -15804,7 +15805,7 @@
       </c>
       <c r="H90" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="I90">
         <v>2</v>
@@ -15847,7 +15848,7 @@
       </c>
       <c r="H91" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="I91">
         <v>4</v>
@@ -15890,7 +15891,7 @@
       </c>
       <c r="H92" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="I92">
         <v>12</v>
@@ -15933,7 +15934,7 @@
       </c>
       <c r="H93" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="I93">
         <v>2</v>
@@ -15976,7 +15977,7 @@
       </c>
       <c r="H94" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="I94">
         <v>2</v>
@@ -16019,7 +16020,7 @@
       </c>
       <c r="H95" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="I95">
         <v>4</v>
@@ -16062,7 +16063,7 @@
       </c>
       <c r="H96" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="I96">
         <v>8</v>
@@ -16105,7 +16106,7 @@
       </c>
       <c r="H97" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="I97">
         <v>18</v>
@@ -16148,7 +16149,7 @@
       </c>
       <c r="H98" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="I98">
         <v>2</v>
@@ -16191,7 +16192,7 @@
       </c>
       <c r="H99" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="I99">
         <v>6</v>
@@ -16234,7 +16235,7 @@
       </c>
       <c r="H100" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -16277,7 +16278,7 @@
       </c>
       <c r="H101" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="I101">
         <v>6</v>
@@ -16320,7 +16321,7 @@
       </c>
       <c r="H102" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="I102">
         <v>4</v>
@@ -16363,7 +16364,7 @@
       </c>
       <c r="H103" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="I103">
         <v>12</v>
@@ -16406,7 +16407,7 @@
       </c>
       <c r="H104" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="I104">
         <v>10</v>
@@ -16449,7 +16450,7 @@
       </c>
       <c r="H105" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="I105">
         <v>2</v>
@@ -16492,7 +16493,7 @@
       </c>
       <c r="H106" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="I106">
         <v>2</v>
@@ -16535,7 +16536,7 @@
       </c>
       <c r="H107" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="I107">
         <v>12</v>
@@ -16578,7 +16579,7 @@
       </c>
       <c r="H108" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="I108">
         <v>2</v>
@@ -16621,7 +16622,7 @@
       </c>
       <c r="H109" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="I109">
         <v>12</v>
@@ -16664,7 +16665,7 @@
       </c>
       <c r="H110" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="I110">
         <v>2</v>
@@ -16707,7 +16708,7 @@
       </c>
       <c r="H111" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="I111">
         <v>2</v>
@@ -16750,7 +16751,7 @@
       </c>
       <c r="H112" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="I112">
         <v>8</v>
@@ -16793,7 +16794,7 @@
       </c>
       <c r="H113" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="I113">
         <v>2</v>
@@ -16836,7 +16837,7 @@
       </c>
       <c r="H114" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="I114">
         <v>12</v>
@@ -16879,7 +16880,7 @@
       </c>
       <c r="H115" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="I115">
         <v>2</v>
@@ -16922,7 +16923,7 @@
       </c>
       <c r="H116" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="I116">
         <v>8</v>
@@ -16965,7 +16966,7 @@
       </c>
       <c r="H117" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="I117">
         <v>2</v>
@@ -17008,7 +17009,7 @@
       </c>
       <c r="H118" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="I118">
         <v>2</v>
@@ -17051,7 +17052,7 @@
       </c>
       <c r="H119" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="I119">
         <v>2</v>
@@ -17094,7 +17095,7 @@
       </c>
       <c r="H120" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="I120">
         <v>12</v>
@@ -17137,7 +17138,7 @@
       </c>
       <c r="H121" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="I121">
         <v>4</v>
@@ -17180,7 +17181,7 @@
       </c>
       <c r="H122" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="I122">
         <v>4</v>
@@ -17223,7 +17224,7 @@
       </c>
       <c r="H123" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="I123">
         <v>14</v>
@@ -17266,7 +17267,7 @@
       </c>
       <c r="H124" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="I124">
         <v>2</v>
@@ -17309,7 +17310,7 @@
       </c>
       <c r="H125" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="I125">
         <v>2</v>
@@ -17352,7 +17353,7 @@
       </c>
       <c r="H126" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="I126">
         <v>2</v>
@@ -17395,7 +17396,7 @@
       </c>
       <c r="H127" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="I127">
         <v>2</v>
@@ -17438,7 +17439,7 @@
       </c>
       <c r="H128" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="I128">
         <v>10</v>
@@ -17481,7 +17482,7 @@
       </c>
       <c r="H129" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="I129">
         <v>2</v>
@@ -17524,7 +17525,7 @@
       </c>
       <c r="H130" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="I130">
         <v>4</v>
@@ -17567,7 +17568,7 @@
       </c>
       <c r="H131" s="1">
         <f t="shared" ref="H131:H194" ca="1" si="4">TODAY()+M131</f>
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="I131">
         <v>8</v>
@@ -17610,7 +17611,7 @@
       </c>
       <c r="H132" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="I132">
         <v>4</v>
@@ -17653,7 +17654,7 @@
       </c>
       <c r="H133" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="I133">
         <v>2</v>
@@ -17696,7 +17697,7 @@
       </c>
       <c r="H134" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="I134">
         <v>4</v>
@@ -17739,7 +17740,7 @@
       </c>
       <c r="H135" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="I135">
         <v>4</v>
@@ -17782,7 +17783,7 @@
       </c>
       <c r="H136" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="I136">
         <v>14</v>
@@ -17825,7 +17826,7 @@
       </c>
       <c r="H137" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="I137">
         <v>2</v>
@@ -17868,7 +17869,7 @@
       </c>
       <c r="H138" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="I138">
         <v>6</v>
@@ -17911,7 +17912,7 @@
       </c>
       <c r="H139" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="I139">
         <v>16</v>
@@ -17954,7 +17955,7 @@
       </c>
       <c r="H140" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="I140">
         <v>4</v>
@@ -17997,7 +17998,7 @@
       </c>
       <c r="H141" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="I141">
         <v>2</v>
@@ -18040,7 +18041,7 @@
       </c>
       <c r="H142" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="I142">
         <v>2</v>
@@ -18083,7 +18084,7 @@
       </c>
       <c r="H143" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="I143">
         <v>2</v>
@@ -18126,7 +18127,7 @@
       </c>
       <c r="H144" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="I144">
         <v>18</v>
@@ -18169,7 +18170,7 @@
       </c>
       <c r="H145" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="I145">
         <v>12</v>
@@ -18212,7 +18213,7 @@
       </c>
       <c r="H146" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="I146">
         <v>2</v>
@@ -18255,7 +18256,7 @@
       </c>
       <c r="H147" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="I147">
         <v>2</v>
@@ -18298,7 +18299,7 @@
       </c>
       <c r="H148" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="I148">
         <v>18</v>
@@ -18341,7 +18342,7 @@
       </c>
       <c r="H149" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="I149">
         <v>2</v>
@@ -18384,7 +18385,7 @@
       </c>
       <c r="H150" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="I150">
         <v>4</v>
@@ -18427,7 +18428,7 @@
       </c>
       <c r="H151" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="I151">
         <v>2</v>
@@ -18470,7 +18471,7 @@
       </c>
       <c r="H152" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="I152">
         <v>4</v>
@@ -18513,7 +18514,7 @@
       </c>
       <c r="H153" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="I153">
         <v>8</v>
@@ -18556,7 +18557,7 @@
       </c>
       <c r="H154" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="I154">
         <v>8</v>
@@ -18599,7 +18600,7 @@
       </c>
       <c r="H155" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="I155">
         <v>4</v>
@@ -18642,7 +18643,7 @@
       </c>
       <c r="H156" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="I156">
         <v>6</v>
@@ -18685,7 +18686,7 @@
       </c>
       <c r="H157" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="I157">
         <v>2</v>
@@ -18728,7 +18729,7 @@
       </c>
       <c r="H158" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="I158">
         <v>8</v>
@@ -18771,7 +18772,7 @@
       </c>
       <c r="H159" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="I159">
         <v>2</v>
@@ -18814,7 +18815,7 @@
       </c>
       <c r="H160" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="I160">
         <v>2</v>
@@ -18857,7 +18858,7 @@
       </c>
       <c r="H161" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="I161">
         <v>2</v>
@@ -18900,7 +18901,7 @@
       </c>
       <c r="H162" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="I162">
         <v>2</v>
@@ -18943,7 +18944,7 @@
       </c>
       <c r="H163" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="I163">
         <v>2</v>
@@ -18986,7 +18987,7 @@
       </c>
       <c r="H164" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="I164">
         <v>4</v>
@@ -19029,7 +19030,7 @@
       </c>
       <c r="H165" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="I165">
         <v>10</v>
@@ -19072,7 +19073,7 @@
       </c>
       <c r="H166" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="I166">
         <v>2</v>
@@ -19115,7 +19116,7 @@
       </c>
       <c r="H167" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="I167">
         <v>2</v>
@@ -19158,7 +19159,7 @@
       </c>
       <c r="H168" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="I168">
         <v>2</v>
@@ -19201,7 +19202,7 @@
       </c>
       <c r="H169" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="I169">
         <v>2</v>
@@ -19244,7 +19245,7 @@
       </c>
       <c r="H170" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="I170">
         <v>2</v>
@@ -19287,7 +19288,7 @@
       </c>
       <c r="H171" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="I171">
         <v>2</v>
@@ -19330,7 +19331,7 @@
       </c>
       <c r="H172" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="I172">
         <v>2</v>
@@ -19373,7 +19374,7 @@
       </c>
       <c r="H173" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="I173">
         <v>2</v>
@@ -19416,7 +19417,7 @@
       </c>
       <c r="H174" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="I174">
         <v>6</v>
@@ -19459,7 +19460,7 @@
       </c>
       <c r="H175" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="I175">
         <v>2</v>
@@ -19502,7 +19503,7 @@
       </c>
       <c r="H176" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="I176">
         <v>2</v>
@@ -19545,7 +19546,7 @@
       </c>
       <c r="H177" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="I177">
         <v>6</v>
@@ -19588,7 +19589,7 @@
       </c>
       <c r="H178" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="I178">
         <v>2</v>
@@ -19631,7 +19632,7 @@
       </c>
       <c r="H179" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="I179">
         <v>6</v>
@@ -19674,7 +19675,7 @@
       </c>
       <c r="H180" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="I180">
         <v>6</v>
@@ -19717,7 +19718,7 @@
       </c>
       <c r="H181" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="I181">
         <v>2</v>
@@ -19760,7 +19761,7 @@
       </c>
       <c r="H182" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="I182">
         <v>10</v>
@@ -19803,7 +19804,7 @@
       </c>
       <c r="H183" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="I183">
         <v>2</v>
@@ -19846,7 +19847,7 @@
       </c>
       <c r="H184" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="I184">
         <v>2</v>
@@ -19889,7 +19890,7 @@
       </c>
       <c r="H185" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="I185">
         <v>2</v>
@@ -19932,7 +19933,7 @@
       </c>
       <c r="H186" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="I186">
         <v>2</v>
@@ -19975,7 +19976,7 @@
       </c>
       <c r="H187" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="I187">
         <v>14</v>
@@ -20018,7 +20019,7 @@
       </c>
       <c r="H188" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="I188">
         <v>2</v>
@@ -20061,7 +20062,7 @@
       </c>
       <c r="H189" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="I189">
         <v>12</v>
@@ -20104,7 +20105,7 @@
       </c>
       <c r="H190" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="I190">
         <v>4</v>
@@ -20147,7 +20148,7 @@
       </c>
       <c r="H191" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="I191">
         <v>16</v>
@@ -20190,7 +20191,7 @@
       </c>
       <c r="H192" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="I192">
         <v>2</v>
@@ -20233,7 +20234,7 @@
       </c>
       <c r="H193" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="I193">
         <v>2</v>
@@ -20276,7 +20277,7 @@
       </c>
       <c r="H194" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="I194">
         <v>8</v>
@@ -20319,7 +20320,7 @@
       </c>
       <c r="H195" s="1">
         <f t="shared" ref="H195:H258" ca="1" si="6">TODAY()+M195</f>
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="I195">
         <v>12</v>
@@ -20362,7 +20363,7 @@
       </c>
       <c r="H196" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="I196">
         <v>4</v>
@@ -20405,7 +20406,7 @@
       </c>
       <c r="H197" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="I197">
         <v>8</v>
@@ -20448,7 +20449,7 @@
       </c>
       <c r="H198" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="I198">
         <v>2</v>
@@ -20491,7 +20492,7 @@
       </c>
       <c r="H199" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="I199">
         <v>4</v>
@@ -20534,7 +20535,7 @@
       </c>
       <c r="H200" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="I200">
         <v>2</v>
@@ -20577,7 +20578,7 @@
       </c>
       <c r="H201" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="I201">
         <v>2</v>
@@ -20620,7 +20621,7 @@
       </c>
       <c r="H202" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I202">
         <v>2</v>
@@ -20663,7 +20664,7 @@
       </c>
       <c r="H203" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I203">
         <v>4</v>
@@ -20706,7 +20707,7 @@
       </c>
       <c r="H204" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I204">
         <v>2</v>
@@ -20749,7 +20750,7 @@
       </c>
       <c r="H205" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I205">
         <v>8</v>
@@ -20792,7 +20793,7 @@
       </c>
       <c r="H206" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I206">
         <v>12</v>
@@ -20835,7 +20836,7 @@
       </c>
       <c r="H207" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I207">
         <v>8</v>
@@ -20878,7 +20879,7 @@
       </c>
       <c r="H208" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I208">
         <v>4</v>
@@ -20921,7 +20922,7 @@
       </c>
       <c r="H209" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I209">
         <v>4</v>
@@ -20964,7 +20965,7 @@
       </c>
       <c r="H210" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I210">
         <v>2</v>
@@ -21007,7 +21008,7 @@
       </c>
       <c r="H211" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I211">
         <v>12</v>
@@ -21050,7 +21051,7 @@
       </c>
       <c r="H212" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I212">
         <v>8</v>
@@ -21093,7 +21094,7 @@
       </c>
       <c r="H213" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I213">
         <v>4</v>
@@ -21136,7 +21137,7 @@
       </c>
       <c r="H214" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I214">
         <v>2</v>
@@ -21179,7 +21180,7 @@
       </c>
       <c r="H215" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I215">
         <v>12</v>
@@ -21222,7 +21223,7 @@
       </c>
       <c r="H216" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I216">
         <v>2</v>
@@ -21265,7 +21266,7 @@
       </c>
       <c r="H217" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I217">
         <v>2</v>
@@ -21308,7 +21309,7 @@
       </c>
       <c r="H218" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I218">
         <v>2</v>
@@ -21351,7 +21352,7 @@
       </c>
       <c r="H219" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I219">
         <v>4</v>
@@ -21394,7 +21395,7 @@
       </c>
       <c r="H220" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I220">
         <v>2</v>
@@ -21437,7 +21438,7 @@
       </c>
       <c r="H221" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I221">
         <v>8</v>
@@ -21480,7 +21481,7 @@
       </c>
       <c r="H222" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I222">
         <v>10</v>
@@ -21523,7 +21524,7 @@
       </c>
       <c r="H223" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I223">
         <v>12</v>
@@ -21566,7 +21567,7 @@
       </c>
       <c r="H224" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I224">
         <v>2</v>
@@ -21609,7 +21610,7 @@
       </c>
       <c r="H225" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I225">
         <v>8</v>
@@ -21652,7 +21653,7 @@
       </c>
       <c r="H226" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I226">
         <v>4</v>
@@ -21695,7 +21696,7 @@
       </c>
       <c r="H227" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I227">
         <v>12</v>
@@ -21738,7 +21739,7 @@
       </c>
       <c r="H228" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I228">
         <v>4</v>
@@ -21781,7 +21782,7 @@
       </c>
       <c r="H229" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I229">
         <v>8</v>
@@ -21824,7 +21825,7 @@
       </c>
       <c r="H230" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I230">
         <v>6</v>
@@ -21867,7 +21868,7 @@
       </c>
       <c r="H231" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I231">
         <v>12</v>
@@ -21910,7 +21911,7 @@
       </c>
       <c r="H232" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I232">
         <v>2</v>
@@ -21953,7 +21954,7 @@
       </c>
       <c r="H233" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I233">
         <v>6</v>
@@ -21996,7 +21997,7 @@
       </c>
       <c r="H234" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I234">
         <v>2</v>
@@ -22039,7 +22040,7 @@
       </c>
       <c r="H235" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I235">
         <v>2</v>
@@ -22082,7 +22083,7 @@
       </c>
       <c r="H236" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I236">
         <v>2</v>
@@ -22125,7 +22126,7 @@
       </c>
       <c r="H237" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I237">
         <v>2</v>
@@ -22168,7 +22169,7 @@
       </c>
       <c r="H238" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I238">
         <v>10</v>
@@ -22211,7 +22212,7 @@
       </c>
       <c r="H239" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I239">
         <v>4</v>
@@ -22254,7 +22255,7 @@
       </c>
       <c r="H240" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I240">
         <v>2</v>
@@ -22297,7 +22298,7 @@
       </c>
       <c r="H241" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I241">
         <v>4</v>
@@ -22340,7 +22341,7 @@
       </c>
       <c r="H242" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I242">
         <v>2</v>
@@ -22383,7 +22384,7 @@
       </c>
       <c r="H243" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I243">
         <v>2</v>
@@ -22426,7 +22427,7 @@
       </c>
       <c r="H244" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I244">
         <v>2</v>
@@ -22469,7 +22470,7 @@
       </c>
       <c r="H245" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I245">
         <v>4</v>
@@ -22512,7 +22513,7 @@
       </c>
       <c r="H246" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I246">
         <v>4</v>
@@ -22555,7 +22556,7 @@
       </c>
       <c r="H247" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I247">
         <v>4</v>
@@ -22598,7 +22599,7 @@
       </c>
       <c r="H248" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I248">
         <v>2</v>
@@ -22641,7 +22642,7 @@
       </c>
       <c r="H249" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I249">
         <v>12</v>
@@ -22684,7 +22685,7 @@
       </c>
       <c r="H250" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I250">
         <v>10</v>
@@ -22727,7 +22728,7 @@
       </c>
       <c r="H251" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I251">
         <v>4</v>
@@ -22770,7 +22771,7 @@
       </c>
       <c r="H252" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I252">
         <v>8</v>
@@ -22813,7 +22814,7 @@
       </c>
       <c r="H253" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I253">
         <v>2</v>
@@ -22856,7 +22857,7 @@
       </c>
       <c r="H254" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I254">
         <v>8</v>
@@ -22899,7 +22900,7 @@
       </c>
       <c r="H255" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I255">
         <v>6</v>
@@ -22942,7 +22943,7 @@
       </c>
       <c r="H256" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I256">
         <v>2</v>
@@ -22985,7 +22986,7 @@
       </c>
       <c r="H257" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I257">
         <v>10</v>
@@ -23028,7 +23029,7 @@
       </c>
       <c r="H258" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I258">
         <v>2</v>
@@ -23071,7 +23072,7 @@
       </c>
       <c r="H259" s="1">
         <f t="shared" ref="H259:H322" ca="1" si="8">TODAY()+M259</f>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I259">
         <v>6</v>
@@ -23114,7 +23115,7 @@
       </c>
       <c r="H260" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I260">
         <v>6</v>
@@ -23157,7 +23158,7 @@
       </c>
       <c r="H261" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I261">
         <v>12</v>
@@ -23200,7 +23201,7 @@
       </c>
       <c r="H262" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I262">
         <v>4</v>
@@ -23243,7 +23244,7 @@
       </c>
       <c r="H263" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I263">
         <v>12</v>
@@ -23286,7 +23287,7 @@
       </c>
       <c r="H264" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I264">
         <v>12</v>
@@ -23329,7 +23330,7 @@
       </c>
       <c r="H265" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I265">
         <v>6</v>
@@ -23372,7 +23373,7 @@
       </c>
       <c r="H266" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I266">
         <v>6</v>
@@ -23415,7 +23416,7 @@
       </c>
       <c r="H267" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I267">
         <v>10</v>
@@ -23458,7 +23459,7 @@
       </c>
       <c r="H268" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I268">
         <v>2</v>
@@ -23501,7 +23502,7 @@
       </c>
       <c r="H269" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I269">
         <v>2</v>
@@ -23544,7 +23545,7 @@
       </c>
       <c r="H270" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I270">
         <v>10</v>
@@ -23587,7 +23588,7 @@
       </c>
       <c r="H271" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I271">
         <v>8</v>
@@ -23630,7 +23631,7 @@
       </c>
       <c r="H272" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I272">
         <v>2</v>
@@ -23673,7 +23674,7 @@
       </c>
       <c r="H273" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I273">
         <v>2</v>
@@ -23716,7 +23717,7 @@
       </c>
       <c r="H274" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I274">
         <v>2</v>
@@ -23759,7 +23760,7 @@
       </c>
       <c r="H275" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I275">
         <v>6</v>
@@ -23802,7 +23803,7 @@
       </c>
       <c r="H276" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I276">
         <v>2</v>
@@ -23845,7 +23846,7 @@
       </c>
       <c r="H277" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I277">
         <v>2</v>
@@ -23888,7 +23889,7 @@
       </c>
       <c r="H278" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I278">
         <v>2</v>
@@ -23931,7 +23932,7 @@
       </c>
       <c r="H279" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I279">
         <v>14</v>
@@ -23974,7 +23975,7 @@
       </c>
       <c r="H280" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I280">
         <v>8</v>
@@ -24017,7 +24018,7 @@
       </c>
       <c r="H281" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I281">
         <v>2</v>
@@ -24060,7 +24061,7 @@
       </c>
       <c r="H282" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I282">
         <v>12</v>
@@ -24103,7 +24104,7 @@
       </c>
       <c r="H283" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I283">
         <v>2</v>
@@ -24146,7 +24147,7 @@
       </c>
       <c r="H284" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I284">
         <v>2</v>
@@ -24189,7 +24190,7 @@
       </c>
       <c r="H285" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I285">
         <v>2</v>
@@ -24232,7 +24233,7 @@
       </c>
       <c r="H286" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I286">
         <v>2</v>
@@ -24275,7 +24276,7 @@
       </c>
       <c r="H287" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I287">
         <v>2</v>
@@ -24318,7 +24319,7 @@
       </c>
       <c r="H288" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I288">
         <v>2</v>
@@ -24361,7 +24362,7 @@
       </c>
       <c r="H289" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I289">
         <v>16</v>
@@ -24404,7 +24405,7 @@
       </c>
       <c r="H290" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I290">
         <v>2</v>
@@ -24447,7 +24448,7 @@
       </c>
       <c r="H291" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I291">
         <v>2</v>
@@ -24490,7 +24491,7 @@
       </c>
       <c r="H292" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I292">
         <v>8</v>
@@ -24533,7 +24534,7 @@
       </c>
       <c r="H293" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I293">
         <v>2</v>
@@ -24576,7 +24577,7 @@
       </c>
       <c r="H294" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I294">
         <v>12</v>
@@ -24619,7 +24620,7 @@
       </c>
       <c r="H295" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I295">
         <v>4</v>
@@ -24662,7 +24663,7 @@
       </c>
       <c r="H296" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I296">
         <v>6</v>
@@ -24705,7 +24706,7 @@
       </c>
       <c r="H297" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I297">
         <v>4</v>
@@ -24748,7 +24749,7 @@
       </c>
       <c r="H298" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I298">
         <v>2</v>
@@ -24791,7 +24792,7 @@
       </c>
       <c r="H299" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I299">
         <v>2</v>
@@ -24834,7 +24835,7 @@
       </c>
       <c r="H300" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I300">
         <v>4</v>
@@ -24877,7 +24878,7 @@
       </c>
       <c r="H301" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I301">
         <v>2</v>
@@ -24920,7 +24921,7 @@
       </c>
       <c r="H302" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I302">
         <v>2</v>
@@ -24963,7 +24964,7 @@
       </c>
       <c r="H303" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I303">
         <v>16</v>
@@ -25006,7 +25007,7 @@
       </c>
       <c r="H304" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I304">
         <v>2</v>
@@ -25049,7 +25050,7 @@
       </c>
       <c r="H305" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I305">
         <v>2</v>
@@ -25092,7 +25093,7 @@
       </c>
       <c r="H306" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I306">
         <v>10</v>
@@ -25135,7 +25136,7 @@
       </c>
       <c r="H307" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I307">
         <v>2</v>
@@ -25178,7 +25179,7 @@
       </c>
       <c r="H308" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I308">
         <v>2</v>
@@ -25221,7 +25222,7 @@
       </c>
       <c r="H309" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I309">
         <v>14</v>
@@ -25264,7 +25265,7 @@
       </c>
       <c r="H310" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I310">
         <v>18</v>
@@ -25307,7 +25308,7 @@
       </c>
       <c r="H311" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I311">
         <v>2</v>
@@ -25350,7 +25351,7 @@
       </c>
       <c r="H312" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I312">
         <v>8</v>
@@ -25393,7 +25394,7 @@
       </c>
       <c r="H313" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I313">
         <v>2</v>
@@ -25436,7 +25437,7 @@
       </c>
       <c r="H314" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I314">
         <v>8</v>
@@ -25479,7 +25480,7 @@
       </c>
       <c r="H315" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I315">
         <v>2</v>
@@ -25522,7 +25523,7 @@
       </c>
       <c r="H316" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I316">
         <v>2</v>
@@ -25565,7 +25566,7 @@
       </c>
       <c r="H317" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I317">
         <v>12</v>
@@ -25608,7 +25609,7 @@
       </c>
       <c r="H318" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I318">
         <v>2</v>
@@ -25651,7 +25652,7 @@
       </c>
       <c r="H319" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I319">
         <v>8</v>
@@ -25694,7 +25695,7 @@
       </c>
       <c r="H320" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I320">
         <v>6</v>
@@ -25737,7 +25738,7 @@
       </c>
       <c r="H321" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I321">
         <v>6</v>
@@ -25780,7 +25781,7 @@
       </c>
       <c r="H322" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I322">
         <v>2</v>
@@ -25823,7 +25824,7 @@
       </c>
       <c r="H323" s="1">
         <f t="shared" ref="H323:H386" ca="1" si="10">TODAY()+M323</f>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I323">
         <v>4</v>
@@ -25866,7 +25867,7 @@
       </c>
       <c r="H324" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I324">
         <v>10</v>
@@ -25909,7 +25910,7 @@
       </c>
       <c r="H325" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I325">
         <v>2</v>
@@ -25952,7 +25953,7 @@
       </c>
       <c r="H326" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I326">
         <v>12</v>
@@ -25995,7 +25996,7 @@
       </c>
       <c r="H327" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I327">
         <v>8</v>
@@ -26038,7 +26039,7 @@
       </c>
       <c r="H328" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I328">
         <v>2</v>
@@ -26081,7 +26082,7 @@
       </c>
       <c r="H329" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I329">
         <v>8</v>
@@ -26124,7 +26125,7 @@
       </c>
       <c r="H330" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I330">
         <v>2</v>
@@ -26167,7 +26168,7 @@
       </c>
       <c r="H331" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I331">
         <v>2</v>
@@ -26210,7 +26211,7 @@
       </c>
       <c r="H332" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I332">
         <v>4</v>
@@ -26253,7 +26254,7 @@
       </c>
       <c r="H333" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I333">
         <v>10</v>
@@ -26296,7 +26297,7 @@
       </c>
       <c r="H334" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I334">
         <v>2</v>
@@ -26339,7 +26340,7 @@
       </c>
       <c r="H335" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I335">
         <v>12</v>
@@ -26382,7 +26383,7 @@
       </c>
       <c r="H336" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I336">
         <v>4</v>
@@ -26425,7 +26426,7 @@
       </c>
       <c r="H337" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I337">
         <v>4</v>
@@ -26468,7 +26469,7 @@
       </c>
       <c r="H338" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I338">
         <v>8</v>
@@ -26511,7 +26512,7 @@
       </c>
       <c r="H339" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I339">
         <v>4</v>
@@ -26554,7 +26555,7 @@
       </c>
       <c r="H340" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I340">
         <v>6</v>
@@ -26597,7 +26598,7 @@
       </c>
       <c r="H341" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I341">
         <v>8</v>
@@ -26640,7 +26641,7 @@
       </c>
       <c r="H342" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I342">
         <v>6</v>
@@ -26683,7 +26684,7 @@
       </c>
       <c r="H343" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I343">
         <v>10</v>
@@ -26726,7 +26727,7 @@
       </c>
       <c r="H344" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I344">
         <v>2</v>
@@ -26769,7 +26770,7 @@
       </c>
       <c r="H345" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I345">
         <v>8</v>
@@ -26812,7 +26813,7 @@
       </c>
       <c r="H346" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I346">
         <v>4</v>
@@ -26855,7 +26856,7 @@
       </c>
       <c r="H347" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I347">
         <v>10</v>
@@ -26898,7 +26899,7 @@
       </c>
       <c r="H348" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I348">
         <v>2</v>
@@ -26941,7 +26942,7 @@
       </c>
       <c r="H349" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I349">
         <v>2</v>
@@ -26984,7 +26985,7 @@
       </c>
       <c r="H350" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I350">
         <v>2</v>
@@ -27027,7 +27028,7 @@
       </c>
       <c r="H351" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I351">
         <v>4</v>
@@ -27070,7 +27071,7 @@
       </c>
       <c r="H352" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I352">
         <v>2</v>
@@ -27113,7 +27114,7 @@
       </c>
       <c r="H353" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I353">
         <v>4</v>
@@ -27156,7 +27157,7 @@
       </c>
       <c r="H354" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I354">
         <v>14</v>
@@ -27199,7 +27200,7 @@
       </c>
       <c r="H355" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I355">
         <v>2</v>
@@ -27242,7 +27243,7 @@
       </c>
       <c r="H356" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I356">
         <v>2</v>
@@ -27285,7 +27286,7 @@
       </c>
       <c r="H357" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I357">
         <v>2</v>
@@ -27328,7 +27329,7 @@
       </c>
       <c r="H358" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I358">
         <v>2</v>
@@ -27371,7 +27372,7 @@
       </c>
       <c r="H359" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I359">
         <v>2</v>
@@ -27414,7 +27415,7 @@
       </c>
       <c r="H360" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I360">
         <v>2</v>
@@ -27457,7 +27458,7 @@
       </c>
       <c r="H361" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I361">
         <v>2</v>
@@ -27500,7 +27501,7 @@
       </c>
       <c r="H362" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I362">
         <v>2</v>
@@ -27543,7 +27544,7 @@
       </c>
       <c r="H363" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I363">
         <v>2</v>
@@ -27586,7 +27587,7 @@
       </c>
       <c r="H364" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I364">
         <v>12</v>
@@ -27629,7 +27630,7 @@
       </c>
       <c r="H365" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I365">
         <v>6</v>
@@ -27672,7 +27673,7 @@
       </c>
       <c r="H366" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I366">
         <v>8</v>
@@ -27715,7 +27716,7 @@
       </c>
       <c r="H367" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I367">
         <v>12</v>
@@ -27758,7 +27759,7 @@
       </c>
       <c r="H368" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I368">
         <v>2</v>
@@ -27801,7 +27802,7 @@
       </c>
       <c r="H369" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I369">
         <v>2</v>
@@ -27844,7 +27845,7 @@
       </c>
       <c r="H370" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I370">
         <v>2</v>
@@ -27887,7 +27888,7 @@
       </c>
       <c r="H371" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I371">
         <v>4</v>
@@ -27930,7 +27931,7 @@
       </c>
       <c r="H372" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I372">
         <v>8</v>
@@ -27973,7 +27974,7 @@
       </c>
       <c r="H373" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I373">
         <v>2</v>
@@ -28016,7 +28017,7 @@
       </c>
       <c r="H374" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I374">
         <v>12</v>
@@ -28059,7 +28060,7 @@
       </c>
       <c r="H375" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I375">
         <v>12</v>
@@ -28102,7 +28103,7 @@
       </c>
       <c r="H376" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I376">
         <v>2</v>
@@ -28145,7 +28146,7 @@
       </c>
       <c r="H377" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I377">
         <v>16</v>
@@ -28188,7 +28189,7 @@
       </c>
       <c r="H378" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I378">
         <v>2</v>
@@ -28231,7 +28232,7 @@
       </c>
       <c r="H379" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I379">
         <v>2</v>
@@ -28274,7 +28275,7 @@
       </c>
       <c r="H380" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I380">
         <v>2</v>
@@ -28317,7 +28318,7 @@
       </c>
       <c r="H381" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I381">
         <v>2</v>
@@ -28360,7 +28361,7 @@
       </c>
       <c r="H382" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I382">
         <v>18</v>
@@ -28403,7 +28404,7 @@
       </c>
       <c r="H383" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I383">
         <v>2</v>
@@ -28446,7 +28447,7 @@
       </c>
       <c r="H384" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I384">
         <v>2</v>
@@ -28489,7 +28490,7 @@
       </c>
       <c r="H385" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I385">
         <v>2</v>
@@ -28532,7 +28533,7 @@
       </c>
       <c r="H386" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I386">
         <v>2</v>
@@ -28575,7 +28576,7 @@
       </c>
       <c r="H387" s="1">
         <f t="shared" ref="H387:H449" ca="1" si="12">TODAY()+M387</f>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I387">
         <v>8</v>
@@ -28618,7 +28619,7 @@
       </c>
       <c r="H388" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I388">
         <v>16</v>
@@ -28661,7 +28662,7 @@
       </c>
       <c r="H389" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I389">
         <v>16</v>
@@ -28704,7 +28705,7 @@
       </c>
       <c r="H390" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I390">
         <v>4</v>
@@ -28747,7 +28748,7 @@
       </c>
       <c r="H391" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I391">
         <v>2</v>
@@ -28790,7 +28791,7 @@
       </c>
       <c r="H392" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I392">
         <v>12</v>
@@ -28833,7 +28834,7 @@
       </c>
       <c r="H393" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I393">
         <v>8</v>
@@ -28876,7 +28877,7 @@
       </c>
       <c r="H394" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I394">
         <v>2</v>
@@ -28919,7 +28920,7 @@
       </c>
       <c r="H395" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I395">
         <v>2</v>
@@ -28962,7 +28963,7 @@
       </c>
       <c r="H396" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I396">
         <v>12</v>
@@ -29005,7 +29006,7 @@
       </c>
       <c r="H397" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I397">
         <v>2</v>
@@ -29048,7 +29049,7 @@
       </c>
       <c r="H398" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I398">
         <v>2</v>
@@ -29091,7 +29092,7 @@
       </c>
       <c r="H399" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I399">
         <v>12</v>
@@ -29134,7 +29135,7 @@
       </c>
       <c r="H400" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I400">
         <v>14</v>
@@ -29177,7 +29178,7 @@
       </c>
       <c r="H401" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I401">
         <v>2</v>
@@ -29220,7 +29221,7 @@
       </c>
       <c r="H402" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I402">
         <v>2</v>
@@ -29263,7 +29264,7 @@
       </c>
       <c r="H403" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I403">
         <v>4</v>
@@ -29306,7 +29307,7 @@
       </c>
       <c r="H404" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I404">
         <v>12</v>
@@ -29349,7 +29350,7 @@
       </c>
       <c r="H405" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I405">
         <v>10</v>
@@ -29392,7 +29393,7 @@
       </c>
       <c r="H406" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I406">
         <v>2</v>
@@ -29435,7 +29436,7 @@
       </c>
       <c r="H407" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I407">
         <v>2</v>
@@ -29478,7 +29479,7 @@
       </c>
       <c r="H408" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I408">
         <v>2</v>
@@ -29521,7 +29522,7 @@
       </c>
       <c r="H409" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I409">
         <v>12</v>
@@ -29564,7 +29565,7 @@
       </c>
       <c r="H410" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I410">
         <v>2</v>
@@ -29607,7 +29608,7 @@
       </c>
       <c r="H411" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I411">
         <v>4</v>
@@ -29650,7 +29651,7 @@
       </c>
       <c r="H412" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I412">
         <v>4</v>
@@ -29693,7 +29694,7 @@
       </c>
       <c r="H413" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I413">
         <v>2</v>
@@ -29736,7 +29737,7 @@
       </c>
       <c r="H414" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I414">
         <v>4</v>
@@ -29779,7 +29780,7 @@
       </c>
       <c r="H415" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I415">
         <v>12</v>
@@ -29822,7 +29823,7 @@
       </c>
       <c r="H416" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I416">
         <v>12</v>
@@ -29865,7 +29866,7 @@
       </c>
       <c r="H417" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I417">
         <v>4</v>
@@ -29908,7 +29909,7 @@
       </c>
       <c r="H418" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I418">
         <v>14</v>
@@ -29951,7 +29952,7 @@
       </c>
       <c r="H419" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I419">
         <v>2</v>
@@ -29994,7 +29995,7 @@
       </c>
       <c r="H420" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I420">
         <v>10</v>
@@ -30037,7 +30038,7 @@
       </c>
       <c r="H421" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I421">
         <v>10</v>
@@ -30080,7 +30081,7 @@
       </c>
       <c r="H422" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I422">
         <v>2</v>
@@ -30123,7 +30124,7 @@
       </c>
       <c r="H423" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I423">
         <v>10</v>
@@ -30166,7 +30167,7 @@
       </c>
       <c r="H424" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I424">
         <v>4</v>
@@ -30209,7 +30210,7 @@
       </c>
       <c r="H425" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I425">
         <v>2</v>
@@ -30252,7 +30253,7 @@
       </c>
       <c r="H426" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I426">
         <v>12</v>
@@ -30295,7 +30296,7 @@
       </c>
       <c r="H427" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I427">
         <v>2</v>
@@ -30338,7 +30339,7 @@
       </c>
       <c r="H428" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I428">
         <v>4</v>
@@ -30381,7 +30382,7 @@
       </c>
       <c r="H429" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I429">
         <v>8</v>
@@ -30424,7 +30425,7 @@
       </c>
       <c r="H430" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I430">
         <v>6</v>
@@ -30467,7 +30468,7 @@
       </c>
       <c r="H431" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I431">
         <v>2</v>
@@ -30510,7 +30511,7 @@
       </c>
       <c r="H432" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I432">
         <v>6</v>
@@ -30553,7 +30554,7 @@
       </c>
       <c r="H433" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I433">
         <v>2</v>
@@ -30596,7 +30597,7 @@
       </c>
       <c r="H434" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I434">
         <v>2</v>
@@ -30639,7 +30640,7 @@
       </c>
       <c r="H435" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I435">
         <v>4</v>
@@ -30682,7 +30683,7 @@
       </c>
       <c r="H436" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I436">
         <v>2</v>
@@ -30725,7 +30726,7 @@
       </c>
       <c r="H437" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I437">
         <v>8</v>
@@ -30768,7 +30769,7 @@
       </c>
       <c r="H438" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I438">
         <v>8</v>
@@ -30811,7 +30812,7 @@
       </c>
       <c r="H439" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I439">
         <v>6</v>
@@ -30854,7 +30855,7 @@
       </c>
       <c r="H440" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I440">
         <v>6</v>
@@ -30897,7 +30898,7 @@
       </c>
       <c r="H441" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I441">
         <v>2</v>
@@ -30940,7 +30941,7 @@
       </c>
       <c r="H442" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I442">
         <v>2</v>
@@ -30983,7 +30984,7 @@
       </c>
       <c r="H443" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I443">
         <v>4</v>
@@ -31026,7 +31027,7 @@
       </c>
       <c r="H444" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I444">
         <v>10</v>
@@ -31069,7 +31070,7 @@
       </c>
       <c r="H445" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I445">
         <v>2</v>
@@ -31112,7 +31113,7 @@
       </c>
       <c r="H446" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I446">
         <v>2</v>
@@ -31155,7 +31156,7 @@
       </c>
       <c r="H447" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I447">
         <v>6</v>
@@ -31198,7 +31199,7 @@
       </c>
       <c r="H448" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I448">
         <v>8</v>
@@ -31241,7 +31242,7 @@
       </c>
       <c r="H449" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I449">
         <v>8</v>
@@ -31284,7 +31285,7 @@
       </c>
       <c r="H450" s="1">
         <f t="shared" ref="H450:H513" ca="1" si="14">TODAY()+M450</f>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I450">
         <v>8</v>
@@ -31327,7 +31328,7 @@
       </c>
       <c r="H451" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I451">
         <v>4</v>
@@ -31370,7 +31371,7 @@
       </c>
       <c r="H452" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I452">
         <v>2</v>
@@ -31413,7 +31414,7 @@
       </c>
       <c r="H453" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I453">
         <v>2</v>
@@ -31456,7 +31457,7 @@
       </c>
       <c r="H454" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I454">
         <v>18</v>
@@ -31499,7 +31500,7 @@
       </c>
       <c r="H455" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I455">
         <v>4</v>
@@ -31542,7 +31543,7 @@
       </c>
       <c r="H456" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I456">
         <v>2</v>
@@ -31585,7 +31586,7 @@
       </c>
       <c r="H457" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I457">
         <v>2</v>
@@ -31628,7 +31629,7 @@
       </c>
       <c r="H458" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I458">
         <v>8</v>
@@ -31671,7 +31672,7 @@
       </c>
       <c r="H459" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I459">
         <v>2</v>
@@ -31714,7 +31715,7 @@
       </c>
       <c r="H460" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I460">
         <v>2</v>
@@ -31757,7 +31758,7 @@
       </c>
       <c r="H461" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I461">
         <v>10</v>
@@ -31800,7 +31801,7 @@
       </c>
       <c r="H462" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I462">
         <v>12</v>
@@ -31843,7 +31844,7 @@
       </c>
       <c r="H463" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I463">
         <v>2</v>
@@ -31886,7 +31887,7 @@
       </c>
       <c r="H464" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I464">
         <v>4</v>
@@ -31929,7 +31930,7 @@
       </c>
       <c r="H465" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I465">
         <v>2</v>
@@ -31972,7 +31973,7 @@
       </c>
       <c r="H466" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I466">
         <v>4</v>
@@ -32015,7 +32016,7 @@
       </c>
       <c r="H467" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I467">
         <v>12</v>
@@ -32058,7 +32059,7 @@
       </c>
       <c r="H468" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I468">
         <v>4</v>
@@ -32101,7 +32102,7 @@
       </c>
       <c r="H469" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I469">
         <v>12</v>
@@ -32144,7 +32145,7 @@
       </c>
       <c r="H470" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I470">
         <v>2</v>
@@ -32187,7 +32188,7 @@
       </c>
       <c r="H471" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I471">
         <v>10</v>
@@ -32230,7 +32231,7 @@
       </c>
       <c r="H472" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I472">
         <v>2</v>
@@ -32273,7 +32274,7 @@
       </c>
       <c r="H473" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I473">
         <v>2</v>
@@ -32316,7 +32317,7 @@
       </c>
       <c r="H474" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I474">
         <v>14</v>
@@ -32359,7 +32360,7 @@
       </c>
       <c r="H475" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I475">
         <v>2</v>
@@ -32402,7 +32403,7 @@
       </c>
       <c r="H476" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I476">
         <v>2</v>
@@ -32445,7 +32446,7 @@
       </c>
       <c r="H477" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I477">
         <v>12</v>
@@ -32488,7 +32489,7 @@
       </c>
       <c r="H478" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I478">
         <v>2</v>
@@ -32531,7 +32532,7 @@
       </c>
       <c r="H479" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I479">
         <v>12</v>
@@ -32574,7 +32575,7 @@
       </c>
       <c r="H480" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I480">
         <v>2</v>
@@ -32617,7 +32618,7 @@
       </c>
       <c r="H481" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I481">
         <v>2</v>
@@ -32660,7 +32661,7 @@
       </c>
       <c r="H482" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I482">
         <v>4</v>
@@ -32703,7 +32704,7 @@
       </c>
       <c r="H483" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I483">
         <v>12</v>
@@ -32746,7 +32747,7 @@
       </c>
       <c r="H484" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I484">
         <v>10</v>
@@ -32789,7 +32790,7 @@
       </c>
       <c r="H485" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I485">
         <v>2</v>
@@ -32832,7 +32833,7 @@
       </c>
       <c r="H486" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I486">
         <v>8</v>
@@ -32875,7 +32876,7 @@
       </c>
       <c r="H487" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I487">
         <v>2</v>
@@ -32918,7 +32919,7 @@
       </c>
       <c r="H488" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I488">
         <v>14</v>
@@ -32961,7 +32962,7 @@
       </c>
       <c r="H489" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I489">
         <v>2</v>
@@ -33004,7 +33005,7 @@
       </c>
       <c r="H490" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I490">
         <v>2</v>
@@ -33047,7 +33048,7 @@
       </c>
       <c r="H491" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I491">
         <v>12</v>
@@ -33090,7 +33091,7 @@
       </c>
       <c r="H492" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I492">
         <v>2</v>
@@ -33133,7 +33134,7 @@
       </c>
       <c r="H493" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I493">
         <v>4</v>
@@ -33176,7 +33177,7 @@
       </c>
       <c r="H494" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I494">
         <v>2</v>
@@ -33219,7 +33220,7 @@
       </c>
       <c r="H495" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I495">
         <v>10</v>
@@ -33262,7 +33263,7 @@
       </c>
       <c r="H496" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I496">
         <v>2</v>
@@ -33305,7 +33306,7 @@
       </c>
       <c r="H497" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I497">
         <v>2</v>
@@ -33348,7 +33349,7 @@
       </c>
       <c r="H498" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I498">
         <v>10</v>
@@ -33391,7 +33392,7 @@
       </c>
       <c r="H499" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I499">
         <v>12</v>
@@ -33434,7 +33435,7 @@
       </c>
       <c r="H500" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I500">
         <v>2</v>
@@ -33477,7 +33478,7 @@
       </c>
       <c r="H501" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I501">
         <v>12</v>
@@ -33520,7 +33521,7 @@
       </c>
       <c r="H502" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I502">
         <v>2</v>
@@ -33563,7 +33564,7 @@
       </c>
       <c r="H503" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I503">
         <v>2</v>
@@ -33606,7 +33607,7 @@
       </c>
       <c r="H504" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I504">
         <v>2</v>
@@ -33649,7 +33650,7 @@
       </c>
       <c r="H505" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I505">
         <v>6</v>
@@ -33692,7 +33693,7 @@
       </c>
       <c r="H506" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I506">
         <v>4</v>
@@ -33735,7 +33736,7 @@
       </c>
       <c r="H507" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I507">
         <v>8</v>
@@ -33778,7 +33779,7 @@
       </c>
       <c r="H508" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I508">
         <v>6</v>
@@ -33821,7 +33822,7 @@
       </c>
       <c r="H509" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I509">
         <v>4</v>
@@ -33864,7 +33865,7 @@
       </c>
       <c r="H510" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I510">
         <v>6</v>
@@ -33907,7 +33908,7 @@
       </c>
       <c r="H511" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I511">
         <v>12</v>
@@ -33950,7 +33951,7 @@
       </c>
       <c r="H512" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I512">
         <v>2</v>
@@ -33993,7 +33994,7 @@
       </c>
       <c r="H513" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I513">
         <v>14</v>
@@ -34036,7 +34037,7 @@
       </c>
       <c r="H514" s="1">
         <f t="shared" ref="H514:H577" ca="1" si="16">TODAY()+M514</f>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I514">
         <v>2</v>
@@ -34079,7 +34080,7 @@
       </c>
       <c r="H515" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I515">
         <v>12</v>
@@ -34122,7 +34123,7 @@
       </c>
       <c r="H516" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I516">
         <v>4</v>
@@ -34165,7 +34166,7 @@
       </c>
       <c r="H517" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I517">
         <v>2</v>
@@ -34208,7 +34209,7 @@
       </c>
       <c r="H518" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I518">
         <v>16</v>
@@ -34251,7 +34252,7 @@
       </c>
       <c r="H519" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I519">
         <v>2</v>
@@ -34294,7 +34295,7 @@
       </c>
       <c r="H520" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I520">
         <v>2</v>
@@ -34337,7 +34338,7 @@
       </c>
       <c r="H521" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I521">
         <v>8</v>
@@ -34380,7 +34381,7 @@
       </c>
       <c r="H522" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I522">
         <v>4</v>
@@ -34423,7 +34424,7 @@
       </c>
       <c r="H523" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I523">
         <v>2</v>
@@ -34466,7 +34467,7 @@
       </c>
       <c r="H524" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I524">
         <v>2</v>
@@ -34509,7 +34510,7 @@
       </c>
       <c r="H525" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I525">
         <v>12</v>
@@ -34552,7 +34553,7 @@
       </c>
       <c r="H526" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I526">
         <v>6</v>
@@ -34595,7 +34596,7 @@
       </c>
       <c r="H527" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I527">
         <v>2</v>
@@ -34638,7 +34639,7 @@
       </c>
       <c r="H528" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I528">
         <v>8</v>
@@ -34681,7 +34682,7 @@
       </c>
       <c r="H529" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I529">
         <v>2</v>
@@ -34724,7 +34725,7 @@
       </c>
       <c r="H530" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I530">
         <v>4</v>
@@ -34767,7 +34768,7 @@
       </c>
       <c r="H531" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I531">
         <v>2</v>
@@ -34810,7 +34811,7 @@
       </c>
       <c r="H532" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I532">
         <v>12</v>
@@ -34853,7 +34854,7 @@
       </c>
       <c r="H533" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I533">
         <v>2</v>
@@ -34896,7 +34897,7 @@
       </c>
       <c r="H534" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I534">
         <v>6</v>
@@ -34939,7 +34940,7 @@
       </c>
       <c r="H535" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I535">
         <v>4</v>
@@ -34982,7 +34983,7 @@
       </c>
       <c r="H536" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I536">
         <v>2</v>
@@ -35025,7 +35026,7 @@
       </c>
       <c r="H537" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I537">
         <v>4</v>
@@ -35068,7 +35069,7 @@
       </c>
       <c r="H538" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I538">
         <v>20</v>
@@ -35111,7 +35112,7 @@
       </c>
       <c r="H539" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I539">
         <v>2</v>
@@ -35154,7 +35155,7 @@
       </c>
       <c r="H540" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I540">
         <v>6</v>
@@ -35197,7 +35198,7 @@
       </c>
       <c r="H541" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I541">
         <v>4</v>
@@ -35240,7 +35241,7 @@
       </c>
       <c r="H542" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I542">
         <v>4</v>
@@ -35283,7 +35284,7 @@
       </c>
       <c r="H543" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I543">
         <v>2</v>
@@ -35326,7 +35327,7 @@
       </c>
       <c r="H544" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I544">
         <v>2</v>
@@ -35369,7 +35370,7 @@
       </c>
       <c r="H545" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I545">
         <v>2</v>
@@ -35412,7 +35413,7 @@
       </c>
       <c r="H546" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I546">
         <v>8</v>
@@ -35455,7 +35456,7 @@
       </c>
       <c r="H547" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I547">
         <v>8</v>
@@ -35498,7 +35499,7 @@
       </c>
       <c r="H548" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I548">
         <v>2</v>
@@ -35541,7 +35542,7 @@
       </c>
       <c r="H549" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I549">
         <v>2</v>
@@ -35584,7 +35585,7 @@
       </c>
       <c r="H550" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I550">
         <v>8</v>
@@ -35627,7 +35628,7 @@
       </c>
       <c r="H551" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I551">
         <v>2</v>
@@ -35670,7 +35671,7 @@
       </c>
       <c r="H552" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I552">
         <v>12</v>
@@ -35713,7 +35714,7 @@
       </c>
       <c r="H553" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I553">
         <v>4</v>
@@ -35756,7 +35757,7 @@
       </c>
       <c r="H554" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I554">
         <v>6</v>
@@ -35799,7 +35800,7 @@
       </c>
       <c r="H555" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I555">
         <v>8</v>
@@ -35842,7 +35843,7 @@
       </c>
       <c r="H556" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I556">
         <v>2</v>
@@ -35885,7 +35886,7 @@
       </c>
       <c r="H557" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I557">
         <v>2</v>
@@ -35928,7 +35929,7 @@
       </c>
       <c r="H558" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I558">
         <v>4</v>
@@ -35971,7 +35972,7 @@
       </c>
       <c r="H559" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I559">
         <v>2</v>
@@ -36014,7 +36015,7 @@
       </c>
       <c r="H560" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I560">
         <v>8</v>
@@ -36057,7 +36058,7 @@
       </c>
       <c r="H561" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I561">
         <v>4</v>
@@ -36100,7 +36101,7 @@
       </c>
       <c r="H562" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I562">
         <v>2</v>
@@ -36143,7 +36144,7 @@
       </c>
       <c r="H563" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I563">
         <v>2</v>
@@ -36186,7 +36187,7 @@
       </c>
       <c r="H564" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I564">
         <v>2</v>
@@ -36229,7 +36230,7 @@
       </c>
       <c r="H565" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I565">
         <v>2</v>
@@ -36272,7 +36273,7 @@
       </c>
       <c r="H566" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I566">
         <v>10</v>
@@ -36315,7 +36316,7 @@
       </c>
       <c r="H567" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I567">
         <v>2</v>
@@ -36358,7 +36359,7 @@
       </c>
       <c r="H568" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I568">
         <v>16</v>
@@ -36401,7 +36402,7 @@
       </c>
       <c r="H569" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I569">
         <v>4</v>
@@ -36444,7 +36445,7 @@
       </c>
       <c r="H570" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I570">
         <v>4</v>
@@ -36487,7 +36488,7 @@
       </c>
       <c r="H571" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I571">
         <v>8</v>
@@ -36530,7 +36531,7 @@
       </c>
       <c r="H572" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I572">
         <v>2</v>
@@ -36573,7 +36574,7 @@
       </c>
       <c r="H573" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I573">
         <v>12</v>
@@ -36616,7 +36617,7 @@
       </c>
       <c r="H574" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I574">
         <v>2</v>
@@ -36659,7 +36660,7 @@
       </c>
       <c r="H575" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I575">
         <v>12</v>
@@ -36702,7 +36703,7 @@
       </c>
       <c r="H576" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I576">
         <v>16</v>
@@ -36745,7 +36746,7 @@
       </c>
       <c r="H577" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I577">
         <v>2</v>
@@ -36788,7 +36789,7 @@
       </c>
       <c r="H578" s="1">
         <f t="shared" ref="H578:H596" ca="1" si="18">TODAY()+M578</f>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I578">
         <v>2</v>
@@ -36831,7 +36832,7 @@
       </c>
       <c r="H579" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I579">
         <v>2</v>
@@ -36874,7 +36875,7 @@
       </c>
       <c r="H580" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I580">
         <v>12</v>
@@ -36917,7 +36918,7 @@
       </c>
       <c r="H581" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I581">
         <v>12</v>
@@ -36960,7 +36961,7 @@
       </c>
       <c r="H582" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I582">
         <v>2</v>
@@ -37003,7 +37004,7 @@
       </c>
       <c r="H583" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I583">
         <v>4</v>
@@ -37046,7 +37047,7 @@
       </c>
       <c r="H584" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I584">
         <v>6</v>
@@ -37089,7 +37090,7 @@
       </c>
       <c r="H585" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I585">
         <v>4</v>
@@ -37132,7 +37133,7 @@
       </c>
       <c r="H586" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I586">
         <v>2</v>
@@ -37175,7 +37176,7 @@
       </c>
       <c r="H587" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I587">
         <v>2</v>
@@ -37218,7 +37219,7 @@
       </c>
       <c r="H588" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I588">
         <v>12</v>
@@ -37261,7 +37262,7 @@
       </c>
       <c r="H589" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I589">
         <v>8</v>
@@ -37304,7 +37305,7 @@
       </c>
       <c r="H590" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I590">
         <v>2</v>
@@ -37347,7 +37348,7 @@
       </c>
       <c r="H591" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I591">
         <v>2</v>
@@ -37390,7 +37391,7 @@
       </c>
       <c r="H592" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I592">
         <v>2</v>
@@ -37433,7 +37434,7 @@
       </c>
       <c r="H593" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I593">
         <v>2</v>
@@ -37476,7 +37477,7 @@
       </c>
       <c r="H594" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I594">
         <v>12</v>
@@ -37519,7 +37520,7 @@
       </c>
       <c r="H595" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I595">
         <v>6</v>
@@ -37562,7 +37563,7 @@
       </c>
       <c r="H596" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I596">
         <v>4</v>
@@ -37594,6 +37595,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3172EA3A-D090-4C4F-A586-FCDF9ED920F4}">
+  <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -39040,6 +39042,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF0E9BE-C8B1-41A4-9868-E45452341937}">
+  <sheetPr codeName="Planilha3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/src/APSSystem.Presentation.WPF/Data/Antecipacao/OrdensDeCliente.xlsx
+++ b/src/APSSystem.Presentation.WPF/Data/Antecipacao/OrdensDeCliente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55159\source\repos\APSSystem_NOVO\src\APSSystem.Presentation.WPF\Data\Antecipacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BA09F5-0A53-4BF4-B682-BD6CF162D8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F8B91C-07C4-4F4C-BB84-9163A03274C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39405" yWindow="10740" windowWidth="18180" windowHeight="9885" xr2:uid="{702DC5E7-951B-4331-8240-E292C0DE46CB}"/>
+    <workbookView xWindow="23250" yWindow="5325" windowWidth="18180" windowHeight="9885" xr2:uid="{702DC5E7-951B-4331-8240-E292C0DE46CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -11935,7 +11935,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12018,7 +12018,7 @@
       </c>
       <c r="H2" s="1">
         <f ca="1">TODAY()+M2</f>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I2">
         <v>12</v>
@@ -12061,7 +12061,7 @@
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H66" ca="1" si="0">TODAY()+M3</f>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -12104,7 +12104,7 @@
       </c>
       <c r="H4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I4">
         <v>6</v>
@@ -12147,7 +12147,7 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -12193,7 +12193,7 @@
       </c>
       <c r="H6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I6">
         <v>12</v>
@@ -12236,7 +12236,7 @@
       </c>
       <c r="H7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -12279,7 +12279,7 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I8">
         <v>4</v>
@@ -12322,7 +12322,7 @@
       </c>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -12365,7 +12365,7 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -12408,7 +12408,7 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I11">
         <v>12</v>
@@ -12451,7 +12451,7 @@
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I12">
         <v>12</v>
@@ -12494,7 +12494,7 @@
       </c>
       <c r="H13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="H14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -12580,7 +12580,7 @@
       </c>
       <c r="H15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -12623,7 +12623,7 @@
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I16">
         <v>6</v>
@@ -12666,7 +12666,7 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -12709,7 +12709,7 @@
       </c>
       <c r="H18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -12752,7 +12752,7 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -12795,7 +12795,7 @@
       </c>
       <c r="H20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I20">
         <v>4</v>
@@ -12838,7 +12838,7 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45876</v>
+        <v>45884</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -12881,7 +12881,7 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -12924,7 +12924,7 @@
       </c>
       <c r="H23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -12967,7 +12967,7 @@
       </c>
       <c r="H24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I24">
         <v>12</v>
@@ -13010,7 +13010,7 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I25">
         <v>12</v>
@@ -13053,7 +13053,7 @@
       </c>
       <c r="H26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I26">
         <v>12</v>
@@ -13096,7 +13096,7 @@
       </c>
       <c r="H27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I27">
         <v>6</v>
@@ -13139,7 +13139,7 @@
       </c>
       <c r="H28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I28">
         <v>8</v>
@@ -13182,7 +13182,7 @@
       </c>
       <c r="H29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="H30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -13268,7 +13268,7 @@
       </c>
       <c r="H31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I31">
         <v>4</v>
@@ -13311,7 +13311,7 @@
       </c>
       <c r="H32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -13354,7 +13354,7 @@
       </c>
       <c r="H33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -13397,7 +13397,7 @@
       </c>
       <c r="H34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I34">
         <v>8</v>
@@ -13440,7 +13440,7 @@
       </c>
       <c r="H35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -13483,7 +13483,7 @@
       </c>
       <c r="H36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -13526,7 +13526,7 @@
       </c>
       <c r="H37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -13569,7 +13569,7 @@
       </c>
       <c r="H38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I38">
         <v>6</v>
@@ -13612,7 +13612,7 @@
       </c>
       <c r="H39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I39">
         <v>6</v>
@@ -13655,7 +13655,7 @@
       </c>
       <c r="H40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I40">
         <v>4</v>
@@ -13698,7 +13698,7 @@
       </c>
       <c r="H41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45877</v>
+        <v>45885</v>
       </c>
       <c r="I41">
         <v>2</v>
@@ -13741,7 +13741,7 @@
       </c>
       <c r="H42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I42">
         <v>14</v>
@@ -13784,7 +13784,7 @@
       </c>
       <c r="H43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I43">
         <v>2</v>
@@ -13827,7 +13827,7 @@
       </c>
       <c r="H44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I44">
         <v>2</v>
@@ -13870,7 +13870,7 @@
       </c>
       <c r="H45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I45">
         <v>2</v>
@@ -13913,7 +13913,7 @@
       </c>
       <c r="H46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I46">
         <v>10</v>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="H47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I47">
         <v>4</v>
@@ -13999,7 +13999,7 @@
       </c>
       <c r="H48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -14042,7 +14042,7 @@
       </c>
       <c r="H49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I49">
         <v>4</v>
@@ -14085,7 +14085,7 @@
       </c>
       <c r="H50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -14128,7 +14128,7 @@
       </c>
       <c r="H51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I51">
         <v>2</v>
@@ -14171,7 +14171,7 @@
       </c>
       <c r="H52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I52">
         <v>4</v>
@@ -14214,7 +14214,7 @@
       </c>
       <c r="H53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I53">
         <v>18</v>
@@ -14257,7 +14257,7 @@
       </c>
       <c r="H54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I54">
         <v>2</v>
@@ -14300,7 +14300,7 @@
       </c>
       <c r="H55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I55">
         <v>12</v>
@@ -14343,7 +14343,7 @@
       </c>
       <c r="H56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I56">
         <v>2</v>
@@ -14386,7 +14386,7 @@
       </c>
       <c r="H57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I57">
         <v>2</v>
@@ -14429,7 +14429,7 @@
       </c>
       <c r="H58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I58">
         <v>14</v>
@@ -14472,7 +14472,7 @@
       </c>
       <c r="H59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I59">
         <v>2</v>
@@ -14515,7 +14515,7 @@
       </c>
       <c r="H60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I60">
         <v>12</v>
@@ -14558,7 +14558,7 @@
       </c>
       <c r="H61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45878</v>
+        <v>45886</v>
       </c>
       <c r="I61">
         <v>6</v>
@@ -14601,7 +14601,7 @@
       </c>
       <c r="H62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I62">
         <v>2</v>
@@ -14644,7 +14644,7 @@
       </c>
       <c r="H63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I63">
         <v>2</v>
@@ -14687,7 +14687,7 @@
       </c>
       <c r="H64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I64">
         <v>2</v>
@@ -14730,7 +14730,7 @@
       </c>
       <c r="H65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I65">
         <v>10</v>
@@ -14773,7 +14773,7 @@
       </c>
       <c r="H66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I66">
         <v>2</v>
@@ -14816,7 +14816,7 @@
       </c>
       <c r="H67" s="1">
         <f t="shared" ref="H67:H130" ca="1" si="2">TODAY()+M67</f>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I67">
         <v>10</v>
@@ -14859,7 +14859,7 @@
       </c>
       <c r="H68" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I68">
         <v>16</v>
@@ -14902,7 +14902,7 @@
       </c>
       <c r="H69" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -14945,7 +14945,7 @@
       </c>
       <c r="H70" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I70">
         <v>4</v>
@@ -14988,7 +14988,7 @@
       </c>
       <c r="H71" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I71">
         <v>2</v>
@@ -15031,7 +15031,7 @@
       </c>
       <c r="H72" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I72">
         <v>2</v>
@@ -15074,7 +15074,7 @@
       </c>
       <c r="H73" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I73">
         <v>2</v>
@@ -15117,7 +15117,7 @@
       </c>
       <c r="H74" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I74">
         <v>2</v>
@@ -15160,7 +15160,7 @@
       </c>
       <c r="H75" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I75">
         <v>2</v>
@@ -15203,7 +15203,7 @@
       </c>
       <c r="H76" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I76">
         <v>16</v>
@@ -15246,7 +15246,7 @@
       </c>
       <c r="H77" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I77">
         <v>2</v>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="H78" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I78">
         <v>2</v>
@@ -15332,7 +15332,7 @@
       </c>
       <c r="H79" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I79">
         <v>2</v>
@@ -15375,7 +15375,7 @@
       </c>
       <c r="H80" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I80">
         <v>2</v>
@@ -15418,7 +15418,7 @@
       </c>
       <c r="H81" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45879</v>
+        <v>45887</v>
       </c>
       <c r="I81">
         <v>14</v>
@@ -15461,7 +15461,7 @@
       </c>
       <c r="H82" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I82">
         <v>2</v>
@@ -15504,7 +15504,7 @@
       </c>
       <c r="H83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I83">
         <v>2</v>
@@ -15547,7 +15547,7 @@
       </c>
       <c r="H84" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I84">
         <v>16</v>
@@ -15590,7 +15590,7 @@
       </c>
       <c r="H85" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I85">
         <v>2</v>
@@ -15633,7 +15633,7 @@
       </c>
       <c r="H86" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I86">
         <v>16</v>
@@ -15676,7 +15676,7 @@
       </c>
       <c r="H87" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I87">
         <v>2</v>
@@ -15719,7 +15719,7 @@
       </c>
       <c r="H88" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I88">
         <v>8</v>
@@ -15762,7 +15762,7 @@
       </c>
       <c r="H89" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I89">
         <v>2</v>
@@ -15805,7 +15805,7 @@
       </c>
       <c r="H90" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I90">
         <v>2</v>
@@ -15848,7 +15848,7 @@
       </c>
       <c r="H91" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I91">
         <v>4</v>
@@ -15891,7 +15891,7 @@
       </c>
       <c r="H92" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I92">
         <v>12</v>
@@ -15934,7 +15934,7 @@
       </c>
       <c r="H93" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I93">
         <v>2</v>
@@ -15977,7 +15977,7 @@
       </c>
       <c r="H94" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I94">
         <v>2</v>
@@ -16020,7 +16020,7 @@
       </c>
       <c r="H95" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I95">
         <v>4</v>
@@ -16063,7 +16063,7 @@
       </c>
       <c r="H96" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I96">
         <v>8</v>
@@ -16106,7 +16106,7 @@
       </c>
       <c r="H97" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I97">
         <v>18</v>
@@ -16149,7 +16149,7 @@
       </c>
       <c r="H98" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I98">
         <v>2</v>
@@ -16192,7 +16192,7 @@
       </c>
       <c r="H99" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I99">
         <v>6</v>
@@ -16235,7 +16235,7 @@
       </c>
       <c r="H100" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -16278,7 +16278,7 @@
       </c>
       <c r="H101" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45880</v>
+        <v>45888</v>
       </c>
       <c r="I101">
         <v>6</v>
@@ -16321,7 +16321,7 @@
       </c>
       <c r="H102" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I102">
         <v>4</v>
@@ -16364,7 +16364,7 @@
       </c>
       <c r="H103" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I103">
         <v>12</v>
@@ -16407,7 +16407,7 @@
       </c>
       <c r="H104" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I104">
         <v>10</v>
@@ -16450,7 +16450,7 @@
       </c>
       <c r="H105" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I105">
         <v>2</v>
@@ -16493,7 +16493,7 @@
       </c>
       <c r="H106" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I106">
         <v>2</v>
@@ -16536,7 +16536,7 @@
       </c>
       <c r="H107" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I107">
         <v>12</v>
@@ -16579,7 +16579,7 @@
       </c>
       <c r="H108" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I108">
         <v>2</v>
@@ -16622,7 +16622,7 @@
       </c>
       <c r="H109" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I109">
         <v>12</v>
@@ -16665,7 +16665,7 @@
       </c>
       <c r="H110" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I110">
         <v>2</v>
@@ -16708,7 +16708,7 @@
       </c>
       <c r="H111" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I111">
         <v>2</v>
@@ -16751,7 +16751,7 @@
       </c>
       <c r="H112" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I112">
         <v>8</v>
@@ -16794,7 +16794,7 @@
       </c>
       <c r="H113" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I113">
         <v>2</v>
@@ -16837,7 +16837,7 @@
       </c>
       <c r="H114" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I114">
         <v>12</v>
@@ -16880,7 +16880,7 @@
       </c>
       <c r="H115" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I115">
         <v>2</v>
@@ -16923,7 +16923,7 @@
       </c>
       <c r="H116" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I116">
         <v>8</v>
@@ -16966,7 +16966,7 @@
       </c>
       <c r="H117" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I117">
         <v>2</v>
@@ -17009,7 +17009,7 @@
       </c>
       <c r="H118" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I118">
         <v>2</v>
@@ -17052,7 +17052,7 @@
       </c>
       <c r="H119" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I119">
         <v>2</v>
@@ -17095,7 +17095,7 @@
       </c>
       <c r="H120" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I120">
         <v>12</v>
@@ -17138,7 +17138,7 @@
       </c>
       <c r="H121" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45881</v>
+        <v>45889</v>
       </c>
       <c r="I121">
         <v>4</v>
@@ -17181,7 +17181,7 @@
       </c>
       <c r="H122" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I122">
         <v>4</v>
@@ -17224,7 +17224,7 @@
       </c>
       <c r="H123" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I123">
         <v>14</v>
@@ -17267,7 +17267,7 @@
       </c>
       <c r="H124" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I124">
         <v>2</v>
@@ -17310,7 +17310,7 @@
       </c>
       <c r="H125" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I125">
         <v>2</v>
@@ -17353,7 +17353,7 @@
       </c>
       <c r="H126" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I126">
         <v>2</v>
@@ -17396,7 +17396,7 @@
       </c>
       <c r="H127" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I127">
         <v>2</v>
@@ -17439,7 +17439,7 @@
       </c>
       <c r="H128" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I128">
         <v>10</v>
@@ -17482,7 +17482,7 @@
       </c>
       <c r="H129" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I129">
         <v>2</v>
@@ -17525,7 +17525,7 @@
       </c>
       <c r="H130" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I130">
         <v>4</v>
@@ -17568,7 +17568,7 @@
       </c>
       <c r="H131" s="1">
         <f t="shared" ref="H131:H194" ca="1" si="4">TODAY()+M131</f>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I131">
         <v>8</v>
@@ -17611,7 +17611,7 @@
       </c>
       <c r="H132" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I132">
         <v>4</v>
@@ -17654,7 +17654,7 @@
       </c>
       <c r="H133" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I133">
         <v>2</v>
@@ -17697,7 +17697,7 @@
       </c>
       <c r="H134" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I134">
         <v>4</v>
@@ -17740,7 +17740,7 @@
       </c>
       <c r="H135" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I135">
         <v>4</v>
@@ -17783,7 +17783,7 @@
       </c>
       <c r="H136" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I136">
         <v>14</v>
@@ -17826,7 +17826,7 @@
       </c>
       <c r="H137" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I137">
         <v>2</v>
@@ -17869,7 +17869,7 @@
       </c>
       <c r="H138" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I138">
         <v>6</v>
@@ -17912,7 +17912,7 @@
       </c>
       <c r="H139" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I139">
         <v>16</v>
@@ -17955,7 +17955,7 @@
       </c>
       <c r="H140" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I140">
         <v>4</v>
@@ -17998,7 +17998,7 @@
       </c>
       <c r="H141" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45882</v>
+        <v>45890</v>
       </c>
       <c r="I141">
         <v>2</v>
@@ -18041,7 +18041,7 @@
       </c>
       <c r="H142" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I142">
         <v>2</v>
@@ -18084,7 +18084,7 @@
       </c>
       <c r="H143" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I143">
         <v>2</v>
@@ -18127,7 +18127,7 @@
       </c>
       <c r="H144" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I144">
         <v>18</v>
@@ -18170,7 +18170,7 @@
       </c>
       <c r="H145" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I145">
         <v>12</v>
@@ -18213,7 +18213,7 @@
       </c>
       <c r="H146" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I146">
         <v>2</v>
@@ -18256,7 +18256,7 @@
       </c>
       <c r="H147" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I147">
         <v>2</v>
@@ -18299,7 +18299,7 @@
       </c>
       <c r="H148" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I148">
         <v>18</v>
@@ -18342,7 +18342,7 @@
       </c>
       <c r="H149" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I149">
         <v>2</v>
@@ -18385,7 +18385,7 @@
       </c>
       <c r="H150" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I150">
         <v>4</v>
@@ -18428,7 +18428,7 @@
       </c>
       <c r="H151" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I151">
         <v>2</v>
@@ -18471,7 +18471,7 @@
       </c>
       <c r="H152" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I152">
         <v>4</v>
@@ -18514,7 +18514,7 @@
       </c>
       <c r="H153" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I153">
         <v>8</v>
@@ -18557,7 +18557,7 @@
       </c>
       <c r="H154" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I154">
         <v>8</v>
@@ -18600,7 +18600,7 @@
       </c>
       <c r="H155" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I155">
         <v>4</v>
@@ -18643,7 +18643,7 @@
       </c>
       <c r="H156" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I156">
         <v>6</v>
@@ -18686,7 +18686,7 @@
       </c>
       <c r="H157" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I157">
         <v>2</v>
@@ -18729,7 +18729,7 @@
       </c>
       <c r="H158" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I158">
         <v>8</v>
@@ -18772,7 +18772,7 @@
       </c>
       <c r="H159" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I159">
         <v>2</v>
@@ -18815,7 +18815,7 @@
       </c>
       <c r="H160" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I160">
         <v>2</v>
@@ -18858,7 +18858,7 @@
       </c>
       <c r="H161" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45883</v>
+        <v>45891</v>
       </c>
       <c r="I161">
         <v>2</v>
@@ -18901,7 +18901,7 @@
       </c>
       <c r="H162" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I162">
         <v>2</v>
@@ -18944,7 +18944,7 @@
       </c>
       <c r="H163" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I163">
         <v>2</v>
@@ -18987,7 +18987,7 @@
       </c>
       <c r="H164" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I164">
         <v>4</v>
@@ -19030,7 +19030,7 @@
       </c>
       <c r="H165" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I165">
         <v>10</v>
@@ -19073,7 +19073,7 @@
       </c>
       <c r="H166" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I166">
         <v>2</v>
@@ -19116,7 +19116,7 @@
       </c>
       <c r="H167" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I167">
         <v>2</v>
@@ -19159,7 +19159,7 @@
       </c>
       <c r="H168" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I168">
         <v>2</v>
@@ -19202,7 +19202,7 @@
       </c>
       <c r="H169" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I169">
         <v>2</v>
@@ -19245,7 +19245,7 @@
       </c>
       <c r="H170" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I170">
         <v>2</v>
@@ -19288,7 +19288,7 @@
       </c>
       <c r="H171" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I171">
         <v>2</v>
@@ -19331,7 +19331,7 @@
       </c>
       <c r="H172" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I172">
         <v>2</v>
@@ -19374,7 +19374,7 @@
       </c>
       <c r="H173" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I173">
         <v>2</v>
@@ -19417,7 +19417,7 @@
       </c>
       <c r="H174" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I174">
         <v>6</v>
@@ -19460,7 +19460,7 @@
       </c>
       <c r="H175" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I175">
         <v>2</v>
@@ -19503,7 +19503,7 @@
       </c>
       <c r="H176" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I176">
         <v>2</v>
@@ -19546,7 +19546,7 @@
       </c>
       <c r="H177" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I177">
         <v>6</v>
@@ -19589,7 +19589,7 @@
       </c>
       <c r="H178" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I178">
         <v>2</v>
@@ -19632,7 +19632,7 @@
       </c>
       <c r="H179" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I179">
         <v>6</v>
@@ -19675,7 +19675,7 @@
       </c>
       <c r="H180" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I180">
         <v>6</v>
@@ -19718,7 +19718,7 @@
       </c>
       <c r="H181" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45884</v>
+        <v>45892</v>
       </c>
       <c r="I181">
         <v>2</v>
@@ -19761,7 +19761,7 @@
       </c>
       <c r="H182" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I182">
         <v>10</v>
@@ -19804,7 +19804,7 @@
       </c>
       <c r="H183" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I183">
         <v>2</v>
@@ -19847,7 +19847,7 @@
       </c>
       <c r="H184" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I184">
         <v>2</v>
@@ -19890,7 +19890,7 @@
       </c>
       <c r="H185" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I185">
         <v>2</v>
@@ -19933,7 +19933,7 @@
       </c>
       <c r="H186" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I186">
         <v>2</v>
@@ -19976,7 +19976,7 @@
       </c>
       <c r="H187" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I187">
         <v>14</v>
@@ -20019,7 +20019,7 @@
       </c>
       <c r="H188" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I188">
         <v>2</v>
@@ -20062,7 +20062,7 @@
       </c>
       <c r="H189" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I189">
         <v>12</v>
@@ -20105,7 +20105,7 @@
       </c>
       <c r="H190" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I190">
         <v>4</v>
@@ -20148,7 +20148,7 @@
       </c>
       <c r="H191" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I191">
         <v>16</v>
@@ -20191,7 +20191,7 @@
       </c>
       <c r="H192" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I192">
         <v>2</v>
@@ -20234,7 +20234,7 @@
       </c>
       <c r="H193" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I193">
         <v>2</v>
@@ -20277,7 +20277,7 @@
       </c>
       <c r="H194" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I194">
         <v>8</v>
@@ -20320,7 +20320,7 @@
       </c>
       <c r="H195" s="1">
         <f t="shared" ref="H195:H258" ca="1" si="6">TODAY()+M195</f>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I195">
         <v>12</v>
@@ -20363,7 +20363,7 @@
       </c>
       <c r="H196" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I196">
         <v>4</v>
@@ -20406,7 +20406,7 @@
       </c>
       <c r="H197" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I197">
         <v>8</v>
@@ -20449,7 +20449,7 @@
       </c>
       <c r="H198" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I198">
         <v>2</v>
@@ -20492,7 +20492,7 @@
       </c>
       <c r="H199" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I199">
         <v>4</v>
@@ -20535,7 +20535,7 @@
       </c>
       <c r="H200" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I200">
         <v>2</v>
@@ -20578,7 +20578,7 @@
       </c>
       <c r="H201" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45885</v>
+        <v>45893</v>
       </c>
       <c r="I201">
         <v>2</v>
@@ -20621,7 +20621,7 @@
       </c>
       <c r="H202" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I202">
         <v>2</v>
@@ -20664,7 +20664,7 @@
       </c>
       <c r="H203" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I203">
         <v>4</v>
@@ -20707,7 +20707,7 @@
       </c>
       <c r="H204" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I204">
         <v>2</v>
@@ -20750,7 +20750,7 @@
       </c>
       <c r="H205" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I205">
         <v>8</v>
@@ -20793,7 +20793,7 @@
       </c>
       <c r="H206" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I206">
         <v>12</v>
@@ -20836,7 +20836,7 @@
       </c>
       <c r="H207" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I207">
         <v>8</v>
@@ -20879,7 +20879,7 @@
       </c>
       <c r="H208" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I208">
         <v>4</v>
@@ -20922,7 +20922,7 @@
       </c>
       <c r="H209" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I209">
         <v>4</v>
@@ -20965,7 +20965,7 @@
       </c>
       <c r="H210" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I210">
         <v>2</v>
@@ -21008,7 +21008,7 @@
       </c>
       <c r="H211" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I211">
         <v>12</v>
@@ -21051,7 +21051,7 @@
       </c>
       <c r="H212" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I212">
         <v>8</v>
@@ -21094,7 +21094,7 @@
       </c>
       <c r="H213" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I213">
         <v>4</v>
@@ -21137,7 +21137,7 @@
       </c>
       <c r="H214" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I214">
         <v>2</v>
@@ -21180,7 +21180,7 @@
       </c>
       <c r="H215" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I215">
         <v>12</v>
@@ -21223,7 +21223,7 @@
       </c>
       <c r="H216" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I216">
         <v>2</v>
@@ -21266,7 +21266,7 @@
       </c>
       <c r="H217" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I217">
         <v>2</v>
@@ -21309,7 +21309,7 @@
       </c>
       <c r="H218" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I218">
         <v>2</v>
@@ -21352,7 +21352,7 @@
       </c>
       <c r="H219" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I219">
         <v>4</v>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="H220" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I220">
         <v>2</v>
@@ -21438,7 +21438,7 @@
       </c>
       <c r="H221" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45886</v>
+        <v>45894</v>
       </c>
       <c r="I221">
         <v>8</v>
@@ -21481,7 +21481,7 @@
       </c>
       <c r="H222" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I222">
         <v>10</v>
@@ -21524,7 +21524,7 @@
       </c>
       <c r="H223" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I223">
         <v>12</v>
@@ -21567,7 +21567,7 @@
       </c>
       <c r="H224" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I224">
         <v>2</v>
@@ -21610,7 +21610,7 @@
       </c>
       <c r="H225" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I225">
         <v>8</v>
@@ -21653,7 +21653,7 @@
       </c>
       <c r="H226" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I226">
         <v>4</v>
@@ -21696,7 +21696,7 @@
       </c>
       <c r="H227" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I227">
         <v>12</v>
@@ -21739,7 +21739,7 @@
       </c>
       <c r="H228" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I228">
         <v>4</v>
@@ -21782,7 +21782,7 @@
       </c>
       <c r="H229" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I229">
         <v>8</v>
@@ -21825,7 +21825,7 @@
       </c>
       <c r="H230" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I230">
         <v>6</v>
@@ -21868,7 +21868,7 @@
       </c>
       <c r="H231" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I231">
         <v>12</v>
@@ -21911,7 +21911,7 @@
       </c>
       <c r="H232" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I232">
         <v>2</v>
@@ -21954,7 +21954,7 @@
       </c>
       <c r="H233" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I233">
         <v>6</v>
@@ -21997,7 +21997,7 @@
       </c>
       <c r="H234" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I234">
         <v>2</v>
@@ -22040,7 +22040,7 @@
       </c>
       <c r="H235" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I235">
         <v>2</v>
@@ -22083,7 +22083,7 @@
       </c>
       <c r="H236" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I236">
         <v>2</v>
@@ -22126,7 +22126,7 @@
       </c>
       <c r="H237" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I237">
         <v>2</v>
@@ -22169,7 +22169,7 @@
       </c>
       <c r="H238" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I238">
         <v>10</v>
@@ -22212,7 +22212,7 @@
       </c>
       <c r="H239" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I239">
         <v>4</v>
@@ -22255,7 +22255,7 @@
       </c>
       <c r="H240" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I240">
         <v>2</v>
@@ -22298,7 +22298,7 @@
       </c>
       <c r="H241" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45887</v>
+        <v>45895</v>
       </c>
       <c r="I241">
         <v>4</v>
@@ -22341,7 +22341,7 @@
       </c>
       <c r="H242" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I242">
         <v>2</v>
@@ -22384,7 +22384,7 @@
       </c>
       <c r="H243" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I243">
         <v>2</v>
@@ -22427,7 +22427,7 @@
       </c>
       <c r="H244" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I244">
         <v>2</v>
@@ -22470,7 +22470,7 @@
       </c>
       <c r="H245" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I245">
         <v>4</v>
@@ -22513,7 +22513,7 @@
       </c>
       <c r="H246" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I246">
         <v>4</v>
@@ -22556,7 +22556,7 @@
       </c>
       <c r="H247" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I247">
         <v>4</v>
@@ -22599,7 +22599,7 @@
       </c>
       <c r="H248" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I248">
         <v>2</v>
@@ -22642,7 +22642,7 @@
       </c>
       <c r="H249" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I249">
         <v>12</v>
@@ -22685,7 +22685,7 @@
       </c>
       <c r="H250" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I250">
         <v>10</v>
@@ -22728,7 +22728,7 @@
       </c>
       <c r="H251" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I251">
         <v>4</v>
@@ -22771,7 +22771,7 @@
       </c>
       <c r="H252" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I252">
         <v>8</v>
@@ -22814,7 +22814,7 @@
       </c>
       <c r="H253" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I253">
         <v>2</v>
@@ -22857,7 +22857,7 @@
       </c>
       <c r="H254" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I254">
         <v>8</v>
@@ -22900,7 +22900,7 @@
       </c>
       <c r="H255" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I255">
         <v>6</v>
@@ -22943,7 +22943,7 @@
       </c>
       <c r="H256" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I256">
         <v>2</v>
@@ -22986,7 +22986,7 @@
       </c>
       <c r="H257" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I257">
         <v>10</v>
@@ -23029,7 +23029,7 @@
       </c>
       <c r="H258" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I258">
         <v>2</v>
@@ -23072,7 +23072,7 @@
       </c>
       <c r="H259" s="1">
         <f t="shared" ref="H259:H322" ca="1" si="8">TODAY()+M259</f>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I259">
         <v>6</v>
@@ -23115,7 +23115,7 @@
       </c>
       <c r="H260" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I260">
         <v>6</v>
@@ -23158,7 +23158,7 @@
       </c>
       <c r="H261" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45888</v>
+        <v>45896</v>
       </c>
       <c r="I261">
         <v>12</v>
@@ -23201,7 +23201,7 @@
       </c>
       <c r="H262" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I262">
         <v>4</v>
@@ -23244,7 +23244,7 @@
       </c>
       <c r="H263" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I263">
         <v>12</v>
@@ -23287,7 +23287,7 @@
       </c>
       <c r="H264" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I264">
         <v>12</v>
@@ -23330,7 +23330,7 @@
       </c>
       <c r="H265" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I265">
         <v>6</v>
@@ -23373,7 +23373,7 @@
       </c>
       <c r="H266" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I266">
         <v>6</v>
@@ -23416,7 +23416,7 @@
       </c>
       <c r="H267" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I267">
         <v>10</v>
@@ -23459,7 +23459,7 @@
       </c>
       <c r="H268" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I268">
         <v>2</v>
@@ -23502,7 +23502,7 @@
       </c>
       <c r="H269" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I269">
         <v>2</v>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="H270" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I270">
         <v>10</v>
@@ -23588,7 +23588,7 @@
       </c>
       <c r="H271" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I271">
         <v>8</v>
@@ -23631,7 +23631,7 @@
       </c>
       <c r="H272" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I272">
         <v>2</v>
@@ -23674,7 +23674,7 @@
       </c>
       <c r="H273" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I273">
         <v>2</v>
@@ -23717,7 +23717,7 @@
       </c>
       <c r="H274" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I274">
         <v>2</v>
@@ -23760,7 +23760,7 @@
       </c>
       <c r="H275" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I275">
         <v>6</v>
@@ -23803,7 +23803,7 @@
       </c>
       <c r="H276" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I276">
         <v>2</v>
@@ -23846,7 +23846,7 @@
       </c>
       <c r="H277" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I277">
         <v>2</v>
@@ -23889,7 +23889,7 @@
       </c>
       <c r="H278" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I278">
         <v>2</v>
@@ -23932,7 +23932,7 @@
       </c>
       <c r="H279" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I279">
         <v>14</v>
@@ -23975,7 +23975,7 @@
       </c>
       <c r="H280" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I280">
         <v>8</v>
@@ -24018,7 +24018,7 @@
       </c>
       <c r="H281" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45889</v>
+        <v>45897</v>
       </c>
       <c r="I281">
         <v>2</v>
@@ -24061,7 +24061,7 @@
       </c>
       <c r="H282" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I282">
         <v>12</v>
@@ -24104,7 +24104,7 @@
       </c>
       <c r="H283" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I283">
         <v>2</v>
@@ -24147,7 +24147,7 @@
       </c>
       <c r="H284" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I284">
         <v>2</v>
@@ -24190,7 +24190,7 @@
       </c>
       <c r="H285" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I285">
         <v>2</v>
@@ -24233,7 +24233,7 @@
       </c>
       <c r="H286" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I286">
         <v>2</v>
@@ -24276,7 +24276,7 @@
       </c>
       <c r="H287" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I287">
         <v>2</v>
@@ -24319,7 +24319,7 @@
       </c>
       <c r="H288" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I288">
         <v>2</v>
@@ -24362,7 +24362,7 @@
       </c>
       <c r="H289" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I289">
         <v>16</v>
@@ -24405,7 +24405,7 @@
       </c>
       <c r="H290" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I290">
         <v>2</v>
@@ -24448,7 +24448,7 @@
       </c>
       <c r="H291" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I291">
         <v>2</v>
@@ -24491,7 +24491,7 @@
       </c>
       <c r="H292" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I292">
         <v>8</v>
@@ -24534,7 +24534,7 @@
       </c>
       <c r="H293" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I293">
         <v>2</v>
@@ -24577,7 +24577,7 @@
       </c>
       <c r="H294" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I294">
         <v>12</v>
@@ -24620,7 +24620,7 @@
       </c>
       <c r="H295" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I295">
         <v>4</v>
@@ -24663,7 +24663,7 @@
       </c>
       <c r="H296" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I296">
         <v>6</v>
@@ -24706,7 +24706,7 @@
       </c>
       <c r="H297" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I297">
         <v>4</v>
@@ -24749,7 +24749,7 @@
       </c>
       <c r="H298" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I298">
         <v>2</v>
@@ -24792,7 +24792,7 @@
       </c>
       <c r="H299" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I299">
         <v>2</v>
@@ -24835,7 +24835,7 @@
       </c>
       <c r="H300" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I300">
         <v>4</v>
@@ -24878,7 +24878,7 @@
       </c>
       <c r="H301" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45890</v>
+        <v>45898</v>
       </c>
       <c r="I301">
         <v>2</v>
@@ -24921,7 +24921,7 @@
       </c>
       <c r="H302" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I302">
         <v>2</v>
@@ -24964,7 +24964,7 @@
       </c>
       <c r="H303" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I303">
         <v>16</v>
@@ -25007,7 +25007,7 @@
       </c>
       <c r="H304" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I304">
         <v>2</v>
@@ -25050,7 +25050,7 @@
       </c>
       <c r="H305" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I305">
         <v>2</v>
@@ -25093,7 +25093,7 @@
       </c>
       <c r="H306" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I306">
         <v>10</v>
@@ -25136,7 +25136,7 @@
       </c>
       <c r="H307" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I307">
         <v>2</v>
@@ -25179,7 +25179,7 @@
       </c>
       <c r="H308" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I308">
         <v>2</v>
@@ -25222,7 +25222,7 @@
       </c>
       <c r="H309" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I309">
         <v>14</v>
@@ -25265,7 +25265,7 @@
       </c>
       <c r="H310" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I310">
         <v>18</v>
@@ -25308,7 +25308,7 @@
       </c>
       <c r="H311" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I311">
         <v>2</v>
@@ -25351,7 +25351,7 @@
       </c>
       <c r="H312" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I312">
         <v>8</v>
@@ -25394,7 +25394,7 @@
       </c>
       <c r="H313" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I313">
         <v>2</v>
@@ -25437,7 +25437,7 @@
       </c>
       <c r="H314" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I314">
         <v>8</v>
@@ -25480,7 +25480,7 @@
       </c>
       <c r="H315" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I315">
         <v>2</v>
@@ -25523,7 +25523,7 @@
       </c>
       <c r="H316" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I316">
         <v>2</v>
@@ -25566,7 +25566,7 @@
       </c>
       <c r="H317" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I317">
         <v>12</v>
@@ -25609,7 +25609,7 @@
       </c>
       <c r="H318" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I318">
         <v>2</v>
@@ -25652,7 +25652,7 @@
       </c>
       <c r="H319" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I319">
         <v>8</v>
@@ -25695,7 +25695,7 @@
       </c>
       <c r="H320" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I320">
         <v>6</v>
@@ -25738,7 +25738,7 @@
       </c>
       <c r="H321" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45891</v>
+        <v>45899</v>
       </c>
       <c r="I321">
         <v>6</v>
@@ -25781,7 +25781,7 @@
       </c>
       <c r="H322" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I322">
         <v>2</v>
@@ -25824,7 +25824,7 @@
       </c>
       <c r="H323" s="1">
         <f t="shared" ref="H323:H386" ca="1" si="10">TODAY()+M323</f>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I323">
         <v>4</v>
@@ -25867,7 +25867,7 @@
       </c>
       <c r="H324" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I324">
         <v>10</v>
@@ -25910,7 +25910,7 @@
       </c>
       <c r="H325" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I325">
         <v>2</v>
@@ -25953,7 +25953,7 @@
       </c>
       <c r="H326" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I326">
         <v>12</v>
@@ -25996,7 +25996,7 @@
       </c>
       <c r="H327" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I327">
         <v>8</v>
@@ -26039,7 +26039,7 @@
       </c>
       <c r="H328" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I328">
         <v>2</v>
@@ -26082,7 +26082,7 @@
       </c>
       <c r="H329" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I329">
         <v>8</v>
@@ -26125,7 +26125,7 @@
       </c>
       <c r="H330" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I330">
         <v>2</v>
@@ -26168,7 +26168,7 @@
       </c>
       <c r="H331" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I331">
         <v>2</v>
@@ -26211,7 +26211,7 @@
       </c>
       <c r="H332" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I332">
         <v>4</v>
@@ -26254,7 +26254,7 @@
       </c>
       <c r="H333" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I333">
         <v>10</v>
@@ -26297,7 +26297,7 @@
       </c>
       <c r="H334" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I334">
         <v>2</v>
@@ -26340,7 +26340,7 @@
       </c>
       <c r="H335" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I335">
         <v>12</v>
@@ -26383,7 +26383,7 @@
       </c>
       <c r="H336" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I336">
         <v>4</v>
@@ -26426,7 +26426,7 @@
       </c>
       <c r="H337" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I337">
         <v>4</v>
@@ -26469,7 +26469,7 @@
       </c>
       <c r="H338" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I338">
         <v>8</v>
@@ -26512,7 +26512,7 @@
       </c>
       <c r="H339" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I339">
         <v>4</v>
@@ -26555,7 +26555,7 @@
       </c>
       <c r="H340" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I340">
         <v>6</v>
@@ -26598,7 +26598,7 @@
       </c>
       <c r="H341" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45892</v>
+        <v>45900</v>
       </c>
       <c r="I341">
         <v>8</v>
@@ -26641,7 +26641,7 @@
       </c>
       <c r="H342" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I342">
         <v>6</v>
@@ -26684,7 +26684,7 @@
       </c>
       <c r="H343" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I343">
         <v>10</v>
@@ -26727,7 +26727,7 @@
       </c>
       <c r="H344" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I344">
         <v>2</v>
@@ -26770,7 +26770,7 @@
       </c>
       <c r="H345" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I345">
         <v>8</v>
@@ -26813,7 +26813,7 @@
       </c>
       <c r="H346" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I346">
         <v>4</v>
@@ -26856,7 +26856,7 @@
       </c>
       <c r="H347" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I347">
         <v>10</v>
@@ -26899,7 +26899,7 @@
       </c>
       <c r="H348" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I348">
         <v>2</v>
@@ -26942,7 +26942,7 @@
       </c>
       <c r="H349" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I349">
         <v>2</v>
@@ -26985,7 +26985,7 @@
       </c>
       <c r="H350" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I350">
         <v>2</v>
@@ -27028,7 +27028,7 @@
       </c>
       <c r="H351" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I351">
         <v>4</v>
@@ -27071,7 +27071,7 @@
       </c>
       <c r="H352" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I352">
         <v>2</v>
@@ -27114,7 +27114,7 @@
       </c>
       <c r="H353" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I353">
         <v>4</v>
@@ -27157,7 +27157,7 @@
       </c>
       <c r="H354" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I354">
         <v>14</v>
@@ -27200,7 +27200,7 @@
       </c>
       <c r="H355" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I355">
         <v>2</v>
@@ -27243,7 +27243,7 @@
       </c>
       <c r="H356" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I356">
         <v>2</v>
@@ -27286,7 +27286,7 @@
       </c>
       <c r="H357" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I357">
         <v>2</v>
@@ -27329,7 +27329,7 @@
       </c>
       <c r="H358" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I358">
         <v>2</v>
@@ -27372,7 +27372,7 @@
       </c>
       <c r="H359" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I359">
         <v>2</v>
@@ -27415,7 +27415,7 @@
       </c>
       <c r="H360" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I360">
         <v>2</v>
@@ -27458,7 +27458,7 @@
       </c>
       <c r="H361" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45893</v>
+        <v>45901</v>
       </c>
       <c r="I361">
         <v>2</v>
@@ -27501,7 +27501,7 @@
       </c>
       <c r="H362" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I362">
         <v>2</v>
@@ -27544,7 +27544,7 @@
       </c>
       <c r="H363" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I363">
         <v>2</v>
@@ -27587,7 +27587,7 @@
       </c>
       <c r="H364" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I364">
         <v>12</v>
@@ -27630,7 +27630,7 @@
       </c>
       <c r="H365" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I365">
         <v>6</v>
@@ -27673,7 +27673,7 @@
       </c>
       <c r="H366" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I366">
         <v>8</v>
@@ -27716,7 +27716,7 @@
       </c>
       <c r="H367" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I367">
         <v>12</v>
@@ -27759,7 +27759,7 @@
       </c>
       <c r="H368" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I368">
         <v>2</v>
@@ -27802,7 +27802,7 @@
       </c>
       <c r="H369" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I369">
         <v>2</v>
@@ -27845,7 +27845,7 @@
       </c>
       <c r="H370" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I370">
         <v>2</v>
@@ -27888,7 +27888,7 @@
       </c>
       <c r="H371" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I371">
         <v>4</v>
@@ -27931,7 +27931,7 @@
       </c>
       <c r="H372" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I372">
         <v>8</v>
@@ -27974,7 +27974,7 @@
       </c>
       <c r="H373" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I373">
         <v>2</v>
@@ -28017,7 +28017,7 @@
       </c>
       <c r="H374" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I374">
         <v>12</v>
@@ -28060,7 +28060,7 @@
       </c>
       <c r="H375" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I375">
         <v>12</v>
@@ -28103,7 +28103,7 @@
       </c>
       <c r="H376" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I376">
         <v>2</v>
@@ -28146,7 +28146,7 @@
       </c>
       <c r="H377" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I377">
         <v>16</v>
@@ -28189,7 +28189,7 @@
       </c>
       <c r="H378" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I378">
         <v>2</v>
@@ -28232,7 +28232,7 @@
       </c>
       <c r="H379" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I379">
         <v>2</v>
@@ -28275,7 +28275,7 @@
       </c>
       <c r="H380" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I380">
         <v>2</v>
@@ -28318,7 +28318,7 @@
       </c>
       <c r="H381" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45894</v>
+        <v>45902</v>
       </c>
       <c r="I381">
         <v>2</v>
@@ -28361,7 +28361,7 @@
       </c>
       <c r="H382" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I382">
         <v>18</v>
@@ -28404,7 +28404,7 @@
       </c>
       <c r="H383" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I383">
         <v>2</v>
@@ -28447,7 +28447,7 @@
       </c>
       <c r="H384" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I384">
         <v>2</v>
@@ -28490,7 +28490,7 @@
       </c>
       <c r="H385" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I385">
         <v>2</v>
@@ -28533,7 +28533,7 @@
       </c>
       <c r="H386" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I386">
         <v>2</v>
@@ -28576,7 +28576,7 @@
       </c>
       <c r="H387" s="1">
         <f t="shared" ref="H387:H449" ca="1" si="12">TODAY()+M387</f>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I387">
         <v>8</v>
@@ -28619,7 +28619,7 @@
       </c>
       <c r="H388" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I388">
         <v>16</v>
@@ -28662,7 +28662,7 @@
       </c>
       <c r="H389" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I389">
         <v>16</v>
@@ -28705,7 +28705,7 @@
       </c>
       <c r="H390" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I390">
         <v>4</v>
@@ -28748,7 +28748,7 @@
       </c>
       <c r="H391" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I391">
         <v>2</v>
@@ -28791,7 +28791,7 @@
       </c>
       <c r="H392" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I392">
         <v>12</v>
@@ -28834,7 +28834,7 @@
       </c>
       <c r="H393" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I393">
         <v>8</v>
@@ -28877,7 +28877,7 @@
       </c>
       <c r="H394" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I394">
         <v>2</v>
@@ -28920,7 +28920,7 @@
       </c>
       <c r="H395" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I395">
         <v>2</v>
@@ -28963,7 +28963,7 @@
       </c>
       <c r="H396" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I396">
         <v>12</v>
@@ -29006,7 +29006,7 @@
       </c>
       <c r="H397" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I397">
         <v>2</v>
@@ -29049,7 +29049,7 @@
       </c>
       <c r="H398" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I398">
         <v>2</v>
@@ -29092,7 +29092,7 @@
       </c>
       <c r="H399" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I399">
         <v>12</v>
@@ -29135,7 +29135,7 @@
       </c>
       <c r="H400" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I400">
         <v>14</v>
@@ -29178,7 +29178,7 @@
       </c>
       <c r="H401" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45895</v>
+        <v>45903</v>
       </c>
       <c r="I401">
         <v>2</v>
@@ -29221,7 +29221,7 @@
       </c>
       <c r="H402" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I402">
         <v>2</v>
@@ -29264,7 +29264,7 @@
       </c>
       <c r="H403" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I403">
         <v>4</v>
@@ -29307,7 +29307,7 @@
       </c>
       <c r="H404" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I404">
         <v>12</v>
@@ -29350,7 +29350,7 @@
       </c>
       <c r="H405" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I405">
         <v>10</v>
@@ -29393,7 +29393,7 @@
       </c>
       <c r="H406" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I406">
         <v>2</v>
@@ -29436,7 +29436,7 @@
       </c>
       <c r="H407" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I407">
         <v>2</v>
@@ -29479,7 +29479,7 @@
       </c>
       <c r="H408" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I408">
         <v>2</v>
@@ -29522,7 +29522,7 @@
       </c>
       <c r="H409" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I409">
         <v>12</v>
@@ -29565,7 +29565,7 @@
       </c>
       <c r="H410" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I410">
         <v>2</v>
@@ -29608,7 +29608,7 @@
       </c>
       <c r="H411" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I411">
         <v>4</v>
@@ -29651,7 +29651,7 @@
       </c>
       <c r="H412" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I412">
         <v>4</v>
@@ -29694,7 +29694,7 @@
       </c>
       <c r="H413" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I413">
         <v>2</v>
@@ -29737,7 +29737,7 @@
       </c>
       <c r="H414" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I414">
         <v>4</v>
@@ -29780,7 +29780,7 @@
       </c>
       <c r="H415" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I415">
         <v>12</v>
@@ -29823,7 +29823,7 @@
       </c>
       <c r="H416" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I416">
         <v>12</v>
@@ -29866,7 +29866,7 @@
       </c>
       <c r="H417" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I417">
         <v>4</v>
@@ -29909,7 +29909,7 @@
       </c>
       <c r="H418" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I418">
         <v>14</v>
@@ -29952,7 +29952,7 @@
       </c>
       <c r="H419" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I419">
         <v>2</v>
@@ -29995,7 +29995,7 @@
       </c>
       <c r="H420" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45896</v>
+        <v>45904</v>
       </c>
       <c r="I420">
         <v>10</v>
@@ -30038,7 +30038,7 @@
       </c>
       <c r="H421" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I421">
         <v>10</v>
@@ -30081,7 +30081,7 @@
       </c>
       <c r="H422" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I422">
         <v>2</v>
@@ -30124,7 +30124,7 @@
       </c>
       <c r="H423" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I423">
         <v>10</v>
@@ -30167,7 +30167,7 @@
       </c>
       <c r="H424" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I424">
         <v>4</v>
@@ -30210,7 +30210,7 @@
       </c>
       <c r="H425" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I425">
         <v>2</v>
@@ -30253,7 +30253,7 @@
       </c>
       <c r="H426" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I426">
         <v>12</v>
@@ -30296,7 +30296,7 @@
       </c>
       <c r="H427" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I427">
         <v>2</v>
@@ -30339,7 +30339,7 @@
       </c>
       <c r="H428" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I428">
         <v>4</v>
@@ -30382,7 +30382,7 @@
       </c>
       <c r="H429" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I429">
         <v>8</v>
@@ -30425,7 +30425,7 @@
       </c>
       <c r="H430" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I430">
         <v>6</v>
@@ -30468,7 +30468,7 @@
       </c>
       <c r="H431" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I431">
         <v>2</v>
@@ -30511,7 +30511,7 @@
       </c>
       <c r="H432" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I432">
         <v>6</v>
@@ -30554,7 +30554,7 @@
       </c>
       <c r="H433" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I433">
         <v>2</v>
@@ -30597,7 +30597,7 @@
       </c>
       <c r="H434" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I434">
         <v>2</v>
@@ -30640,7 +30640,7 @@
       </c>
       <c r="H435" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I435">
         <v>4</v>
@@ -30683,7 +30683,7 @@
       </c>
       <c r="H436" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I436">
         <v>2</v>
@@ -30726,7 +30726,7 @@
       </c>
       <c r="H437" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I437">
         <v>8</v>
@@ -30769,7 +30769,7 @@
       </c>
       <c r="H438" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I438">
         <v>8</v>
@@ -30812,7 +30812,7 @@
       </c>
       <c r="H439" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I439">
         <v>6</v>
@@ -30855,7 +30855,7 @@
       </c>
       <c r="H440" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45897</v>
+        <v>45905</v>
       </c>
       <c r="I440">
         <v>6</v>
@@ -30898,7 +30898,7 @@
       </c>
       <c r="H441" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I441">
         <v>2</v>
@@ -30941,7 +30941,7 @@
       </c>
       <c r="H442" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I442">
         <v>2</v>
@@ -30984,7 +30984,7 @@
       </c>
       <c r="H443" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I443">
         <v>4</v>
@@ -31027,7 +31027,7 @@
       </c>
       <c r="H444" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I444">
         <v>10</v>
@@ -31070,7 +31070,7 @@
       </c>
       <c r="H445" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I445">
         <v>2</v>
@@ -31113,7 +31113,7 @@
       </c>
       <c r="H446" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I446">
         <v>2</v>
@@ -31156,7 +31156,7 @@
       </c>
       <c r="H447" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I447">
         <v>6</v>
@@ -31199,7 +31199,7 @@
       </c>
       <c r="H448" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I448">
         <v>8</v>
@@ -31242,7 +31242,7 @@
       </c>
       <c r="H449" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I449">
         <v>8</v>
@@ -31285,7 +31285,7 @@
       </c>
       <c r="H450" s="1">
         <f t="shared" ref="H450:H513" ca="1" si="14">TODAY()+M450</f>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I450">
         <v>8</v>
@@ -31328,7 +31328,7 @@
       </c>
       <c r="H451" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I451">
         <v>4</v>
@@ -31371,7 +31371,7 @@
       </c>
       <c r="H452" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I452">
         <v>2</v>
@@ -31414,7 +31414,7 @@
       </c>
       <c r="H453" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I453">
         <v>2</v>
@@ -31457,7 +31457,7 @@
       </c>
       <c r="H454" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I454">
         <v>18</v>
@@ -31500,7 +31500,7 @@
       </c>
       <c r="H455" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I455">
         <v>4</v>
@@ -31543,7 +31543,7 @@
       </c>
       <c r="H456" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I456">
         <v>2</v>
@@ -31586,7 +31586,7 @@
       </c>
       <c r="H457" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I457">
         <v>2</v>
@@ -31629,7 +31629,7 @@
       </c>
       <c r="H458" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I458">
         <v>8</v>
@@ -31672,7 +31672,7 @@
       </c>
       <c r="H459" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I459">
         <v>2</v>
@@ -31715,7 +31715,7 @@
       </c>
       <c r="H460" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45898</v>
+        <v>45906</v>
       </c>
       <c r="I460">
         <v>2</v>
@@ -31758,7 +31758,7 @@
       </c>
       <c r="H461" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I461">
         <v>10</v>
@@ -31801,7 +31801,7 @@
       </c>
       <c r="H462" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I462">
         <v>12</v>
@@ -31844,7 +31844,7 @@
       </c>
       <c r="H463" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I463">
         <v>2</v>
@@ -31887,7 +31887,7 @@
       </c>
       <c r="H464" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I464">
         <v>4</v>
@@ -31930,7 +31930,7 @@
       </c>
       <c r="H465" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I465">
         <v>2</v>
@@ -31973,7 +31973,7 @@
       </c>
       <c r="H466" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I466">
         <v>4</v>
@@ -32016,7 +32016,7 @@
       </c>
       <c r="H467" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I467">
         <v>12</v>
@@ -32059,7 +32059,7 @@
       </c>
       <c r="H468" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I468">
         <v>4</v>
@@ -32102,7 +32102,7 @@
       </c>
       <c r="H469" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I469">
         <v>12</v>
@@ -32145,7 +32145,7 @@
       </c>
       <c r="H470" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I470">
         <v>2</v>
@@ -32188,7 +32188,7 @@
       </c>
       <c r="H471" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I471">
         <v>10</v>
@@ -32231,7 +32231,7 @@
       </c>
       <c r="H472" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I472">
         <v>2</v>
@@ -32274,7 +32274,7 @@
       </c>
       <c r="H473" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I473">
         <v>2</v>
@@ -32317,7 +32317,7 @@
       </c>
       <c r="H474" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I474">
         <v>14</v>
@@ -32360,7 +32360,7 @@
       </c>
       <c r="H475" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I475">
         <v>2</v>
@@ -32403,7 +32403,7 @@
       </c>
       <c r="H476" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I476">
         <v>2</v>
@@ -32446,7 +32446,7 @@
       </c>
       <c r="H477" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I477">
         <v>12</v>
@@ -32489,7 +32489,7 @@
       </c>
       <c r="H478" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I478">
         <v>2</v>
@@ -32532,7 +32532,7 @@
       </c>
       <c r="H479" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I479">
         <v>12</v>
@@ -32575,7 +32575,7 @@
       </c>
       <c r="H480" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45899</v>
+        <v>45907</v>
       </c>
       <c r="I480">
         <v>2</v>
@@ -32618,7 +32618,7 @@
       </c>
       <c r="H481" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I481">
         <v>2</v>
@@ -32661,7 +32661,7 @@
       </c>
       <c r="H482" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I482">
         <v>4</v>
@@ -32704,7 +32704,7 @@
       </c>
       <c r="H483" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I483">
         <v>12</v>
@@ -32747,7 +32747,7 @@
       </c>
       <c r="H484" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I484">
         <v>10</v>
@@ -32790,7 +32790,7 @@
       </c>
       <c r="H485" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I485">
         <v>2</v>
@@ -32833,7 +32833,7 @@
       </c>
       <c r="H486" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I486">
         <v>8</v>
@@ -32876,7 +32876,7 @@
       </c>
       <c r="H487" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I487">
         <v>2</v>
@@ -32919,7 +32919,7 @@
       </c>
       <c r="H488" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I488">
         <v>14</v>
@@ -32962,7 +32962,7 @@
       </c>
       <c r="H489" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I489">
         <v>2</v>
@@ -33005,7 +33005,7 @@
       </c>
       <c r="H490" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I490">
         <v>2</v>
@@ -33048,7 +33048,7 @@
       </c>
       <c r="H491" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I491">
         <v>12</v>
@@ -33091,7 +33091,7 @@
       </c>
       <c r="H492" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I492">
         <v>2</v>
@@ -33134,7 +33134,7 @@
       </c>
       <c r="H493" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I493">
         <v>4</v>
@@ -33177,7 +33177,7 @@
       </c>
       <c r="H494" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I494">
         <v>2</v>
@@ -33220,7 +33220,7 @@
       </c>
       <c r="H495" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I495">
         <v>10</v>
@@ -33263,7 +33263,7 @@
       </c>
       <c r="H496" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I496">
         <v>2</v>
@@ -33306,7 +33306,7 @@
       </c>
       <c r="H497" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I497">
         <v>2</v>
@@ -33349,7 +33349,7 @@
       </c>
       <c r="H498" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I498">
         <v>10</v>
@@ -33392,7 +33392,7 @@
       </c>
       <c r="H499" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I499">
         <v>12</v>
@@ -33435,7 +33435,7 @@
       </c>
       <c r="H500" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45900</v>
+        <v>45908</v>
       </c>
       <c r="I500">
         <v>2</v>
@@ -33478,7 +33478,7 @@
       </c>
       <c r="H501" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I501">
         <v>12</v>
@@ -33521,7 +33521,7 @@
       </c>
       <c r="H502" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I502">
         <v>2</v>
@@ -33564,7 +33564,7 @@
       </c>
       <c r="H503" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I503">
         <v>2</v>
@@ -33607,7 +33607,7 @@
       </c>
       <c r="H504" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I504">
         <v>2</v>
@@ -33650,7 +33650,7 @@
       </c>
       <c r="H505" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I505">
         <v>6</v>
@@ -33693,7 +33693,7 @@
       </c>
       <c r="H506" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I506">
         <v>4</v>
@@ -33736,7 +33736,7 @@
       </c>
       <c r="H507" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I507">
         <v>8</v>
@@ -33779,7 +33779,7 @@
       </c>
       <c r="H508" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I508">
         <v>6</v>
@@ -33822,7 +33822,7 @@
       </c>
       <c r="H509" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I509">
         <v>4</v>
@@ -33865,7 +33865,7 @@
       </c>
       <c r="H510" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I510">
         <v>6</v>
@@ -33908,7 +33908,7 @@
       </c>
       <c r="H511" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I511">
         <v>12</v>
@@ -33951,7 +33951,7 @@
       </c>
       <c r="H512" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I512">
         <v>2</v>
@@ -33994,7 +33994,7 @@
       </c>
       <c r="H513" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I513">
         <v>14</v>
@@ -34037,7 +34037,7 @@
       </c>
       <c r="H514" s="1">
         <f t="shared" ref="H514:H577" ca="1" si="16">TODAY()+M514</f>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I514">
         <v>2</v>
@@ -34080,7 +34080,7 @@
       </c>
       <c r="H515" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I515">
         <v>12</v>
@@ -34123,7 +34123,7 @@
       </c>
       <c r="H516" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I516">
         <v>4</v>
@@ -34166,7 +34166,7 @@
       </c>
       <c r="H517" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I517">
         <v>2</v>
@@ -34209,7 +34209,7 @@
       </c>
       <c r="H518" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I518">
         <v>16</v>
@@ -34252,7 +34252,7 @@
       </c>
       <c r="H519" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I519">
         <v>2</v>
@@ -34295,7 +34295,7 @@
       </c>
       <c r="H520" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45901</v>
+        <v>45909</v>
       </c>
       <c r="I520">
         <v>2</v>
@@ -34338,7 +34338,7 @@
       </c>
       <c r="H521" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I521">
         <v>8</v>
@@ -34381,7 +34381,7 @@
       </c>
       <c r="H522" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I522">
         <v>4</v>
@@ -34424,7 +34424,7 @@
       </c>
       <c r="H523" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I523">
         <v>2</v>
@@ -34467,7 +34467,7 @@
       </c>
       <c r="H524" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I524">
         <v>2</v>
@@ -34510,7 +34510,7 @@
       </c>
       <c r="H525" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I525">
         <v>12</v>
@@ -34553,7 +34553,7 @@
       </c>
       <c r="H526" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I526">
         <v>6</v>
@@ -34596,7 +34596,7 @@
       </c>
       <c r="H527" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I527">
         <v>2</v>
@@ -34639,7 +34639,7 @@
       </c>
       <c r="H528" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I528">
         <v>8</v>
@@ -34682,7 +34682,7 @@
       </c>
       <c r="H529" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I529">
         <v>2</v>
@@ -34725,7 +34725,7 @@
       </c>
       <c r="H530" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I530">
         <v>4</v>
@@ -34768,7 +34768,7 @@
       </c>
       <c r="H531" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I531">
         <v>2</v>
@@ -34811,7 +34811,7 @@
       </c>
       <c r="H532" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I532">
         <v>12</v>
@@ -34854,7 +34854,7 @@
       </c>
       <c r="H533" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I533">
         <v>2</v>
@@ -34897,7 +34897,7 @@
       </c>
       <c r="H534" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I534">
         <v>6</v>
@@ -34940,7 +34940,7 @@
       </c>
       <c r="H535" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I535">
         <v>4</v>
@@ -34983,7 +34983,7 @@
       </c>
       <c r="H536" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I536">
         <v>2</v>
@@ -35026,7 +35026,7 @@
       </c>
       <c r="H537" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I537">
         <v>4</v>
@@ -35069,7 +35069,7 @@
       </c>
       <c r="H538" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I538">
         <v>20</v>
@@ -35112,7 +35112,7 @@
       </c>
       <c r="H539" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I539">
         <v>2</v>
@@ -35155,7 +35155,7 @@
       </c>
       <c r="H540" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45902</v>
+        <v>45910</v>
       </c>
       <c r="I540">
         <v>6</v>
@@ -35198,7 +35198,7 @@
       </c>
       <c r="H541" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I541">
         <v>4</v>
@@ -35241,7 +35241,7 @@
       </c>
       <c r="H542" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I542">
         <v>4</v>
@@ -35284,7 +35284,7 @@
       </c>
       <c r="H543" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I543">
         <v>2</v>
@@ -35327,7 +35327,7 @@
       </c>
       <c r="H544" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I544">
         <v>2</v>
@@ -35370,7 +35370,7 @@
       </c>
       <c r="H545" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I545">
         <v>2</v>
@@ -35413,7 +35413,7 @@
       </c>
       <c r="H546" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I546">
         <v>8</v>
@@ -35456,7 +35456,7 @@
       </c>
       <c r="H547" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I547">
         <v>8</v>
@@ -35499,7 +35499,7 @@
       </c>
       <c r="H548" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I548">
         <v>2</v>
@@ -35542,7 +35542,7 @@
       </c>
       <c r="H549" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I549">
         <v>2</v>
@@ -35585,7 +35585,7 @@
       </c>
       <c r="H550" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I550">
         <v>8</v>
@@ -35628,7 +35628,7 @@
       </c>
       <c r="H551" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I551">
         <v>2</v>
@@ -35671,7 +35671,7 @@
       </c>
       <c r="H552" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I552">
         <v>12</v>
@@ -35714,7 +35714,7 @@
       </c>
       <c r="H553" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I553">
         <v>4</v>
@@ -35757,7 +35757,7 @@
       </c>
       <c r="H554" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I554">
         <v>6</v>
@@ -35800,7 +35800,7 @@
       </c>
       <c r="H555" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I555">
         <v>8</v>
@@ -35843,7 +35843,7 @@
       </c>
       <c r="H556" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I556">
         <v>2</v>
@@ -35886,7 +35886,7 @@
       </c>
       <c r="H557" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I557">
         <v>2</v>
@@ -35929,7 +35929,7 @@
       </c>
       <c r="H558" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I558">
         <v>4</v>
@@ -35972,7 +35972,7 @@
       </c>
       <c r="H559" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I559">
         <v>2</v>
@@ -36015,7 +36015,7 @@
       </c>
       <c r="H560" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45903</v>
+        <v>45911</v>
       </c>
       <c r="I560">
         <v>8</v>
@@ -36058,7 +36058,7 @@
       </c>
       <c r="H561" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I561">
         <v>4</v>
@@ -36101,7 +36101,7 @@
       </c>
       <c r="H562" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I562">
         <v>2</v>
@@ -36144,7 +36144,7 @@
       </c>
       <c r="H563" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I563">
         <v>2</v>
@@ -36187,7 +36187,7 @@
       </c>
       <c r="H564" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I564">
         <v>2</v>
@@ -36230,7 +36230,7 @@
       </c>
       <c r="H565" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I565">
         <v>2</v>
@@ -36273,7 +36273,7 @@
       </c>
       <c r="H566" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I566">
         <v>10</v>
@@ -36316,7 +36316,7 @@
       </c>
       <c r="H567" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I567">
         <v>2</v>
@@ -36359,7 +36359,7 @@
       </c>
       <c r="H568" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I568">
         <v>16</v>
@@ -36402,7 +36402,7 @@
       </c>
       <c r="H569" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I569">
         <v>4</v>
@@ -36445,7 +36445,7 @@
       </c>
       <c r="H570" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I570">
         <v>4</v>
@@ -36488,7 +36488,7 @@
       </c>
       <c r="H571" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I571">
         <v>8</v>
@@ -36531,7 +36531,7 @@
       </c>
       <c r="H572" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I572">
         <v>2</v>
@@ -36574,7 +36574,7 @@
       </c>
       <c r="H573" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I573">
         <v>12</v>
@@ -36617,7 +36617,7 @@
       </c>
       <c r="H574" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I574">
         <v>2</v>
@@ -36660,7 +36660,7 @@
       </c>
       <c r="H575" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I575">
         <v>12</v>
@@ -36703,7 +36703,7 @@
       </c>
       <c r="H576" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I576">
         <v>16</v>
@@ -36746,7 +36746,7 @@
       </c>
       <c r="H577" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I577">
         <v>2</v>
@@ -36789,7 +36789,7 @@
       </c>
       <c r="H578" s="1">
         <f t="shared" ref="H578:H596" ca="1" si="18">TODAY()+M578</f>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I578">
         <v>2</v>
@@ -36832,7 +36832,7 @@
       </c>
       <c r="H579" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I579">
         <v>2</v>
@@ -36875,7 +36875,7 @@
       </c>
       <c r="H580" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45904</v>
+        <v>45912</v>
       </c>
       <c r="I580">
         <v>12</v>
@@ -36918,7 +36918,7 @@
       </c>
       <c r="H581" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I581">
         <v>12</v>
@@ -36961,7 +36961,7 @@
       </c>
       <c r="H582" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I582">
         <v>2</v>
@@ -37004,7 +37004,7 @@
       </c>
       <c r="H583" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I583">
         <v>4</v>
@@ -37047,7 +37047,7 @@
       </c>
       <c r="H584" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I584">
         <v>6</v>
@@ -37090,7 +37090,7 @@
       </c>
       <c r="H585" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I585">
         <v>4</v>
@@ -37133,7 +37133,7 @@
       </c>
       <c r="H586" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I586">
         <v>2</v>
@@ -37176,7 +37176,7 @@
       </c>
       <c r="H587" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I587">
         <v>2</v>
@@ -37219,7 +37219,7 @@
       </c>
       <c r="H588" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I588">
         <v>12</v>
@@ -37262,7 +37262,7 @@
       </c>
       <c r="H589" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I589">
         <v>8</v>
@@ -37305,7 +37305,7 @@
       </c>
       <c r="H590" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I590">
         <v>2</v>
@@ -37348,7 +37348,7 @@
       </c>
       <c r="H591" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I591">
         <v>2</v>
@@ -37391,7 +37391,7 @@
       </c>
       <c r="H592" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I592">
         <v>2</v>
@@ -37434,7 +37434,7 @@
       </c>
       <c r="H593" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I593">
         <v>2</v>
@@ -37477,7 +37477,7 @@
       </c>
       <c r="H594" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I594">
         <v>12</v>
@@ -37520,7 +37520,7 @@
       </c>
       <c r="H595" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I595">
         <v>6</v>
@@ -37563,7 +37563,7 @@
       </c>
       <c r="H596" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45905</v>
+        <v>45913</v>
       </c>
       <c r="I596">
         <v>4</v>

--- a/src/APSSystem.Presentation.WPF/Data/Antecipacao/OrdensDeCliente.xlsx
+++ b/src/APSSystem.Presentation.WPF/Data/Antecipacao/OrdensDeCliente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55159\source\repos\APSSystem_NOVO\src\APSSystem.Presentation.WPF\Data\Antecipacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F8B91C-07C4-4F4C-BB84-9163A03274C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99243457-BA47-4245-8E30-D570F818AD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23250" yWindow="5325" windowWidth="18180" windowHeight="9885" xr2:uid="{702DC5E7-951B-4331-8240-E292C0DE46CB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18180" windowHeight="9885" xr2:uid="{702DC5E7-951B-4331-8240-E292C0DE46CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -11933,7 +11933,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:N596"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>

--- a/src/APSSystem.Presentation.WPF/Data/Antecipacao/OrdensDeCliente.xlsx
+++ b/src/APSSystem.Presentation.WPF/Data/Antecipacao/OrdensDeCliente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55159\source\repos\APSSystem_NOVO\src\APSSystem.Presentation.WPF\Data\Antecipacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99243457-BA47-4245-8E30-D570F818AD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4D0939-2B5F-44EF-85AE-980D088FA81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18180" windowHeight="9885" xr2:uid="{702DC5E7-951B-4331-8240-E292C0DE46CB}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="22320" windowHeight="15405" xr2:uid="{702DC5E7-951B-4331-8240-E292C0DE46CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -10979,7 +10979,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C0232FED-1F89-4039-B023-BEA414F4C290}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C0232FED-1F89-4039-B023-BEA414F4C290}" name="Tabela dinâmica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:D41" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -11934,8 +11934,8 @@
   <dimension ref="A1:N596"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <pane ySplit="1" topLeftCell="A578" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:M596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12018,7 +12018,7 @@
       </c>
       <c r="H2" s="1">
         <f ca="1">TODAY()+M2</f>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I2">
         <v>12</v>
@@ -12061,7 +12061,7 @@
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H66" ca="1" si="0">TODAY()+M3</f>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -12104,7 +12104,7 @@
       </c>
       <c r="H4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I4">
         <v>6</v>
@@ -12147,7 +12147,7 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -12193,7 +12193,7 @@
       </c>
       <c r="H6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I6">
         <v>12</v>
@@ -12236,7 +12236,7 @@
       </c>
       <c r="H7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -12279,7 +12279,7 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I8">
         <v>4</v>
@@ -12322,7 +12322,7 @@
       </c>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -12365,7 +12365,7 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -12408,7 +12408,7 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I11">
         <v>12</v>
@@ -12451,7 +12451,7 @@
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I12">
         <v>12</v>
@@ -12494,7 +12494,7 @@
       </c>
       <c r="H13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="H14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -12580,7 +12580,7 @@
       </c>
       <c r="H15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -12623,7 +12623,7 @@
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I16">
         <v>6</v>
@@ -12666,7 +12666,7 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -12709,7 +12709,7 @@
       </c>
       <c r="H18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -12752,7 +12752,7 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -12795,7 +12795,7 @@
       </c>
       <c r="H20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I20">
         <v>4</v>
@@ -12838,7 +12838,7 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -12881,7 +12881,7 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -12924,7 +12924,7 @@
       </c>
       <c r="H23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -12967,7 +12967,7 @@
       </c>
       <c r="H24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I24">
         <v>12</v>
@@ -13010,7 +13010,7 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I25">
         <v>12</v>
@@ -13053,7 +13053,7 @@
       </c>
       <c r="H26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I26">
         <v>12</v>
@@ -13096,7 +13096,7 @@
       </c>
       <c r="H27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I27">
         <v>6</v>
@@ -13139,7 +13139,7 @@
       </c>
       <c r="H28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I28">
         <v>8</v>
@@ -13182,7 +13182,7 @@
       </c>
       <c r="H29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -13225,7 +13225,7 @@
       </c>
       <c r="H30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -13268,7 +13268,7 @@
       </c>
       <c r="H31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I31">
         <v>4</v>
@@ -13311,7 +13311,7 @@
       </c>
       <c r="H32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -13354,7 +13354,7 @@
       </c>
       <c r="H33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -13397,7 +13397,7 @@
       </c>
       <c r="H34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I34">
         <v>8</v>
@@ -13440,7 +13440,7 @@
       </c>
       <c r="H35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -13483,7 +13483,7 @@
       </c>
       <c r="H36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -13526,7 +13526,7 @@
       </c>
       <c r="H37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -13569,7 +13569,7 @@
       </c>
       <c r="H38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I38">
         <v>6</v>
@@ -13612,7 +13612,7 @@
       </c>
       <c r="H39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I39">
         <v>6</v>
@@ -13655,7 +13655,7 @@
       </c>
       <c r="H40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I40">
         <v>4</v>
@@ -13698,7 +13698,7 @@
       </c>
       <c r="H41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="I41">
         <v>2</v>
@@ -13741,7 +13741,7 @@
       </c>
       <c r="H42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I42">
         <v>14</v>
@@ -13784,7 +13784,7 @@
       </c>
       <c r="H43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I43">
         <v>2</v>
@@ -13827,7 +13827,7 @@
       </c>
       <c r="H44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I44">
         <v>2</v>
@@ -13870,7 +13870,7 @@
       </c>
       <c r="H45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I45">
         <v>2</v>
@@ -13913,7 +13913,7 @@
       </c>
       <c r="H46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I46">
         <v>10</v>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="H47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I47">
         <v>4</v>
@@ -13999,7 +13999,7 @@
       </c>
       <c r="H48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -14042,7 +14042,7 @@
       </c>
       <c r="H49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I49">
         <v>4</v>
@@ -14085,7 +14085,7 @@
       </c>
       <c r="H50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -14128,7 +14128,7 @@
       </c>
       <c r="H51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I51">
         <v>2</v>
@@ -14171,7 +14171,7 @@
       </c>
       <c r="H52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I52">
         <v>4</v>
@@ -14214,7 +14214,7 @@
       </c>
       <c r="H53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I53">
         <v>18</v>
@@ -14257,7 +14257,7 @@
       </c>
       <c r="H54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I54">
         <v>2</v>
@@ -14300,7 +14300,7 @@
       </c>
       <c r="H55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I55">
         <v>12</v>
@@ -14343,7 +14343,7 @@
       </c>
       <c r="H56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I56">
         <v>2</v>
@@ -14386,7 +14386,7 @@
       </c>
       <c r="H57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I57">
         <v>2</v>
@@ -14429,7 +14429,7 @@
       </c>
       <c r="H58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I58">
         <v>14</v>
@@ -14472,7 +14472,7 @@
       </c>
       <c r="H59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I59">
         <v>2</v>
@@ -14515,7 +14515,7 @@
       </c>
       <c r="H60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I60">
         <v>12</v>
@@ -14558,7 +14558,7 @@
       </c>
       <c r="H61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="I61">
         <v>6</v>
@@ -14601,7 +14601,7 @@
       </c>
       <c r="H62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I62">
         <v>2</v>
@@ -14644,7 +14644,7 @@
       </c>
       <c r="H63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I63">
         <v>2</v>
@@ -14687,7 +14687,7 @@
       </c>
       <c r="H64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I64">
         <v>2</v>
@@ -14730,7 +14730,7 @@
       </c>
       <c r="H65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I65">
         <v>10</v>
@@ -14773,7 +14773,7 @@
       </c>
       <c r="H66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I66">
         <v>2</v>
@@ -14816,7 +14816,7 @@
       </c>
       <c r="H67" s="1">
         <f t="shared" ref="H67:H130" ca="1" si="2">TODAY()+M67</f>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I67">
         <v>10</v>
@@ -14859,7 +14859,7 @@
       </c>
       <c r="H68" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I68">
         <v>16</v>
@@ -14902,7 +14902,7 @@
       </c>
       <c r="H69" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -14945,7 +14945,7 @@
       </c>
       <c r="H70" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I70">
         <v>4</v>
@@ -14988,7 +14988,7 @@
       </c>
       <c r="H71" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I71">
         <v>2</v>
@@ -15031,7 +15031,7 @@
       </c>
       <c r="H72" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I72">
         <v>2</v>
@@ -15074,7 +15074,7 @@
       </c>
       <c r="H73" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I73">
         <v>2</v>
@@ -15117,7 +15117,7 @@
       </c>
       <c r="H74" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I74">
         <v>2</v>
@@ -15160,7 +15160,7 @@
       </c>
       <c r="H75" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I75">
         <v>2</v>
@@ -15203,7 +15203,7 @@
       </c>
       <c r="H76" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I76">
         <v>16</v>
@@ -15246,7 +15246,7 @@
       </c>
       <c r="H77" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I77">
         <v>2</v>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="H78" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I78">
         <v>2</v>
@@ -15332,7 +15332,7 @@
       </c>
       <c r="H79" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I79">
         <v>2</v>
@@ -15375,7 +15375,7 @@
       </c>
       <c r="H80" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I80">
         <v>2</v>
@@ -15418,7 +15418,7 @@
       </c>
       <c r="H81" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I81">
         <v>14</v>
@@ -15461,7 +15461,7 @@
       </c>
       <c r="H82" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I82">
         <v>2</v>
@@ -15504,7 +15504,7 @@
       </c>
       <c r="H83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I83">
         <v>2</v>
@@ -15547,7 +15547,7 @@
       </c>
       <c r="H84" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I84">
         <v>16</v>
@@ -15590,7 +15590,7 @@
       </c>
       <c r="H85" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I85">
         <v>2</v>
@@ -15633,7 +15633,7 @@
       </c>
       <c r="H86" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I86">
         <v>16</v>
@@ -15676,7 +15676,7 @@
       </c>
       <c r="H87" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I87">
         <v>2</v>
@@ -15719,7 +15719,7 @@
       </c>
       <c r="H88" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I88">
         <v>8</v>
@@ -15762,7 +15762,7 @@
       </c>
       <c r="H89" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I89">
         <v>2</v>
@@ -15805,7 +15805,7 @@
       </c>
       <c r="H90" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I90">
         <v>2</v>
@@ -15848,7 +15848,7 @@
       </c>
       <c r="H91" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I91">
         <v>4</v>
@@ -15891,7 +15891,7 @@
       </c>
       <c r="H92" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I92">
         <v>12</v>
@@ -15934,7 +15934,7 @@
       </c>
       <c r="H93" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I93">
         <v>2</v>
@@ -15977,7 +15977,7 @@
       </c>
       <c r="H94" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I94">
         <v>2</v>
@@ -16020,7 +16020,7 @@
       </c>
       <c r="H95" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I95">
         <v>4</v>
@@ -16063,7 +16063,7 @@
       </c>
       <c r="H96" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I96">
         <v>8</v>
@@ -16106,7 +16106,7 @@
       </c>
       <c r="H97" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I97">
         <v>18</v>
@@ -16149,7 +16149,7 @@
       </c>
       <c r="H98" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I98">
         <v>2</v>
@@ -16192,7 +16192,7 @@
       </c>
       <c r="H99" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I99">
         <v>6</v>
@@ -16235,7 +16235,7 @@
       </c>
       <c r="H100" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -16278,7 +16278,7 @@
       </c>
       <c r="H101" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I101">
         <v>6</v>
@@ -16321,7 +16321,7 @@
       </c>
       <c r="H102" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I102">
         <v>4</v>
@@ -16364,7 +16364,7 @@
       </c>
       <c r="H103" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I103">
         <v>12</v>
@@ -16407,7 +16407,7 @@
       </c>
       <c r="H104" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I104">
         <v>10</v>
@@ -16450,7 +16450,7 @@
       </c>
       <c r="H105" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I105">
         <v>2</v>
@@ -16493,7 +16493,7 @@
       </c>
       <c r="H106" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I106">
         <v>2</v>
@@ -16536,7 +16536,7 @@
       </c>
       <c r="H107" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I107">
         <v>12</v>
@@ -16579,7 +16579,7 @@
       </c>
       <c r="H108" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I108">
         <v>2</v>
@@ -16622,7 +16622,7 @@
       </c>
       <c r="H109" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I109">
         <v>12</v>
@@ -16665,7 +16665,7 @@
       </c>
       <c r="H110" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I110">
         <v>2</v>
@@ -16708,7 +16708,7 @@
       </c>
       <c r="H111" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I111">
         <v>2</v>
@@ -16751,7 +16751,7 @@
       </c>
       <c r="H112" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I112">
         <v>8</v>
@@ -16794,7 +16794,7 @@
       </c>
       <c r="H113" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I113">
         <v>2</v>
@@ -16837,7 +16837,7 @@
       </c>
       <c r="H114" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I114">
         <v>12</v>
@@ -16880,7 +16880,7 @@
       </c>
       <c r="H115" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I115">
         <v>2</v>
@@ -16923,7 +16923,7 @@
       </c>
       <c r="H116" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I116">
         <v>8</v>
@@ -16966,7 +16966,7 @@
       </c>
       <c r="H117" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I117">
         <v>2</v>
@@ -17009,7 +17009,7 @@
       </c>
       <c r="H118" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I118">
         <v>2</v>
@@ -17052,7 +17052,7 @@
       </c>
       <c r="H119" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I119">
         <v>2</v>
@@ -17095,7 +17095,7 @@
       </c>
       <c r="H120" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I120">
         <v>12</v>
@@ -17138,7 +17138,7 @@
       </c>
       <c r="H121" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I121">
         <v>4</v>
@@ -17181,7 +17181,7 @@
       </c>
       <c r="H122" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I122">
         <v>4</v>
@@ -17224,7 +17224,7 @@
       </c>
       <c r="H123" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I123">
         <v>14</v>
@@ -17267,7 +17267,7 @@
       </c>
       <c r="H124" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I124">
         <v>2</v>
@@ -17310,7 +17310,7 @@
       </c>
       <c r="H125" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I125">
         <v>2</v>
@@ -17353,7 +17353,7 @@
       </c>
       <c r="H126" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I126">
         <v>2</v>
@@ -17396,7 +17396,7 @@
       </c>
       <c r="H127" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I127">
         <v>2</v>
@@ -17439,7 +17439,7 @@
       </c>
       <c r="H128" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I128">
         <v>10</v>
@@ -17482,7 +17482,7 @@
       </c>
       <c r="H129" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I129">
         <v>2</v>
@@ -17525,7 +17525,7 @@
       </c>
       <c r="H130" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I130">
         <v>4</v>
@@ -17568,7 +17568,7 @@
       </c>
       <c r="H131" s="1">
         <f t="shared" ref="H131:H194" ca="1" si="4">TODAY()+M131</f>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I131">
         <v>8</v>
@@ -17611,7 +17611,7 @@
       </c>
       <c r="H132" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I132">
         <v>4</v>
@@ -17654,7 +17654,7 @@
       </c>
       <c r="H133" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I133">
         <v>2</v>
@@ -17697,7 +17697,7 @@
       </c>
       <c r="H134" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I134">
         <v>4</v>
@@ -17740,7 +17740,7 @@
       </c>
       <c r="H135" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I135">
         <v>4</v>
@@ -17783,7 +17783,7 @@
       </c>
       <c r="H136" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I136">
         <v>14</v>
@@ -17826,7 +17826,7 @@
       </c>
       <c r="H137" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I137">
         <v>2</v>
@@ -17869,7 +17869,7 @@
       </c>
       <c r="H138" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I138">
         <v>6</v>
@@ -17912,7 +17912,7 @@
       </c>
       <c r="H139" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I139">
         <v>16</v>
@@ -17955,7 +17955,7 @@
       </c>
       <c r="H140" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I140">
         <v>4</v>
@@ -17998,7 +17998,7 @@
       </c>
       <c r="H141" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I141">
         <v>2</v>
@@ -18041,7 +18041,7 @@
       </c>
       <c r="H142" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I142">
         <v>2</v>
@@ -18084,7 +18084,7 @@
       </c>
       <c r="H143" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I143">
         <v>2</v>
@@ -18127,7 +18127,7 @@
       </c>
       <c r="H144" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I144">
         <v>18</v>
@@ -18170,7 +18170,7 @@
       </c>
       <c r="H145" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I145">
         <v>12</v>
@@ -18213,7 +18213,7 @@
       </c>
       <c r="H146" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I146">
         <v>2</v>
@@ -18256,7 +18256,7 @@
       </c>
       <c r="H147" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I147">
         <v>2</v>
@@ -18299,7 +18299,7 @@
       </c>
       <c r="H148" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I148">
         <v>18</v>
@@ -18342,7 +18342,7 @@
       </c>
       <c r="H149" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I149">
         <v>2</v>
@@ -18385,7 +18385,7 @@
       </c>
       <c r="H150" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I150">
         <v>4</v>
@@ -18428,7 +18428,7 @@
       </c>
       <c r="H151" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I151">
         <v>2</v>
@@ -18471,7 +18471,7 @@
       </c>
       <c r="H152" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I152">
         <v>4</v>
@@ -18514,7 +18514,7 @@
       </c>
       <c r="H153" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I153">
         <v>8</v>
@@ -18557,7 +18557,7 @@
       </c>
       <c r="H154" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I154">
         <v>8</v>
@@ -18600,7 +18600,7 @@
       </c>
       <c r="H155" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I155">
         <v>4</v>
@@ -18643,7 +18643,7 @@
       </c>
       <c r="H156" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I156">
         <v>6</v>
@@ -18686,7 +18686,7 @@
       </c>
       <c r="H157" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I157">
         <v>2</v>
@@ -18729,7 +18729,7 @@
       </c>
       <c r="H158" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I158">
         <v>8</v>
@@ -18772,7 +18772,7 @@
       </c>
       <c r="H159" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I159">
         <v>2</v>
@@ -18815,7 +18815,7 @@
       </c>
       <c r="H160" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I160">
         <v>2</v>
@@ -18858,7 +18858,7 @@
       </c>
       <c r="H161" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I161">
         <v>2</v>
@@ -18901,7 +18901,7 @@
       </c>
       <c r="H162" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I162">
         <v>2</v>
@@ -18944,7 +18944,7 @@
       </c>
       <c r="H163" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I163">
         <v>2</v>
@@ -18987,7 +18987,7 @@
       </c>
       <c r="H164" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I164">
         <v>4</v>
@@ -19030,7 +19030,7 @@
       </c>
       <c r="H165" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I165">
         <v>10</v>
@@ -19073,7 +19073,7 @@
       </c>
       <c r="H166" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I166">
         <v>2</v>
@@ -19116,7 +19116,7 @@
       </c>
       <c r="H167" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I167">
         <v>2</v>
@@ -19159,7 +19159,7 @@
       </c>
       <c r="H168" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I168">
         <v>2</v>
@@ -19202,7 +19202,7 @@
       </c>
       <c r="H169" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I169">
         <v>2</v>
@@ -19245,7 +19245,7 @@
       </c>
       <c r="H170" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I170">
         <v>2</v>
@@ -19288,7 +19288,7 @@
       </c>
       <c r="H171" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I171">
         <v>2</v>
@@ -19331,7 +19331,7 @@
       </c>
       <c r="H172" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I172">
         <v>2</v>
@@ -19374,7 +19374,7 @@
       </c>
       <c r="H173" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I173">
         <v>2</v>
@@ -19417,7 +19417,7 @@
       </c>
       <c r="H174" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I174">
         <v>6</v>
@@ -19460,7 +19460,7 @@
       </c>
       <c r="H175" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I175">
         <v>2</v>
@@ -19503,7 +19503,7 @@
       </c>
       <c r="H176" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I176">
         <v>2</v>
@@ -19546,7 +19546,7 @@
       </c>
       <c r="H177" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I177">
         <v>6</v>
@@ -19589,7 +19589,7 @@
       </c>
       <c r="H178" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I178">
         <v>2</v>
@@ -19632,7 +19632,7 @@
       </c>
       <c r="H179" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I179">
         <v>6</v>
@@ -19675,7 +19675,7 @@
       </c>
       <c r="H180" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I180">
         <v>6</v>
@@ -19718,7 +19718,7 @@
       </c>
       <c r="H181" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I181">
         <v>2</v>
@@ -19761,7 +19761,7 @@
       </c>
       <c r="H182" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I182">
         <v>10</v>
@@ -19804,7 +19804,7 @@
       </c>
       <c r="H183" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I183">
         <v>2</v>
@@ -19847,7 +19847,7 @@
       </c>
       <c r="H184" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I184">
         <v>2</v>
@@ -19890,7 +19890,7 @@
       </c>
       <c r="H185" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I185">
         <v>2</v>
@@ -19933,7 +19933,7 @@
       </c>
       <c r="H186" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I186">
         <v>2</v>
@@ -19976,7 +19976,7 @@
       </c>
       <c r="H187" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I187">
         <v>14</v>
@@ -20019,7 +20019,7 @@
       </c>
       <c r="H188" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I188">
         <v>2</v>
@@ -20062,7 +20062,7 @@
       </c>
       <c r="H189" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I189">
         <v>12</v>
@@ -20105,7 +20105,7 @@
       </c>
       <c r="H190" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I190">
         <v>4</v>
@@ -20148,7 +20148,7 @@
       </c>
       <c r="H191" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I191">
         <v>16</v>
@@ -20191,7 +20191,7 @@
       </c>
       <c r="H192" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I192">
         <v>2</v>
@@ -20234,7 +20234,7 @@
       </c>
       <c r="H193" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I193">
         <v>2</v>
@@ -20277,7 +20277,7 @@
       </c>
       <c r="H194" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I194">
         <v>8</v>
@@ -20320,7 +20320,7 @@
       </c>
       <c r="H195" s="1">
         <f t="shared" ref="H195:H258" ca="1" si="6">TODAY()+M195</f>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I195">
         <v>12</v>
@@ -20363,7 +20363,7 @@
       </c>
       <c r="H196" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I196">
         <v>4</v>
@@ -20406,7 +20406,7 @@
       </c>
       <c r="H197" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I197">
         <v>8</v>
@@ -20449,7 +20449,7 @@
       </c>
       <c r="H198" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I198">
         <v>2</v>
@@ -20492,7 +20492,7 @@
       </c>
       <c r="H199" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I199">
         <v>4</v>
@@ -20535,7 +20535,7 @@
       </c>
       <c r="H200" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I200">
         <v>2</v>
@@ -20578,7 +20578,7 @@
       </c>
       <c r="H201" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I201">
         <v>2</v>
@@ -20621,7 +20621,7 @@
       </c>
       <c r="H202" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I202">
         <v>2</v>
@@ -20664,7 +20664,7 @@
       </c>
       <c r="H203" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I203">
         <v>4</v>
@@ -20707,7 +20707,7 @@
       </c>
       <c r="H204" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I204">
         <v>2</v>
@@ -20750,7 +20750,7 @@
       </c>
       <c r="H205" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I205">
         <v>8</v>
@@ -20793,7 +20793,7 @@
       </c>
       <c r="H206" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I206">
         <v>12</v>
@@ -20836,7 +20836,7 @@
       </c>
       <c r="H207" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I207">
         <v>8</v>
@@ -20879,7 +20879,7 @@
       </c>
       <c r="H208" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I208">
         <v>4</v>
@@ -20922,7 +20922,7 @@
       </c>
       <c r="H209" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I209">
         <v>4</v>
@@ -20965,7 +20965,7 @@
       </c>
       <c r="H210" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I210">
         <v>2</v>
@@ -21008,7 +21008,7 @@
       </c>
       <c r="H211" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I211">
         <v>12</v>
@@ -21051,7 +21051,7 @@
       </c>
       <c r="H212" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I212">
         <v>8</v>
@@ -21094,7 +21094,7 @@
       </c>
       <c r="H213" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I213">
         <v>4</v>
@@ -21137,7 +21137,7 @@
       </c>
       <c r="H214" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I214">
         <v>2</v>
@@ -21180,7 +21180,7 @@
       </c>
       <c r="H215" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I215">
         <v>12</v>
@@ -21223,7 +21223,7 @@
       </c>
       <c r="H216" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I216">
         <v>2</v>
@@ -21266,7 +21266,7 @@
       </c>
       <c r="H217" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I217">
         <v>2</v>
@@ -21309,7 +21309,7 @@
       </c>
       <c r="H218" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I218">
         <v>2</v>
@@ -21352,7 +21352,7 @@
       </c>
       <c r="H219" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I219">
         <v>4</v>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="H220" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I220">
         <v>2</v>
@@ -21438,7 +21438,7 @@
       </c>
       <c r="H221" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I221">
         <v>8</v>
@@ -21481,7 +21481,7 @@
       </c>
       <c r="H222" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I222">
         <v>10</v>
@@ -21524,7 +21524,7 @@
       </c>
       <c r="H223" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I223">
         <v>12</v>
@@ -21567,7 +21567,7 @@
       </c>
       <c r="H224" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I224">
         <v>2</v>
@@ -21610,7 +21610,7 @@
       </c>
       <c r="H225" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I225">
         <v>8</v>
@@ -21653,7 +21653,7 @@
       </c>
       <c r="H226" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I226">
         <v>4</v>
@@ -21696,7 +21696,7 @@
       </c>
       <c r="H227" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I227">
         <v>12</v>
@@ -21739,7 +21739,7 @@
       </c>
       <c r="H228" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I228">
         <v>4</v>
@@ -21782,7 +21782,7 @@
       </c>
       <c r="H229" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I229">
         <v>8</v>
@@ -21825,7 +21825,7 @@
       </c>
       <c r="H230" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I230">
         <v>6</v>
@@ -21868,7 +21868,7 @@
       </c>
       <c r="H231" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I231">
         <v>12</v>
@@ -21911,7 +21911,7 @@
       </c>
       <c r="H232" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I232">
         <v>2</v>
@@ -21954,7 +21954,7 @@
       </c>
       <c r="H233" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I233">
         <v>6</v>
@@ -21997,7 +21997,7 @@
       </c>
       <c r="H234" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I234">
         <v>2</v>
@@ -22040,7 +22040,7 @@
       </c>
       <c r="H235" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I235">
         <v>2</v>
@@ -22083,7 +22083,7 @@
       </c>
       <c r="H236" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I236">
         <v>2</v>
@@ -22126,7 +22126,7 @@
       </c>
       <c r="H237" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I237">
         <v>2</v>
@@ -22169,7 +22169,7 @@
       </c>
       <c r="H238" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I238">
         <v>10</v>
@@ -22212,7 +22212,7 @@
       </c>
       <c r="H239" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I239">
         <v>4</v>
@@ -22255,7 +22255,7 @@
       </c>
       <c r="H240" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I240">
         <v>2</v>
@@ -22298,7 +22298,7 @@
       </c>
       <c r="H241" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I241">
         <v>4</v>
@@ -22341,7 +22341,7 @@
       </c>
       <c r="H242" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I242">
         <v>2</v>
@@ -22384,7 +22384,7 @@
       </c>
       <c r="H243" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I243">
         <v>2</v>
@@ -22427,7 +22427,7 @@
       </c>
       <c r="H244" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I244">
         <v>2</v>
@@ -22470,7 +22470,7 @@
       </c>
       <c r="H245" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I245">
         <v>4</v>
@@ -22513,7 +22513,7 @@
       </c>
       <c r="H246" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I246">
         <v>4</v>
@@ -22556,7 +22556,7 @@
       </c>
       <c r="H247" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I247">
         <v>4</v>
@@ -22599,7 +22599,7 @@
       </c>
       <c r="H248" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I248">
         <v>2</v>
@@ -22642,7 +22642,7 @@
       </c>
       <c r="H249" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I249">
         <v>12</v>
@@ -22685,7 +22685,7 @@
       </c>
       <c r="H250" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I250">
         <v>10</v>
@@ -22728,7 +22728,7 @@
       </c>
       <c r="H251" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I251">
         <v>4</v>
@@ -22771,7 +22771,7 @@
       </c>
       <c r="H252" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I252">
         <v>8</v>
@@ -22814,7 +22814,7 @@
       </c>
       <c r="H253" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I253">
         <v>2</v>
@@ -22857,7 +22857,7 @@
       </c>
       <c r="H254" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I254">
         <v>8</v>
@@ -22900,7 +22900,7 @@
       </c>
       <c r="H255" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I255">
         <v>6</v>
@@ -22943,7 +22943,7 @@
       </c>
       <c r="H256" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I256">
         <v>2</v>
@@ -22986,7 +22986,7 @@
       </c>
       <c r="H257" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I257">
         <v>10</v>
@@ -23029,7 +23029,7 @@
       </c>
       <c r="H258" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I258">
         <v>2</v>
@@ -23072,7 +23072,7 @@
       </c>
       <c r="H259" s="1">
         <f t="shared" ref="H259:H322" ca="1" si="8">TODAY()+M259</f>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I259">
         <v>6</v>
@@ -23115,7 +23115,7 @@
       </c>
       <c r="H260" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I260">
         <v>6</v>
@@ -23158,7 +23158,7 @@
       </c>
       <c r="H261" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I261">
         <v>12</v>
@@ -23201,7 +23201,7 @@
       </c>
       <c r="H262" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I262">
         <v>4</v>
@@ -23244,7 +23244,7 @@
       </c>
       <c r="H263" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I263">
         <v>12</v>
@@ -23287,7 +23287,7 @@
       </c>
       <c r="H264" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I264">
         <v>12</v>
@@ -23330,7 +23330,7 @@
       </c>
       <c r="H265" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I265">
         <v>6</v>
@@ -23373,7 +23373,7 @@
       </c>
       <c r="H266" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I266">
         <v>6</v>
@@ -23416,7 +23416,7 @@
       </c>
       <c r="H267" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I267">
         <v>10</v>
@@ -23459,7 +23459,7 @@
       </c>
       <c r="H268" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I268">
         <v>2</v>
@@ -23502,7 +23502,7 @@
       </c>
       <c r="H269" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I269">
         <v>2</v>
@@ -23545,7 +23545,7 @@
       </c>
       <c r="H270" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I270">
         <v>10</v>
@@ -23588,7 +23588,7 @@
       </c>
       <c r="H271" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I271">
         <v>8</v>
@@ -23631,7 +23631,7 @@
       </c>
       <c r="H272" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I272">
         <v>2</v>
@@ -23674,7 +23674,7 @@
       </c>
       <c r="H273" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I273">
         <v>2</v>
@@ -23717,7 +23717,7 @@
       </c>
       <c r="H274" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I274">
         <v>2</v>
@@ -23760,7 +23760,7 @@
       </c>
       <c r="H275" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I275">
         <v>6</v>
@@ -23803,7 +23803,7 @@
       </c>
       <c r="H276" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I276">
         <v>2</v>
@@ -23846,7 +23846,7 @@
       </c>
       <c r="H277" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I277">
         <v>2</v>
@@ -23889,7 +23889,7 @@
       </c>
       <c r="H278" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I278">
         <v>2</v>
@@ -23932,7 +23932,7 @@
       </c>
       <c r="H279" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I279">
         <v>14</v>
@@ -23975,7 +23975,7 @@
       </c>
       <c r="H280" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I280">
         <v>8</v>
@@ -24018,7 +24018,7 @@
       </c>
       <c r="H281" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I281">
         <v>2</v>
@@ -24061,7 +24061,7 @@
       </c>
       <c r="H282" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I282">
         <v>12</v>
@@ -24104,7 +24104,7 @@
       </c>
       <c r="H283" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I283">
         <v>2</v>
@@ -24147,7 +24147,7 @@
       </c>
       <c r="H284" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I284">
         <v>2</v>
@@ -24190,7 +24190,7 @@
       </c>
       <c r="H285" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I285">
         <v>2</v>
@@ -24233,7 +24233,7 @@
       </c>
       <c r="H286" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I286">
         <v>2</v>
@@ -24276,7 +24276,7 @@
       </c>
       <c r="H287" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I287">
         <v>2</v>
@@ -24319,7 +24319,7 @@
       </c>
       <c r="H288" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I288">
         <v>2</v>
@@ -24362,7 +24362,7 @@
       </c>
       <c r="H289" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I289">
         <v>16</v>
@@ -24405,7 +24405,7 @@
       </c>
       <c r="H290" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I290">
         <v>2</v>
@@ -24448,7 +24448,7 @@
       </c>
       <c r="H291" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I291">
         <v>2</v>
@@ -24491,7 +24491,7 @@
       </c>
       <c r="H292" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I292">
         <v>8</v>
@@ -24534,7 +24534,7 @@
       </c>
       <c r="H293" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I293">
         <v>2</v>
@@ -24577,7 +24577,7 @@
       </c>
       <c r="H294" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I294">
         <v>12</v>
@@ -24620,7 +24620,7 @@
       </c>
       <c r="H295" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I295">
         <v>4</v>
@@ -24663,7 +24663,7 @@
       </c>
       <c r="H296" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I296">
         <v>6</v>
@@ -24706,7 +24706,7 @@
       </c>
       <c r="H297" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I297">
         <v>4</v>
@@ -24749,7 +24749,7 @@
       </c>
       <c r="H298" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I298">
         <v>2</v>
@@ -24792,7 +24792,7 @@
       </c>
       <c r="H299" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I299">
         <v>2</v>
@@ -24835,7 +24835,7 @@
       </c>
       <c r="H300" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I300">
         <v>4</v>
@@ -24878,7 +24878,7 @@
       </c>
       <c r="H301" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I301">
         <v>2</v>
@@ -24921,7 +24921,7 @@
       </c>
       <c r="H302" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I302">
         <v>2</v>
@@ -24964,7 +24964,7 @@
       </c>
       <c r="H303" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I303">
         <v>16</v>
@@ -25007,7 +25007,7 @@
       </c>
       <c r="H304" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I304">
         <v>2</v>
@@ -25050,7 +25050,7 @@
       </c>
       <c r="H305" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I305">
         <v>2</v>
@@ -25093,7 +25093,7 @@
       </c>
       <c r="H306" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I306">
         <v>10</v>
@@ -25136,7 +25136,7 @@
       </c>
       <c r="H307" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I307">
         <v>2</v>
@@ -25179,7 +25179,7 @@
       </c>
       <c r="H308" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I308">
         <v>2</v>
@@ -25222,7 +25222,7 @@
       </c>
       <c r="H309" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I309">
         <v>14</v>
@@ -25265,7 +25265,7 @@
       </c>
       <c r="H310" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I310">
         <v>18</v>
@@ -25308,7 +25308,7 @@
       </c>
       <c r="H311" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I311">
         <v>2</v>
@@ -25351,7 +25351,7 @@
       </c>
       <c r="H312" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I312">
         <v>8</v>
@@ -25394,7 +25394,7 @@
       </c>
       <c r="H313" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I313">
         <v>2</v>
@@ -25437,7 +25437,7 @@
       </c>
       <c r="H314" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I314">
         <v>8</v>
@@ -25480,7 +25480,7 @@
       </c>
       <c r="H315" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I315">
         <v>2</v>
@@ -25523,7 +25523,7 @@
       </c>
       <c r="H316" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I316">
         <v>2</v>
@@ -25566,7 +25566,7 @@
       </c>
       <c r="H317" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I317">
         <v>12</v>
@@ -25609,7 +25609,7 @@
       </c>
       <c r="H318" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I318">
         <v>2</v>
@@ -25652,7 +25652,7 @@
       </c>
       <c r="H319" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I319">
         <v>8</v>
@@ -25695,7 +25695,7 @@
       </c>
       <c r="H320" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I320">
         <v>6</v>
@@ -25738,7 +25738,7 @@
       </c>
       <c r="H321" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I321">
         <v>6</v>
@@ -25781,7 +25781,7 @@
       </c>
       <c r="H322" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I322">
         <v>2</v>
@@ -25824,7 +25824,7 @@
       </c>
       <c r="H323" s="1">
         <f t="shared" ref="H323:H386" ca="1" si="10">TODAY()+M323</f>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I323">
         <v>4</v>
@@ -25867,7 +25867,7 @@
       </c>
       <c r="H324" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I324">
         <v>10</v>
@@ -25910,7 +25910,7 @@
       </c>
       <c r="H325" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I325">
         <v>2</v>
@@ -25953,7 +25953,7 @@
       </c>
       <c r="H326" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I326">
         <v>12</v>
@@ -25996,7 +25996,7 @@
       </c>
       <c r="H327" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I327">
         <v>8</v>
@@ -26039,7 +26039,7 @@
       </c>
       <c r="H328" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I328">
         <v>2</v>
@@ -26082,7 +26082,7 @@
       </c>
       <c r="H329" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I329">
         <v>8</v>
@@ -26125,7 +26125,7 @@
       </c>
       <c r="H330" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I330">
         <v>2</v>
@@ -26168,7 +26168,7 @@
       </c>
       <c r="H331" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I331">
         <v>2</v>
@@ -26211,7 +26211,7 @@
       </c>
       <c r="H332" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I332">
         <v>4</v>
@@ -26254,7 +26254,7 @@
       </c>
       <c r="H333" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I333">
         <v>10</v>
@@ -26297,7 +26297,7 @@
       </c>
       <c r="H334" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I334">
         <v>2</v>
@@ -26340,7 +26340,7 @@
       </c>
       <c r="H335" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I335">
         <v>12</v>
@@ -26383,7 +26383,7 @@
       </c>
       <c r="H336" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I336">
         <v>4</v>
@@ -26426,7 +26426,7 @@
       </c>
       <c r="H337" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I337">
         <v>4</v>
@@ -26469,7 +26469,7 @@
       </c>
       <c r="H338" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I338">
         <v>8</v>
@@ -26512,7 +26512,7 @@
       </c>
       <c r="H339" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I339">
         <v>4</v>
@@ -26555,7 +26555,7 @@
       </c>
       <c r="H340" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I340">
         <v>6</v>
@@ -26598,7 +26598,7 @@
       </c>
       <c r="H341" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I341">
         <v>8</v>
@@ -26641,7 +26641,7 @@
       </c>
       <c r="H342" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I342">
         <v>6</v>
@@ -26684,7 +26684,7 @@
       </c>
       <c r="H343" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I343">
         <v>10</v>
@@ -26727,7 +26727,7 @@
       </c>
       <c r="H344" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I344">
         <v>2</v>
@@ -26770,7 +26770,7 @@
       </c>
       <c r="H345" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I345">
         <v>8</v>
@@ -26813,7 +26813,7 @@
       </c>
       <c r="H346" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I346">
         <v>4</v>
@@ -26856,7 +26856,7 @@
       </c>
       <c r="H347" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I347">
         <v>10</v>
@@ -26899,7 +26899,7 @@
       </c>
       <c r="H348" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I348">
         <v>2</v>
@@ -26942,7 +26942,7 @@
       </c>
       <c r="H349" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I349">
         <v>2</v>
@@ -26985,7 +26985,7 @@
       </c>
       <c r="H350" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I350">
         <v>2</v>
@@ -27028,7 +27028,7 @@
       </c>
       <c r="H351" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I351">
         <v>4</v>
@@ -27071,7 +27071,7 @@
       </c>
       <c r="H352" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I352">
         <v>2</v>
@@ -27114,7 +27114,7 @@
       </c>
       <c r="H353" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I353">
         <v>4</v>
@@ -27157,7 +27157,7 @@
       </c>
       <c r="H354" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I354">
         <v>14</v>
@@ -27200,7 +27200,7 @@
       </c>
       <c r="H355" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I355">
         <v>2</v>
@@ -27243,7 +27243,7 @@
       </c>
       <c r="H356" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I356">
         <v>2</v>
@@ -27286,7 +27286,7 @@
       </c>
       <c r="H357" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I357">
         <v>2</v>
@@ -27329,7 +27329,7 @@
       </c>
       <c r="H358" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I358">
         <v>2</v>
@@ -27372,7 +27372,7 @@
       </c>
       <c r="H359" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I359">
         <v>2</v>
@@ -27415,7 +27415,7 @@
       </c>
       <c r="H360" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I360">
         <v>2</v>
@@ -27458,7 +27458,7 @@
       </c>
       <c r="H361" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I361">
         <v>2</v>
@@ -27501,7 +27501,7 @@
       </c>
       <c r="H362" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I362">
         <v>2</v>
@@ -27544,7 +27544,7 @@
       </c>
       <c r="H363" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I363">
         <v>2</v>
@@ -27587,7 +27587,7 @@
       </c>
       <c r="H364" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I364">
         <v>12</v>
@@ -27630,7 +27630,7 @@
       </c>
       <c r="H365" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I365">
         <v>6</v>
@@ -27673,7 +27673,7 @@
       </c>
       <c r="H366" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I366">
         <v>8</v>
@@ -27716,7 +27716,7 @@
       </c>
       <c r="H367" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I367">
         <v>12</v>
@@ -27759,7 +27759,7 @@
       </c>
       <c r="H368" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I368">
         <v>2</v>
@@ -27802,7 +27802,7 @@
       </c>
       <c r="H369" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I369">
         <v>2</v>
@@ -27845,7 +27845,7 @@
       </c>
       <c r="H370" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I370">
         <v>2</v>
@@ -27888,7 +27888,7 @@
       </c>
       <c r="H371" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I371">
         <v>4</v>
@@ -27931,7 +27931,7 @@
       </c>
       <c r="H372" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I372">
         <v>8</v>
@@ -27974,7 +27974,7 @@
       </c>
       <c r="H373" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I373">
         <v>2</v>
@@ -28017,7 +28017,7 @@
       </c>
       <c r="H374" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I374">
         <v>12</v>
@@ -28060,7 +28060,7 @@
       </c>
       <c r="H375" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I375">
         <v>12</v>
@@ -28103,7 +28103,7 @@
       </c>
       <c r="H376" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I376">
         <v>2</v>
@@ -28146,7 +28146,7 @@
       </c>
       <c r="H377" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I377">
         <v>16</v>
@@ -28189,7 +28189,7 @@
       </c>
       <c r="H378" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I378">
         <v>2</v>
@@ -28232,7 +28232,7 @@
       </c>
       <c r="H379" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I379">
         <v>2</v>
@@ -28275,7 +28275,7 @@
       </c>
       <c r="H380" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I380">
         <v>2</v>
@@ -28318,7 +28318,7 @@
       </c>
       <c r="H381" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I381">
         <v>2</v>
@@ -28361,7 +28361,7 @@
       </c>
       <c r="H382" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I382">
         <v>18</v>
@@ -28404,7 +28404,7 @@
       </c>
       <c r="H383" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I383">
         <v>2</v>
@@ -28447,7 +28447,7 @@
       </c>
       <c r="H384" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I384">
         <v>2</v>
@@ -28490,7 +28490,7 @@
       </c>
       <c r="H385" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I385">
         <v>2</v>
@@ -28533,7 +28533,7 @@
       </c>
       <c r="H386" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I386">
         <v>2</v>
@@ -28576,7 +28576,7 @@
       </c>
       <c r="H387" s="1">
         <f t="shared" ref="H387:H449" ca="1" si="12">TODAY()+M387</f>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I387">
         <v>8</v>
@@ -28619,7 +28619,7 @@
       </c>
       <c r="H388" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I388">
         <v>16</v>
@@ -28662,7 +28662,7 @@
       </c>
       <c r="H389" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I389">
         <v>16</v>
@@ -28705,7 +28705,7 @@
       </c>
       <c r="H390" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I390">
         <v>4</v>
@@ -28748,7 +28748,7 @@
       </c>
       <c r="H391" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I391">
         <v>2</v>
@@ -28791,7 +28791,7 @@
       </c>
       <c r="H392" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I392">
         <v>12</v>
@@ -28834,7 +28834,7 @@
       </c>
       <c r="H393" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I393">
         <v>8</v>
@@ -28877,7 +28877,7 @@
       </c>
       <c r="H394" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I394">
         <v>2</v>
@@ -28920,7 +28920,7 @@
       </c>
       <c r="H395" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I395">
         <v>2</v>
@@ -28963,7 +28963,7 @@
       </c>
       <c r="H396" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I396">
         <v>12</v>
@@ -29006,7 +29006,7 @@
       </c>
       <c r="H397" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I397">
         <v>2</v>
@@ -29049,7 +29049,7 @@
       </c>
       <c r="H398" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I398">
         <v>2</v>
@@ -29092,7 +29092,7 @@
       </c>
       <c r="H399" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I399">
         <v>12</v>
@@ -29135,7 +29135,7 @@
       </c>
       <c r="H400" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I400">
         <v>14</v>
@@ -29178,7 +29178,7 @@
       </c>
       <c r="H401" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I401">
         <v>2</v>
@@ -29221,7 +29221,7 @@
       </c>
       <c r="H402" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I402">
         <v>2</v>
@@ -29264,7 +29264,7 @@
       </c>
       <c r="H403" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I403">
         <v>4</v>
@@ -29307,7 +29307,7 @@
       </c>
       <c r="H404" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I404">
         <v>12</v>
@@ -29350,7 +29350,7 @@
       </c>
       <c r="H405" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I405">
         <v>10</v>
@@ -29393,7 +29393,7 @@
       </c>
       <c r="H406" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I406">
         <v>2</v>
@@ -29436,7 +29436,7 @@
       </c>
       <c r="H407" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I407">
         <v>2</v>
@@ -29479,7 +29479,7 @@
       </c>
       <c r="H408" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I408">
         <v>2</v>
@@ -29522,7 +29522,7 @@
       </c>
       <c r="H409" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I409">
         <v>12</v>
@@ -29565,7 +29565,7 @@
       </c>
       <c r="H410" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I410">
         <v>2</v>
@@ -29608,7 +29608,7 @@
       </c>
       <c r="H411" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I411">
         <v>4</v>
@@ -29651,7 +29651,7 @@
       </c>
       <c r="H412" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I412">
         <v>4</v>
@@ -29694,7 +29694,7 @@
       </c>
       <c r="H413" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I413">
         <v>2</v>
@@ -29737,7 +29737,7 @@
       </c>
       <c r="H414" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I414">
         <v>4</v>
@@ -29780,7 +29780,7 @@
       </c>
       <c r="H415" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I415">
         <v>12</v>
@@ -29823,7 +29823,7 @@
       </c>
       <c r="H416" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I416">
         <v>12</v>
@@ -29866,7 +29866,7 @@
       </c>
       <c r="H417" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I417">
         <v>4</v>
@@ -29909,7 +29909,7 @@
       </c>
       <c r="H418" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I418">
         <v>14</v>
@@ -29952,7 +29952,7 @@
       </c>
       <c r="H419" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I419">
         <v>2</v>
@@ -29995,7 +29995,7 @@
       </c>
       <c r="H420" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I420">
         <v>10</v>
@@ -30038,7 +30038,7 @@
       </c>
       <c r="H421" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I421">
         <v>10</v>
@@ -30081,7 +30081,7 @@
       </c>
       <c r="H422" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I422">
         <v>2</v>
@@ -30124,7 +30124,7 @@
       </c>
       <c r="H423" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I423">
         <v>10</v>
@@ -30167,7 +30167,7 @@
       </c>
       <c r="H424" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I424">
         <v>4</v>
@@ -30210,7 +30210,7 @@
       </c>
       <c r="H425" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I425">
         <v>2</v>
@@ -30253,7 +30253,7 @@
       </c>
       <c r="H426" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I426">
         <v>12</v>
@@ -30296,7 +30296,7 @@
       </c>
       <c r="H427" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I427">
         <v>2</v>
@@ -30339,7 +30339,7 @@
       </c>
       <c r="H428" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I428">
         <v>4</v>
@@ -30382,7 +30382,7 @@
       </c>
       <c r="H429" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I429">
         <v>8</v>
@@ -30425,7 +30425,7 @@
       </c>
       <c r="H430" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I430">
         <v>6</v>
@@ -30468,7 +30468,7 @@
       </c>
       <c r="H431" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I431">
         <v>2</v>
@@ -30511,7 +30511,7 @@
       </c>
       <c r="H432" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I432">
         <v>6</v>
@@ -30554,7 +30554,7 @@
       </c>
       <c r="H433" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I433">
         <v>2</v>
@@ -30597,7 +30597,7 @@
       </c>
       <c r="H434" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I434">
         <v>2</v>
@@ -30640,7 +30640,7 @@
       </c>
       <c r="H435" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I435">
         <v>4</v>
@@ -30683,7 +30683,7 @@
       </c>
       <c r="H436" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I436">
         <v>2</v>
@@ -30726,7 +30726,7 @@
       </c>
       <c r="H437" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I437">
         <v>8</v>
@@ -30769,7 +30769,7 @@
       </c>
       <c r="H438" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I438">
         <v>8</v>
@@ -30812,7 +30812,7 @@
       </c>
       <c r="H439" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I439">
         <v>6</v>
@@ -30855,7 +30855,7 @@
       </c>
       <c r="H440" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I440">
         <v>6</v>
@@ -30898,7 +30898,7 @@
       </c>
       <c r="H441" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I441">
         <v>2</v>
@@ -30941,7 +30941,7 @@
       </c>
       <c r="H442" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I442">
         <v>2</v>
@@ -30984,7 +30984,7 @@
       </c>
       <c r="H443" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I443">
         <v>4</v>
@@ -31027,7 +31027,7 @@
       </c>
       <c r="H444" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I444">
         <v>10</v>
@@ -31070,7 +31070,7 @@
       </c>
       <c r="H445" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I445">
         <v>2</v>
@@ -31113,7 +31113,7 @@
       </c>
       <c r="H446" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I446">
         <v>2</v>
@@ -31156,7 +31156,7 @@
       </c>
       <c r="H447" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I447">
         <v>6</v>
@@ -31199,7 +31199,7 @@
       </c>
       <c r="H448" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I448">
         <v>8</v>
@@ -31242,7 +31242,7 @@
       </c>
       <c r="H449" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I449">
         <v>8</v>
@@ -31285,7 +31285,7 @@
       </c>
       <c r="H450" s="1">
         <f t="shared" ref="H450:H513" ca="1" si="14">TODAY()+M450</f>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I450">
         <v>8</v>
@@ -31328,7 +31328,7 @@
       </c>
       <c r="H451" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I451">
         <v>4</v>
@@ -31371,7 +31371,7 @@
       </c>
       <c r="H452" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I452">
         <v>2</v>
@@ -31414,7 +31414,7 @@
       </c>
       <c r="H453" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I453">
         <v>2</v>
@@ -31457,7 +31457,7 @@
       </c>
       <c r="H454" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I454">
         <v>18</v>
@@ -31500,7 +31500,7 @@
       </c>
       <c r="H455" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I455">
         <v>4</v>
@@ -31543,7 +31543,7 @@
       </c>
       <c r="H456" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I456">
         <v>2</v>
@@ -31586,7 +31586,7 @@
       </c>
       <c r="H457" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I457">
         <v>2</v>
@@ -31629,7 +31629,7 @@
       </c>
       <c r="H458" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I458">
         <v>8</v>
@@ -31672,7 +31672,7 @@
       </c>
       <c r="H459" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I459">
         <v>2</v>
@@ -31715,7 +31715,7 @@
       </c>
       <c r="H460" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I460">
         <v>2</v>
@@ -31758,7 +31758,7 @@
       </c>
       <c r="H461" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I461">
         <v>10</v>
@@ -31801,7 +31801,7 @@
       </c>
       <c r="H462" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I462">
         <v>12</v>
@@ -31844,7 +31844,7 @@
       </c>
       <c r="H463" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I463">
         <v>2</v>
@@ -31887,7 +31887,7 @@
       </c>
       <c r="H464" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I464">
         <v>4</v>
@@ -31930,7 +31930,7 @@
       </c>
       <c r="H465" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I465">
         <v>2</v>
@@ -31973,7 +31973,7 @@
       </c>
       <c r="H466" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I466">
         <v>4</v>
@@ -32016,7 +32016,7 @@
       </c>
       <c r="H467" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I467">
         <v>12</v>
@@ -32059,7 +32059,7 @@
       </c>
       <c r="H468" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I468">
         <v>4</v>
@@ -32102,7 +32102,7 @@
       </c>
       <c r="H469" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I469">
         <v>12</v>
@@ -32145,7 +32145,7 @@
       </c>
       <c r="H470" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I470">
         <v>2</v>
@@ -32188,7 +32188,7 @@
       </c>
       <c r="H471" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I471">
         <v>10</v>
@@ -32231,7 +32231,7 @@
       </c>
       <c r="H472" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I472">
         <v>2</v>
@@ -32274,7 +32274,7 @@
       </c>
       <c r="H473" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I473">
         <v>2</v>
@@ -32317,7 +32317,7 @@
       </c>
       <c r="H474" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I474">
         <v>14</v>
@@ -32360,7 +32360,7 @@
       </c>
       <c r="H475" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I475">
         <v>2</v>
@@ -32403,7 +32403,7 @@
       </c>
       <c r="H476" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I476">
         <v>2</v>
@@ -32446,7 +32446,7 @@
       </c>
       <c r="H477" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I477">
         <v>12</v>
@@ -32489,7 +32489,7 @@
       </c>
       <c r="H478" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I478">
         <v>2</v>
@@ -32532,7 +32532,7 @@
       </c>
       <c r="H479" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I479">
         <v>12</v>
@@ -32575,7 +32575,7 @@
       </c>
       <c r="H480" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I480">
         <v>2</v>
@@ -32618,7 +32618,7 @@
       </c>
       <c r="H481" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I481">
         <v>2</v>
@@ -32661,7 +32661,7 @@
       </c>
       <c r="H482" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I482">
         <v>4</v>
@@ -32704,7 +32704,7 @@
       </c>
       <c r="H483" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I483">
         <v>12</v>
@@ -32747,7 +32747,7 @@
       </c>
       <c r="H484" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I484">
         <v>10</v>
@@ -32790,7 +32790,7 @@
       </c>
       <c r="H485" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I485">
         <v>2</v>
@@ -32833,7 +32833,7 @@
       </c>
       <c r="H486" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I486">
         <v>8</v>
@@ -32876,7 +32876,7 @@
       </c>
       <c r="H487" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I487">
         <v>2</v>
@@ -32919,7 +32919,7 @@
       </c>
       <c r="H488" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I488">
         <v>14</v>
@@ -32962,7 +32962,7 @@
       </c>
       <c r="H489" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I489">
         <v>2</v>
@@ -33005,7 +33005,7 @@
       </c>
       <c r="H490" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I490">
         <v>2</v>
@@ -33048,7 +33048,7 @@
       </c>
       <c r="H491" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I491">
         <v>12</v>
@@ -33091,7 +33091,7 @@
       </c>
       <c r="H492" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I492">
         <v>2</v>
@@ -33134,7 +33134,7 @@
       </c>
       <c r="H493" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I493">
         <v>4</v>
@@ -33177,7 +33177,7 @@
       </c>
       <c r="H494" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I494">
         <v>2</v>
@@ -33220,7 +33220,7 @@
       </c>
       <c r="H495" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I495">
         <v>10</v>
@@ -33263,7 +33263,7 @@
       </c>
       <c r="H496" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I496">
         <v>2</v>
@@ -33306,7 +33306,7 @@
       </c>
       <c r="H497" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I497">
         <v>2</v>
@@ -33349,7 +33349,7 @@
       </c>
       <c r="H498" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I498">
         <v>10</v>
@@ -33392,7 +33392,7 @@
       </c>
       <c r="H499" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I499">
         <v>12</v>
@@ -33435,7 +33435,7 @@
       </c>
       <c r="H500" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I500">
         <v>2</v>
@@ -33478,7 +33478,7 @@
       </c>
       <c r="H501" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I501">
         <v>12</v>
@@ -33521,7 +33521,7 @@
       </c>
       <c r="H502" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I502">
         <v>2</v>
@@ -33564,7 +33564,7 @@
       </c>
       <c r="H503" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I503">
         <v>2</v>
@@ -33607,7 +33607,7 @@
       </c>
       <c r="H504" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I504">
         <v>2</v>
@@ -33650,7 +33650,7 @@
       </c>
       <c r="H505" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I505">
         <v>6</v>
@@ -33693,7 +33693,7 @@
       </c>
       <c r="H506" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I506">
         <v>4</v>
@@ -33736,7 +33736,7 @@
       </c>
       <c r="H507" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I507">
         <v>8</v>
@@ -33779,7 +33779,7 @@
       </c>
       <c r="H508" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I508">
         <v>6</v>
@@ -33822,7 +33822,7 @@
       </c>
       <c r="H509" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I509">
         <v>4</v>
@@ -33865,7 +33865,7 @@
       </c>
       <c r="H510" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I510">
         <v>6</v>
@@ -33908,7 +33908,7 @@
       </c>
       <c r="H511" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I511">
         <v>12</v>
@@ -33951,7 +33951,7 @@
       </c>
       <c r="H512" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I512">
         <v>2</v>
@@ -33994,7 +33994,7 @@
       </c>
       <c r="H513" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I513">
         <v>14</v>
@@ -34037,7 +34037,7 @@
       </c>
       <c r="H514" s="1">
         <f t="shared" ref="H514:H577" ca="1" si="16">TODAY()+M514</f>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I514">
         <v>2</v>
@@ -34080,7 +34080,7 @@
       </c>
       <c r="H515" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I515">
         <v>12</v>
@@ -34123,7 +34123,7 @@
       </c>
       <c r="H516" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I516">
         <v>4</v>
@@ -34166,7 +34166,7 @@
       </c>
       <c r="H517" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I517">
         <v>2</v>
@@ -34209,7 +34209,7 @@
       </c>
       <c r="H518" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I518">
         <v>16</v>
@@ -34252,7 +34252,7 @@
       </c>
       <c r="H519" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I519">
         <v>2</v>
@@ -34295,7 +34295,7 @@
       </c>
       <c r="H520" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I520">
         <v>2</v>
@@ -34338,7 +34338,7 @@
       </c>
       <c r="H521" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I521">
         <v>8</v>
@@ -34381,7 +34381,7 @@
       </c>
       <c r="H522" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I522">
         <v>4</v>
@@ -34424,7 +34424,7 @@
       </c>
       <c r="H523" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I523">
         <v>2</v>
@@ -34467,7 +34467,7 @@
       </c>
       <c r="H524" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I524">
         <v>2</v>
@@ -34510,7 +34510,7 @@
       </c>
       <c r="H525" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I525">
         <v>12</v>
@@ -34553,7 +34553,7 @@
       </c>
       <c r="H526" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I526">
         <v>6</v>
@@ -34596,7 +34596,7 @@
       </c>
       <c r="H527" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I527">
         <v>2</v>
@@ -34639,7 +34639,7 @@
       </c>
       <c r="H528" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I528">
         <v>8</v>
@@ -34682,7 +34682,7 @@
       </c>
       <c r="H529" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I529">
         <v>2</v>
@@ -34725,7 +34725,7 @@
       </c>
       <c r="H530" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I530">
         <v>4</v>
@@ -34768,7 +34768,7 @@
       </c>
       <c r="H531" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I531">
         <v>2</v>
@@ -34811,7 +34811,7 @@
       </c>
       <c r="H532" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I532">
         <v>12</v>
@@ -34854,7 +34854,7 @@
       </c>
       <c r="H533" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I533">
         <v>2</v>
@@ -34897,7 +34897,7 @@
       </c>
       <c r="H534" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I534">
         <v>6</v>
@@ -34940,7 +34940,7 @@
       </c>
       <c r="H535" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I535">
         <v>4</v>
@@ -34983,7 +34983,7 @@
       </c>
       <c r="H536" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I536">
         <v>2</v>
@@ -35026,7 +35026,7 @@
       </c>
       <c r="H537" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I537">
         <v>4</v>
@@ -35069,7 +35069,7 @@
       </c>
       <c r="H538" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I538">
         <v>20</v>
@@ -35112,7 +35112,7 @@
       </c>
       <c r="H539" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I539">
         <v>2</v>
@@ -35155,7 +35155,7 @@
       </c>
       <c r="H540" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I540">
         <v>6</v>
@@ -35198,7 +35198,7 @@
       </c>
       <c r="H541" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I541">
         <v>4</v>
@@ -35241,7 +35241,7 @@
       </c>
       <c r="H542" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I542">
         <v>4</v>
@@ -35284,7 +35284,7 @@
       </c>
       <c r="H543" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I543">
         <v>2</v>
@@ -35327,7 +35327,7 @@
       </c>
       <c r="H544" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I544">
         <v>2</v>
@@ -35370,7 +35370,7 @@
       </c>
       <c r="H545" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I545">
         <v>2</v>
@@ -35413,7 +35413,7 @@
       </c>
       <c r="H546" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I546">
         <v>8</v>
@@ -35456,7 +35456,7 @@
       </c>
       <c r="H547" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I547">
         <v>8</v>
@@ -35499,7 +35499,7 @@
       </c>
       <c r="H548" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I548">
         <v>2</v>
@@ -35542,7 +35542,7 @@
       </c>
       <c r="H549" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I549">
         <v>2</v>
@@ -35585,7 +35585,7 @@
       </c>
       <c r="H550" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I550">
         <v>8</v>
@@ -35628,7 +35628,7 @@
       </c>
       <c r="H551" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I551">
         <v>2</v>
@@ -35671,7 +35671,7 @@
       </c>
       <c r="H552" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I552">
         <v>12</v>
@@ -35714,7 +35714,7 @@
       </c>
       <c r="H553" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I553">
         <v>4</v>
@@ -35757,7 +35757,7 @@
       </c>
       <c r="H554" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I554">
         <v>6</v>
@@ -35800,7 +35800,7 @@
       </c>
       <c r="H555" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I555">
         <v>8</v>
@@ -35843,7 +35843,7 @@
       </c>
       <c r="H556" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I556">
         <v>2</v>
@@ -35886,7 +35886,7 @@
       </c>
       <c r="H557" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I557">
         <v>2</v>
@@ -35929,7 +35929,7 @@
       </c>
       <c r="H558" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I558">
         <v>4</v>
@@ -35972,7 +35972,7 @@
       </c>
       <c r="H559" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I559">
         <v>2</v>
@@ -36015,7 +36015,7 @@
       </c>
       <c r="H560" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I560">
         <v>8</v>
@@ -36058,7 +36058,7 @@
       </c>
       <c r="H561" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I561">
         <v>4</v>
@@ -36101,7 +36101,7 @@
       </c>
       <c r="H562" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I562">
         <v>2</v>
@@ -36144,7 +36144,7 @@
       </c>
       <c r="H563" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I563">
         <v>2</v>
@@ -36187,7 +36187,7 @@
       </c>
       <c r="H564" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I564">
         <v>2</v>
@@ -36230,7 +36230,7 @@
       </c>
       <c r="H565" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I565">
         <v>2</v>
@@ -36273,7 +36273,7 @@
       </c>
       <c r="H566" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I566">
         <v>10</v>
@@ -36316,7 +36316,7 @@
       </c>
       <c r="H567" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I567">
         <v>2</v>
@@ -36359,7 +36359,7 @@
       </c>
       <c r="H568" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I568">
         <v>16</v>
@@ -36402,7 +36402,7 @@
       </c>
       <c r="H569" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I569">
         <v>4</v>
@@ -36445,7 +36445,7 @@
       </c>
       <c r="H570" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I570">
         <v>4</v>
@@ -36488,7 +36488,7 @@
       </c>
       <c r="H571" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I571">
         <v>8</v>
@@ -36531,7 +36531,7 @@
       </c>
       <c r="H572" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I572">
         <v>2</v>
@@ -36574,7 +36574,7 @@
       </c>
       <c r="H573" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I573">
         <v>12</v>
@@ -36617,7 +36617,7 @@
       </c>
       <c r="H574" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I574">
         <v>2</v>
@@ -36660,7 +36660,7 @@
       </c>
       <c r="H575" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I575">
         <v>12</v>
@@ -36703,7 +36703,7 @@
       </c>
       <c r="H576" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I576">
         <v>16</v>
@@ -36746,7 +36746,7 @@
       </c>
       <c r="H577" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I577">
         <v>2</v>
@@ -36789,7 +36789,7 @@
       </c>
       <c r="H578" s="1">
         <f t="shared" ref="H578:H596" ca="1" si="18">TODAY()+M578</f>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I578">
         <v>2</v>
@@ -36832,7 +36832,7 @@
       </c>
       <c r="H579" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I579">
         <v>2</v>
@@ -36875,7 +36875,7 @@
       </c>
       <c r="H580" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I580">
         <v>12</v>
@@ -36918,7 +36918,7 @@
       </c>
       <c r="H581" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I581">
         <v>12</v>
@@ -36961,7 +36961,7 @@
       </c>
       <c r="H582" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I582">
         <v>2</v>
@@ -37004,7 +37004,7 @@
       </c>
       <c r="H583" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I583">
         <v>4</v>
@@ -37047,7 +37047,7 @@
       </c>
       <c r="H584" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I584">
         <v>6</v>
@@ -37090,7 +37090,7 @@
       </c>
       <c r="H585" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I585">
         <v>4</v>
@@ -37133,7 +37133,7 @@
       </c>
       <c r="H586" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I586">
         <v>2</v>
@@ -37176,7 +37176,7 @@
       </c>
       <c r="H587" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I587">
         <v>2</v>
@@ -37219,7 +37219,7 @@
       </c>
       <c r="H588" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I588">
         <v>12</v>
@@ -37262,7 +37262,7 @@
       </c>
       <c r="H589" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I589">
         <v>8</v>
@@ -37305,7 +37305,7 @@
       </c>
       <c r="H590" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I590">
         <v>2</v>
@@ -37348,7 +37348,7 @@
       </c>
       <c r="H591" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I591">
         <v>2</v>
@@ -37391,7 +37391,7 @@
       </c>
       <c r="H592" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I592">
         <v>2</v>
@@ -37434,7 +37434,7 @@
       </c>
       <c r="H593" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I593">
         <v>2</v>
@@ -37477,7 +37477,7 @@
       </c>
       <c r="H594" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I594">
         <v>12</v>
@@ -37520,7 +37520,7 @@
       </c>
       <c r="H595" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I595">
         <v>6</v>
@@ -37563,7 +37563,7 @@
       </c>
       <c r="H596" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I596">
         <v>4</v>

--- a/src/APSSystem.Presentation.WPF/Data/Antecipacao/OrdensDeCliente.xlsx
+++ b/src/APSSystem.Presentation.WPF/Data/Antecipacao/OrdensDeCliente.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55159\source\repos\APSSystem_NOVO\src\APSSystem.Presentation.WPF\Data\Antecipacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F39D80-7614-4533-811E-7ECB5541ACCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D49897F-345D-4948-B83D-C78493799336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12615" yWindow="6255" windowWidth="22320" windowHeight="15300" activeTab="1" xr2:uid="{702DC5E7-951B-4331-8240-E292C0DE46CB}"/>
+    <workbookView xWindow="32025" yWindow="12570" windowWidth="15990" windowHeight="15300" xr2:uid="{702DC5E7-951B-4331-8240-E292C0DE46CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -10989,7 +10989,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C0232FED-1F89-4039-B023-BEA414F4C290}" name="Tabela dinâmica2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C0232FED-1F89-4039-B023-BEA414F4C290}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A5:D37" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -11937,7 +11937,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:N596"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M538" sqref="M538"/>
     </sheetView>
@@ -12022,7 +12022,7 @@
       </c>
       <c r="H2" s="1">
         <f ca="1">TODAY()+M2</f>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I2">
         <v>12</v>
@@ -12065,7 +12065,7 @@
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H66" ca="1" si="0">TODAY()+M3</f>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -12108,7 +12108,7 @@
       </c>
       <c r="H4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I4">
         <v>6</v>
@@ -12151,7 +12151,7 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -12197,7 +12197,7 @@
       </c>
       <c r="H6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I6">
         <v>12</v>
@@ -12240,7 +12240,7 @@
       </c>
       <c r="H7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -12283,7 +12283,7 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I8">
         <v>4</v>
@@ -12326,7 +12326,7 @@
       </c>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -12369,7 +12369,7 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -12412,7 +12412,7 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I11">
         <v>12</v>
@@ -12455,7 +12455,7 @@
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I12">
         <v>12</v>
@@ -12498,7 +12498,7 @@
       </c>
       <c r="H13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -12541,7 +12541,7 @@
       </c>
       <c r="H14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -12584,7 +12584,7 @@
       </c>
       <c r="H15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -12627,7 +12627,7 @@
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I16">
         <v>6</v>
@@ -12670,7 +12670,7 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -12713,7 +12713,7 @@
       </c>
       <c r="H18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -12756,7 +12756,7 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -12799,7 +12799,7 @@
       </c>
       <c r="H20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I20">
         <v>4</v>
@@ -12842,7 +12842,7 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -12885,7 +12885,7 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -12928,7 +12928,7 @@
       </c>
       <c r="H23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -12971,7 +12971,7 @@
       </c>
       <c r="H24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I24">
         <v>12</v>
@@ -13014,7 +13014,7 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I25">
         <v>12</v>
@@ -13057,7 +13057,7 @@
       </c>
       <c r="H26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I26">
         <v>12</v>
@@ -13100,7 +13100,7 @@
       </c>
       <c r="H27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I27">
         <v>6</v>
@@ -13143,7 +13143,7 @@
       </c>
       <c r="H28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I28">
         <v>8</v>
@@ -13186,7 +13186,7 @@
       </c>
       <c r="H29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -13229,7 +13229,7 @@
       </c>
       <c r="H30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -13272,7 +13272,7 @@
       </c>
       <c r="H31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I31">
         <v>4</v>
@@ -13315,7 +13315,7 @@
       </c>
       <c r="H32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -13358,7 +13358,7 @@
       </c>
       <c r="H33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -13401,7 +13401,7 @@
       </c>
       <c r="H34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I34">
         <v>8</v>
@@ -13444,7 +13444,7 @@
       </c>
       <c r="H35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -13487,7 +13487,7 @@
       </c>
       <c r="H36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -13530,7 +13530,7 @@
       </c>
       <c r="H37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -13573,7 +13573,7 @@
       </c>
       <c r="H38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I38">
         <v>6</v>
@@ -13616,7 +13616,7 @@
       </c>
       <c r="H39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I39">
         <v>6</v>
@@ -13659,7 +13659,7 @@
       </c>
       <c r="H40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I40">
         <v>4</v>
@@ -13702,7 +13702,7 @@
       </c>
       <c r="H41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="I41">
         <v>2</v>
@@ -13745,7 +13745,7 @@
       </c>
       <c r="H42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I42">
         <v>14</v>
@@ -13788,7 +13788,7 @@
       </c>
       <c r="H43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I43">
         <v>2</v>
@@ -13831,7 +13831,7 @@
       </c>
       <c r="H44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I44">
         <v>2</v>
@@ -13874,7 +13874,7 @@
       </c>
       <c r="H45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I45">
         <v>2</v>
@@ -13917,7 +13917,7 @@
       </c>
       <c r="H46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I46">
         <v>10</v>
@@ -13960,7 +13960,7 @@
       </c>
       <c r="H47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I47">
         <v>4</v>
@@ -14003,7 +14003,7 @@
       </c>
       <c r="H48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -14046,7 +14046,7 @@
       </c>
       <c r="H49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I49">
         <v>4</v>
@@ -14089,7 +14089,7 @@
       </c>
       <c r="H50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -14132,7 +14132,7 @@
       </c>
       <c r="H51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I51">
         <v>2</v>
@@ -14175,7 +14175,7 @@
       </c>
       <c r="H52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I52">
         <v>4</v>
@@ -14218,7 +14218,7 @@
       </c>
       <c r="H53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I53">
         <v>18</v>
@@ -14261,7 +14261,7 @@
       </c>
       <c r="H54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I54">
         <v>2</v>
@@ -14304,7 +14304,7 @@
       </c>
       <c r="H55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I55">
         <v>12</v>
@@ -14347,7 +14347,7 @@
       </c>
       <c r="H56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I56">
         <v>2</v>
@@ -14390,7 +14390,7 @@
       </c>
       <c r="H57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I57">
         <v>2</v>
@@ -14433,7 +14433,7 @@
       </c>
       <c r="H58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I58">
         <v>14</v>
@@ -14476,7 +14476,7 @@
       </c>
       <c r="H59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I59">
         <v>2</v>
@@ -14519,7 +14519,7 @@
       </c>
       <c r="H60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I60">
         <v>12</v>
@@ -14562,7 +14562,7 @@
       </c>
       <c r="H61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="I61">
         <v>6</v>
@@ -14605,7 +14605,7 @@
       </c>
       <c r="H62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I62">
         <v>2</v>
@@ -14648,7 +14648,7 @@
       </c>
       <c r="H63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I63">
         <v>2</v>
@@ -14691,7 +14691,7 @@
       </c>
       <c r="H64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I64">
         <v>2</v>
@@ -14734,7 +14734,7 @@
       </c>
       <c r="H65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I65">
         <v>10</v>
@@ -14777,7 +14777,7 @@
       </c>
       <c r="H66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I66">
         <v>2</v>
@@ -14820,7 +14820,7 @@
       </c>
       <c r="H67" s="1">
         <f t="shared" ref="H67:H130" ca="1" si="2">TODAY()+M67</f>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I67">
         <v>10</v>
@@ -14863,7 +14863,7 @@
       </c>
       <c r="H68" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I68">
         <v>16</v>
@@ -14906,7 +14906,7 @@
       </c>
       <c r="H69" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -14949,7 +14949,7 @@
       </c>
       <c r="H70" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I70">
         <v>4</v>
@@ -14992,7 +14992,7 @@
       </c>
       <c r="H71" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I71">
         <v>2</v>
@@ -15035,7 +15035,7 @@
       </c>
       <c r="H72" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I72">
         <v>2</v>
@@ -15078,7 +15078,7 @@
       </c>
       <c r="H73" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I73">
         <v>2</v>
@@ -15121,7 +15121,7 @@
       </c>
       <c r="H74" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I74">
         <v>2</v>
@@ -15164,7 +15164,7 @@
       </c>
       <c r="H75" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I75">
         <v>2</v>
@@ -15207,7 +15207,7 @@
       </c>
       <c r="H76" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I76">
         <v>16</v>
@@ -15250,7 +15250,7 @@
       </c>
       <c r="H77" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I77">
         <v>2</v>
@@ -15293,7 +15293,7 @@
       </c>
       <c r="H78" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I78">
         <v>2</v>
@@ -15336,7 +15336,7 @@
       </c>
       <c r="H79" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I79">
         <v>2</v>
@@ -15379,7 +15379,7 @@
       </c>
       <c r="H80" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I80">
         <v>2</v>
@@ -15422,7 +15422,7 @@
       </c>
       <c r="H81" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45890</v>
+        <v>45892</v>
       </c>
       <c r="I81">
         <v>14</v>
@@ -15465,7 +15465,7 @@
       </c>
       <c r="H82" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I82">
         <v>2</v>
@@ -15508,7 +15508,7 @@
       </c>
       <c r="H83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I83">
         <v>2</v>
@@ -15551,7 +15551,7 @@
       </c>
       <c r="H84" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I84">
         <v>16</v>
@@ -15594,7 +15594,7 @@
       </c>
       <c r="H85" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I85">
         <v>2</v>
@@ -15637,7 +15637,7 @@
       </c>
       <c r="H86" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I86">
         <v>16</v>
@@ -15680,7 +15680,7 @@
       </c>
       <c r="H87" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I87">
         <v>2</v>
@@ -15723,7 +15723,7 @@
       </c>
       <c r="H88" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I88">
         <v>8</v>
@@ -15766,7 +15766,7 @@
       </c>
       <c r="H89" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I89">
         <v>2</v>
@@ -15809,7 +15809,7 @@
       </c>
       <c r="H90" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I90">
         <v>2</v>
@@ -15852,7 +15852,7 @@
       </c>
       <c r="H91" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I91">
         <v>4</v>
@@ -15895,7 +15895,7 @@
       </c>
       <c r="H92" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I92">
         <v>12</v>
@@ -15938,7 +15938,7 @@
       </c>
       <c r="H93" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I93">
         <v>2</v>
@@ -15981,7 +15981,7 @@
       </c>
       <c r="H94" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I94">
         <v>2</v>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="H95" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I95">
         <v>4</v>
@@ -16067,7 +16067,7 @@
       </c>
       <c r="H96" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I96">
         <v>8</v>
@@ -16110,7 +16110,7 @@
       </c>
       <c r="H97" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I97">
         <v>18</v>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="H98" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I98">
         <v>2</v>
@@ -16196,7 +16196,7 @@
       </c>
       <c r="H99" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I99">
         <v>6</v>
@@ -16239,7 +16239,7 @@
       </c>
       <c r="H100" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -16282,7 +16282,7 @@
       </c>
       <c r="H101" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45891</v>
+        <v>45893</v>
       </c>
       <c r="I101">
         <v>6</v>
@@ -16325,7 +16325,7 @@
       </c>
       <c r="H102" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I102">
         <v>4</v>
@@ -16368,7 +16368,7 @@
       </c>
       <c r="H103" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I103">
         <v>12</v>
@@ -16411,7 +16411,7 @@
       </c>
       <c r="H104" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I104">
         <v>10</v>
@@ -16454,7 +16454,7 @@
       </c>
       <c r="H105" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I105">
         <v>2</v>
@@ -16497,7 +16497,7 @@
       </c>
       <c r="H106" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I106">
         <v>2</v>
@@ -16540,7 +16540,7 @@
       </c>
       <c r="H107" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I107">
         <v>12</v>
@@ -16583,7 +16583,7 @@
       </c>
       <c r="H108" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I108">
         <v>2</v>
@@ -16626,7 +16626,7 @@
       </c>
       <c r="H109" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I109">
         <v>12</v>
@@ -16669,7 +16669,7 @@
       </c>
       <c r="H110" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I110">
         <v>2</v>
@@ -16712,7 +16712,7 @@
       </c>
       <c r="H111" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I111">
         <v>2</v>
@@ -16755,7 +16755,7 @@
       </c>
       <c r="H112" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I112">
         <v>8</v>
@@ -16798,7 +16798,7 @@
       </c>
       <c r="H113" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I113">
         <v>2</v>
@@ -16841,7 +16841,7 @@
       </c>
       <c r="H114" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I114">
         <v>12</v>
@@ -16884,7 +16884,7 @@
       </c>
       <c r="H115" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I115">
         <v>2</v>
@@ -16927,7 +16927,7 @@
       </c>
       <c r="H116" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I116">
         <v>8</v>
@@ -16970,7 +16970,7 @@
       </c>
       <c r="H117" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I117">
         <v>2</v>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="H118" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I118">
         <v>2</v>
@@ -17056,7 +17056,7 @@
       </c>
       <c r="H119" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I119">
         <v>2</v>
@@ -17099,7 +17099,7 @@
       </c>
       <c r="H120" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I120">
         <v>12</v>
@@ -17142,7 +17142,7 @@
       </c>
       <c r="H121" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="I121">
         <v>4</v>
@@ -17185,7 +17185,7 @@
       </c>
       <c r="H122" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I122">
         <v>4</v>
@@ -17228,7 +17228,7 @@
       </c>
       <c r="H123" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I123">
         <v>14</v>
@@ -17271,7 +17271,7 @@
       </c>
       <c r="H124" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I124">
         <v>2</v>
@@ -17314,7 +17314,7 @@
       </c>
       <c r="H125" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I125">
         <v>2</v>
@@ -17357,7 +17357,7 @@
       </c>
       <c r="H126" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I126">
         <v>2</v>
@@ -17400,7 +17400,7 @@
       </c>
       <c r="H127" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I127">
         <v>2</v>
@@ -17443,7 +17443,7 @@
       </c>
       <c r="H128" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I128">
         <v>10</v>
@@ -17486,7 +17486,7 @@
       </c>
       <c r="H129" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I129">
         <v>2</v>
@@ -17529,7 +17529,7 @@
       </c>
       <c r="H130" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I130">
         <v>4</v>
@@ -17572,7 +17572,7 @@
       </c>
       <c r="H131" s="1">
         <f t="shared" ref="H131:H194" ca="1" si="4">TODAY()+M131</f>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I131">
         <v>8</v>
@@ -17615,7 +17615,7 @@
       </c>
       <c r="H132" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I132">
         <v>4</v>
@@ -17658,7 +17658,7 @@
       </c>
       <c r="H133" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I133">
         <v>2</v>
@@ -17701,7 +17701,7 @@
       </c>
       <c r="H134" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I134">
         <v>4</v>
@@ -17744,7 +17744,7 @@
       </c>
       <c r="H135" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I135">
         <v>4</v>
@@ -17787,7 +17787,7 @@
       </c>
       <c r="H136" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I136">
         <v>14</v>
@@ -17830,7 +17830,7 @@
       </c>
       <c r="H137" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I137">
         <v>2</v>
@@ -17873,7 +17873,7 @@
       </c>
       <c r="H138" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I138">
         <v>6</v>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="H139" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I139">
         <v>16</v>
@@ -17959,7 +17959,7 @@
       </c>
       <c r="H140" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I140">
         <v>4</v>
@@ -18002,7 +18002,7 @@
       </c>
       <c r="H141" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45893</v>
+        <v>45895</v>
       </c>
       <c r="I141">
         <v>2</v>
@@ -18045,7 +18045,7 @@
       </c>
       <c r="H142" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I142">
         <v>2</v>
@@ -18088,7 +18088,7 @@
       </c>
       <c r="H143" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I143">
         <v>2</v>
@@ -18131,7 +18131,7 @@
       </c>
       <c r="H144" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I144">
         <v>18</v>
@@ -18174,7 +18174,7 @@
       </c>
       <c r="H145" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I145">
         <v>12</v>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="H146" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I146">
         <v>2</v>
@@ -18260,7 +18260,7 @@
       </c>
       <c r="H147" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I147">
         <v>2</v>
@@ -18303,7 +18303,7 @@
       </c>
       <c r="H148" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I148">
         <v>18</v>
@@ -18346,7 +18346,7 @@
       </c>
       <c r="H149" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I149">
         <v>2</v>
@@ -18389,7 +18389,7 @@
       </c>
       <c r="H150" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I150">
         <v>4</v>
@@ -18432,7 +18432,7 @@
       </c>
       <c r="H151" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I151">
         <v>2</v>
@@ -18475,7 +18475,7 @@
       </c>
       <c r="H152" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I152">
         <v>4</v>
@@ -18518,7 +18518,7 @@
       </c>
       <c r="H153" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I153">
         <v>8</v>
@@ -18561,7 +18561,7 @@
       </c>
       <c r="H154" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I154">
         <v>8</v>
@@ -18604,7 +18604,7 @@
       </c>
       <c r="H155" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I155">
         <v>4</v>
@@ -18647,7 +18647,7 @@
       </c>
       <c r="H156" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I156">
         <v>6</v>
@@ -18690,7 +18690,7 @@
       </c>
       <c r="H157" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I157">
         <v>2</v>
@@ -18733,7 +18733,7 @@
       </c>
       <c r="H158" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I158">
         <v>8</v>
@@ -18776,7 +18776,7 @@
       </c>
       <c r="H159" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I159">
         <v>2</v>
@@ -18819,7 +18819,7 @@
       </c>
       <c r="H160" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I160">
         <v>2</v>
@@ -18862,7 +18862,7 @@
       </c>
       <c r="H161" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="I161">
         <v>2</v>
@@ -18905,7 +18905,7 @@
       </c>
       <c r="H162" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I162">
         <v>2</v>
@@ -18948,7 +18948,7 @@
       </c>
       <c r="H163" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I163">
         <v>2</v>
@@ -18991,7 +18991,7 @@
       </c>
       <c r="H164" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I164">
         <v>4</v>
@@ -19034,7 +19034,7 @@
       </c>
       <c r="H165" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I165">
         <v>10</v>
@@ -19077,7 +19077,7 @@
       </c>
       <c r="H166" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I166">
         <v>2</v>
@@ -19120,7 +19120,7 @@
       </c>
       <c r="H167" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I167">
         <v>2</v>
@@ -19163,7 +19163,7 @@
       </c>
       <c r="H168" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I168">
         <v>2</v>
@@ -19206,7 +19206,7 @@
       </c>
       <c r="H169" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I169">
         <v>2</v>
@@ -19249,7 +19249,7 @@
       </c>
       <c r="H170" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I170">
         <v>2</v>
@@ -19292,7 +19292,7 @@
       </c>
       <c r="H171" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I171">
         <v>2</v>
@@ -19335,7 +19335,7 @@
       </c>
       <c r="H172" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I172">
         <v>2</v>
@@ -19378,7 +19378,7 @@
       </c>
       <c r="H173" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I173">
         <v>2</v>
@@ -19421,7 +19421,7 @@
       </c>
       <c r="H174" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I174">
         <v>6</v>
@@ -19464,7 +19464,7 @@
       </c>
       <c r="H175" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I175">
         <v>2</v>
@@ -19507,7 +19507,7 @@
       </c>
       <c r="H176" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I176">
         <v>2</v>
@@ -19550,7 +19550,7 @@
       </c>
       <c r="H177" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I177">
         <v>6</v>
@@ -19593,7 +19593,7 @@
       </c>
       <c r="H178" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I178">
         <v>2</v>
@@ -19636,7 +19636,7 @@
       </c>
       <c r="H179" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I179">
         <v>6</v>
@@ -19679,7 +19679,7 @@
       </c>
       <c r="H180" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I180">
         <v>6</v>
@@ -19722,7 +19722,7 @@
       </c>
       <c r="H181" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="I181">
         <v>2</v>
@@ -19765,7 +19765,7 @@
       </c>
       <c r="H182" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I182">
         <v>10</v>
@@ -19808,7 +19808,7 @@
       </c>
       <c r="H183" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I183">
         <v>2</v>
@@ -19851,7 +19851,7 @@
       </c>
       <c r="H184" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I184">
         <v>2</v>
@@ -19894,7 +19894,7 @@
       </c>
       <c r="H185" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I185">
         <v>2</v>
@@ -19937,7 +19937,7 @@
       </c>
       <c r="H186" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I186">
         <v>2</v>
@@ -19980,7 +19980,7 @@
       </c>
       <c r="H187" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I187">
         <v>14</v>
@@ -20023,7 +20023,7 @@
       </c>
       <c r="H188" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I188">
         <v>2</v>
@@ -20066,7 +20066,7 @@
       </c>
       <c r="H189" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I189">
         <v>12</v>
@@ -20109,7 +20109,7 @@
       </c>
       <c r="H190" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I190">
         <v>4</v>
@@ -20152,7 +20152,7 @@
       </c>
       <c r="H191" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I191">
         <v>16</v>
@@ -20195,7 +20195,7 @@
       </c>
       <c r="H192" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I192">
         <v>2</v>
@@ -20238,7 +20238,7 @@
       </c>
       <c r="H193" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I193">
         <v>2</v>
@@ -20281,7 +20281,7 @@
       </c>
       <c r="H194" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I194">
         <v>8</v>
@@ -20324,7 +20324,7 @@
       </c>
       <c r="H195" s="1">
         <f t="shared" ref="H195:H258" ca="1" si="6">TODAY()+M195</f>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I195">
         <v>12</v>
@@ -20367,7 +20367,7 @@
       </c>
       <c r="H196" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I196">
         <v>4</v>
@@ -20410,7 +20410,7 @@
       </c>
       <c r="H197" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I197">
         <v>8</v>
@@ -20453,7 +20453,7 @@
       </c>
       <c r="H198" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I198">
         <v>2</v>
@@ -20496,7 +20496,7 @@
       </c>
       <c r="H199" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I199">
         <v>4</v>
@@ -20539,7 +20539,7 @@
       </c>
       <c r="H200" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I200">
         <v>2</v>
@@ -20582,7 +20582,7 @@
       </c>
       <c r="H201" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="I201">
         <v>2</v>
@@ -20625,7 +20625,7 @@
       </c>
       <c r="H202" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I202">
         <v>2</v>
@@ -20668,7 +20668,7 @@
       </c>
       <c r="H203" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I203">
         <v>4</v>
@@ -20711,7 +20711,7 @@
       </c>
       <c r="H204" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I204">
         <v>2</v>
@@ -20754,7 +20754,7 @@
       </c>
       <c r="H205" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I205">
         <v>8</v>
@@ -20797,7 +20797,7 @@
       </c>
       <c r="H206" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I206">
         <v>12</v>
@@ -20840,7 +20840,7 @@
       </c>
       <c r="H207" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I207">
         <v>8</v>
@@ -20883,7 +20883,7 @@
       </c>
       <c r="H208" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I208">
         <v>4</v>
@@ -20926,7 +20926,7 @@
       </c>
       <c r="H209" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I209">
         <v>4</v>
@@ -20969,7 +20969,7 @@
       </c>
       <c r="H210" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I210">
         <v>2</v>
@@ -21012,7 +21012,7 @@
       </c>
       <c r="H211" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I211">
         <v>12</v>
@@ -21055,7 +21055,7 @@
       </c>
       <c r="H212" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I212">
         <v>8</v>
@@ -21098,7 +21098,7 @@
       </c>
       <c r="H213" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I213">
         <v>4</v>
@@ -21141,7 +21141,7 @@
       </c>
       <c r="H214" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I214">
         <v>2</v>
@@ -21184,7 +21184,7 @@
       </c>
       <c r="H215" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I215">
         <v>12</v>
@@ -21227,7 +21227,7 @@
       </c>
       <c r="H216" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I216">
         <v>2</v>
@@ -21270,7 +21270,7 @@
       </c>
       <c r="H217" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I217">
         <v>2</v>
@@ -21313,7 +21313,7 @@
       </c>
       <c r="H218" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I218">
         <v>2</v>
@@ -21356,7 +21356,7 @@
       </c>
       <c r="H219" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I219">
         <v>4</v>
@@ -21399,7 +21399,7 @@
       </c>
       <c r="H220" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I220">
         <v>2</v>
@@ -21442,7 +21442,7 @@
       </c>
       <c r="H221" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45897</v>
+        <v>45899</v>
       </c>
       <c r="I221">
         <v>8</v>
@@ -21485,7 +21485,7 @@
       </c>
       <c r="H222" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I222">
         <v>10</v>
@@ -21528,7 +21528,7 @@
       </c>
       <c r="H223" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I223">
         <v>12</v>
@@ -21571,7 +21571,7 @@
       </c>
       <c r="H224" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I224">
         <v>2</v>
@@ -21614,7 +21614,7 @@
       </c>
       <c r="H225" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I225">
         <v>8</v>
@@ -21657,7 +21657,7 @@
       </c>
       <c r="H226" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I226">
         <v>4</v>
@@ -21700,7 +21700,7 @@
       </c>
       <c r="H227" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I227">
         <v>12</v>
@@ -21743,7 +21743,7 @@
       </c>
       <c r="H228" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I228">
         <v>4</v>
@@ -21786,7 +21786,7 @@
       </c>
       <c r="H229" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I229">
         <v>8</v>
@@ -21829,7 +21829,7 @@
       </c>
       <c r="H230" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I230">
         <v>6</v>
@@ -21872,7 +21872,7 @@
       </c>
       <c r="H231" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I231">
         <v>12</v>
@@ -21915,7 +21915,7 @@
       </c>
       <c r="H232" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I232">
         <v>2</v>
@@ -21958,7 +21958,7 @@
       </c>
       <c r="H233" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I233">
         <v>6</v>
@@ -22001,7 +22001,7 @@
       </c>
       <c r="H234" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I234">
         <v>2</v>
@@ -22044,7 +22044,7 @@
       </c>
       <c r="H235" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I235">
         <v>2</v>
@@ -22087,7 +22087,7 @@
       </c>
       <c r="H236" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I236">
         <v>2</v>
@@ -22130,7 +22130,7 @@
       </c>
       <c r="H237" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I237">
         <v>2</v>
@@ -22173,7 +22173,7 @@
       </c>
       <c r="H238" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I238">
         <v>10</v>
@@ -22216,7 +22216,7 @@
       </c>
       <c r="H239" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I239">
         <v>4</v>
@@ -22259,7 +22259,7 @@
       </c>
       <c r="H240" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I240">
         <v>2</v>
@@ -22302,7 +22302,7 @@
       </c>
       <c r="H241" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45900</v>
       </c>
       <c r="I241">
         <v>4</v>
@@ -22345,7 +22345,7 @@
       </c>
       <c r="H242" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I242">
         <v>2</v>
@@ -22388,7 +22388,7 @@
       </c>
       <c r="H243" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I243">
         <v>2</v>
@@ -22431,7 +22431,7 @@
       </c>
       <c r="H244" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I244">
         <v>2</v>
@@ -22474,7 +22474,7 @@
       </c>
       <c r="H245" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I245">
         <v>4</v>
@@ -22517,7 +22517,7 @@
       </c>
       <c r="H246" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I246">
         <v>4</v>
@@ -22560,7 +22560,7 @@
       </c>
       <c r="H247" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I247">
         <v>4</v>
@@ -22603,7 +22603,7 @@
       </c>
       <c r="H248" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I248">
         <v>2</v>
@@ -22646,7 +22646,7 @@
       </c>
       <c r="H249" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I249">
         <v>12</v>
@@ -22689,7 +22689,7 @@
       </c>
       <c r="H250" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I250">
         <v>10</v>
@@ -22732,7 +22732,7 @@
       </c>
       <c r="H251" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I251">
         <v>4</v>
@@ -22775,7 +22775,7 @@
       </c>
       <c r="H252" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I252">
         <v>8</v>
@@ -22818,7 +22818,7 @@
       </c>
       <c r="H253" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I253">
         <v>2</v>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="H254" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I254">
         <v>8</v>
@@ -22904,7 +22904,7 @@
       </c>
       <c r="H255" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I255">
         <v>6</v>
@@ -22947,7 +22947,7 @@
       </c>
       <c r="H256" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I256">
         <v>2</v>
@@ -22990,7 +22990,7 @@
       </c>
       <c r="H257" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I257">
         <v>10</v>
@@ -23033,7 +23033,7 @@
       </c>
       <c r="H258" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I258">
         <v>2</v>
@@ -23076,7 +23076,7 @@
       </c>
       <c r="H259" s="1">
         <f t="shared" ref="H259:H322" ca="1" si="8">TODAY()+M259</f>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I259">
         <v>6</v>
@@ -23119,7 +23119,7 @@
       </c>
       <c r="H260" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I260">
         <v>6</v>
@@ -23162,7 +23162,7 @@
       </c>
       <c r="H261" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45899</v>
+        <v>45901</v>
       </c>
       <c r="I261">
         <v>12</v>
@@ -23205,7 +23205,7 @@
       </c>
       <c r="H262" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I262">
         <v>4</v>
@@ -23248,7 +23248,7 @@
       </c>
       <c r="H263" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I263">
         <v>12</v>
@@ -23291,7 +23291,7 @@
       </c>
       <c r="H264" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I264">
         <v>12</v>
@@ -23334,7 +23334,7 @@
       </c>
       <c r="H265" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I265">
         <v>6</v>
@@ -23377,7 +23377,7 @@
       </c>
       <c r="H266" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I266">
         <v>6</v>
@@ -23420,7 +23420,7 @@
       </c>
       <c r="H267" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I267">
         <v>10</v>
@@ -23463,7 +23463,7 @@
       </c>
       <c r="H268" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I268">
         <v>2</v>
@@ -23506,7 +23506,7 @@
       </c>
       <c r="H269" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I269">
         <v>2</v>
@@ -23549,7 +23549,7 @@
       </c>
       <c r="H270" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I270">
         <v>10</v>
@@ -23592,7 +23592,7 @@
       </c>
       <c r="H271" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I271">
         <v>8</v>
@@ -23635,7 +23635,7 @@
       </c>
       <c r="H272" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I272">
         <v>2</v>
@@ -23678,7 +23678,7 @@
       </c>
       <c r="H273" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I273">
         <v>2</v>
@@ -23721,7 +23721,7 @@
       </c>
       <c r="H274" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I274">
         <v>2</v>
@@ -23764,7 +23764,7 @@
       </c>
       <c r="H275" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I275">
         <v>6</v>
@@ -23807,7 +23807,7 @@
       </c>
       <c r="H276" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I276">
         <v>2</v>
@@ -23850,7 +23850,7 @@
       </c>
       <c r="H277" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I277">
         <v>2</v>
@@ -23893,7 +23893,7 @@
       </c>
       <c r="H278" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I278">
         <v>2</v>
@@ -23936,7 +23936,7 @@
       </c>
       <c r="H279" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I279">
         <v>14</v>
@@ -23979,7 +23979,7 @@
       </c>
       <c r="H280" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I280">
         <v>8</v>
@@ -24022,7 +24022,7 @@
       </c>
       <c r="H281" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="I281">
         <v>2</v>
@@ -24065,7 +24065,7 @@
       </c>
       <c r="H282" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I282">
         <v>12</v>
@@ -24108,7 +24108,7 @@
       </c>
       <c r="H283" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I283">
         <v>2</v>
@@ -24151,7 +24151,7 @@
       </c>
       <c r="H284" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I284">
         <v>2</v>
@@ -24194,7 +24194,7 @@
       </c>
       <c r="H285" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I285">
         <v>2</v>
@@ -24237,7 +24237,7 @@
       </c>
       <c r="H286" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I286">
         <v>2</v>
@@ -24280,7 +24280,7 @@
       </c>
       <c r="H287" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I287">
         <v>2</v>
@@ -24323,7 +24323,7 @@
       </c>
       <c r="H288" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I288">
         <v>2</v>
@@ -24366,7 +24366,7 @@
       </c>
       <c r="H289" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I289">
         <v>16</v>
@@ -24409,7 +24409,7 @@
       </c>
       <c r="H290" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I290">
         <v>2</v>
@@ -24452,7 +24452,7 @@
       </c>
       <c r="H291" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I291">
         <v>2</v>
@@ -24495,7 +24495,7 @@
       </c>
       <c r="H292" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I292">
         <v>8</v>
@@ -24538,7 +24538,7 @@
       </c>
       <c r="H293" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I293">
         <v>2</v>
@@ -24581,7 +24581,7 @@
       </c>
       <c r="H294" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I294">
         <v>12</v>
@@ -24624,7 +24624,7 @@
       </c>
       <c r="H295" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I295">
         <v>4</v>
@@ -24667,7 +24667,7 @@
       </c>
       <c r="H296" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I296">
         <v>6</v>
@@ -24710,7 +24710,7 @@
       </c>
       <c r="H297" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I297">
         <v>4</v>
@@ -24753,7 +24753,7 @@
       </c>
       <c r="H298" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I298">
         <v>2</v>
@@ -24796,7 +24796,7 @@
       </c>
       <c r="H299" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I299">
         <v>2</v>
@@ -24839,7 +24839,7 @@
       </c>
       <c r="H300" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I300">
         <v>4</v>
@@ -24882,7 +24882,7 @@
       </c>
       <c r="H301" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="I301">
         <v>2</v>
@@ -24925,7 +24925,7 @@
       </c>
       <c r="H302" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I302">
         <v>2</v>
@@ -24968,7 +24968,7 @@
       </c>
       <c r="H303" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I303">
         <v>16</v>
@@ -25011,7 +25011,7 @@
       </c>
       <c r="H304" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I304">
         <v>2</v>
@@ -25054,7 +25054,7 @@
       </c>
       <c r="H305" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I305">
         <v>2</v>
@@ -25097,7 +25097,7 @@
       </c>
       <c r="H306" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I306">
         <v>10</v>
@@ -25140,7 +25140,7 @@
       </c>
       <c r="H307" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I307">
         <v>2</v>
@@ -25183,7 +25183,7 @@
       </c>
       <c r="H308" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I308">
         <v>2</v>
@@ -25226,7 +25226,7 @@
       </c>
       <c r="H309" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I309">
         <v>14</v>
@@ -25269,7 +25269,7 @@
       </c>
       <c r="H310" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I310">
         <v>18</v>
@@ -25312,7 +25312,7 @@
       </c>
       <c r="H311" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I311">
         <v>2</v>
@@ -25355,7 +25355,7 @@
       </c>
       <c r="H312" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I312">
         <v>8</v>
@@ -25398,7 +25398,7 @@
       </c>
       <c r="H313" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I313">
         <v>2</v>
@@ -25441,7 +25441,7 @@
       </c>
       <c r="H314" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I314">
         <v>8</v>
@@ -25484,7 +25484,7 @@
       </c>
       <c r="H315" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I315">
         <v>2</v>
@@ -25527,7 +25527,7 @@
       </c>
       <c r="H316" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I316">
         <v>2</v>
@@ -25570,7 +25570,7 @@
       </c>
       <c r="H317" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I317">
         <v>12</v>
@@ -25613,7 +25613,7 @@
       </c>
       <c r="H318" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I318">
         <v>2</v>
@@ -25656,7 +25656,7 @@
       </c>
       <c r="H319" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I319">
         <v>8</v>
@@ -25699,7 +25699,7 @@
       </c>
       <c r="H320" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I320">
         <v>6</v>
@@ -25742,7 +25742,7 @@
       </c>
       <c r="H321" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="I321">
         <v>6</v>
@@ -25785,7 +25785,7 @@
       </c>
       <c r="H322" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I322">
         <v>2</v>
@@ -25828,7 +25828,7 @@
       </c>
       <c r="H323" s="1">
         <f t="shared" ref="H323:H386" ca="1" si="10">TODAY()+M323</f>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I323">
         <v>4</v>
@@ -25871,7 +25871,7 @@
       </c>
       <c r="H324" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I324">
         <v>10</v>
@@ -25914,7 +25914,7 @@
       </c>
       <c r="H325" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I325">
         <v>2</v>
@@ -25957,7 +25957,7 @@
       </c>
       <c r="H326" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I326">
         <v>12</v>
@@ -26000,7 +26000,7 @@
       </c>
       <c r="H327" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I327">
         <v>8</v>
@@ -26043,7 +26043,7 @@
       </c>
       <c r="H328" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I328">
         <v>2</v>
@@ -26086,7 +26086,7 @@
       </c>
       <c r="H329" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I329">
         <v>8</v>
@@ -26129,7 +26129,7 @@
       </c>
       <c r="H330" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I330">
         <v>2</v>
@@ -26172,7 +26172,7 @@
       </c>
       <c r="H331" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I331">
         <v>2</v>
@@ -26215,7 +26215,7 @@
       </c>
       <c r="H332" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I332">
         <v>4</v>
@@ -26258,7 +26258,7 @@
       </c>
       <c r="H333" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I333">
         <v>10</v>
@@ -26301,7 +26301,7 @@
       </c>
       <c r="H334" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I334">
         <v>2</v>
@@ -26344,7 +26344,7 @@
       </c>
       <c r="H335" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I335">
         <v>12</v>
@@ -26387,7 +26387,7 @@
       </c>
       <c r="H336" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I336">
         <v>4</v>
@@ -26430,7 +26430,7 @@
       </c>
       <c r="H337" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I337">
         <v>4</v>
@@ -26473,7 +26473,7 @@
       </c>
       <c r="H338" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I338">
         <v>8</v>
@@ -26516,7 +26516,7 @@
       </c>
       <c r="H339" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I339">
         <v>4</v>
@@ -26559,7 +26559,7 @@
       </c>
       <c r="H340" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I340">
         <v>6</v>
@@ -26602,7 +26602,7 @@
       </c>
       <c r="H341" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="I341">
         <v>8</v>
@@ -26645,7 +26645,7 @@
       </c>
       <c r="H342" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I342">
         <v>6</v>
@@ -26688,7 +26688,7 @@
       </c>
       <c r="H343" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I343">
         <v>10</v>
@@ -26731,7 +26731,7 @@
       </c>
       <c r="H344" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I344">
         <v>2</v>
@@ -26774,7 +26774,7 @@
       </c>
       <c r="H345" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I345">
         <v>8</v>
@@ -26817,7 +26817,7 @@
       </c>
       <c r="H346" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I346">
         <v>4</v>
@@ -26860,7 +26860,7 @@
       </c>
       <c r="H347" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I347">
         <v>10</v>
@@ -26903,7 +26903,7 @@
       </c>
       <c r="H348" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I348">
         <v>2</v>
@@ -26946,7 +26946,7 @@
       </c>
       <c r="H349" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I349">
         <v>2</v>
@@ -26989,7 +26989,7 @@
       </c>
       <c r="H350" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I350">
         <v>2</v>
@@ -27032,7 +27032,7 @@
       </c>
       <c r="H351" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I351">
         <v>4</v>
@@ -27075,7 +27075,7 @@
       </c>
       <c r="H352" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I352">
         <v>2</v>
@@ -27118,7 +27118,7 @@
       </c>
       <c r="H353" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I353">
         <v>4</v>
@@ -27161,7 +27161,7 @@
       </c>
       <c r="H354" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I354">
         <v>14</v>
@@ -27204,7 +27204,7 @@
       </c>
       <c r="H355" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I355">
         <v>2</v>
@@ -27247,7 +27247,7 @@
       </c>
       <c r="H356" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I356">
         <v>2</v>
@@ -27290,7 +27290,7 @@
       </c>
       <c r="H357" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I357">
         <v>2</v>
@@ -27333,7 +27333,7 @@
       </c>
       <c r="H358" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I358">
         <v>2</v>
@@ -27376,7 +27376,7 @@
       </c>
       <c r="H359" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I359">
         <v>2</v>
@@ -27419,7 +27419,7 @@
       </c>
       <c r="H360" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I360">
         <v>2</v>
@@ -27462,7 +27462,7 @@
       </c>
       <c r="H361" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45904</v>
+        <v>45906</v>
       </c>
       <c r="I361">
         <v>2</v>
@@ -27505,7 +27505,7 @@
       </c>
       <c r="H362" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I362">
         <v>2</v>
@@ -27548,7 +27548,7 @@
       </c>
       <c r="H363" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I363">
         <v>2</v>
@@ -27591,7 +27591,7 @@
       </c>
       <c r="H364" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I364">
         <v>12</v>
@@ -27634,7 +27634,7 @@
       </c>
       <c r="H365" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I365">
         <v>6</v>
@@ -27677,7 +27677,7 @@
       </c>
       <c r="H366" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I366">
         <v>8</v>
@@ -27720,7 +27720,7 @@
       </c>
       <c r="H367" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I367">
         <v>12</v>
@@ -27763,7 +27763,7 @@
       </c>
       <c r="H368" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I368">
         <v>2</v>
@@ -27806,7 +27806,7 @@
       </c>
       <c r="H369" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I369">
         <v>2</v>
@@ -27849,7 +27849,7 @@
       </c>
       <c r="H370" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I370">
         <v>2</v>
@@ -27892,7 +27892,7 @@
       </c>
       <c r="H371" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I371">
         <v>4</v>
@@ -27935,7 +27935,7 @@
       </c>
       <c r="H372" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I372">
         <v>8</v>
@@ -27978,7 +27978,7 @@
       </c>
       <c r="H373" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I373">
         <v>2</v>
@@ -28021,7 +28021,7 @@
       </c>
       <c r="H374" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I374">
         <v>12</v>
@@ -28064,7 +28064,7 @@
       </c>
       <c r="H375" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I375">
         <v>12</v>
@@ -28107,7 +28107,7 @@
       </c>
       <c r="H376" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I376">
         <v>2</v>
@@ -28150,7 +28150,7 @@
       </c>
       <c r="H377" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I377">
         <v>16</v>
@@ -28193,7 +28193,7 @@
       </c>
       <c r="H378" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I378">
         <v>2</v>
@@ -28236,7 +28236,7 @@
       </c>
       <c r="H379" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I379">
         <v>2</v>
@@ -28279,7 +28279,7 @@
       </c>
       <c r="H380" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I380">
         <v>2</v>
@@ -28322,7 +28322,7 @@
       </c>
       <c r="H381" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="I381">
         <v>2</v>
@@ -28365,7 +28365,7 @@
       </c>
       <c r="H382" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I382">
         <v>18</v>
@@ -28408,7 +28408,7 @@
       </c>
       <c r="H383" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I383">
         <v>2</v>
@@ -28451,7 +28451,7 @@
       </c>
       <c r="H384" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I384">
         <v>2</v>
@@ -28494,7 +28494,7 @@
       </c>
       <c r="H385" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I385">
         <v>2</v>
@@ -28537,7 +28537,7 @@
       </c>
       <c r="H386" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I386">
         <v>2</v>
@@ -28580,7 +28580,7 @@
       </c>
       <c r="H387" s="1">
         <f t="shared" ref="H387:H449" ca="1" si="12">TODAY()+M387</f>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I387">
         <v>8</v>
@@ -28623,7 +28623,7 @@
       </c>
       <c r="H388" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I388">
         <v>16</v>
@@ -28666,7 +28666,7 @@
       </c>
       <c r="H389" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I389">
         <v>16</v>
@@ -28709,7 +28709,7 @@
       </c>
       <c r="H390" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I390">
         <v>4</v>
@@ -28752,7 +28752,7 @@
       </c>
       <c r="H391" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I391">
         <v>2</v>
@@ -28795,7 +28795,7 @@
       </c>
       <c r="H392" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I392">
         <v>12</v>
@@ -28838,7 +28838,7 @@
       </c>
       <c r="H393" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I393">
         <v>8</v>
@@ -28881,7 +28881,7 @@
       </c>
       <c r="H394" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I394">
         <v>2</v>
@@ -28924,7 +28924,7 @@
       </c>
       <c r="H395" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I395">
         <v>2</v>
@@ -28967,7 +28967,7 @@
       </c>
       <c r="H396" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I396">
         <v>12</v>
@@ -29010,7 +29010,7 @@
       </c>
       <c r="H397" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I397">
         <v>2</v>
@@ -29053,7 +29053,7 @@
       </c>
       <c r="H398" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I398">
         <v>2</v>
@@ -29096,7 +29096,7 @@
       </c>
       <c r="H399" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I399">
         <v>12</v>
@@ -29139,7 +29139,7 @@
       </c>
       <c r="H400" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I400">
         <v>14</v>
@@ -29182,7 +29182,7 @@
       </c>
       <c r="H401" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45906</v>
+        <v>45908</v>
       </c>
       <c r="I401">
         <v>2</v>
@@ -29225,7 +29225,7 @@
       </c>
       <c r="H402" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I402">
         <v>2</v>
@@ -29268,7 +29268,7 @@
       </c>
       <c r="H403" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I403">
         <v>4</v>
@@ -29311,7 +29311,7 @@
       </c>
       <c r="H404" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I404">
         <v>12</v>
@@ -29354,7 +29354,7 @@
       </c>
       <c r="H405" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I405">
         <v>10</v>
@@ -29397,7 +29397,7 @@
       </c>
       <c r="H406" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I406">
         <v>2</v>
@@ -29440,7 +29440,7 @@
       </c>
       <c r="H407" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I407">
         <v>2</v>
@@ -29483,7 +29483,7 @@
       </c>
       <c r="H408" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I408">
         <v>2</v>
@@ -29526,7 +29526,7 @@
       </c>
       <c r="H409" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I409">
         <v>12</v>
@@ -29569,7 +29569,7 @@
       </c>
       <c r="H410" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I410">
         <v>2</v>
@@ -29612,7 +29612,7 @@
       </c>
       <c r="H411" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I411">
         <v>4</v>
@@ -29655,7 +29655,7 @@
       </c>
       <c r="H412" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I412">
         <v>4</v>
@@ -29698,7 +29698,7 @@
       </c>
       <c r="H413" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I413">
         <v>2</v>
@@ -29741,7 +29741,7 @@
       </c>
       <c r="H414" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I414">
         <v>4</v>
@@ -29784,7 +29784,7 @@
       </c>
       <c r="H415" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I415">
         <v>12</v>
@@ -29827,7 +29827,7 @@
       </c>
       <c r="H416" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I416">
         <v>12</v>
@@ -29870,7 +29870,7 @@
       </c>
       <c r="H417" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I417">
         <v>4</v>
@@ -29913,7 +29913,7 @@
       </c>
       <c r="H418" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I418">
         <v>14</v>
@@ -29956,7 +29956,7 @@
       </c>
       <c r="H419" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I419">
         <v>2</v>
@@ -29999,7 +29999,7 @@
       </c>
       <c r="H420" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45907</v>
+        <v>45909</v>
       </c>
       <c r="I420">
         <v>10</v>
@@ -30042,7 +30042,7 @@
       </c>
       <c r="H421" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I421">
         <v>10</v>
@@ -30085,7 +30085,7 @@
       </c>
       <c r="H422" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I422">
         <v>2</v>
@@ -30128,7 +30128,7 @@
       </c>
       <c r="H423" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I423">
         <v>10</v>
@@ -30171,7 +30171,7 @@
       </c>
       <c r="H424" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I424">
         <v>4</v>
@@ -30214,7 +30214,7 @@
       </c>
       <c r="H425" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I425">
         <v>2</v>
@@ -30257,7 +30257,7 @@
       </c>
       <c r="H426" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I426">
         <v>12</v>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="H427" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I427">
         <v>2</v>
@@ -30343,7 +30343,7 @@
       </c>
       <c r="H428" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I428">
         <v>4</v>
@@ -30386,7 +30386,7 @@
       </c>
       <c r="H429" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I429">
         <v>8</v>
@@ -30429,7 +30429,7 @@
       </c>
       <c r="H430" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I430">
         <v>6</v>
@@ -30472,7 +30472,7 @@
       </c>
       <c r="H431" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I431">
         <v>2</v>
@@ -30515,7 +30515,7 @@
       </c>
       <c r="H432" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I432">
         <v>6</v>
@@ -30558,7 +30558,7 @@
       </c>
       <c r="H433" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I433">
         <v>2</v>
@@ -30601,7 +30601,7 @@
       </c>
       <c r="H434" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I434">
         <v>2</v>
@@ -30644,7 +30644,7 @@
       </c>
       <c r="H435" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I435">
         <v>4</v>
@@ -30687,7 +30687,7 @@
       </c>
       <c r="H436" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I436">
         <v>2</v>
@@ -30730,7 +30730,7 @@
       </c>
       <c r="H437" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I437">
         <v>8</v>
@@ -30773,7 +30773,7 @@
       </c>
       <c r="H438" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I438">
         <v>8</v>
@@ -30816,7 +30816,7 @@
       </c>
       <c r="H439" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I439">
         <v>6</v>
@@ -30859,7 +30859,7 @@
       </c>
       <c r="H440" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="I440">
         <v>6</v>
@@ -30902,7 +30902,7 @@
       </c>
       <c r="H441" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I441">
         <v>2</v>
@@ -30945,7 +30945,7 @@
       </c>
       <c r="H442" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I442">
         <v>2</v>
@@ -30988,7 +30988,7 @@
       </c>
       <c r="H443" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I443">
         <v>4</v>
@@ -31031,7 +31031,7 @@
       </c>
       <c r="H444" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I444">
         <v>10</v>
@@ -31074,7 +31074,7 @@
       </c>
       <c r="H445" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I445">
         <v>2</v>
@@ -31117,7 +31117,7 @@
       </c>
       <c r="H446" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I446">
         <v>2</v>
@@ -31160,7 +31160,7 @@
       </c>
       <c r="H447" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I447">
         <v>6</v>
@@ -31203,7 +31203,7 @@
       </c>
       <c r="H448" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I448">
         <v>8</v>
@@ -31246,7 +31246,7 @@
       </c>
       <c r="H449" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I449">
         <v>8</v>
@@ -31289,7 +31289,7 @@
       </c>
       <c r="H450" s="1">
         <f t="shared" ref="H450:H513" ca="1" si="14">TODAY()+M450</f>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I450">
         <v>8</v>
@@ -31332,7 +31332,7 @@
       </c>
       <c r="H451" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I451">
         <v>4</v>
@@ -31375,7 +31375,7 @@
       </c>
       <c r="H452" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I452">
         <v>2</v>
@@ -31418,7 +31418,7 @@
       </c>
       <c r="H453" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I453">
         <v>2</v>
@@ -31461,7 +31461,7 @@
       </c>
       <c r="H454" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I454">
         <v>18</v>
@@ -31504,7 +31504,7 @@
       </c>
       <c r="H455" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I455">
         <v>4</v>
@@ -31547,7 +31547,7 @@
       </c>
       <c r="H456" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I456">
         <v>2</v>
@@ -31590,7 +31590,7 @@
       </c>
       <c r="H457" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I457">
         <v>2</v>
@@ -31633,7 +31633,7 @@
       </c>
       <c r="H458" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I458">
         <v>8</v>
@@ -31676,7 +31676,7 @@
       </c>
       <c r="H459" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I459">
         <v>2</v>
@@ -31719,7 +31719,7 @@
       </c>
       <c r="H460" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="I460">
         <v>2</v>
@@ -31762,7 +31762,7 @@
       </c>
       <c r="H461" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I461">
         <v>10</v>
@@ -31805,7 +31805,7 @@
       </c>
       <c r="H462" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I462">
         <v>12</v>
@@ -31848,7 +31848,7 @@
       </c>
       <c r="H463" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I463">
         <v>2</v>
@@ -31891,7 +31891,7 @@
       </c>
       <c r="H464" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I464">
         <v>4</v>
@@ -31934,7 +31934,7 @@
       </c>
       <c r="H465" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I465">
         <v>2</v>
@@ -31977,7 +31977,7 @@
       </c>
       <c r="H466" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I466">
         <v>4</v>
@@ -32020,7 +32020,7 @@
       </c>
       <c r="H467" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I467">
         <v>12</v>
@@ -32063,7 +32063,7 @@
       </c>
       <c r="H468" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I468">
         <v>4</v>
@@ -32106,7 +32106,7 @@
       </c>
       <c r="H469" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I469">
         <v>12</v>
@@ -32149,7 +32149,7 @@
       </c>
       <c r="H470" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I470">
         <v>2</v>
@@ -32192,7 +32192,7 @@
       </c>
       <c r="H471" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I471">
         <v>10</v>
@@ -32235,7 +32235,7 @@
       </c>
       <c r="H472" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I472">
         <v>2</v>
@@ -32278,7 +32278,7 @@
       </c>
       <c r="H473" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I473">
         <v>2</v>
@@ -32321,7 +32321,7 @@
       </c>
       <c r="H474" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I474">
         <v>14</v>
@@ -32364,7 +32364,7 @@
       </c>
       <c r="H475" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I475">
         <v>2</v>
@@ -32407,7 +32407,7 @@
       </c>
       <c r="H476" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I476">
         <v>2</v>
@@ -32450,7 +32450,7 @@
       </c>
       <c r="H477" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I477">
         <v>12</v>
@@ -32493,7 +32493,7 @@
       </c>
       <c r="H478" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I478">
         <v>2</v>
@@ -32536,7 +32536,7 @@
       </c>
       <c r="H479" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I479">
         <v>12</v>
@@ -32579,7 +32579,7 @@
       </c>
       <c r="H480" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="I480">
         <v>2</v>
@@ -32622,7 +32622,7 @@
       </c>
       <c r="H481" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I481">
         <v>2</v>
@@ -32665,7 +32665,7 @@
       </c>
       <c r="H482" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I482">
         <v>4</v>
@@ -32708,7 +32708,7 @@
       </c>
       <c r="H483" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I483">
         <v>12</v>
@@ -32751,7 +32751,7 @@
       </c>
       <c r="H484" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I484">
         <v>10</v>
@@ -32794,7 +32794,7 @@
       </c>
       <c r="H485" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I485">
         <v>2</v>
@@ -32837,7 +32837,7 @@
       </c>
       <c r="H486" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I486">
         <v>8</v>
@@ -32880,7 +32880,7 @@
       </c>
       <c r="H487" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I487">
         <v>2</v>
@@ -32923,7 +32923,7 @@
       </c>
       <c r="H488" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I488">
         <v>14</v>
@@ -32966,7 +32966,7 @@
       </c>
       <c r="H489" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I489">
         <v>2</v>
@@ -33009,7 +33009,7 @@
       </c>
       <c r="H490" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I490">
         <v>2</v>
@@ -33052,7 +33052,7 @@
       </c>
       <c r="H491" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I491">
         <v>12</v>
@@ -33095,7 +33095,7 @@
       </c>
       <c r="H492" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I492">
         <v>2</v>
@@ -33138,7 +33138,7 @@
       </c>
       <c r="H493" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I493">
         <v>4</v>
@@ -33181,7 +33181,7 @@
       </c>
       <c r="H494" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I494">
         <v>2</v>
@@ -33224,7 +33224,7 @@
       </c>
       <c r="H495" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I495">
         <v>10</v>
@@ -33267,7 +33267,7 @@
       </c>
       <c r="H496" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I496">
         <v>2</v>
@@ -33310,7 +33310,7 @@
       </c>
       <c r="H497" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I497">
         <v>2</v>
@@ -33353,7 +33353,7 @@
       </c>
       <c r="H498" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I498">
         <v>10</v>
@@ -33396,7 +33396,7 @@
       </c>
       <c r="H499" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I499">
         <v>12</v>
@@ -33439,7 +33439,7 @@
       </c>
       <c r="H500" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45913</v>
       </c>
       <c r="I500">
         <v>2</v>
@@ -33482,7 +33482,7 @@
       </c>
       <c r="H501" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I501">
         <v>12</v>
@@ -33525,7 +33525,7 @@
       </c>
       <c r="H502" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I502">
         <v>2</v>
@@ -33568,7 +33568,7 @@
       </c>
       <c r="H503" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I503">
         <v>2</v>
@@ -33611,7 +33611,7 @@
       </c>
       <c r="H504" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I504">
         <v>2</v>
@@ -33654,7 +33654,7 @@
       </c>
       <c r="H505" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I505">
         <v>6</v>
@@ -33697,7 +33697,7 @@
       </c>
       <c r="H506" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I506">
         <v>4</v>
@@ -33740,7 +33740,7 @@
       </c>
       <c r="H507" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I507">
         <v>8</v>
@@ -33783,7 +33783,7 @@
       </c>
       <c r="H508" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I508">
         <v>6</v>
@@ -33826,7 +33826,7 @@
       </c>
       <c r="H509" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I509">
         <v>4</v>
@@ -33869,7 +33869,7 @@
       </c>
       <c r="H510" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I510">
         <v>6</v>
@@ -33912,7 +33912,7 @@
       </c>
       <c r="H511" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I511">
         <v>12</v>
@@ -33955,7 +33955,7 @@
       </c>
       <c r="H512" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I512">
         <v>2</v>
@@ -33998,7 +33998,7 @@
       </c>
       <c r="H513" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I513">
         <v>14</v>
@@ -34041,7 +34041,7 @@
       </c>
       <c r="H514" s="1">
         <f t="shared" ref="H514:H577" ca="1" si="16">TODAY()+M514</f>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I514">
         <v>2</v>
@@ -34084,7 +34084,7 @@
       </c>
       <c r="H515" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I515">
         <v>12</v>
@@ -34127,7 +34127,7 @@
       </c>
       <c r="H516" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I516">
         <v>4</v>
@@ -34170,7 +34170,7 @@
       </c>
       <c r="H517" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I517">
         <v>2</v>
@@ -34213,7 +34213,7 @@
       </c>
       <c r="H518" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I518">
         <v>16</v>
@@ -34256,7 +34256,7 @@
       </c>
       <c r="H519" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I519">
         <v>2</v>
@@ -34299,7 +34299,7 @@
       </c>
       <c r="H520" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45912</v>
+        <v>45914</v>
       </c>
       <c r="I520">
         <v>2</v>
@@ -34342,7 +34342,7 @@
       </c>
       <c r="H521" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I521">
         <v>8</v>
@@ -34385,7 +34385,7 @@
       </c>
       <c r="H522" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I522">
         <v>4</v>
@@ -34428,7 +34428,7 @@
       </c>
       <c r="H523" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I523">
         <v>2</v>
@@ -34471,7 +34471,7 @@
       </c>
       <c r="H524" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I524">
         <v>2</v>
@@ -34514,7 +34514,7 @@
       </c>
       <c r="H525" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I525">
         <v>12</v>
@@ -34557,7 +34557,7 @@
       </c>
       <c r="H526" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I526">
         <v>6</v>
@@ -34600,7 +34600,7 @@
       </c>
       <c r="H527" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I527">
         <v>2</v>
@@ -34643,7 +34643,7 @@
       </c>
       <c r="H528" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I528">
         <v>8</v>
@@ -34686,7 +34686,7 @@
       </c>
       <c r="H529" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I529">
         <v>2</v>
@@ -34729,7 +34729,7 @@
       </c>
       <c r="H530" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I530">
         <v>4</v>
@@ -34772,7 +34772,7 @@
       </c>
       <c r="H531" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I531">
         <v>2</v>
@@ -34815,7 +34815,7 @@
       </c>
       <c r="H532" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I532">
         <v>12</v>
@@ -34858,7 +34858,7 @@
       </c>
       <c r="H533" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I533">
         <v>2</v>
@@ -34901,7 +34901,7 @@
       </c>
       <c r="H534" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I534">
         <v>6</v>
@@ -34944,7 +34944,7 @@
       </c>
       <c r="H535" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I535">
         <v>4</v>
@@ -34987,7 +34987,7 @@
       </c>
       <c r="H536" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I536">
         <v>2</v>
@@ -35030,7 +35030,7 @@
       </c>
       <c r="H537" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I537">
         <v>4</v>
@@ -35073,7 +35073,7 @@
       </c>
       <c r="H538" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I538">
         <v>20</v>
@@ -35116,7 +35116,7 @@
       </c>
       <c r="H539" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I539">
         <v>2</v>
@@ -35159,7 +35159,7 @@
       </c>
       <c r="H540" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45913</v>
+        <v>45915</v>
       </c>
       <c r="I540">
         <v>6</v>
@@ -35202,7 +35202,7 @@
       </c>
       <c r="H541" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I541">
         <v>4</v>
@@ -35245,7 +35245,7 @@
       </c>
       <c r="H542" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I542">
         <v>4</v>
@@ -35288,7 +35288,7 @@
       </c>
       <c r="H543" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I543">
         <v>2</v>
@@ -35331,7 +35331,7 @@
       </c>
       <c r="H544" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I544">
         <v>2</v>
@@ -35374,7 +35374,7 @@
       </c>
       <c r="H545" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I545">
         <v>2</v>
@@ -35417,7 +35417,7 @@
       </c>
       <c r="H546" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I546">
         <v>8</v>
@@ -35460,7 +35460,7 @@
       </c>
       <c r="H547" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I547">
         <v>8</v>
@@ -35503,7 +35503,7 @@
       </c>
       <c r="H548" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I548">
         <v>2</v>
@@ -35546,7 +35546,7 @@
       </c>
       <c r="H549" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I549">
         <v>2</v>
@@ -35589,7 +35589,7 @@
       </c>
       <c r="H550" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I550">
         <v>8</v>
@@ -35632,7 +35632,7 @@
       </c>
       <c r="H551" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I551">
         <v>2</v>
@@ -35675,7 +35675,7 @@
       </c>
       <c r="H552" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I552">
         <v>12</v>
@@ -35718,7 +35718,7 @@
       </c>
       <c r="H553" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I553">
         <v>4</v>
@@ -35761,7 +35761,7 @@
       </c>
       <c r="H554" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I554">
         <v>6</v>
@@ -35804,7 +35804,7 @@
       </c>
       <c r="H555" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I555">
         <v>8</v>
@@ -35847,7 +35847,7 @@
       </c>
       <c r="H556" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I556">
         <v>2</v>
@@ -35890,7 +35890,7 @@
       </c>
       <c r="H557" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I557">
         <v>2</v>
@@ -35933,7 +35933,7 @@
       </c>
       <c r="H558" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I558">
         <v>4</v>
@@ -35976,7 +35976,7 @@
       </c>
       <c r="H559" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I559">
         <v>2</v>
@@ -36019,7 +36019,7 @@
       </c>
       <c r="H560" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45916</v>
       </c>
       <c r="I560">
         <v>8</v>
@@ -36062,7 +36062,7 @@
       </c>
       <c r="H561" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I561">
         <v>4</v>
@@ -36105,7 +36105,7 @@
       </c>
       <c r="H562" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I562">
         <v>2</v>
@@ -36148,7 +36148,7 @@
       </c>
       <c r="H563" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I563">
         <v>2</v>
@@ -36191,7 +36191,7 @@
       </c>
       <c r="H564" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I564">
         <v>2</v>
@@ -36234,7 +36234,7 @@
       </c>
       <c r="H565" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I565">
         <v>2</v>
@@ -36277,7 +36277,7 @@
       </c>
       <c r="H566" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I566">
         <v>10</v>
@@ -36320,7 +36320,7 @@
       </c>
       <c r="H567" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I567">
         <v>2</v>
@@ -36363,7 +36363,7 @@
       </c>
       <c r="H568" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I568">
         <v>16</v>
@@ -36406,7 +36406,7 @@
       </c>
       <c r="H569" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I569">
         <v>4</v>
@@ -36449,7 +36449,7 @@
       </c>
       <c r="H570" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I570">
         <v>4</v>
@@ -36492,7 +36492,7 @@
       </c>
       <c r="H571" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I571">
         <v>8</v>
@@ -36535,7 +36535,7 @@
       </c>
       <c r="H572" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I572">
         <v>2</v>
@@ -36578,7 +36578,7 @@
       </c>
       <c r="H573" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I573">
         <v>12</v>
@@ -36621,7 +36621,7 @@
       </c>
       <c r="H574" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I574">
         <v>2</v>
@@ -36664,7 +36664,7 @@
       </c>
       <c r="H575" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I575">
         <v>12</v>
@@ -36707,7 +36707,7 @@
       </c>
       <c r="H576" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I576">
         <v>16</v>
@@ -36750,7 +36750,7 @@
       </c>
       <c r="H577" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I577">
         <v>2</v>
@@ -36793,7 +36793,7 @@
       </c>
       <c r="H578" s="1">
         <f t="shared" ref="H578:H596" ca="1" si="18">TODAY()+M578</f>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I578">
         <v>2</v>
@@ -36836,7 +36836,7 @@
       </c>
       <c r="H579" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I579">
         <v>2</v>
@@ -36879,7 +36879,7 @@
       </c>
       <c r="H580" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="I580">
         <v>12</v>
@@ -36922,7 +36922,7 @@
       </c>
       <c r="H581" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I581">
         <v>12</v>
@@ -36965,7 +36965,7 @@
       </c>
       <c r="H582" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I582">
         <v>2</v>
@@ -37008,7 +37008,7 @@
       </c>
       <c r="H583" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I583">
         <v>4</v>
@@ -37051,7 +37051,7 @@
       </c>
       <c r="H584" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I584">
         <v>6</v>
@@ -37094,7 +37094,7 @@
       </c>
       <c r="H585" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I585">
         <v>4</v>
@@ -37137,7 +37137,7 @@
       </c>
       <c r="H586" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I586">
         <v>2</v>
@@ -37180,7 +37180,7 @@
       </c>
       <c r="H587" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I587">
         <v>2</v>
@@ -37223,7 +37223,7 @@
       </c>
       <c r="H588" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I588">
         <v>12</v>
@@ -37266,7 +37266,7 @@
       </c>
       <c r="H589" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I589">
         <v>8</v>
@@ -37309,7 +37309,7 @@
       </c>
       <c r="H590" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I590">
         <v>2</v>
@@ -37352,7 +37352,7 @@
       </c>
       <c r="H591" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I591">
         <v>2</v>
@@ -37395,7 +37395,7 @@
       </c>
       <c r="H592" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I592">
         <v>2</v>
@@ -37438,7 +37438,7 @@
       </c>
       <c r="H593" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I593">
         <v>2</v>
@@ -37481,7 +37481,7 @@
       </c>
       <c r="H594" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I594">
         <v>12</v>
@@ -37524,7 +37524,7 @@
       </c>
       <c r="H595" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I595">
         <v>6</v>
@@ -37567,7 +37567,7 @@
       </c>
       <c r="H596" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="I596">
         <v>4</v>
@@ -37602,7 +37602,7 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+    <sheetView topLeftCell="D5" workbookViewId="0">
       <selection activeCell="M6" sqref="M6:P37"/>
     </sheetView>
   </sheetViews>

--- a/src/APSSystem.Presentation.WPF/Data/Antecipacao/OrdensDeCliente.xlsx
+++ b/src/APSSystem.Presentation.WPF/Data/Antecipacao/OrdensDeCliente.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55159\source\repos\APSSystem_NOVO\src\APSSystem.Presentation.WPF\Data\Antecipacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D49897F-345D-4948-B83D-C78493799336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A2E0824-9DD3-4872-9C7B-376E459E2A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32025" yWindow="12570" windowWidth="15990" windowHeight="15300" xr2:uid="{702DC5E7-951B-4331-8240-E292C0DE46CB}"/>
+    <workbookView xWindow="25905" yWindow="15105" windowWidth="27855" windowHeight="16095" xr2:uid="{702DC5E7-951B-4331-8240-E292C0DE46CB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="OrdensDeCliente" sheetId="1" r:id="rId1"/>
     <sheet name="Alocacao Ordem Cliente" sheetId="3" r:id="rId2"/>
     <sheet name="Planilha1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$596</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OrdensDeCliente!$A$1:$K$596</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
@@ -2023,7 +2023,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -2121,7 +2121,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="5515998066060" refreshedDate="45887.624021180556" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="595" xr:uid="{FBB48B95-F788-4F08-95E5-E74CBAB44080}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:L596" sheet="Sheet1"/>
+    <worksheetSource ref="A1:L596" sheet="OrdensDeCliente" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="NumeroOrdem" numFmtId="0">
@@ -11939,7 +11939,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M538" sqref="M538"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12022,7 +12022,7 @@
       </c>
       <c r="H2" s="1">
         <f ca="1">TODAY()+M2</f>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I2">
         <v>12</v>
@@ -12065,7 +12065,7 @@
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H66" ca="1" si="0">TODAY()+M3</f>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -12108,7 +12108,7 @@
       </c>
       <c r="H4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I4">
         <v>6</v>
@@ -12151,7 +12151,7 @@
       </c>
       <c r="H5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -12197,7 +12197,7 @@
       </c>
       <c r="H6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I6">
         <v>12</v>
@@ -12240,7 +12240,7 @@
       </c>
       <c r="H7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -12283,7 +12283,7 @@
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I8">
         <v>4</v>
@@ -12326,7 +12326,7 @@
       </c>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -12369,7 +12369,7 @@
       </c>
       <c r="H10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -12412,7 +12412,7 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I11">
         <v>12</v>
@@ -12455,7 +12455,7 @@
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I12">
         <v>12</v>
@@ -12498,7 +12498,7 @@
       </c>
       <c r="H13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -12541,7 +12541,7 @@
       </c>
       <c r="H14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -12584,7 +12584,7 @@
       </c>
       <c r="H15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -12627,7 +12627,7 @@
       </c>
       <c r="H16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I16">
         <v>6</v>
@@ -12670,7 +12670,7 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -12713,7 +12713,7 @@
       </c>
       <c r="H18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -12756,7 +12756,7 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -12799,7 +12799,7 @@
       </c>
       <c r="H20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I20">
         <v>4</v>
@@ -12842,7 +12842,7 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="I21">
         <v>8</v>
@@ -12885,7 +12885,7 @@
       </c>
       <c r="H22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -12928,7 +12928,7 @@
       </c>
       <c r="H23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -12971,7 +12971,7 @@
       </c>
       <c r="H24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I24">
         <v>12</v>
@@ -13014,7 +13014,7 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I25">
         <v>12</v>
@@ -13057,7 +13057,7 @@
       </c>
       <c r="H26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I26">
         <v>12</v>
@@ -13100,7 +13100,7 @@
       </c>
       <c r="H27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I27">
         <v>6</v>
@@ -13143,7 +13143,7 @@
       </c>
       <c r="H28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I28">
         <v>8</v>
@@ -13186,7 +13186,7 @@
       </c>
       <c r="H29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -13229,7 +13229,7 @@
       </c>
       <c r="H30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -13272,7 +13272,7 @@
       </c>
       <c r="H31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I31">
         <v>4</v>
@@ -13315,7 +13315,7 @@
       </c>
       <c r="H32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -13358,7 +13358,7 @@
       </c>
       <c r="H33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -13401,7 +13401,7 @@
       </c>
       <c r="H34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I34">
         <v>8</v>
@@ -13444,7 +13444,7 @@
       </c>
       <c r="H35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -13487,7 +13487,7 @@
       </c>
       <c r="H36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -13530,7 +13530,7 @@
       </c>
       <c r="H37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -13573,7 +13573,7 @@
       </c>
       <c r="H38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I38">
         <v>6</v>
@@ -13616,7 +13616,7 @@
       </c>
       <c r="H39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I39">
         <v>6</v>
@@ -13659,7 +13659,7 @@
       </c>
       <c r="H40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I40">
         <v>4</v>
@@ -13702,7 +13702,7 @@
       </c>
       <c r="H41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45890</v>
+        <v>45891</v>
       </c>
       <c r="I41">
         <v>2</v>
@@ -13745,7 +13745,7 @@
       </c>
       <c r="H42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I42">
         <v>14</v>
@@ -13788,7 +13788,7 @@
       </c>
       <c r="H43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I43">
         <v>2</v>
@@ -13831,7 +13831,7 @@
       </c>
       <c r="H44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I44">
         <v>2</v>
@@ -13874,7 +13874,7 @@
       </c>
       <c r="H45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I45">
         <v>2</v>
@@ -13917,7 +13917,7 @@
       </c>
       <c r="H46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I46">
         <v>10</v>
@@ -13960,7 +13960,7 @@
       </c>
       <c r="H47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I47">
         <v>4</v>
@@ -14003,7 +14003,7 @@
       </c>
       <c r="H48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -14046,7 +14046,7 @@
       </c>
       <c r="H49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I49">
         <v>4</v>
@@ -14089,7 +14089,7 @@
       </c>
       <c r="H50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -14132,7 +14132,7 @@
       </c>
       <c r="H51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I51">
         <v>2</v>
@@ -14175,7 +14175,7 @@
       </c>
       <c r="H52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I52">
         <v>4</v>
@@ -14218,7 +14218,7 @@
       </c>
       <c r="H53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I53">
         <v>18</v>
@@ -14261,7 +14261,7 @@
       </c>
       <c r="H54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I54">
         <v>2</v>
@@ -14304,7 +14304,7 @@
       </c>
       <c r="H55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I55">
         <v>12</v>
@@ -14347,7 +14347,7 @@
       </c>
       <c r="H56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I56">
         <v>2</v>
@@ -14390,7 +14390,7 @@
       </c>
       <c r="H57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I57">
         <v>2</v>
@@ -14433,7 +14433,7 @@
       </c>
       <c r="H58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I58">
         <v>14</v>
@@ -14476,7 +14476,7 @@
       </c>
       <c r="H59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I59">
         <v>2</v>
@@ -14519,7 +14519,7 @@
       </c>
       <c r="H60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I60">
         <v>12</v>
@@ -14562,7 +14562,7 @@
       </c>
       <c r="H61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45891</v>
+        <v>45892</v>
       </c>
       <c r="I61">
         <v>6</v>
@@ -14605,7 +14605,7 @@
       </c>
       <c r="H62" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I62">
         <v>2</v>
@@ -14648,7 +14648,7 @@
       </c>
       <c r="H63" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I63">
         <v>2</v>
@@ -14691,7 +14691,7 @@
       </c>
       <c r="H64" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I64">
         <v>2</v>
@@ -14734,7 +14734,7 @@
       </c>
       <c r="H65" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I65">
         <v>10</v>
@@ -14777,7 +14777,7 @@
       </c>
       <c r="H66" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I66">
         <v>2</v>
@@ -14820,7 +14820,7 @@
       </c>
       <c r="H67" s="1">
         <f t="shared" ref="H67:H130" ca="1" si="2">TODAY()+M67</f>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I67">
         <v>10</v>
@@ -14863,7 +14863,7 @@
       </c>
       <c r="H68" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I68">
         <v>16</v>
@@ -14906,7 +14906,7 @@
       </c>
       <c r="H69" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I69">
         <v>2</v>
@@ -14949,7 +14949,7 @@
       </c>
       <c r="H70" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I70">
         <v>4</v>
@@ -14992,7 +14992,7 @@
       </c>
       <c r="H71" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I71">
         <v>2</v>
@@ -15035,7 +15035,7 @@
       </c>
       <c r="H72" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I72">
         <v>2</v>
@@ -15078,7 +15078,7 @@
       </c>
       <c r="H73" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I73">
         <v>2</v>
@@ -15121,7 +15121,7 @@
       </c>
       <c r="H74" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I74">
         <v>2</v>
@@ -15164,7 +15164,7 @@
       </c>
       <c r="H75" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I75">
         <v>2</v>
@@ -15207,7 +15207,7 @@
       </c>
       <c r="H76" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I76">
         <v>16</v>
@@ -15250,7 +15250,7 @@
       </c>
       <c r="H77" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I77">
         <v>2</v>
@@ -15293,7 +15293,7 @@
       </c>
       <c r="H78" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I78">
         <v>2</v>
@@ -15336,7 +15336,7 @@
       </c>
       <c r="H79" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I79">
         <v>2</v>
@@ -15379,7 +15379,7 @@
       </c>
       <c r="H80" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I80">
         <v>2</v>
@@ -15422,7 +15422,7 @@
       </c>
       <c r="H81" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45892</v>
+        <v>45893</v>
       </c>
       <c r="I81">
         <v>14</v>
@@ -15465,7 +15465,7 @@
       </c>
       <c r="H82" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I82">
         <v>2</v>
@@ -15508,7 +15508,7 @@
       </c>
       <c r="H83" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I83">
         <v>2</v>
@@ -15551,7 +15551,7 @@
       </c>
       <c r="H84" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I84">
         <v>16</v>
@@ -15594,7 +15594,7 @@
       </c>
       <c r="H85" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I85">
         <v>2</v>
@@ -15637,7 +15637,7 @@
       </c>
       <c r="H86" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I86">
         <v>16</v>
@@ -15680,7 +15680,7 @@
       </c>
       <c r="H87" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I87">
         <v>2</v>
@@ -15723,7 +15723,7 @@
       </c>
       <c r="H88" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I88">
         <v>8</v>
@@ -15766,7 +15766,7 @@
       </c>
       <c r="H89" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I89">
         <v>2</v>
@@ -15809,7 +15809,7 @@
       </c>
       <c r="H90" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I90">
         <v>2</v>
@@ -15852,7 +15852,7 @@
       </c>
       <c r="H91" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I91">
         <v>4</v>
@@ -15895,7 +15895,7 @@
       </c>
       <c r="H92" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I92">
         <v>12</v>
@@ -15938,7 +15938,7 @@
       </c>
       <c r="H93" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I93">
         <v>2</v>
@@ -15981,7 +15981,7 @@
       </c>
       <c r="H94" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I94">
         <v>2</v>
@@ -16024,7 +16024,7 @@
       </c>
       <c r="H95" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I95">
         <v>4</v>
@@ -16067,7 +16067,7 @@
       </c>
       <c r="H96" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I96">
         <v>8</v>
@@ -16110,7 +16110,7 @@
       </c>
       <c r="H97" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I97">
         <v>18</v>
@@ -16153,7 +16153,7 @@
       </c>
       <c r="H98" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I98">
         <v>2</v>
@@ -16196,7 +16196,7 @@
       </c>
       <c r="H99" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I99">
         <v>6</v>
@@ -16239,7 +16239,7 @@
       </c>
       <c r="H100" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -16282,7 +16282,7 @@
       </c>
       <c r="H101" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45893</v>
+        <v>45894</v>
       </c>
       <c r="I101">
         <v>6</v>
@@ -16325,7 +16325,7 @@
       </c>
       <c r="H102" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I102">
         <v>4</v>
@@ -16368,7 +16368,7 @@
       </c>
       <c r="H103" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I103">
         <v>12</v>
@@ -16411,7 +16411,7 @@
       </c>
       <c r="H104" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I104">
         <v>10</v>
@@ -16454,7 +16454,7 @@
       </c>
       <c r="H105" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I105">
         <v>2</v>
@@ -16497,7 +16497,7 @@
       </c>
       <c r="H106" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I106">
         <v>2</v>
@@ -16540,7 +16540,7 @@
       </c>
       <c r="H107" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I107">
         <v>12</v>
@@ -16583,7 +16583,7 @@
       </c>
       <c r="H108" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I108">
         <v>2</v>
@@ -16626,7 +16626,7 @@
       </c>
       <c r="H109" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I109">
         <v>12</v>
@@ -16669,7 +16669,7 @@
       </c>
       <c r="H110" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I110">
         <v>2</v>
@@ -16712,7 +16712,7 @@
       </c>
       <c r="H111" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I111">
         <v>2</v>
@@ -16755,7 +16755,7 @@
       </c>
       <c r="H112" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I112">
         <v>8</v>
@@ -16798,7 +16798,7 @@
       </c>
       <c r="H113" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I113">
         <v>2</v>
@@ -16841,7 +16841,7 @@
       </c>
       <c r="H114" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I114">
         <v>12</v>
@@ -16884,7 +16884,7 @@
       </c>
       <c r="H115" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I115">
         <v>2</v>
@@ -16927,7 +16927,7 @@
       </c>
       <c r="H116" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I116">
         <v>8</v>
@@ -16970,7 +16970,7 @@
       </c>
       <c r="H117" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I117">
         <v>2</v>
@@ -17013,7 +17013,7 @@
       </c>
       <c r="H118" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I118">
         <v>2</v>
@@ -17056,7 +17056,7 @@
       </c>
       <c r="H119" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I119">
         <v>2</v>
@@ -17099,7 +17099,7 @@
       </c>
       <c r="H120" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I120">
         <v>12</v>
@@ -17142,7 +17142,7 @@
       </c>
       <c r="H121" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45894</v>
+        <v>45895</v>
       </c>
       <c r="I121">
         <v>4</v>
@@ -17185,7 +17185,7 @@
       </c>
       <c r="H122" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I122">
         <v>4</v>
@@ -17228,7 +17228,7 @@
       </c>
       <c r="H123" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I123">
         <v>14</v>
@@ -17271,7 +17271,7 @@
       </c>
       <c r="H124" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I124">
         <v>2</v>
@@ -17314,7 +17314,7 @@
       </c>
       <c r="H125" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I125">
         <v>2</v>
@@ -17357,7 +17357,7 @@
       </c>
       <c r="H126" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I126">
         <v>2</v>
@@ -17400,7 +17400,7 @@
       </c>
       <c r="H127" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I127">
         <v>2</v>
@@ -17443,7 +17443,7 @@
       </c>
       <c r="H128" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I128">
         <v>10</v>
@@ -17486,7 +17486,7 @@
       </c>
       <c r="H129" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I129">
         <v>2</v>
@@ -17529,7 +17529,7 @@
       </c>
       <c r="H130" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I130">
         <v>4</v>
@@ -17572,7 +17572,7 @@
       </c>
       <c r="H131" s="1">
         <f t="shared" ref="H131:H194" ca="1" si="4">TODAY()+M131</f>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I131">
         <v>8</v>
@@ -17615,7 +17615,7 @@
       </c>
       <c r="H132" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I132">
         <v>4</v>
@@ -17658,7 +17658,7 @@
       </c>
       <c r="H133" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I133">
         <v>2</v>
@@ -17701,7 +17701,7 @@
       </c>
       <c r="H134" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I134">
         <v>4</v>
@@ -17744,7 +17744,7 @@
       </c>
       <c r="H135" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I135">
         <v>4</v>
@@ -17787,7 +17787,7 @@
       </c>
       <c r="H136" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I136">
         <v>14</v>
@@ -17830,7 +17830,7 @@
       </c>
       <c r="H137" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I137">
         <v>2</v>
@@ -17873,7 +17873,7 @@
       </c>
       <c r="H138" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I138">
         <v>6</v>
@@ -17916,7 +17916,7 @@
       </c>
       <c r="H139" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I139">
         <v>16</v>
@@ -17959,7 +17959,7 @@
       </c>
       <c r="H140" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I140">
         <v>4</v>
@@ -18002,7 +18002,7 @@
       </c>
       <c r="H141" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45895</v>
+        <v>45896</v>
       </c>
       <c r="I141">
         <v>2</v>
@@ -18045,7 +18045,7 @@
       </c>
       <c r="H142" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I142">
         <v>2</v>
@@ -18088,7 +18088,7 @@
       </c>
       <c r="H143" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I143">
         <v>2</v>
@@ -18131,7 +18131,7 @@
       </c>
       <c r="H144" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I144">
         <v>18</v>
@@ -18174,7 +18174,7 @@
       </c>
       <c r="H145" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I145">
         <v>12</v>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="H146" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I146">
         <v>2</v>
@@ -18260,7 +18260,7 @@
       </c>
       <c r="H147" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I147">
         <v>2</v>
@@ -18303,7 +18303,7 @@
       </c>
       <c r="H148" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I148">
         <v>18</v>
@@ -18346,7 +18346,7 @@
       </c>
       <c r="H149" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I149">
         <v>2</v>
@@ -18389,7 +18389,7 @@
       </c>
       <c r="H150" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I150">
         <v>4</v>
@@ -18432,7 +18432,7 @@
       </c>
       <c r="H151" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I151">
         <v>2</v>
@@ -18475,7 +18475,7 @@
       </c>
       <c r="H152" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I152">
         <v>4</v>
@@ -18518,7 +18518,7 @@
       </c>
       <c r="H153" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I153">
         <v>8</v>
@@ -18561,7 +18561,7 @@
       </c>
       <c r="H154" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I154">
         <v>8</v>
@@ -18604,7 +18604,7 @@
       </c>
       <c r="H155" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I155">
         <v>4</v>
@@ -18647,7 +18647,7 @@
       </c>
       <c r="H156" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I156">
         <v>6</v>
@@ -18690,7 +18690,7 @@
       </c>
       <c r="H157" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I157">
         <v>2</v>
@@ -18733,7 +18733,7 @@
       </c>
       <c r="H158" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I158">
         <v>8</v>
@@ -18776,7 +18776,7 @@
       </c>
       <c r="H159" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I159">
         <v>2</v>
@@ -18819,7 +18819,7 @@
       </c>
       <c r="H160" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I160">
         <v>2</v>
@@ -18862,7 +18862,7 @@
       </c>
       <c r="H161" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45896</v>
+        <v>45897</v>
       </c>
       <c r="I161">
         <v>2</v>
@@ -18905,7 +18905,7 @@
       </c>
       <c r="H162" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I162">
         <v>2</v>
@@ -18948,7 +18948,7 @@
       </c>
       <c r="H163" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I163">
         <v>2</v>
@@ -18991,7 +18991,7 @@
       </c>
       <c r="H164" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I164">
         <v>4</v>
@@ -19034,7 +19034,7 @@
       </c>
       <c r="H165" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I165">
         <v>10</v>
@@ -19077,7 +19077,7 @@
       </c>
       <c r="H166" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I166">
         <v>2</v>
@@ -19120,7 +19120,7 @@
       </c>
       <c r="H167" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I167">
         <v>2</v>
@@ -19163,7 +19163,7 @@
       </c>
       <c r="H168" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I168">
         <v>2</v>
@@ -19206,7 +19206,7 @@
       </c>
       <c r="H169" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I169">
         <v>2</v>
@@ -19249,7 +19249,7 @@
       </c>
       <c r="H170" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I170">
         <v>2</v>
@@ -19292,7 +19292,7 @@
       </c>
       <c r="H171" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I171">
         <v>2</v>
@@ -19335,7 +19335,7 @@
       </c>
       <c r="H172" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I172">
         <v>2</v>
@@ -19378,7 +19378,7 @@
       </c>
       <c r="H173" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I173">
         <v>2</v>
@@ -19421,7 +19421,7 @@
       </c>
       <c r="H174" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I174">
         <v>6</v>
@@ -19464,7 +19464,7 @@
       </c>
       <c r="H175" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I175">
         <v>2</v>
@@ -19507,7 +19507,7 @@
       </c>
       <c r="H176" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I176">
         <v>2</v>
@@ -19550,7 +19550,7 @@
       </c>
       <c r="H177" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I177">
         <v>6</v>
@@ -19593,7 +19593,7 @@
       </c>
       <c r="H178" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I178">
         <v>2</v>
@@ -19636,7 +19636,7 @@
       </c>
       <c r="H179" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I179">
         <v>6</v>
@@ -19679,7 +19679,7 @@
       </c>
       <c r="H180" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I180">
         <v>6</v>
@@ -19722,7 +19722,7 @@
       </c>
       <c r="H181" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45897</v>
+        <v>45898</v>
       </c>
       <c r="I181">
         <v>2</v>
@@ -19765,7 +19765,7 @@
       </c>
       <c r="H182" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I182">
         <v>10</v>
@@ -19808,7 +19808,7 @@
       </c>
       <c r="H183" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I183">
         <v>2</v>
@@ -19851,7 +19851,7 @@
       </c>
       <c r="H184" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I184">
         <v>2</v>
@@ -19894,7 +19894,7 @@
       </c>
       <c r="H185" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I185">
         <v>2</v>
@@ -19937,7 +19937,7 @@
       </c>
       <c r="H186" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I186">
         <v>2</v>
@@ -19980,7 +19980,7 @@
       </c>
       <c r="H187" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I187">
         <v>14</v>
@@ -20023,7 +20023,7 @@
       </c>
       <c r="H188" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I188">
         <v>2</v>
@@ -20066,7 +20066,7 @@
       </c>
       <c r="H189" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I189">
         <v>12</v>
@@ -20109,7 +20109,7 @@
       </c>
       <c r="H190" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I190">
         <v>4</v>
@@ -20152,7 +20152,7 @@
       </c>
       <c r="H191" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I191">
         <v>16</v>
@@ -20195,7 +20195,7 @@
       </c>
       <c r="H192" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I192">
         <v>2</v>
@@ -20238,7 +20238,7 @@
       </c>
       <c r="H193" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I193">
         <v>2</v>
@@ -20281,7 +20281,7 @@
       </c>
       <c r="H194" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I194">
         <v>8</v>
@@ -20324,7 +20324,7 @@
       </c>
       <c r="H195" s="1">
         <f t="shared" ref="H195:H258" ca="1" si="6">TODAY()+M195</f>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I195">
         <v>12</v>
@@ -20367,7 +20367,7 @@
       </c>
       <c r="H196" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I196">
         <v>4</v>
@@ -20410,7 +20410,7 @@
       </c>
       <c r="H197" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I197">
         <v>8</v>
@@ -20453,7 +20453,7 @@
       </c>
       <c r="H198" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I198">
         <v>2</v>
@@ -20496,7 +20496,7 @@
       </c>
       <c r="H199" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I199">
         <v>4</v>
@@ -20539,7 +20539,7 @@
       </c>
       <c r="H200" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I200">
         <v>2</v>
@@ -20582,7 +20582,7 @@
       </c>
       <c r="H201" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45898</v>
+        <v>45899</v>
       </c>
       <c r="I201">
         <v>2</v>
@@ -20625,7 +20625,7 @@
       </c>
       <c r="H202" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I202">
         <v>2</v>
@@ -20668,7 +20668,7 @@
       </c>
       <c r="H203" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I203">
         <v>4</v>
@@ -20711,7 +20711,7 @@
       </c>
       <c r="H204" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I204">
         <v>2</v>
@@ -20754,7 +20754,7 @@
       </c>
       <c r="H205" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I205">
         <v>8</v>
@@ -20797,7 +20797,7 @@
       </c>
       <c r="H206" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I206">
         <v>12</v>
@@ -20840,7 +20840,7 @@
       </c>
       <c r="H207" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I207">
         <v>8</v>
@@ -20883,7 +20883,7 @@
       </c>
       <c r="H208" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I208">
         <v>4</v>
@@ -20926,7 +20926,7 @@
       </c>
       <c r="H209" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I209">
         <v>4</v>
@@ -20969,7 +20969,7 @@
       </c>
       <c r="H210" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I210">
         <v>2</v>
@@ -21012,7 +21012,7 @@
       </c>
       <c r="H211" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I211">
         <v>12</v>
@@ -21055,7 +21055,7 @@
       </c>
       <c r="H212" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I212">
         <v>8</v>
@@ -21098,7 +21098,7 @@
       </c>
       <c r="H213" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I213">
         <v>4</v>
@@ -21141,7 +21141,7 @@
       </c>
       <c r="H214" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I214">
         <v>2</v>
@@ -21184,7 +21184,7 @@
       </c>
       <c r="H215" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I215">
         <v>12</v>
@@ -21227,7 +21227,7 @@
       </c>
       <c r="H216" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I216">
         <v>2</v>
@@ -21270,7 +21270,7 @@
       </c>
       <c r="H217" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I217">
         <v>2</v>
@@ -21313,7 +21313,7 @@
       </c>
       <c r="H218" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I218">
         <v>2</v>
@@ -21356,7 +21356,7 @@
       </c>
       <c r="H219" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I219">
         <v>4</v>
@@ -21399,7 +21399,7 @@
       </c>
       <c r="H220" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I220">
         <v>2</v>
@@ -21442,7 +21442,7 @@
       </c>
       <c r="H221" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45899</v>
+        <v>45900</v>
       </c>
       <c r="I221">
         <v>8</v>
@@ -21485,7 +21485,7 @@
       </c>
       <c r="H222" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I222">
         <v>10</v>
@@ -21528,7 +21528,7 @@
       </c>
       <c r="H223" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I223">
         <v>12</v>
@@ -21571,7 +21571,7 @@
       </c>
       <c r="H224" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I224">
         <v>2</v>
@@ -21614,7 +21614,7 @@
       </c>
       <c r="H225" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I225">
         <v>8</v>
@@ -21657,7 +21657,7 @@
       </c>
       <c r="H226" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I226">
         <v>4</v>
@@ -21700,7 +21700,7 @@
       </c>
       <c r="H227" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I227">
         <v>12</v>
@@ -21743,7 +21743,7 @@
       </c>
       <c r="H228" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I228">
         <v>4</v>
@@ -21786,7 +21786,7 @@
       </c>
       <c r="H229" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I229">
         <v>8</v>
@@ -21829,7 +21829,7 @@
       </c>
       <c r="H230" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I230">
         <v>6</v>
@@ -21872,7 +21872,7 @@
       </c>
       <c r="H231" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I231">
         <v>12</v>
@@ -21915,7 +21915,7 @@
       </c>
       <c r="H232" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I232">
         <v>2</v>
@@ -21958,7 +21958,7 @@
       </c>
       <c r="H233" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I233">
         <v>6</v>
@@ -22001,7 +22001,7 @@
       </c>
       <c r="H234" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I234">
         <v>2</v>
@@ -22044,7 +22044,7 @@
       </c>
       <c r="H235" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I235">
         <v>2</v>
@@ -22087,7 +22087,7 @@
       </c>
       <c r="H236" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I236">
         <v>2</v>
@@ -22130,7 +22130,7 @@
       </c>
       <c r="H237" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I237">
         <v>2</v>
@@ -22173,7 +22173,7 @@
       </c>
       <c r="H238" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I238">
         <v>10</v>
@@ -22216,7 +22216,7 @@
       </c>
       <c r="H239" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I239">
         <v>4</v>
@@ -22259,7 +22259,7 @@
       </c>
       <c r="H240" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I240">
         <v>2</v>
@@ -22302,7 +22302,7 @@
       </c>
       <c r="H241" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45900</v>
+        <v>45901</v>
       </c>
       <c r="I241">
         <v>4</v>
@@ -22345,7 +22345,7 @@
       </c>
       <c r="H242" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I242">
         <v>2</v>
@@ -22388,7 +22388,7 @@
       </c>
       <c r="H243" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I243">
         <v>2</v>
@@ -22431,7 +22431,7 @@
       </c>
       <c r="H244" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I244">
         <v>2</v>
@@ -22474,7 +22474,7 @@
       </c>
       <c r="H245" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I245">
         <v>4</v>
@@ -22517,7 +22517,7 @@
       </c>
       <c r="H246" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I246">
         <v>4</v>
@@ -22560,7 +22560,7 @@
       </c>
       <c r="H247" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I247">
         <v>4</v>
@@ -22603,7 +22603,7 @@
       </c>
       <c r="H248" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I248">
         <v>2</v>
@@ -22646,7 +22646,7 @@
       </c>
       <c r="H249" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I249">
         <v>12</v>
@@ -22689,7 +22689,7 @@
       </c>
       <c r="H250" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I250">
         <v>10</v>
@@ -22732,7 +22732,7 @@
       </c>
       <c r="H251" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I251">
         <v>4</v>
@@ -22775,7 +22775,7 @@
       </c>
       <c r="H252" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I252">
         <v>8</v>
@@ -22818,7 +22818,7 @@
       </c>
       <c r="H253" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I253">
         <v>2</v>
@@ -22861,7 +22861,7 @@
       </c>
       <c r="H254" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I254">
         <v>8</v>
@@ -22904,7 +22904,7 @@
       </c>
       <c r="H255" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I255">
         <v>6</v>
@@ -22947,7 +22947,7 @@
       </c>
       <c r="H256" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I256">
         <v>2</v>
@@ -22990,7 +22990,7 @@
       </c>
       <c r="H257" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I257">
         <v>10</v>
@@ -23033,7 +23033,7 @@
       </c>
       <c r="H258" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I258">
         <v>2</v>
@@ -23076,7 +23076,7 @@
       </c>
       <c r="H259" s="1">
         <f t="shared" ref="H259:H322" ca="1" si="8">TODAY()+M259</f>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I259">
         <v>6</v>
@@ -23119,7 +23119,7 @@
       </c>
       <c r="H260" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I260">
         <v>6</v>
@@ -23162,7 +23162,7 @@
       </c>
       <c r="H261" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45901</v>
+        <v>45902</v>
       </c>
       <c r="I261">
         <v>12</v>
@@ -23205,7 +23205,7 @@
       </c>
       <c r="H262" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I262">
         <v>4</v>
@@ -23248,7 +23248,7 @@
       </c>
       <c r="H263" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I263">
         <v>12</v>
@@ -23291,7 +23291,7 @@
       </c>
       <c r="H264" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I264">
         <v>12</v>
@@ -23334,7 +23334,7 @@
       </c>
       <c r="H265" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I265">
         <v>6</v>
@@ -23377,7 +23377,7 @@
       </c>
       <c r="H266" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I266">
         <v>6</v>
@@ -23420,7 +23420,7 @@
       </c>
       <c r="H267" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I267">
         <v>10</v>
@@ -23463,7 +23463,7 @@
       </c>
       <c r="H268" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I268">
         <v>2</v>
@@ -23506,7 +23506,7 @@
       </c>
       <c r="H269" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I269">
         <v>2</v>
@@ -23549,7 +23549,7 @@
       </c>
       <c r="H270" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I270">
         <v>10</v>
@@ -23592,7 +23592,7 @@
       </c>
       <c r="H271" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I271">
         <v>8</v>
@@ -23635,7 +23635,7 @@
       </c>
       <c r="H272" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I272">
         <v>2</v>
@@ -23678,7 +23678,7 @@
       </c>
       <c r="H273" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I273">
         <v>2</v>
@@ -23721,7 +23721,7 @@
       </c>
       <c r="H274" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I274">
         <v>2</v>
@@ -23764,7 +23764,7 @@
       </c>
       <c r="H275" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I275">
         <v>6</v>
@@ -23807,7 +23807,7 @@
       </c>
       <c r="H276" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I276">
         <v>2</v>
@@ -23850,7 +23850,7 @@
       </c>
       <c r="H277" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I277">
         <v>2</v>
@@ -23893,7 +23893,7 @@
       </c>
       <c r="H278" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I278">
         <v>2</v>
@@ -23936,7 +23936,7 @@
       </c>
       <c r="H279" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I279">
         <v>14</v>
@@ -23979,7 +23979,7 @@
       </c>
       <c r="H280" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I280">
         <v>8</v>
@@ -24022,7 +24022,7 @@
       </c>
       <c r="H281" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="I281">
         <v>2</v>
@@ -24065,7 +24065,7 @@
       </c>
       <c r="H282" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I282">
         <v>12</v>
@@ -24108,7 +24108,7 @@
       </c>
       <c r="H283" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I283">
         <v>2</v>
@@ -24151,7 +24151,7 @@
       </c>
       <c r="H284" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I284">
         <v>2</v>
@@ -24194,7 +24194,7 @@
       </c>
       <c r="H285" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I285">
         <v>2</v>
@@ -24237,7 +24237,7 @@
       </c>
       <c r="H286" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I286">
         <v>2</v>
@@ -24280,7 +24280,7 @@
       </c>
       <c r="H287" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I287">
         <v>2</v>
@@ -24323,7 +24323,7 @@
       </c>
       <c r="H288" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I288">
         <v>2</v>
@@ -24366,7 +24366,7 @@
       </c>
       <c r="H289" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I289">
         <v>16</v>
@@ -24409,7 +24409,7 @@
       </c>
       <c r="H290" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I290">
         <v>2</v>
@@ -24452,7 +24452,7 @@
       </c>
       <c r="H291" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I291">
         <v>2</v>
@@ -24495,7 +24495,7 @@
       </c>
       <c r="H292" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I292">
         <v>8</v>
@@ -24538,7 +24538,7 @@
       </c>
       <c r="H293" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I293">
         <v>2</v>
@@ -24581,7 +24581,7 @@
       </c>
       <c r="H294" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I294">
         <v>12</v>
@@ -24624,7 +24624,7 @@
       </c>
       <c r="H295" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I295">
         <v>4</v>
@@ -24667,7 +24667,7 @@
       </c>
       <c r="H296" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I296">
         <v>6</v>
@@ -24710,7 +24710,7 @@
       </c>
       <c r="H297" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I297">
         <v>4</v>
@@ -24753,7 +24753,7 @@
       </c>
       <c r="H298" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I298">
         <v>2</v>
@@ -24796,7 +24796,7 @@
       </c>
       <c r="H299" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I299">
         <v>2</v>
@@ -24839,7 +24839,7 @@
       </c>
       <c r="H300" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I300">
         <v>4</v>
@@ -24882,7 +24882,7 @@
       </c>
       <c r="H301" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="I301">
         <v>2</v>
@@ -24925,7 +24925,7 @@
       </c>
       <c r="H302" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I302">
         <v>2</v>
@@ -24968,7 +24968,7 @@
       </c>
       <c r="H303" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I303">
         <v>16</v>
@@ -25011,7 +25011,7 @@
       </c>
       <c r="H304" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I304">
         <v>2</v>
@@ -25054,7 +25054,7 @@
       </c>
       <c r="H305" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I305">
         <v>2</v>
@@ -25097,7 +25097,7 @@
       </c>
       <c r="H306" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I306">
         <v>10</v>
@@ -25140,7 +25140,7 @@
       </c>
       <c r="H307" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I307">
         <v>2</v>
@@ -25183,7 +25183,7 @@
       </c>
       <c r="H308" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I308">
         <v>2</v>
@@ -25226,7 +25226,7 @@
       </c>
       <c r="H309" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I309">
         <v>14</v>
@@ -25269,7 +25269,7 @@
       </c>
       <c r="H310" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I310">
         <v>18</v>
@@ -25312,7 +25312,7 @@
       </c>
       <c r="H311" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I311">
         <v>2</v>
@@ -25355,7 +25355,7 @@
       </c>
       <c r="H312" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I312">
         <v>8</v>
@@ -25398,7 +25398,7 @@
       </c>
       <c r="H313" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I313">
         <v>2</v>
@@ -25441,7 +25441,7 @@
       </c>
       <c r="H314" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I314">
         <v>8</v>
@@ -25484,7 +25484,7 @@
       </c>
       <c r="H315" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I315">
         <v>2</v>
@@ -25527,7 +25527,7 @@
       </c>
       <c r="H316" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I316">
         <v>2</v>
@@ -25570,7 +25570,7 @@
       </c>
       <c r="H317" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I317">
         <v>12</v>
@@ -25613,7 +25613,7 @@
       </c>
       <c r="H318" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I318">
         <v>2</v>
@@ -25656,7 +25656,7 @@
       </c>
       <c r="H319" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I319">
         <v>8</v>
@@ -25699,7 +25699,7 @@
       </c>
       <c r="H320" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I320">
         <v>6</v>
@@ -25742,7 +25742,7 @@
       </c>
       <c r="H321" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45904</v>
+        <v>45905</v>
       </c>
       <c r="I321">
         <v>6</v>
@@ -25785,7 +25785,7 @@
       </c>
       <c r="H322" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I322">
         <v>2</v>
@@ -25828,7 +25828,7 @@
       </c>
       <c r="H323" s="1">
         <f t="shared" ref="H323:H386" ca="1" si="10">TODAY()+M323</f>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I323">
         <v>4</v>
@@ -25871,7 +25871,7 @@
       </c>
       <c r="H324" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I324">
         <v>10</v>
@@ -25914,7 +25914,7 @@
       </c>
       <c r="H325" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I325">
         <v>2</v>
@@ -25957,7 +25957,7 @@
       </c>
       <c r="H326" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I326">
         <v>12</v>
@@ -26000,7 +26000,7 @@
       </c>
       <c r="H327" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I327">
         <v>8</v>
@@ -26043,7 +26043,7 @@
       </c>
       <c r="H328" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I328">
         <v>2</v>
@@ -26086,7 +26086,7 @@
       </c>
       <c r="H329" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I329">
         <v>8</v>
@@ -26129,7 +26129,7 @@
       </c>
       <c r="H330" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I330">
         <v>2</v>
@@ -26172,7 +26172,7 @@
       </c>
       <c r="H331" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I331">
         <v>2</v>
@@ -26215,7 +26215,7 @@
       </c>
       <c r="H332" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I332">
         <v>4</v>
@@ -26258,7 +26258,7 @@
       </c>
       <c r="H333" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I333">
         <v>10</v>
@@ -26301,7 +26301,7 @@
       </c>
       <c r="H334" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I334">
         <v>2</v>
@@ -26344,7 +26344,7 @@
       </c>
       <c r="H335" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I335">
         <v>12</v>
@@ -26387,7 +26387,7 @@
       </c>
       <c r="H336" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I336">
         <v>4</v>
@@ -26430,7 +26430,7 @@
       </c>
       <c r="H337" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I337">
         <v>4</v>
@@ -26473,7 +26473,7 @@
       </c>
       <c r="H338" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I338">
         <v>8</v>
@@ -26516,7 +26516,7 @@
       </c>
       <c r="H339" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I339">
         <v>4</v>
@@ -26559,7 +26559,7 @@
       </c>
       <c r="H340" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I340">
         <v>6</v>
@@ -26602,7 +26602,7 @@
       </c>
       <c r="H341" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45905</v>
+        <v>45906</v>
       </c>
       <c r="I341">
         <v>8</v>
@@ -26645,7 +26645,7 @@
       </c>
       <c r="H342" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I342">
         <v>6</v>
@@ -26688,7 +26688,7 @@
       </c>
       <c r="H343" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I343">
         <v>10</v>
@@ -26731,7 +26731,7 @@
       </c>
       <c r="H344" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I344">
         <v>2</v>
@@ -26774,7 +26774,7 @@
       </c>
       <c r="H345" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I345">
         <v>8</v>
@@ -26817,7 +26817,7 @@
       </c>
       <c r="H346" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I346">
         <v>4</v>
@@ -26860,7 +26860,7 @@
       </c>
       <c r="H347" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I347">
         <v>10</v>
@@ -26903,7 +26903,7 @@
       </c>
       <c r="H348" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I348">
         <v>2</v>
@@ -26946,7 +26946,7 @@
       </c>
       <c r="H349" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I349">
         <v>2</v>
@@ -26989,7 +26989,7 @@
       </c>
       <c r="H350" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I350">
         <v>2</v>
@@ -27032,7 +27032,7 @@
       </c>
       <c r="H351" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I351">
         <v>4</v>
@@ -27075,7 +27075,7 @@
       </c>
       <c r="H352" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I352">
         <v>2</v>
@@ -27118,7 +27118,7 @@
       </c>
       <c r="H353" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I353">
         <v>4</v>
@@ -27161,7 +27161,7 @@
       </c>
       <c r="H354" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I354">
         <v>14</v>
@@ -27204,7 +27204,7 @@
       </c>
       <c r="H355" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I355">
         <v>2</v>
@@ -27247,7 +27247,7 @@
       </c>
       <c r="H356" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I356">
         <v>2</v>
@@ -27290,7 +27290,7 @@
       </c>
       <c r="H357" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I357">
         <v>2</v>
@@ -27333,7 +27333,7 @@
       </c>
       <c r="H358" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I358">
         <v>2</v>
@@ -27376,7 +27376,7 @@
       </c>
       <c r="H359" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I359">
         <v>2</v>
@@ -27419,7 +27419,7 @@
       </c>
       <c r="H360" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I360">
         <v>2</v>
@@ -27462,7 +27462,7 @@
       </c>
       <c r="H361" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45906</v>
+        <v>45907</v>
       </c>
       <c r="I361">
         <v>2</v>
@@ -27505,7 +27505,7 @@
       </c>
       <c r="H362" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I362">
         <v>2</v>
@@ -27548,7 +27548,7 @@
       </c>
       <c r="H363" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I363">
         <v>2</v>
@@ -27591,7 +27591,7 @@
       </c>
       <c r="H364" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I364">
         <v>12</v>
@@ -27634,7 +27634,7 @@
       </c>
       <c r="H365" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I365">
         <v>6</v>
@@ -27677,7 +27677,7 @@
       </c>
       <c r="H366" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I366">
         <v>8</v>
@@ -27720,7 +27720,7 @@
       </c>
       <c r="H367" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I367">
         <v>12</v>
@@ -27763,7 +27763,7 @@
       </c>
       <c r="H368" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I368">
         <v>2</v>
@@ -27806,7 +27806,7 @@
       </c>
       <c r="H369" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I369">
         <v>2</v>
@@ -27849,7 +27849,7 @@
       </c>
       <c r="H370" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I370">
         <v>2</v>
@@ -27892,7 +27892,7 @@
       </c>
       <c r="H371" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I371">
         <v>4</v>
@@ -27935,7 +27935,7 @@
       </c>
       <c r="H372" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I372">
         <v>8</v>
@@ -27978,7 +27978,7 @@
       </c>
       <c r="H373" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I373">
         <v>2</v>
@@ -28021,7 +28021,7 @@
       </c>
       <c r="H374" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I374">
         <v>12</v>
@@ -28064,7 +28064,7 @@
       </c>
       <c r="H375" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I375">
         <v>12</v>
@@ -28107,7 +28107,7 @@
       </c>
       <c r="H376" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I376">
         <v>2</v>
@@ -28150,7 +28150,7 @@
       </c>
       <c r="H377" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I377">
         <v>16</v>
@@ -28193,7 +28193,7 @@
       </c>
       <c r="H378" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I378">
         <v>2</v>
@@ -28236,7 +28236,7 @@
       </c>
       <c r="H379" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I379">
         <v>2</v>
@@ -28279,7 +28279,7 @@
       </c>
       <c r="H380" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I380">
         <v>2</v>
@@ -28322,7 +28322,7 @@
       </c>
       <c r="H381" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45907</v>
+        <v>45908</v>
       </c>
       <c r="I381">
         <v>2</v>
@@ -28365,7 +28365,7 @@
       </c>
       <c r="H382" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I382">
         <v>18</v>
@@ -28408,7 +28408,7 @@
       </c>
       <c r="H383" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I383">
         <v>2</v>
@@ -28451,7 +28451,7 @@
       </c>
       <c r="H384" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I384">
         <v>2</v>
@@ -28494,7 +28494,7 @@
       </c>
       <c r="H385" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I385">
         <v>2</v>
@@ -28537,7 +28537,7 @@
       </c>
       <c r="H386" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I386">
         <v>2</v>
@@ -28580,7 +28580,7 @@
       </c>
       <c r="H387" s="1">
         <f t="shared" ref="H387:H449" ca="1" si="12">TODAY()+M387</f>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I387">
         <v>8</v>
@@ -28623,7 +28623,7 @@
       </c>
       <c r="H388" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I388">
         <v>16</v>
@@ -28666,7 +28666,7 @@
       </c>
       <c r="H389" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I389">
         <v>16</v>
@@ -28709,7 +28709,7 @@
       </c>
       <c r="H390" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I390">
         <v>4</v>
@@ -28752,7 +28752,7 @@
       </c>
       <c r="H391" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I391">
         <v>2</v>
@@ -28795,7 +28795,7 @@
       </c>
       <c r="H392" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I392">
         <v>12</v>
@@ -28838,7 +28838,7 @@
       </c>
       <c r="H393" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I393">
         <v>8</v>
@@ -28881,7 +28881,7 @@
       </c>
       <c r="H394" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I394">
         <v>2</v>
@@ -28924,7 +28924,7 @@
       </c>
       <c r="H395" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I395">
         <v>2</v>
@@ -28967,7 +28967,7 @@
       </c>
       <c r="H396" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I396">
         <v>12</v>
@@ -29010,7 +29010,7 @@
       </c>
       <c r="H397" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I397">
         <v>2</v>
@@ -29053,7 +29053,7 @@
       </c>
       <c r="H398" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I398">
         <v>2</v>
@@ -29096,7 +29096,7 @@
       </c>
       <c r="H399" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I399">
         <v>12</v>
@@ -29139,7 +29139,7 @@
       </c>
       <c r="H400" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I400">
         <v>14</v>
@@ -29182,7 +29182,7 @@
       </c>
       <c r="H401" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="I401">
         <v>2</v>
@@ -29225,7 +29225,7 @@
       </c>
       <c r="H402" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I402">
         <v>2</v>
@@ -29268,7 +29268,7 @@
       </c>
       <c r="H403" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I403">
         <v>4</v>
@@ -29311,7 +29311,7 @@
       </c>
       <c r="H404" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I404">
         <v>12</v>
@@ -29354,7 +29354,7 @@
       </c>
       <c r="H405" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I405">
         <v>10</v>
@@ -29397,7 +29397,7 @@
       </c>
       <c r="H406" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I406">
         <v>2</v>
@@ -29440,7 +29440,7 @@
       </c>
       <c r="H407" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I407">
         <v>2</v>
@@ -29483,7 +29483,7 @@
       </c>
       <c r="H408" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I408">
         <v>2</v>
@@ -29526,7 +29526,7 @@
       </c>
       <c r="H409" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I409">
         <v>12</v>
@@ -29569,7 +29569,7 @@
       </c>
       <c r="H410" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I410">
         <v>2</v>
@@ -29612,7 +29612,7 @@
       </c>
       <c r="H411" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I411">
         <v>4</v>
@@ -29655,7 +29655,7 @@
       </c>
       <c r="H412" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I412">
         <v>4</v>
@@ -29698,7 +29698,7 @@
       </c>
       <c r="H413" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I413">
         <v>2</v>
@@ -29741,7 +29741,7 @@
       </c>
       <c r="H414" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I414">
         <v>4</v>
@@ -29784,7 +29784,7 @@
       </c>
       <c r="H415" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I415">
         <v>12</v>
@@ -29827,7 +29827,7 @@
       </c>
       <c r="H416" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I416">
         <v>12</v>
@@ -29870,7 +29870,7 @@
       </c>
       <c r="H417" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I417">
         <v>4</v>
@@ -29913,7 +29913,7 @@
       </c>
       <c r="H418" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I418">
         <v>14</v>
@@ -29956,7 +29956,7 @@
       </c>
       <c r="H419" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I419">
         <v>2</v>
@@ -29999,7 +29999,7 @@
       </c>
       <c r="H420" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45909</v>
+        <v>45910</v>
       </c>
       <c r="I420">
         <v>10</v>
@@ -30042,7 +30042,7 @@
       </c>
       <c r="H421" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I421">
         <v>10</v>
@@ -30085,7 +30085,7 @@
       </c>
       <c r="H422" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I422">
         <v>2</v>
@@ -30128,7 +30128,7 @@
       </c>
       <c r="H423" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I423">
         <v>10</v>
@@ -30171,7 +30171,7 @@
       </c>
       <c r="H424" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I424">
         <v>4</v>
@@ -30214,7 +30214,7 @@
       </c>
       <c r="H425" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I425">
         <v>2</v>
@@ -30257,7 +30257,7 @@
       </c>
       <c r="H426" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I426">
         <v>12</v>
@@ -30300,7 +30300,7 @@
       </c>
       <c r="H427" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I427">
         <v>2</v>
@@ -30343,7 +30343,7 @@
       </c>
       <c r="H428" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I428">
         <v>4</v>
@@ -30386,7 +30386,7 @@
       </c>
       <c r="H429" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I429">
         <v>8</v>
@@ -30429,7 +30429,7 @@
       </c>
       <c r="H430" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I430">
         <v>6</v>
@@ -30472,7 +30472,7 @@
       </c>
       <c r="H431" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I431">
         <v>2</v>
@@ -30515,7 +30515,7 @@
       </c>
       <c r="H432" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I432">
         <v>6</v>
@@ -30558,7 +30558,7 @@
       </c>
       <c r="H433" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I433">
         <v>2</v>
@@ -30601,7 +30601,7 @@
       </c>
       <c r="H434" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I434">
         <v>2</v>
@@ -30644,7 +30644,7 @@
       </c>
       <c r="H435" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I435">
         <v>4</v>
@@ -30687,7 +30687,7 @@
       </c>
       <c r="H436" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I436">
         <v>2</v>
@@ -30730,7 +30730,7 @@
       </c>
       <c r="H437" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I437">
         <v>8</v>
@@ -30773,7 +30773,7 @@
       </c>
       <c r="H438" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I438">
         <v>8</v>
@@ -30816,7 +30816,7 @@
       </c>
       <c r="H439" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I439">
         <v>6</v>
@@ -30859,7 +30859,7 @@
       </c>
       <c r="H440" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45910</v>
+        <v>45911</v>
       </c>
       <c r="I440">
         <v>6</v>
@@ -30902,7 +30902,7 @@
       </c>
       <c r="H441" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I441">
         <v>2</v>
@@ -30945,7 +30945,7 @@
       </c>
       <c r="H442" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I442">
         <v>2</v>
@@ -30988,7 +30988,7 @@
       </c>
       <c r="H443" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I443">
         <v>4</v>
@@ -31031,7 +31031,7 @@
       </c>
       <c r="H444" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I444">
         <v>10</v>
@@ -31074,7 +31074,7 @@
       </c>
       <c r="H445" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I445">
         <v>2</v>
@@ -31117,7 +31117,7 @@
       </c>
       <c r="H446" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I446">
         <v>2</v>
@@ -31160,7 +31160,7 @@
       </c>
       <c r="H447" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I447">
         <v>6</v>
@@ -31203,7 +31203,7 @@
       </c>
       <c r="H448" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I448">
         <v>8</v>
@@ -31246,7 +31246,7 @@
       </c>
       <c r="H449" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I449">
         <v>8</v>
@@ -31289,7 +31289,7 @@
       </c>
       <c r="H450" s="1">
         <f t="shared" ref="H450:H513" ca="1" si="14">TODAY()+M450</f>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I450">
         <v>8</v>
@@ -31332,7 +31332,7 @@
       </c>
       <c r="H451" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I451">
         <v>4</v>
@@ -31375,7 +31375,7 @@
       </c>
       <c r="H452" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I452">
         <v>2</v>
@@ -31418,7 +31418,7 @@
       </c>
       <c r="H453" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I453">
         <v>2</v>
@@ -31461,7 +31461,7 @@
       </c>
       <c r="H454" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I454">
         <v>18</v>
@@ -31504,7 +31504,7 @@
       </c>
       <c r="H455" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I455">
         <v>4</v>
@@ -31547,7 +31547,7 @@
       </c>
       <c r="H456" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I456">
         <v>2</v>
@@ -31590,7 +31590,7 @@
       </c>
       <c r="H457" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I457">
         <v>2</v>
@@ -31633,7 +31633,7 @@
       </c>
       <c r="H458" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I458">
         <v>8</v>
@@ -31676,7 +31676,7 @@
       </c>
       <c r="H459" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I459">
         <v>2</v>
@@ -31719,7 +31719,7 @@
       </c>
       <c r="H460" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45911</v>
+        <v>45912</v>
       </c>
       <c r="I460">
         <v>2</v>
@@ -31762,7 +31762,7 @@
       </c>
       <c r="H461" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I461">
         <v>10</v>
@@ -31805,7 +31805,7 @@
       </c>
       <c r="H462" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I462">
         <v>12</v>
@@ -31848,7 +31848,7 @@
       </c>
       <c r="H463" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I463">
         <v>2</v>
@@ -31891,7 +31891,7 @@
       </c>
       <c r="H464" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I464">
         <v>4</v>
@@ -31934,7 +31934,7 @@
       </c>
       <c r="H465" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I465">
         <v>2</v>
@@ -31977,7 +31977,7 @@
       </c>
       <c r="H466" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I466">
         <v>4</v>
@@ -32020,7 +32020,7 @@
       </c>
       <c r="H467" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I467">
         <v>12</v>
@@ -32063,7 +32063,7 @@
       </c>
       <c r="H468" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I468">
         <v>4</v>
@@ -32106,7 +32106,7 @@
       </c>
       <c r="H469" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I469">
         <v>12</v>
@@ -32149,7 +32149,7 @@
       </c>
       <c r="H470" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I470">
         <v>2</v>
@@ -32192,7 +32192,7 @@
       </c>
       <c r="H471" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I471">
         <v>10</v>
@@ -32235,7 +32235,7 @@
       </c>
       <c r="H472" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I472">
         <v>2</v>
@@ -32278,7 +32278,7 @@
       </c>
       <c r="H473" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I473">
         <v>2</v>
@@ -32321,7 +32321,7 @@
       </c>
       <c r="H474" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I474">
         <v>14</v>
@@ -32364,7 +32364,7 @@
       </c>
       <c r="H475" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I475">
         <v>2</v>
@@ -32407,7 +32407,7 @@
       </c>
       <c r="H476" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I476">
         <v>2</v>
@@ -32450,7 +32450,7 @@
       </c>
       <c r="H477" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I477">
         <v>12</v>
@@ -32493,7 +32493,7 @@
       </c>
       <c r="H478" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I478">
         <v>2</v>
@@ -32536,7 +32536,7 @@
       </c>
       <c r="H479" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I479">
         <v>12</v>
@@ -32579,7 +32579,7 @@
       </c>
       <c r="H480" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45912</v>
+        <v>45913</v>
       </c>
       <c r="I480">
         <v>2</v>
@@ -32622,7 +32622,7 @@
       </c>
       <c r="H481" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I481">
         <v>2</v>
@@ -32665,7 +32665,7 @@
       </c>
       <c r="H482" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I482">
         <v>4</v>
@@ -32708,7 +32708,7 @@
       </c>
       <c r="H483" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I483">
         <v>12</v>
@@ -32751,7 +32751,7 @@
       </c>
       <c r="H484" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I484">
         <v>10</v>
@@ -32794,7 +32794,7 @@
       </c>
       <c r="H485" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I485">
         <v>2</v>
@@ -32837,7 +32837,7 @@
       </c>
       <c r="H486" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I486">
         <v>8</v>
@@ -32880,7 +32880,7 @@
       </c>
       <c r="H487" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I487">
         <v>2</v>
@@ -32923,7 +32923,7 @@
       </c>
       <c r="H488" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I488">
         <v>14</v>
@@ -32966,7 +32966,7 @@
       </c>
       <c r="H489" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I489">
         <v>2</v>
@@ -33009,7 +33009,7 @@
       </c>
       <c r="H490" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I490">
         <v>2</v>
@@ -33052,7 +33052,7 @@
       </c>
       <c r="H491" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I491">
         <v>12</v>
@@ -33095,7 +33095,7 @@
       </c>
       <c r="H492" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I492">
         <v>2</v>
@@ -33138,7 +33138,7 @@
       </c>
       <c r="H493" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I493">
         <v>4</v>
@@ -33181,7 +33181,7 @@
       </c>
       <c r="H494" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I494">
         <v>2</v>
@@ -33224,7 +33224,7 @@
       </c>
       <c r="H495" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I495">
         <v>10</v>
@@ -33267,7 +33267,7 @@
       </c>
       <c r="H496" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I496">
         <v>2</v>
@@ -33310,7 +33310,7 @@
       </c>
       <c r="H497" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I497">
         <v>2</v>
@@ -33353,7 +33353,7 @@
       </c>
       <c r="H498" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I498">
         <v>10</v>
@@ -33396,7 +33396,7 @@
       </c>
       <c r="H499" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I499">
         <v>12</v>
@@ -33439,7 +33439,7 @@
       </c>
       <c r="H500" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45913</v>
+        <v>45914</v>
       </c>
       <c r="I500">
         <v>2</v>
@@ -33482,7 +33482,7 @@
       </c>
       <c r="H501" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I501">
         <v>12</v>
@@ -33525,7 +33525,7 @@
       </c>
       <c r="H502" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I502">
         <v>2</v>
@@ -33568,7 +33568,7 @@
       </c>
       <c r="H503" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I503">
         <v>2</v>
@@ -33611,7 +33611,7 @@
       </c>
       <c r="H504" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I504">
         <v>2</v>
@@ -33654,7 +33654,7 @@
       </c>
       <c r="H505" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I505">
         <v>6</v>
@@ -33697,7 +33697,7 @@
       </c>
       <c r="H506" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I506">
         <v>4</v>
@@ -33740,7 +33740,7 @@
       </c>
       <c r="H507" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I507">
         <v>8</v>
@@ -33783,7 +33783,7 @@
       </c>
       <c r="H508" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I508">
         <v>6</v>
@@ -33826,7 +33826,7 @@
       </c>
       <c r="H509" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I509">
         <v>4</v>
@@ -33869,7 +33869,7 @@
       </c>
       <c r="H510" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I510">
         <v>6</v>
@@ -33912,7 +33912,7 @@
       </c>
       <c r="H511" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I511">
         <v>12</v>
@@ -33955,7 +33955,7 @@
       </c>
       <c r="H512" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I512">
         <v>2</v>
@@ -33998,7 +33998,7 @@
       </c>
       <c r="H513" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I513">
         <v>14</v>
@@ -34041,7 +34041,7 @@
       </c>
       <c r="H514" s="1">
         <f t="shared" ref="H514:H577" ca="1" si="16">TODAY()+M514</f>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I514">
         <v>2</v>
@@ -34084,7 +34084,7 @@
       </c>
       <c r="H515" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I515">
         <v>12</v>
@@ -34127,7 +34127,7 @@
       </c>
       <c r="H516" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I516">
         <v>4</v>
@@ -34170,7 +34170,7 @@
       </c>
       <c r="H517" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I517">
         <v>2</v>
@@ -34213,7 +34213,7 @@
       </c>
       <c r="H518" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I518">
         <v>16</v>
@@ -34256,7 +34256,7 @@
       </c>
       <c r="H519" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I519">
         <v>2</v>
@@ -34299,7 +34299,7 @@
       </c>
       <c r="H520" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45914</v>
+        <v>45915</v>
       </c>
       <c r="I520">
         <v>2</v>
@@ -34342,7 +34342,7 @@
       </c>
       <c r="H521" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I521">
         <v>8</v>
@@ -34385,7 +34385,7 @@
       </c>
       <c r="H522" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I522">
         <v>4</v>
@@ -34428,7 +34428,7 @@
       </c>
       <c r="H523" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I523">
         <v>2</v>
@@ -34471,7 +34471,7 @@
       </c>
       <c r="H524" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I524">
         <v>2</v>
@@ -34514,7 +34514,7 @@
       </c>
       <c r="H525" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I525">
         <v>12</v>
@@ -34557,7 +34557,7 @@
       </c>
       <c r="H526" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I526">
         <v>6</v>
@@ -34600,7 +34600,7 @@
       </c>
       <c r="H527" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I527">
         <v>2</v>
@@ -34643,7 +34643,7 @@
       </c>
       <c r="H528" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I528">
         <v>8</v>
@@ -34686,7 +34686,7 @@
       </c>
       <c r="H529" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I529">
         <v>2</v>
@@ -34729,7 +34729,7 @@
       </c>
       <c r="H530" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I530">
         <v>4</v>
@@ -34772,7 +34772,7 @@
       </c>
       <c r="H531" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I531">
         <v>2</v>
@@ -34815,7 +34815,7 @@
       </c>
       <c r="H532" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I532">
         <v>12</v>
@@ -34858,7 +34858,7 @@
       </c>
       <c r="H533" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I533">
         <v>2</v>
@@ -34901,7 +34901,7 @@
       </c>
       <c r="H534" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I534">
         <v>6</v>
@@ -34944,7 +34944,7 @@
       </c>
       <c r="H535" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I535">
         <v>4</v>
@@ -34987,7 +34987,7 @@
       </c>
       <c r="H536" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I536">
         <v>2</v>
@@ -35030,7 +35030,7 @@
       </c>
       <c r="H537" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I537">
         <v>4</v>
@@ -35073,7 +35073,7 @@
       </c>
       <c r="H538" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I538">
         <v>20</v>
@@ -35116,7 +35116,7 @@
       </c>
       <c r="H539" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I539">
         <v>2</v>
@@ -35159,7 +35159,7 @@
       </c>
       <c r="H540" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45915</v>
+        <v>45916</v>
       </c>
       <c r="I540">
         <v>6</v>
@@ -35202,7 +35202,7 @@
       </c>
       <c r="H541" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I541">
         <v>4</v>
@@ -35245,7 +35245,7 @@
       </c>
       <c r="H542" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I542">
         <v>4</v>
@@ -35288,7 +35288,7 @@
       </c>
       <c r="H543" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I543">
         <v>2</v>
@@ -35331,7 +35331,7 @@
       </c>
       <c r="H544" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I544">
         <v>2</v>
@@ -35374,7 +35374,7 @@
       </c>
       <c r="H545" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I545">
         <v>2</v>
@@ -35417,7 +35417,7 @@
       </c>
       <c r="H546" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I546">
         <v>8</v>
@@ -35460,7 +35460,7 @@
       </c>
       <c r="H547" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I547">
         <v>8</v>
@@ -35503,7 +35503,7 @@
       </c>
       <c r="H548" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I548">
         <v>2</v>
@@ -35546,7 +35546,7 @@
       </c>
       <c r="H549" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I549">
         <v>2</v>
@@ -35589,7 +35589,7 @@
       </c>
       <c r="H550" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I550">
         <v>8</v>
@@ -35632,7 +35632,7 @@
       </c>
       <c r="H551" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I551">
         <v>2</v>
@@ -35675,7 +35675,7 @@
       </c>
       <c r="H552" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I552">
         <v>12</v>
@@ -35718,7 +35718,7 @@
       </c>
       <c r="H553" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I553">
         <v>4</v>
@@ -35761,7 +35761,7 @@
       </c>
       <c r="H554" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I554">
         <v>6</v>
@@ -35804,7 +35804,7 @@
       </c>
       <c r="H555" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I555">
         <v>8</v>
@@ -35847,7 +35847,7 @@
       </c>
       <c r="H556" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I556">
         <v>2</v>
@@ -35890,7 +35890,7 @@
       </c>
       <c r="H557" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I557">
         <v>2</v>
@@ -35933,7 +35933,7 @@
       </c>
       <c r="H558" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I558">
         <v>4</v>
@@ -35976,7 +35976,7 @@
       </c>
       <c r="H559" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I559">
         <v>2</v>
@@ -36019,7 +36019,7 @@
       </c>
       <c r="H560" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45916</v>
+        <v>45917</v>
       </c>
       <c r="I560">
         <v>8</v>
@@ -36062,7 +36062,7 @@
       </c>
       <c r="H561" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I561">
         <v>4</v>
@@ -36105,7 +36105,7 @@
       </c>
       <c r="H562" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I562">
         <v>2</v>
@@ -36148,7 +36148,7 @@
       </c>
       <c r="H563" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I563">
         <v>2</v>
@@ -36191,7 +36191,7 @@
       </c>
       <c r="H564" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I564">
         <v>2</v>
@@ -36234,7 +36234,7 @@
       </c>
       <c r="H565" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I565">
         <v>2</v>
@@ -36277,7 +36277,7 @@
       </c>
       <c r="H566" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I566">
         <v>10</v>
@@ -36320,7 +36320,7 @@
       </c>
       <c r="H567" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I567">
         <v>2</v>
@@ -36363,7 +36363,7 @@
       </c>
       <c r="H568" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I568">
         <v>16</v>
@@ -36406,7 +36406,7 @@
       </c>
       <c r="H569" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I569">
         <v>4</v>
@@ -36449,7 +36449,7 @@
       </c>
       <c r="H570" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I570">
         <v>4</v>
@@ -36492,7 +36492,7 @@
       </c>
       <c r="H571" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I571">
         <v>8</v>
@@ -36535,7 +36535,7 @@
       </c>
       <c r="H572" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I572">
         <v>2</v>
@@ -36578,7 +36578,7 @@
       </c>
       <c r="H573" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I573">
         <v>12</v>
@@ -36621,7 +36621,7 @@
       </c>
       <c r="H574" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I574">
         <v>2</v>
@@ -36664,7 +36664,7 @@
       </c>
       <c r="H575" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I575">
         <v>12</v>
@@ -36707,7 +36707,7 @@
       </c>
       <c r="H576" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I576">
         <v>16</v>
@@ -36750,7 +36750,7 @@
       </c>
       <c r="H577" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I577">
         <v>2</v>
@@ -36793,7 +36793,7 @@
       </c>
       <c r="H578" s="1">
         <f t="shared" ref="H578:H596" ca="1" si="18">TODAY()+M578</f>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I578">
         <v>2</v>
@@ -36836,7 +36836,7 @@
       </c>
       <c r="H579" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I579">
         <v>2</v>
@@ -36879,7 +36879,7 @@
       </c>
       <c r="H580" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45917</v>
+        <v>45918</v>
       </c>
       <c r="I580">
         <v>12</v>
@@ -36922,7 +36922,7 @@
       </c>
       <c r="H581" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I581">
         <v>12</v>
@@ -36965,7 +36965,7 @@
       </c>
       <c r="H582" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I582">
         <v>2</v>
@@ -37008,7 +37008,7 @@
       </c>
       <c r="H583" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I583">
         <v>4</v>
@@ -37051,7 +37051,7 @@
       </c>
       <c r="H584" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I584">
         <v>6</v>
@@ -37094,7 +37094,7 @@
       </c>
       <c r="H585" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I585">
         <v>4</v>
@@ -37137,7 +37137,7 @@
       </c>
       <c r="H586" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I586">
         <v>2</v>
@@ -37180,7 +37180,7 @@
       </c>
       <c r="H587" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I587">
         <v>2</v>
@@ -37223,7 +37223,7 @@
       </c>
       <c r="H588" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I588">
         <v>12</v>
@@ -37266,7 +37266,7 @@
       </c>
       <c r="H589" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I589">
         <v>8</v>
@@ -37309,7 +37309,7 @@
       </c>
       <c r="H590" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I590">
         <v>2</v>
@@ -37352,7 +37352,7 @@
       </c>
       <c r="H591" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I591">
         <v>2</v>
@@ -37395,7 +37395,7 @@
       </c>
       <c r="H592" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I592">
         <v>2</v>
@@ -37438,7 +37438,7 @@
       </c>
       <c r="H593" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I593">
         <v>2</v>
@@ -37481,7 +37481,7 @@
       </c>
       <c r="H594" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I594">
         <v>12</v>
@@ -37524,7 +37524,7 @@
       </c>
       <c r="H595" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I595">
         <v>6</v>
@@ -37567,7 +37567,7 @@
       </c>
       <c r="H596" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>45918</v>
+        <v>45919</v>
       </c>
       <c r="I596">
         <v>4</v>
